--- a/ofc/estimates/lakilla mandir/lakilla mandir.xlsx
+++ b/ofc/estimates/lakilla mandir/lakilla mandir.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\lakilla mandir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\lakilla mandir\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="WCR" sheetId="6" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">estimate!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">WCR!$1:$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -351,10 +351,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -586,7 +586,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -596,7 +596,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -618,7 +618,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -634,7 +634,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -643,7 +643,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -652,7 +652,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,7 +671,7 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -703,7 +703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -724,7 +724,7 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -742,84 +742,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="22" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -835,6 +768,73 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1261,107 +1261,107 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-    </row>
-    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="75" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="77" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="77"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="77"/>
-      <c r="E5" s="77"/>
-      <c r="F5" s="77"/>
-      <c r="G5" s="77"/>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="77"/>
-      <c r="K5" s="77"/>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="72" t="e">
+      <c r="C6" s="76" t="e">
         <f>F18</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="73"/>
+      <c r="D6" s="77"/>
       <c r="E6" s="11"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -1369,13 +1369,13 @@
         <v>18</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="72" t="e">
+      <c r="J6" s="76" t="e">
         <f>I18</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="73"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6" s="77"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>27</v>
       </c>
@@ -1384,75 +1384,75 @@
       <c r="D7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
-      <c r="I7" s="68" t="s">
+      <c r="I7" s="85" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="68"/>
-      <c r="K7" s="68"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="67" t="e">
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="84" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
-      <c r="I8" s="69" t="s">
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="I8" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="70" t="e">
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="87" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="I9" s="69" t="s">
+      <c r="B9" s="87"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="I9" s="86" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="65" t="s">
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71" t="s">
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="65" t="s">
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="66" t="s">
+      <c r="K11" s="83" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
-      <c r="B12" s="65"/>
-      <c r="C12" s="65"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="82"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="13" t="s">
         <v>24</v>
       </c>
@@ -1471,10 +1471,10 @@
       <c r="I12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="65"/>
-      <c r="K12" s="66"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="82"/>
+      <c r="K12" s="83"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="36" t="e">
         <f>#REF!</f>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33"/>
       <c r="B15" s="36"/>
       <c r="C15" s="14"/>
@@ -1555,7 +1555,7 @@
       <c r="J15" s="34"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1598,7 +1598,7 @@
       </c>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="14"/>
@@ -1611,7 +1611,7 @@
       <c r="J17" s="34"/>
       <c r="K17" s="17"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>15</v>
@@ -1637,13 +1637,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -1656,6 +1649,13 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1673,105 +1673,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F160" sqref="F160"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="M139" sqref="M139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="94" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="76" t="s">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="84" t="s">
+      <c r="B4" s="80"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="95" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>46</v>
       </c>
@@ -1781,31 +1781,31 @@
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="81" t="s">
+      <c r="H6" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="81"/>
-      <c r="K6" s="81"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="85" t="s">
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="96" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="81" t="s">
+      <c r="H7" s="92" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="81"/>
-      <c r="J7" s="81"/>
-      <c r="K7" s="81"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -1857,7 +1857,7 @@
       <c r="J9" s="40"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="B10" s="45" t="s">
         <v>42</v>
@@ -1884,7 +1884,7 @@
       <c r="J10" s="44"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" s="45" t="s">
         <v>38</v>
@@ -1909,7 +1909,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="45" t="s">
         <v>52</v>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="30"/>
       <c r="C13" s="27"/>
@@ -1947,7 +1947,7 @@
       <c r="R13" s="31"/>
       <c r="S13" s="31"/>
     </row>
-    <row r="14" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="43">
         <v>2</v>
       </c>
@@ -1964,7 +1964,7 @@
       <c r="J14" s="40"/>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
       <c r="B15" s="45" t="s">
         <v>42</v>
@@ -1989,7 +1989,7 @@
       <c r="J15" s="44"/>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
       <c r="B16" s="45" t="s">
         <v>44</v>
@@ -2014,7 +2014,7 @@
       <c r="J16" s="44"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43"/>
       <c r="B17" s="45" t="s">
         <v>43</v>
@@ -2039,7 +2039,7 @@
       <c r="J17" s="44"/>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18" s="45" t="s">
         <v>65</v>
@@ -2063,7 +2063,7 @@
       <c r="J18" s="44"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19" s="45" t="s">
         <v>90</v>
@@ -2089,7 +2089,7 @@
       <c r="J19" s="44"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20" s="45" t="s">
         <v>91</v>
@@ -2115,7 +2115,7 @@
       <c r="J20" s="44"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
       <c r="B21" s="45" t="s">
         <v>92</v>
@@ -2141,7 +2141,7 @@
       <c r="J21" s="44"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
       <c r="B22" s="45" t="s">
         <v>38</v>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
       <c r="B23" s="45" t="s">
         <v>52</v>
@@ -2185,7 +2185,7 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="30"/>
       <c r="C24" s="27"/>
@@ -2205,7 +2205,7 @@
       <c r="R24" s="31"/>
       <c r="S24" s="31"/>
     </row>
-    <row r="25" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>3</v>
       </c>
@@ -2229,7 +2229,7 @@
       <c r="R25" s="31"/>
       <c r="S25" s="31"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
       <c r="B26" s="45" t="s">
         <v>79</v>
@@ -2252,7 +2252,7 @@
       <c r="J26" s="44"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
       <c r="B27" s="45" t="s">
         <v>38</v>
@@ -2278,7 +2278,7 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
       <c r="B28" s="45" t="s">
         <v>52</v>
@@ -2296,7 +2296,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="30"/>
       <c r="C29" s="27"/>
@@ -2316,7 +2316,7 @@
       <c r="R29" s="31"/>
       <c r="S29" s="31"/>
     </row>
-    <row r="30" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>3</v>
       </c>
@@ -2340,7 +2340,7 @@
       <c r="R30" s="31"/>
       <c r="S30" s="31"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="43"/>
       <c r="B31" s="45" t="s">
         <v>79</v>
@@ -2363,7 +2363,7 @@
       <c r="J31" s="44"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="43"/>
       <c r="B32" s="45" t="s">
         <v>38</v>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="43"/>
       <c r="B33" s="45" t="s">
         <v>52</v>
@@ -2407,7 +2407,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="30"/>
       <c r="C34" s="27"/>
@@ -2427,7 +2427,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="31"/>
     </row>
-    <row r="35" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <v>3</v>
       </c>
@@ -2451,7 +2451,7 @@
       <c r="R35" s="31"/>
       <c r="S35" s="31"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="43"/>
       <c r="B36" s="45" t="s">
         <v>79</v>
@@ -2474,7 +2474,7 @@
       <c r="J36" s="44"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="43"/>
       <c r="B37" s="45" t="s">
         <v>38</v>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="43"/>
       <c r="B38" s="45" t="s">
         <v>52</v>
@@ -2518,7 +2518,7 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="30"/>
       <c r="C39" s="27"/>
@@ -2538,7 +2538,7 @@
       <c r="R39" s="31"/>
       <c r="S39" s="31"/>
     </row>
-    <row r="40" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="26">
         <v>3</v>
       </c>
@@ -2562,7 +2562,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="31"/>
     </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="43"/>
       <c r="B41" s="45" t="s">
         <v>79</v>
@@ -2585,7 +2585,7 @@
       <c r="J41" s="44"/>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="43"/>
       <c r="B42" s="45" t="s">
         <v>38</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="K42" s="16"/>
     </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
       <c r="B43" s="45" t="s">
         <v>52</v>
@@ -2629,7 +2629,7 @@
       </c>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
       <c r="B44" s="30"/>
       <c r="C44" s="27"/>
@@ -2649,7 +2649,7 @@
       <c r="R44" s="31"/>
       <c r="S44" s="31"/>
     </row>
-    <row r="45" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="64">
         <v>3</v>
       </c>
@@ -2673,7 +2673,7 @@
       <c r="R45" s="31"/>
       <c r="S45" s="31"/>
     </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
       <c r="B46" s="45" t="s">
         <v>79</v>
@@ -2696,7 +2696,7 @@
       <c r="J46" s="44"/>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="43"/>
       <c r="B47" s="45" t="s">
         <v>38</v>
@@ -2722,7 +2722,7 @@
       </c>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="43"/>
       <c r="B48" s="45" t="s">
         <v>52</v>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
       <c r="B49" s="30"/>
       <c r="C49" s="27"/>
@@ -2760,7 +2760,7 @@
       <c r="R49" s="31"/>
       <c r="S49" s="31"/>
     </row>
-    <row r="50" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="64">
         <v>3</v>
       </c>
@@ -2784,7 +2784,7 @@
       <c r="R50" s="31"/>
       <c r="S50" s="31"/>
     </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="43"/>
       <c r="B51" s="45" t="s">
         <v>79</v>
@@ -2807,7 +2807,7 @@
       <c r="J51" s="44"/>
       <c r="K51" s="16"/>
     </row>
-    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="43"/>
       <c r="B52" s="45" t="s">
         <v>38</v>
@@ -2833,7 +2833,7 @@
       </c>
       <c r="K52" s="16"/>
     </row>
-    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="43"/>
       <c r="B53" s="45" t="s">
         <v>52</v>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="K53" s="16"/>
     </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
       <c r="B54" s="30"/>
       <c r="C54" s="27"/>
@@ -2871,7 +2871,7 @@
       <c r="R54" s="31"/>
       <c r="S54" s="31"/>
     </row>
-    <row r="55" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="64">
         <v>3</v>
       </c>
@@ -2895,7 +2895,7 @@
       <c r="R55" s="31"/>
       <c r="S55" s="31"/>
     </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="43"/>
       <c r="B56" s="45" t="s">
         <v>79</v>
@@ -2918,7 +2918,7 @@
       <c r="J56" s="44"/>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="43"/>
       <c r="B57" s="45" t="s">
         <v>38</v>
@@ -2944,7 +2944,7 @@
       </c>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="43"/>
       <c r="B58" s="45" t="s">
         <v>52</v>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
       <c r="B59" s="30"/>
       <c r="C59" s="27"/>
@@ -2982,7 +2982,7 @@
       <c r="R59" s="31"/>
       <c r="S59" s="31"/>
     </row>
-    <row r="60" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="64">
         <v>3</v>
       </c>
@@ -3006,7 +3006,7 @@
       <c r="R60" s="31"/>
       <c r="S60" s="31"/>
     </row>
-    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="43"/>
       <c r="B61" s="45" t="s">
         <v>79</v>
@@ -3029,7 +3029,7 @@
       <c r="J61" s="44"/>
       <c r="K61" s="16"/>
     </row>
-    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43"/>
       <c r="B62" s="45" t="s">
         <v>38</v>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="43"/>
       <c r="B63" s="45" t="s">
         <v>52</v>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
       <c r="B64" s="30"/>
       <c r="C64" s="27"/>
@@ -3093,7 +3093,7 @@
       <c r="R64" s="31"/>
       <c r="S64" s="31"/>
     </row>
-    <row r="65" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="64">
         <v>3</v>
       </c>
@@ -3117,7 +3117,7 @@
       <c r="R65" s="31"/>
       <c r="S65" s="31"/>
     </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="43"/>
       <c r="B66" s="45" t="s">
         <v>79</v>
@@ -3140,7 +3140,7 @@
       <c r="J66" s="44"/>
       <c r="K66" s="16"/>
     </row>
-    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43"/>
       <c r="B67" s="45" t="s">
         <v>38</v>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="43"/>
       <c r="B68" s="45" t="s">
         <v>52</v>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="K68" s="16"/>
     </row>
-    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="26"/>
       <c r="B69" s="30"/>
       <c r="C69" s="27"/>
@@ -3204,7 +3204,7 @@
       <c r="R69" s="31"/>
       <c r="S69" s="31"/>
     </row>
-    <row r="70" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="64">
         <v>3</v>
       </c>
@@ -3228,7 +3228,7 @@
       <c r="R70" s="31"/>
       <c r="S70" s="31"/>
     </row>
-    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="43"/>
       <c r="B71" s="45" t="s">
         <v>79</v>
@@ -3251,7 +3251,7 @@
       <c r="J71" s="44"/>
       <c r="K71" s="16"/>
     </row>
-    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="43"/>
       <c r="B72" s="45" t="s">
         <v>38</v>
@@ -3277,7 +3277,7 @@
       </c>
       <c r="K72" s="16"/>
     </row>
-    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="43"/>
       <c r="B73" s="45" t="s">
         <v>52</v>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="K73" s="16"/>
     </row>
-    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="26"/>
       <c r="B74" s="30"/>
       <c r="C74" s="27"/>
@@ -3315,7 +3315,7 @@
       <c r="R74" s="31"/>
       <c r="S74" s="31"/>
     </row>
-    <row r="75" spans="1:19" ht="30" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="26">
         <v>3</v>
       </c>
@@ -3339,7 +3339,7 @@
       <c r="R75" s="31"/>
       <c r="S75" s="31"/>
     </row>
-    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="43"/>
       <c r="B76" s="45" t="s">
         <v>54</v>
@@ -3363,7 +3363,7 @@
       <c r="J76" s="44"/>
       <c r="K76" s="16"/>
     </row>
-    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="43"/>
       <c r="B77" s="45" t="s">
         <v>38</v>
@@ -3388,7 +3388,7 @@
       </c>
       <c r="K77" s="16"/>
     </row>
-    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="43"/>
       <c r="B78" s="45" t="s">
         <v>52</v>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="K78" s="16"/>
     </row>
-    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="43"/>
       <c r="B79" s="45"/>
       <c r="C79" s="46"/>
@@ -3419,7 +3419,7 @@
       <c r="J79" s="40"/>
       <c r="K79" s="16"/>
     </row>
-    <row r="80" spans="1:19" ht="30" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="43">
         <v>4</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="J80" s="40"/>
       <c r="K80" s="16"/>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="43"/>
       <c r="B81" s="45" t="s">
         <v>54</v>
@@ -3461,7 +3461,7 @@
       <c r="J81" s="44"/>
       <c r="K81" s="16"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="43"/>
       <c r="B82" s="45" t="s">
         <v>55</v>
@@ -3486,7 +3486,7 @@
       <c r="J82" s="44"/>
       <c r="K82" s="16"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="43"/>
       <c r="B83" s="45" t="s">
         <v>38</v>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="K83" s="16"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="43"/>
       <c r="B84" s="45" t="s">
         <v>52</v>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="K84" s="16"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="43"/>
       <c r="B85" s="45"/>
       <c r="C85" s="46"/>
@@ -3542,7 +3542,7 @@
       <c r="J85" s="40"/>
       <c r="K85" s="16"/>
     </row>
-    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="43">
         <v>5</v>
       </c>
@@ -3559,7 +3559,7 @@
       <c r="J86" s="40"/>
       <c r="K86" s="16"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="43"/>
       <c r="B87" s="45" t="s">
         <v>54</v>
@@ -3584,7 +3584,7 @@
       <c r="J87" s="44"/>
       <c r="K87" s="16"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="43"/>
       <c r="B88" s="45" t="s">
         <v>38</v>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="K88" s="16"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="43"/>
       <c r="B89" s="45" t="s">
         <v>52</v>
@@ -3627,7 +3627,7 @@
       </c>
       <c r="K89" s="16"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="43"/>
       <c r="B90" s="45"/>
       <c r="C90" s="46"/>
@@ -3640,7 +3640,7 @@
       <c r="J90" s="40"/>
       <c r="K90" s="16"/>
     </row>
-    <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="58">
         <v>6</v>
       </c>
@@ -3657,7 +3657,7 @@
       <c r="J91" s="40"/>
       <c r="K91" s="16"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="43"/>
       <c r="B92" s="45" t="str">
         <f>B82</f>
@@ -3684,7 +3684,7 @@
       <c r="J92" s="9"/>
       <c r="K92" s="16"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="43"/>
       <c r="B93" s="45" t="s">
         <v>38</v>
@@ -3710,7 +3710,7 @@
       </c>
       <c r="K93" s="16"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="43"/>
       <c r="B94" s="45" t="s">
         <v>52</v>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="K94" s="16"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="43"/>
       <c r="B95" s="45"/>
       <c r="C95" s="46"/>
@@ -3741,7 +3741,7 @@
       <c r="J95" s="40"/>
       <c r="K95" s="16"/>
     </row>
-    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="58">
         <v>7</v>
       </c>
@@ -3758,7 +3758,7 @@
       <c r="J96" s="40"/>
       <c r="K96" s="16"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="43"/>
       <c r="B97" s="45" t="s">
         <v>60</v>
@@ -3784,7 +3784,7 @@
       <c r="J97" s="9"/>
       <c r="K97" s="16"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="43"/>
       <c r="B98" s="45" t="s">
         <v>61</v>
@@ -3808,7 +3808,7 @@
       <c r="J98" s="9"/>
       <c r="K98" s="16"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="43"/>
       <c r="B99" s="45"/>
       <c r="C99" s="46">
@@ -3830,7 +3830,7 @@
       <c r="J99" s="9"/>
       <c r="K99" s="16"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="43"/>
       <c r="B100" s="45"/>
       <c r="C100" s="46">
@@ -3853,7 +3853,7 @@
       <c r="J100" s="9"/>
       <c r="K100" s="16"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="43"/>
       <c r="B101" s="45"/>
       <c r="C101" s="46">
@@ -3875,7 +3875,7 @@
       <c r="J101" s="9"/>
       <c r="K101" s="16"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="43"/>
       <c r="B102" s="45" t="s">
         <v>76</v>
@@ -3901,7 +3901,7 @@
       <c r="J102" s="9"/>
       <c r="K102" s="16"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="43"/>
       <c r="B103" s="45" t="s">
         <v>77</v>
@@ -3927,7 +3927,7 @@
       <c r="J103" s="9"/>
       <c r="K103" s="16"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="43"/>
       <c r="B104" s="45"/>
       <c r="C104" s="46">
@@ -3951,7 +3951,7 @@
       <c r="J104" s="9"/>
       <c r="K104" s="16"/>
     </row>
-    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="43"/>
       <c r="B105" s="45" t="s">
         <v>38</v>
@@ -3976,7 +3976,7 @@
       </c>
       <c r="K105" s="16"/>
     </row>
-    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="43"/>
       <c r="B106" s="45" t="s">
         <v>52</v>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="K106" s="16"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="43"/>
       <c r="B107" s="45"/>
       <c r="C107" s="46"/>
@@ -4007,7 +4007,7 @@
       <c r="J107" s="40"/>
       <c r="K107" s="16"/>
     </row>
-    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="43">
         <v>8</v>
       </c>
@@ -4024,7 +4024,7 @@
       <c r="J108" s="40"/>
       <c r="K108" s="16"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="43"/>
       <c r="B109" s="45" t="s">
         <v>63</v>
@@ -4047,7 +4047,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="16"/>
     </row>
-    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="43"/>
       <c r="B110" s="45" t="s">
         <v>38</v>
@@ -4072,7 +4072,7 @@
       </c>
       <c r="K110" s="16"/>
     </row>
-    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="43"/>
       <c r="B111" s="45" t="s">
         <v>52</v>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="K111" s="16"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="43"/>
       <c r="B112" s="45"/>
       <c r="C112" s="46"/>
@@ -4103,7 +4103,7 @@
       <c r="J112" s="40"/>
       <c r="K112" s="16"/>
     </row>
-    <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="43">
         <v>9</v>
       </c>
@@ -4120,7 +4120,7 @@
       <c r="J113" s="40"/>
       <c r="K113" s="16"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="43"/>
       <c r="B114" s="45" t="s">
         <v>63</v>
@@ -4143,7 +4143,7 @@
       <c r="J114" s="9"/>
       <c r="K114" s="16"/>
     </row>
-    <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="43"/>
       <c r="B115" s="45" t="s">
         <v>38</v>
@@ -4168,7 +4168,7 @@
       </c>
       <c r="K115" s="16"/>
     </row>
-    <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="43"/>
       <c r="B116" s="45" t="s">
         <v>52</v>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="K116" s="16"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="43"/>
       <c r="B117" s="45"/>
       <c r="C117" s="46"/>
@@ -4199,7 +4199,7 @@
       <c r="J117" s="40"/>
       <c r="K117" s="16"/>
     </row>
-    <row r="118" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="43">
         <v>10</v>
       </c>
@@ -4216,7 +4216,7 @@
       <c r="J118" s="40"/>
       <c r="K118" s="5"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="43"/>
       <c r="B119" s="56" t="s">
         <v>67</v>
@@ -4244,7 +4244,7 @@
       <c r="J119" s="40"/>
       <c r="K119" s="5"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="43"/>
       <c r="B120" s="56"/>
       <c r="C120" s="53">
@@ -4269,7 +4269,7 @@
       <c r="J120" s="40"/>
       <c r="K120" s="5"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="43"/>
       <c r="B121" s="56" t="s">
         <v>68</v>
@@ -4296,7 +4296,7 @@
       <c r="J121" s="40"/>
       <c r="K121" s="5"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="43"/>
       <c r="B122" s="56"/>
       <c r="C122" s="53">
@@ -4322,7 +4322,7 @@
       <c r="J122" s="40"/>
       <c r="K122" s="5"/>
     </row>
-    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="43"/>
       <c r="B123" s="56" t="s">
         <v>38</v>
@@ -4348,7 +4348,7 @@
       </c>
       <c r="K123" s="5"/>
     </row>
-    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="43"/>
       <c r="B124" s="56" t="s">
         <v>52</v>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="K124" s="5"/>
     </row>
-    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="43"/>
       <c r="B125" s="56"/>
       <c r="C125" s="53"/>
@@ -4379,7 +4379,7 @@
       <c r="J125" s="61"/>
       <c r="K125" s="5"/>
     </row>
-    <row r="126" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A126" s="43">
         <v>11</v>
       </c>
@@ -4397,7 +4397,7 @@
       <c r="K126" s="5"/>
       <c r="M126" s="63"/>
     </row>
-    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="43"/>
       <c r="B127" s="56" t="s">
         <v>70</v>
@@ -4423,7 +4423,7 @@
       <c r="J127" s="40"/>
       <c r="K127" s="5"/>
     </row>
-    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="43"/>
       <c r="B128" s="56" t="s">
         <v>38</v>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="K128" s="5"/>
     </row>
-    <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="43"/>
       <c r="B129" s="56" t="s">
         <v>52</v>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="K129" s="5"/>
     </row>
-    <row r="130" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="43"/>
       <c r="B130" s="52"/>
       <c r="C130" s="53"/>
@@ -4481,7 +4481,7 @@
       <c r="K130" s="5"/>
       <c r="M130" s="63"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="43">
         <v>12</v>
       </c>
@@ -4498,7 +4498,7 @@
       <c r="J131" s="40"/>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="43"/>
       <c r="B132" s="56" t="s">
         <v>70</v>
@@ -4524,7 +4524,7 @@
       <c r="J132" s="40"/>
       <c r="K132" s="5"/>
     </row>
-    <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="43"/>
       <c r="B133" s="56" t="s">
         <v>38</v>
@@ -4550,7 +4550,7 @@
       </c>
       <c r="K133" s="5"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="43"/>
       <c r="B134" s="62"/>
       <c r="C134" s="53"/>
@@ -4563,7 +4563,7 @@
       <c r="J134" s="40"/>
       <c r="K134" s="5"/>
     </row>
-    <row r="135" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="43">
         <v>13</v>
       </c>
@@ -4580,7 +4580,7 @@
       <c r="J135" s="40"/>
       <c r="K135" s="5"/>
     </row>
-    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="43"/>
       <c r="B136" s="56" t="s">
         <v>72</v>
@@ -4606,7 +4606,7 @@
       <c r="J136" s="40"/>
       <c r="K136" s="5"/>
     </row>
-    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="43"/>
       <c r="B137" s="56" t="s">
         <v>38</v>
@@ -4632,7 +4632,7 @@
       </c>
       <c r="K137" s="5"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="43"/>
       <c r="B138" s="62"/>
       <c r="C138" s="53"/>
@@ -4645,7 +4645,7 @@
       <c r="J138" s="40"/>
       <c r="K138" s="5"/>
     </row>
-    <row r="139" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="43">
         <v>14</v>
       </c>
@@ -4662,7 +4662,7 @@
       <c r="J139" s="40"/>
       <c r="K139" s="5"/>
     </row>
-    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="43"/>
       <c r="B140" s="56" t="s">
         <v>74</v>
@@ -4688,32 +4688,32 @@
       <c r="J140" s="40"/>
       <c r="K140" s="5"/>
     </row>
-    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="43"/>
-      <c r="B141" s="93" t="s">
+      <c r="B141" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="C141" s="90">
+      <c r="C141" s="67">
         <v>4</v>
       </c>
-      <c r="D141" s="91">
+      <c r="D141" s="68">
         <f>0.6</f>
         <v>0.6</v>
       </c>
-      <c r="E141" s="91"/>
-      <c r="F141" s="91">
+      <c r="E141" s="68"/>
+      <c r="F141" s="68">
         <v>0.6</v>
       </c>
-      <c r="G141" s="91">
-        <f>PRODUCT(C141:F141)</f>
-        <v>1.44</v>
+      <c r="G141" s="68">
+        <f>0*PRODUCT(C141:F141)</f>
+        <v>0</v>
       </c>
       <c r="H141" s="57"/>
       <c r="I141" s="57"/>
       <c r="J141" s="40"/>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="43"/>
       <c r="B142" s="56" t="s">
         <v>38</v>
@@ -4724,7 +4724,7 @@
       <c r="F142" s="54"/>
       <c r="G142" s="55">
         <f>SUM(G140:G141)</f>
-        <v>1.9456115855877232</v>
+        <v>0.50561158558772312</v>
       </c>
       <c r="H142" s="55" t="s">
         <v>41</v>
@@ -4735,11 +4735,11 @@
       </c>
       <c r="J142" s="61">
         <f>G142*I142</f>
-        <v>117717.82476197125</v>
+        <v>30591.66406631907</v>
       </c>
       <c r="K142" s="5"/>
     </row>
-    <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="43"/>
       <c r="B143" s="56" t="s">
         <v>52</v>
@@ -4753,11 +4753,11 @@
       <c r="I143" s="60"/>
       <c r="J143" s="61">
         <f>0.13*G142*(9888.94/0.92)</f>
-        <v>2718.7007720800452</v>
+        <v>706.51645903656697</v>
       </c>
       <c r="K143" s="5"/>
     </row>
-    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="43"/>
       <c r="B144" s="56"/>
       <c r="C144" s="53"/>
@@ -4771,253 +4771,253 @@
       <c r="K144" s="5"/>
       <c r="M144" s="63"/>
     </row>
-    <row r="145" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A145" s="88">
+    <row r="145" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A145" s="65">
         <v>15</v>
       </c>
-      <c r="B145" s="89" t="s">
+      <c r="B145" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="C145" s="90"/>
-      <c r="D145" s="91"/>
-      <c r="E145" s="91"/>
-      <c r="F145" s="91"/>
-      <c r="G145" s="91"/>
-      <c r="H145" s="91"/>
-      <c r="I145" s="91"/>
-      <c r="J145" s="92"/>
+      <c r="C145" s="67"/>
+      <c r="D145" s="68"/>
+      <c r="E145" s="68"/>
+      <c r="F145" s="68"/>
+      <c r="G145" s="68"/>
+      <c r="H145" s="68"/>
+      <c r="I145" s="68"/>
+      <c r="J145" s="69"/>
       <c r="K145" s="5"/>
       <c r="M145" s="63"/>
     </row>
-    <row r="146" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="88"/>
-      <c r="B146" s="93" t="s">
+    <row r="146" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="65"/>
+      <c r="B146" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="C146" s="90">
+      <c r="C146" s="67">
         <v>4</v>
       </c>
-      <c r="D146" s="91">
+      <c r="D146" s="68">
         <f>(14.75+5.17)/2/3.281</f>
         <v>3.0356598597988418</v>
       </c>
-      <c r="E146" s="91">
+      <c r="E146" s="68">
         <f>5.5/3.281</f>
         <v>1.6763181956720512</v>
       </c>
-      <c r="F146" s="91"/>
-      <c r="G146" s="91">
+      <c r="F146" s="68"/>
+      <c r="G146" s="68">
         <f>PRODUCT(C146:F146)</f>
         <v>20.354927435408264</v>
       </c>
-      <c r="H146" s="91"/>
-      <c r="I146" s="91"/>
-      <c r="J146" s="92"/>
+      <c r="H146" s="68"/>
+      <c r="I146" s="68"/>
+      <c r="J146" s="69"/>
       <c r="K146" s="5"/>
     </row>
-    <row r="147" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="88"/>
-      <c r="B147" s="93" t="s">
+    <row r="147" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="65"/>
+      <c r="B147" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="C147" s="90">
+      <c r="C147" s="67">
         <v>4</v>
       </c>
-      <c r="D147" s="91">
+      <c r="D147" s="68">
         <f>(10.75+1.5)/2/3.281</f>
         <v>1.8668088997256933</v>
       </c>
-      <c r="E147" s="91">
+      <c r="E147" s="68">
         <f>4.5/3.281</f>
         <v>1.3715330691862238</v>
       </c>
-      <c r="F147" s="91"/>
-      <c r="G147" s="91">
+      <c r="F147" s="68"/>
+      <c r="G147" s="68">
         <f>PRODUCT(C147:F147)</f>
         <v>10.241560559299749</v>
       </c>
-      <c r="H147" s="91"/>
-      <c r="I147" s="91"/>
-      <c r="J147" s="92"/>
+      <c r="H147" s="68"/>
+      <c r="I147" s="68"/>
+      <c r="J147" s="69"/>
       <c r="K147" s="5"/>
     </row>
-    <row r="148" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="88"/>
-      <c r="B148" s="93" t="s">
+    <row r="148" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="65"/>
+      <c r="B148" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="C148" s="90"/>
-      <c r="D148" s="91"/>
-      <c r="E148" s="91"/>
-      <c r="F148" s="91"/>
-      <c r="G148" s="94">
-        <f>SUM(G146:G147)</f>
-        <v>30.596487994708014</v>
-      </c>
-      <c r="H148" s="94" t="s">
+      <c r="C148" s="67"/>
+      <c r="D148" s="68"/>
+      <c r="E148" s="68"/>
+      <c r="F148" s="68"/>
+      <c r="G148" s="71">
+        <f>0*SUM(G146:G147)</f>
+        <v>0</v>
+      </c>
+      <c r="H148" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="I148" s="95">
+      <c r="I148" s="72">
         <f>1132.13/1.15</f>
         <v>984.46086956521754</v>
       </c>
-      <c r="J148" s="96">
+      <c r="J148" s="73">
         <f>G148*I148</f>
-        <v>30121.04517691199</v>
+        <v>0</v>
       </c>
       <c r="K148" s="5"/>
     </row>
-    <row r="149" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="88"/>
-      <c r="B149" s="93" t="s">
+    <row r="149" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="65"/>
+      <c r="B149" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="C149" s="90"/>
-      <c r="D149" s="91"/>
-      <c r="E149" s="91"/>
-      <c r="F149" s="91"/>
-      <c r="G149" s="94"/>
-      <c r="H149" s="94"/>
-      <c r="I149" s="95"/>
-      <c r="J149" s="96">
+      <c r="C149" s="67"/>
+      <c r="D149" s="68"/>
+      <c r="E149" s="68"/>
+      <c r="F149" s="68"/>
+      <c r="G149" s="71"/>
+      <c r="H149" s="71"/>
+      <c r="I149" s="72"/>
+      <c r="J149" s="73">
         <f>0.13*G148*(2795.1/10)</f>
-        <v>1111.7631667221087</v>
+        <v>0</v>
       </c>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A150" s="88"/>
-      <c r="B150" s="97"/>
-      <c r="C150" s="90"/>
-      <c r="D150" s="91"/>
-      <c r="E150" s="91"/>
-      <c r="F150" s="91"/>
-      <c r="G150" s="91"/>
-      <c r="H150" s="91"/>
-      <c r="I150" s="91"/>
-      <c r="J150" s="92"/>
+    <row r="150" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A150" s="65"/>
+      <c r="B150" s="74"/>
+      <c r="C150" s="67"/>
+      <c r="D150" s="68"/>
+      <c r="E150" s="68"/>
+      <c r="F150" s="68"/>
+      <c r="G150" s="68"/>
+      <c r="H150" s="68"/>
+      <c r="I150" s="68"/>
+      <c r="J150" s="69"/>
       <c r="K150" s="5"/>
       <c r="M150" s="63"/>
     </row>
-    <row r="151" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A151" s="88">
+    <row r="151" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="65">
         <v>16</v>
       </c>
-      <c r="B151" s="98" t="s">
+      <c r="B151" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="C151" s="90"/>
-      <c r="D151" s="91"/>
-      <c r="E151" s="91"/>
-      <c r="F151" s="91"/>
-      <c r="G151" s="91"/>
-      <c r="H151" s="91"/>
-      <c r="I151" s="91"/>
-      <c r="J151" s="92"/>
+      <c r="C151" s="67"/>
+      <c r="D151" s="68"/>
+      <c r="E151" s="68"/>
+      <c r="F151" s="68"/>
+      <c r="G151" s="68"/>
+      <c r="H151" s="68"/>
+      <c r="I151" s="68"/>
+      <c r="J151" s="69"/>
       <c r="K151" s="5"/>
       <c r="M151" s="63"/>
     </row>
-    <row r="152" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="88"/>
-      <c r="B152" s="93" t="str">
-        <f>B146</f>
+    <row r="152" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="65"/>
+      <c r="B152" s="70" t="str">
+        <f t="shared" ref="B152:E153" si="12">B146</f>
         <v>-First floor inclined roof</v>
       </c>
-      <c r="C152" s="90">
-        <f>C146</f>
+      <c r="C152" s="67">
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="D152" s="91">
-        <f>D146</f>
+      <c r="D152" s="68">
+        <f t="shared" si="12"/>
         <v>3.0356598597988418</v>
       </c>
-      <c r="E152" s="91">
-        <f>E146</f>
+      <c r="E152" s="68">
+        <f t="shared" si="12"/>
         <v>1.6763181956720512</v>
       </c>
-      <c r="F152" s="91"/>
-      <c r="G152" s="91">
+      <c r="F152" s="68"/>
+      <c r="G152" s="68">
         <f>PRODUCT(C152:F152)</f>
         <v>20.354927435408264</v>
       </c>
-      <c r="H152" s="91"/>
-      <c r="I152" s="91"/>
-      <c r="J152" s="92"/>
+      <c r="H152" s="68"/>
+      <c r="I152" s="68"/>
+      <c r="J152" s="69"/>
       <c r="K152" s="5"/>
     </row>
-    <row r="153" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="88"/>
-      <c r="B153" s="93" t="str">
-        <f>B147</f>
+    <row r="153" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="65"/>
+      <c r="B153" s="70" t="str">
+        <f t="shared" si="12"/>
         <v>-Second floor inclined roof</v>
       </c>
-      <c r="C153" s="90">
-        <f>C147</f>
+      <c r="C153" s="67">
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="D153" s="91">
-        <f>D147</f>
+      <c r="D153" s="68">
+        <f t="shared" si="12"/>
         <v>1.8668088997256933</v>
       </c>
-      <c r="E153" s="91">
-        <f>E147</f>
+      <c r="E153" s="68">
+        <f t="shared" si="12"/>
         <v>1.3715330691862238</v>
       </c>
-      <c r="F153" s="91"/>
-      <c r="G153" s="91">
+      <c r="F153" s="68"/>
+      <c r="G153" s="68">
         <f>PRODUCT(C153:F153)</f>
         <v>10.241560559299749</v>
       </c>
-      <c r="H153" s="91"/>
-      <c r="I153" s="91"/>
-      <c r="J153" s="92"/>
+      <c r="H153" s="68"/>
+      <c r="I153" s="68"/>
+      <c r="J153" s="69"/>
       <c r="K153" s="5"/>
     </row>
-    <row r="154" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="88"/>
-      <c r="B154" s="93" t="s">
+    <row r="154" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="65"/>
+      <c r="B154" s="70" t="s">
         <v>38</v>
       </c>
-      <c r="C154" s="90"/>
-      <c r="D154" s="91"/>
-      <c r="E154" s="91"/>
-      <c r="F154" s="91"/>
-      <c r="G154" s="94">
-        <f>SUM(G152:G153)</f>
-        <v>30.596487994708014</v>
-      </c>
-      <c r="H154" s="94" t="s">
+      <c r="C154" s="67"/>
+      <c r="D154" s="68"/>
+      <c r="E154" s="68"/>
+      <c r="F154" s="68"/>
+      <c r="G154" s="71">
+        <f>0*SUM(G152:G153)</f>
+        <v>0</v>
+      </c>
+      <c r="H154" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="I154" s="95">
+      <c r="I154" s="72">
         <f>4842.49/1.15</f>
         <v>4210.8608695652174</v>
       </c>
-      <c r="J154" s="96">
+      <c r="J154" s="73">
         <f>G154*I154</f>
-        <v>128837.55404303792</v>
+        <v>0</v>
       </c>
       <c r="K154" s="5"/>
     </row>
-    <row r="155" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="88"/>
-      <c r="B155" s="93" t="s">
+    <row r="155" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="65"/>
+      <c r="B155" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="C155" s="90"/>
-      <c r="D155" s="91"/>
-      <c r="E155" s="91"/>
-      <c r="F155" s="91"/>
-      <c r="G155" s="94"/>
-      <c r="H155" s="94"/>
-      <c r="I155" s="95"/>
-      <c r="J155" s="96">
+      <c r="C155" s="67"/>
+      <c r="D155" s="68"/>
+      <c r="E155" s="68"/>
+      <c r="F155" s="68"/>
+      <c r="G155" s="71"/>
+      <c r="H155" s="71"/>
+      <c r="I155" s="72"/>
+      <c r="J155" s="73">
         <f>0.13*G154*(315405.75/100)</f>
-        <v>12545.400716337939</v>
+        <v>0</v>
       </c>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="43"/>
       <c r="B156" s="52"/>
       <c r="C156" s="53"/>
@@ -5031,7 +5031,7 @@
       <c r="K156" s="5"/>
       <c r="M156" s="63"/>
     </row>
-    <row r="157" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="43"/>
       <c r="B157" s="56"/>
       <c r="C157" s="53"/>
@@ -5045,7 +5045,7 @@
       <c r="K157" s="5"/>
       <c r="M157" s="63"/>
     </row>
-    <row r="158" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="43"/>
       <c r="B158" s="56"/>
       <c r="C158" s="53"/>
@@ -5059,7 +5059,7 @@
       <c r="K158" s="5"/>
       <c r="M158" s="63"/>
     </row>
-    <row r="159" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="43"/>
       <c r="B159" s="56"/>
       <c r="C159" s="53"/>
@@ -5073,7 +5073,7 @@
       <c r="K159" s="5"/>
       <c r="M159" s="63"/>
     </row>
-    <row r="160" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="26">
         <v>15</v>
       </c>
@@ -5109,7 +5109,7 @@
       <c r="R160" s="31"/>
       <c r="S160" s="31"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="43"/>
       <c r="B161" s="45"/>
       <c r="C161" s="46"/>
@@ -5122,7 +5122,7 @@
       <c r="J161" s="44"/>
       <c r="K161" s="16"/>
     </row>
-    <row r="162" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A162" s="26">
         <v>16</v>
       </c>
@@ -5136,7 +5136,7 @@
       <c r="E162" s="29"/>
       <c r="F162" s="29"/>
       <c r="G162" s="44">
-        <f t="shared" ref="G162" si="12">PRODUCT(C162:F162)</f>
+        <f t="shared" ref="G162" si="13">PRODUCT(C162:F162)</f>
         <v>1</v>
       </c>
       <c r="H162" s="38" t="s">
@@ -5159,7 +5159,7 @@
       <c r="S162" s="18"/>
       <c r="T162" s="18"/>
     </row>
-    <row r="163" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A163" s="26"/>
       <c r="B163" s="30"/>
       <c r="C163" s="27"/>
@@ -5180,7 +5180,7 @@
       <c r="S163" s="18"/>
       <c r="T163" s="18"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="43"/>
       <c r="B164" s="50" t="s">
         <v>15</v>
@@ -5194,19 +5194,19 @@
       <c r="I164" s="44"/>
       <c r="J164" s="44">
         <f>SUM(J10:J162)</f>
-        <v>899525.9405074158</v>
+        <v>637771.83239571028</v>
       </c>
       <c r="K164" s="16"/>
     </row>
-    <row r="166" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B166" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C166" s="79">
+      <c r="C166" s="90">
         <f>J164</f>
-        <v>899525.9405074158</v>
-      </c>
-      <c r="D166" s="80"/>
+        <v>637771.83239571028</v>
+      </c>
+      <c r="D166" s="91"/>
       <c r="E166" s="14">
         <v>100</v>
       </c>
@@ -5217,66 +5217,66 @@
       <c r="J166" s="21"/>
       <c r="K166" s="22"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B167" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C167" s="86">
+      <c r="C167" s="97">
         <v>1000000</v>
       </c>
-      <c r="D167" s="87"/>
+      <c r="D167" s="98"/>
       <c r="E167" s="14"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B168" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C168" s="86">
+      <c r="C168" s="97">
         <f>C167-C170-C171</f>
         <v>950000</v>
       </c>
-      <c r="D168" s="87"/>
+      <c r="D168" s="98"/>
       <c r="E168" s="14">
         <f>C168/C166*100</f>
-        <v>105.61118442722311</v>
-      </c>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+        <v>148.95609240556195</v>
+      </c>
+    </row>
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B169" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C169" s="78">
+      <c r="C169" s="89">
         <f>C166-C168</f>
-        <v>-50474.059492584202</v>
-      </c>
-      <c r="D169" s="78"/>
+        <v>-312228.16760428972</v>
+      </c>
+      <c r="D169" s="89"/>
       <c r="E169" s="14">
         <f>100-E168</f>
-        <v>-5.6111844272231082</v>
-      </c>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-48.956092405561947</v>
+      </c>
+    </row>
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B170" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C170" s="79">
+      <c r="C170" s="90">
         <f>C167*0.03</f>
         <v>30000</v>
       </c>
-      <c r="D170" s="80"/>
+      <c r="D170" s="91"/>
       <c r="E170" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B171" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C171" s="79">
+      <c r="C171" s="90">
         <f>C167*0.02</f>
         <v>20000</v>
       </c>
-      <c r="D171" s="80"/>
+      <c r="D171" s="91"/>
       <c r="E171" s="14">
         <v>2</v>
       </c>

--- a/ofc/estimates/lakilla mandir/lakilla mandir.xlsx
+++ b/ofc/estimates/lakilla mandir/lakilla mandir.xlsx
@@ -2,24 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\lakilla mandir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\lakilla mandir\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WCR" sheetId="6" r:id="rId1"/>
     <sheet name="estimate" sheetId="17" r:id="rId2"/>
+    <sheet name="dachi both sides" sheetId="18" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
+    <definedName name="description_124" localSheetId="2">#REF!</definedName>
     <definedName name="description_124" localSheetId="1">#REF!</definedName>
     <definedName name="description_124">#REF!</definedName>
     <definedName name="description_261">[1]Abstract!$B$33</definedName>
@@ -27,11 +29,13 @@
     <definedName name="description_6">[2]Abstract!$B$172</definedName>
     <definedName name="description_759">[2]Abstract!$B$278</definedName>
     <definedName name="description_783">[2]Abstract!$B$301</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'dachi both sides'!$A$1:$K$197</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">estimate!$A$1:$K$171</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'dachi both sides'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">estimate!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">WCR!$1:$12</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="115">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -346,15 +350,63 @@
   </si>
   <si>
     <t>PS</t>
+  </si>
+  <si>
+    <t>-for plaster</t>
+  </si>
+  <si>
+    <t>-outer face wall</t>
+  </si>
+  <si>
+    <t>-inner face wall</t>
+  </si>
+  <si>
+    <t>e'O{+tNnfdf lrDgL e§fsf] O{+6fsf] uf/f] l;d]G6 d;nf -!M^_ df</t>
+  </si>
+  <si>
+    <t>-deduction for base for placement of things</t>
+  </si>
+  <si>
+    <t>Middle class Gongacha (corner bird) fixing works</t>
+  </si>
+  <si>
+    <t>-for roof</t>
+  </si>
+  <si>
+    <t>Dhuri Chang small (horizontal and vertical) works size 203*152*52mm</t>
+  </si>
+  <si>
+    <t>-for lower roof</t>
+  </si>
+  <si>
+    <t>-for upper roof</t>
+  </si>
+  <si>
+    <t>-2nd floor</t>
+  </si>
+  <si>
+    <t>-deduction for tika jhyal</t>
+  </si>
+  <si>
+    <t>-cantilever</t>
+  </si>
+  <si>
+    <t>20/22/26 gauge brass sheet gajur making and fixing on roof</t>
+  </si>
+  <si>
+    <t>-for upper roof (gajur size height 12" of weight approx. 1.2 kg)</t>
+  </si>
+  <si>
+    <t>Kg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -586,9 +638,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -596,7 +648,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -618,7 +670,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -634,7 +686,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -643,7 +695,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -652,7 +704,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -671,7 +723,7 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -703,7 +755,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -724,7 +776,7 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -742,7 +794,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -752,7 +804,7 @@
     <xf numFmtId="1" fontId="22" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -768,24 +820,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -806,6 +840,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -835,6 +887,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1261,107 +1316,107 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-    </row>
-    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="79" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+    </row>
+    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="79"/>
-      <c r="K2" s="79"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="86"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="81" t="s">
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="88" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="81"/>
-      <c r="K5" s="81"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="76" t="e">
+      <c r="C6" s="83" t="e">
         <f>F18</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="77"/>
+      <c r="D6" s="84"/>
       <c r="E6" s="11"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -1369,13 +1424,13 @@
         <v>18</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="76" t="e">
+      <c r="J6" s="83" t="e">
         <f>I18</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="77"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="84"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>27</v>
       </c>
@@ -1384,75 +1439,75 @@
       <c r="D7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
-      <c r="I7" s="85" t="s">
+      <c r="I7" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="84" t="e">
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="78" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="I8" s="86" t="s">
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="I8" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="87" t="e">
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="81" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B9" s="87"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="I9" s="86" t="s">
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="I9" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="82" t="s">
+      <c r="B11" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="82" t="s">
+      <c r="C11" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="88" t="s">
+      <c r="D11" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88" t="s">
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="82" t="s">
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="83" t="s">
+      <c r="K11" s="77" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="82"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="76"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="13" t="s">
         <v>24</v>
       </c>
@@ -1471,10 +1526,10 @@
       <c r="I12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="82"/>
-      <c r="K12" s="83"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="76"/>
+      <c r="K12" s="77"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1517,7 +1572,7 @@
       </c>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
       <c r="B14" s="36" t="e">
         <f>#REF!</f>
@@ -1542,7 +1597,7 @@
       </c>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33"/>
       <c r="B15" s="36"/>
       <c r="C15" s="14"/>
@@ -1555,7 +1610,7 @@
       <c r="J15" s="34"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1598,7 +1653,7 @@
       </c>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="14"/>
@@ -1611,7 +1666,7 @@
       <c r="J17" s="34"/>
       <c r="K17" s="17"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>15</v>
@@ -1637,6 +1692,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -1649,13 +1711,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1673,30 +1728,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A139" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="M139" sqref="M139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="93" t="s">
         <v>0</v>
       </c>
@@ -1711,7 +1766,7 @@
       <c r="J1" s="93"/>
       <c r="K1" s="93"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A2" s="94" t="s">
         <v>1</v>
       </c>
@@ -1726,37 +1781,37 @@
       <c r="J2" s="94"/>
       <c r="K2" s="94"/>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-    </row>
-    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+    </row>
+    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="95" t="s">
         <v>50</v>
       </c>
@@ -1771,7 +1826,7 @@
       <c r="J5" s="95"/>
       <c r="K5" s="95"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>46</v>
       </c>
@@ -1788,7 +1843,7 @@
       <c r="J6" s="92"/>
       <c r="K6" s="92"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="96" t="s">
         <v>26</v>
       </c>
@@ -1805,7 +1860,7 @@
       <c r="J7" s="92"/>
       <c r="K7" s="92"/>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1840,7 +1895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -1857,7 +1912,7 @@
       <c r="J9" s="40"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" s="45" t="s">
         <v>42</v>
@@ -1884,7 +1939,7 @@
       <c r="J10" s="44"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="45" t="s">
         <v>38</v>
@@ -1909,7 +1964,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="45" t="s">
         <v>52</v>
@@ -1927,7 +1982,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
       <c r="B13" s="30"/>
       <c r="C13" s="27"/>
@@ -1947,7 +2002,7 @@
       <c r="R13" s="31"/>
       <c r="S13" s="31"/>
     </row>
-    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="43">
         <v>2</v>
       </c>
@@ -1964,7 +2019,7 @@
       <c r="J14" s="40"/>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="43"/>
       <c r="B15" s="45" t="s">
         <v>42</v>
@@ -1989,7 +2044,7 @@
       <c r="J15" s="44"/>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="43"/>
       <c r="B16" s="45" t="s">
         <v>44</v>
@@ -2014,7 +2069,7 @@
       <c r="J16" s="44"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
       <c r="B17" s="45" t="s">
         <v>43</v>
@@ -2039,7 +2094,7 @@
       <c r="J17" s="44"/>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
       <c r="B18" s="45" t="s">
         <v>65</v>
@@ -2063,7 +2118,7 @@
       <c r="J18" s="44"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
       <c r="B19" s="45" t="s">
         <v>90</v>
@@ -2089,7 +2144,7 @@
       <c r="J19" s="44"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
       <c r="B20" s="45" t="s">
         <v>91</v>
@@ -2115,7 +2170,7 @@
       <c r="J20" s="44"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="45" t="s">
         <v>92</v>
@@ -2141,7 +2196,7 @@
       <c r="J21" s="44"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
       <c r="B22" s="45" t="s">
         <v>38</v>
@@ -2167,7 +2222,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="43"/>
       <c r="B23" s="45" t="s">
         <v>52</v>
@@ -2185,7 +2240,7 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26"/>
       <c r="B24" s="30"/>
       <c r="C24" s="27"/>
@@ -2205,7 +2260,7 @@
       <c r="R24" s="31"/>
       <c r="S24" s="31"/>
     </row>
-    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A25" s="26">
         <v>3</v>
       </c>
@@ -2229,7 +2284,7 @@
       <c r="R25" s="31"/>
       <c r="S25" s="31"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="43"/>
       <c r="B26" s="45" t="s">
         <v>79</v>
@@ -2252,7 +2307,7 @@
       <c r="J26" s="44"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="43"/>
       <c r="B27" s="45" t="s">
         <v>38</v>
@@ -2278,7 +2333,7 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="43"/>
       <c r="B28" s="45" t="s">
         <v>52</v>
@@ -2296,7 +2351,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="26"/>
       <c r="B29" s="30"/>
       <c r="C29" s="27"/>
@@ -2316,7 +2371,7 @@
       <c r="R29" s="31"/>
       <c r="S29" s="31"/>
     </row>
-    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A30" s="26">
         <v>3</v>
       </c>
@@ -2340,7 +2395,7 @@
       <c r="R30" s="31"/>
       <c r="S30" s="31"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="43"/>
       <c r="B31" s="45" t="s">
         <v>79</v>
@@ -2363,7 +2418,7 @@
       <c r="J31" s="44"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
       <c r="B32" s="45" t="s">
         <v>38</v>
@@ -2389,7 +2444,7 @@
       </c>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="43"/>
       <c r="B33" s="45" t="s">
         <v>52</v>
@@ -2407,7 +2462,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="26"/>
       <c r="B34" s="30"/>
       <c r="C34" s="27"/>
@@ -2427,7 +2482,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="31"/>
     </row>
-    <row r="35" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A35" s="26">
         <v>3</v>
       </c>
@@ -2451,7 +2506,7 @@
       <c r="R35" s="31"/>
       <c r="S35" s="31"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="43"/>
       <c r="B36" s="45" t="s">
         <v>79</v>
@@ -2474,7 +2529,7 @@
       <c r="J36" s="44"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="43"/>
       <c r="B37" s="45" t="s">
         <v>38</v>
@@ -2500,7 +2555,7 @@
       </c>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="43"/>
       <c r="B38" s="45" t="s">
         <v>52</v>
@@ -2518,7 +2573,7 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26"/>
       <c r="B39" s="30"/>
       <c r="C39" s="27"/>
@@ -2538,7 +2593,7 @@
       <c r="R39" s="31"/>
       <c r="S39" s="31"/>
     </row>
-    <row r="40" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A40" s="26">
         <v>3</v>
       </c>
@@ -2562,7 +2617,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="31"/>
     </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="43"/>
       <c r="B41" s="45" t="s">
         <v>79</v>
@@ -2585,7 +2640,7 @@
       <c r="J41" s="44"/>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="43"/>
       <c r="B42" s="45" t="s">
         <v>38</v>
@@ -2611,7 +2666,7 @@
       </c>
       <c r="K42" s="16"/>
     </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="43"/>
       <c r="B43" s="45" t="s">
         <v>52</v>
@@ -2629,7 +2684,7 @@
       </c>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="26"/>
       <c r="B44" s="30"/>
       <c r="C44" s="27"/>
@@ -2649,7 +2704,7 @@
       <c r="R44" s="31"/>
       <c r="S44" s="31"/>
     </row>
-    <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A45" s="64">
         <v>3</v>
       </c>
@@ -2673,7 +2728,7 @@
       <c r="R45" s="31"/>
       <c r="S45" s="31"/>
     </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="43"/>
       <c r="B46" s="45" t="s">
         <v>79</v>
@@ -2696,7 +2751,7 @@
       <c r="J46" s="44"/>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="43"/>
       <c r="B47" s="45" t="s">
         <v>38</v>
@@ -2722,7 +2777,7 @@
       </c>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="43"/>
       <c r="B48" s="45" t="s">
         <v>52</v>
@@ -2740,7 +2795,7 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="26"/>
       <c r="B49" s="30"/>
       <c r="C49" s="27"/>
@@ -2760,7 +2815,7 @@
       <c r="R49" s="31"/>
       <c r="S49" s="31"/>
     </row>
-    <row r="50" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A50" s="64">
         <v>3</v>
       </c>
@@ -2784,7 +2839,7 @@
       <c r="R50" s="31"/>
       <c r="S50" s="31"/>
     </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="43"/>
       <c r="B51" s="45" t="s">
         <v>79</v>
@@ -2807,7 +2862,7 @@
       <c r="J51" s="44"/>
       <c r="K51" s="16"/>
     </row>
-    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="43"/>
       <c r="B52" s="45" t="s">
         <v>38</v>
@@ -2833,7 +2888,7 @@
       </c>
       <c r="K52" s="16"/>
     </row>
-    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="43"/>
       <c r="B53" s="45" t="s">
         <v>52</v>
@@ -2851,7 +2906,7 @@
       </c>
       <c r="K53" s="16"/>
     </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="26"/>
       <c r="B54" s="30"/>
       <c r="C54" s="27"/>
@@ -2871,7 +2926,7 @@
       <c r="R54" s="31"/>
       <c r="S54" s="31"/>
     </row>
-    <row r="55" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A55" s="64">
         <v>3</v>
       </c>
@@ -2895,7 +2950,7 @@
       <c r="R55" s="31"/>
       <c r="S55" s="31"/>
     </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="43"/>
       <c r="B56" s="45" t="s">
         <v>79</v>
@@ -2918,7 +2973,7 @@
       <c r="J56" s="44"/>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="43"/>
       <c r="B57" s="45" t="s">
         <v>38</v>
@@ -2944,7 +2999,7 @@
       </c>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="43"/>
       <c r="B58" s="45" t="s">
         <v>52</v>
@@ -2962,7 +3017,7 @@
       </c>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26"/>
       <c r="B59" s="30"/>
       <c r="C59" s="27"/>
@@ -2982,7 +3037,7 @@
       <c r="R59" s="31"/>
       <c r="S59" s="31"/>
     </row>
-    <row r="60" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A60" s="64">
         <v>3</v>
       </c>
@@ -3006,7 +3061,7 @@
       <c r="R60" s="31"/>
       <c r="S60" s="31"/>
     </row>
-    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="43"/>
       <c r="B61" s="45" t="s">
         <v>79</v>
@@ -3029,7 +3084,7 @@
       <c r="J61" s="44"/>
       <c r="K61" s="16"/>
     </row>
-    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="43"/>
       <c r="B62" s="45" t="s">
         <v>38</v>
@@ -3055,7 +3110,7 @@
       </c>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="43"/>
       <c r="B63" s="45" t="s">
         <v>52</v>
@@ -3073,7 +3128,7 @@
       </c>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="26"/>
       <c r="B64" s="30"/>
       <c r="C64" s="27"/>
@@ -3093,7 +3148,7 @@
       <c r="R64" s="31"/>
       <c r="S64" s="31"/>
     </row>
-    <row r="65" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A65" s="64">
         <v>3</v>
       </c>
@@ -3117,7 +3172,7 @@
       <c r="R65" s="31"/>
       <c r="S65" s="31"/>
     </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="43"/>
       <c r="B66" s="45" t="s">
         <v>79</v>
@@ -3140,7 +3195,7 @@
       <c r="J66" s="44"/>
       <c r="K66" s="16"/>
     </row>
-    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="43"/>
       <c r="B67" s="45" t="s">
         <v>38</v>
@@ -3166,7 +3221,7 @@
       </c>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="43"/>
       <c r="B68" s="45" t="s">
         <v>52</v>
@@ -3184,7 +3239,7 @@
       </c>
       <c r="K68" s="16"/>
     </row>
-    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="26"/>
       <c r="B69" s="30"/>
       <c r="C69" s="27"/>
@@ -3204,7 +3259,7 @@
       <c r="R69" s="31"/>
       <c r="S69" s="31"/>
     </row>
-    <row r="70" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A70" s="64">
         <v>3</v>
       </c>
@@ -3228,7 +3283,7 @@
       <c r="R70" s="31"/>
       <c r="S70" s="31"/>
     </row>
-    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="43"/>
       <c r="B71" s="45" t="s">
         <v>79</v>
@@ -3251,7 +3306,7 @@
       <c r="J71" s="44"/>
       <c r="K71" s="16"/>
     </row>
-    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="43"/>
       <c r="B72" s="45" t="s">
         <v>38</v>
@@ -3277,7 +3332,7 @@
       </c>
       <c r="K72" s="16"/>
     </row>
-    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="43"/>
       <c r="B73" s="45" t="s">
         <v>52</v>
@@ -3295,7 +3350,7 @@
       </c>
       <c r="K73" s="16"/>
     </row>
-    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="26"/>
       <c r="B74" s="30"/>
       <c r="C74" s="27"/>
@@ -3315,7 +3370,7 @@
       <c r="R74" s="31"/>
       <c r="S74" s="31"/>
     </row>
-    <row r="75" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="30" x14ac:dyDescent="0.3">
       <c r="A75" s="26">
         <v>3</v>
       </c>
@@ -3339,7 +3394,7 @@
       <c r="R75" s="31"/>
       <c r="S75" s="31"/>
     </row>
-    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="43"/>
       <c r="B76" s="45" t="s">
         <v>54</v>
@@ -3363,7 +3418,7 @@
       <c r="J76" s="44"/>
       <c r="K76" s="16"/>
     </row>
-    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="43"/>
       <c r="B77" s="45" t="s">
         <v>38</v>
@@ -3388,7 +3443,7 @@
       </c>
       <c r="K77" s="16"/>
     </row>
-    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="43"/>
       <c r="B78" s="45" t="s">
         <v>52</v>
@@ -3406,7 +3461,7 @@
       </c>
       <c r="K78" s="16"/>
     </row>
-    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="43"/>
       <c r="B79" s="45"/>
       <c r="C79" s="46"/>
@@ -3419,7 +3474,7 @@
       <c r="J79" s="40"/>
       <c r="K79" s="16"/>
     </row>
-    <row r="80" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="30" x14ac:dyDescent="0.3">
       <c r="A80" s="43">
         <v>4</v>
       </c>
@@ -3436,7 +3491,7 @@
       <c r="J80" s="40"/>
       <c r="K80" s="16"/>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="43"/>
       <c r="B81" s="45" t="s">
         <v>54</v>
@@ -3461,7 +3516,7 @@
       <c r="J81" s="44"/>
       <c r="K81" s="16"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="43"/>
       <c r="B82" s="45" t="s">
         <v>55</v>
@@ -3486,7 +3541,7 @@
       <c r="J82" s="44"/>
       <c r="K82" s="16"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="43"/>
       <c r="B83" s="45" t="s">
         <v>38</v>
@@ -3511,7 +3566,7 @@
       </c>
       <c r="K83" s="16"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="43"/>
       <c r="B84" s="45" t="s">
         <v>52</v>
@@ -3529,7 +3584,7 @@
       </c>
       <c r="K84" s="16"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="43"/>
       <c r="B85" s="45"/>
       <c r="C85" s="46"/>
@@ -3542,7 +3597,7 @@
       <c r="J85" s="40"/>
       <c r="K85" s="16"/>
     </row>
-    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A86" s="43">
         <v>5</v>
       </c>
@@ -3559,7 +3614,7 @@
       <c r="J86" s="40"/>
       <c r="K86" s="16"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="43"/>
       <c r="B87" s="45" t="s">
         <v>54</v>
@@ -3584,7 +3639,7 @@
       <c r="J87" s="44"/>
       <c r="K87" s="16"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="43"/>
       <c r="B88" s="45" t="s">
         <v>38</v>
@@ -3609,7 +3664,7 @@
       </c>
       <c r="K88" s="16"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="43"/>
       <c r="B89" s="45" t="s">
         <v>52</v>
@@ -3627,7 +3682,7 @@
       </c>
       <c r="K89" s="16"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="43"/>
       <c r="B90" s="45"/>
       <c r="C90" s="46"/>
@@ -3640,7 +3695,7 @@
       <c r="J90" s="40"/>
       <c r="K90" s="16"/>
     </row>
-    <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A91" s="58">
         <v>6</v>
       </c>
@@ -3657,7 +3712,7 @@
       <c r="J91" s="40"/>
       <c r="K91" s="16"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="43"/>
       <c r="B92" s="45" t="str">
         <f>B82</f>
@@ -3684,7 +3739,7 @@
       <c r="J92" s="9"/>
       <c r="K92" s="16"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="43"/>
       <c r="B93" s="45" t="s">
         <v>38</v>
@@ -3710,7 +3765,7 @@
       </c>
       <c r="K93" s="16"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="43"/>
       <c r="B94" s="45" t="s">
         <v>52</v>
@@ -3728,7 +3783,7 @@
       </c>
       <c r="K94" s="16"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="43"/>
       <c r="B95" s="45"/>
       <c r="C95" s="46"/>
@@ -3741,7 +3796,7 @@
       <c r="J95" s="40"/>
       <c r="K95" s="16"/>
     </row>
-    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A96" s="58">
         <v>7</v>
       </c>
@@ -3758,7 +3813,7 @@
       <c r="J96" s="40"/>
       <c r="K96" s="16"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="43"/>
       <c r="B97" s="45" t="s">
         <v>60</v>
@@ -3784,7 +3839,7 @@
       <c r="J97" s="9"/>
       <c r="K97" s="16"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="43"/>
       <c r="B98" s="45" t="s">
         <v>61</v>
@@ -3808,7 +3863,7 @@
       <c r="J98" s="9"/>
       <c r="K98" s="16"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="43"/>
       <c r="B99" s="45"/>
       <c r="C99" s="46">
@@ -3830,7 +3885,7 @@
       <c r="J99" s="9"/>
       <c r="K99" s="16"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="43"/>
       <c r="B100" s="45"/>
       <c r="C100" s="46">
@@ -3853,7 +3908,7 @@
       <c r="J100" s="9"/>
       <c r="K100" s="16"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="43"/>
       <c r="B101" s="45"/>
       <c r="C101" s="46">
@@ -3875,7 +3930,7 @@
       <c r="J101" s="9"/>
       <c r="K101" s="16"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="43"/>
       <c r="B102" s="45" t="s">
         <v>76</v>
@@ -3901,7 +3956,7 @@
       <c r="J102" s="9"/>
       <c r="K102" s="16"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="43"/>
       <c r="B103" s="45" t="s">
         <v>77</v>
@@ -3927,7 +3982,7 @@
       <c r="J103" s="9"/>
       <c r="K103" s="16"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="43"/>
       <c r="B104" s="45"/>
       <c r="C104" s="46">
@@ -3951,7 +4006,7 @@
       <c r="J104" s="9"/>
       <c r="K104" s="16"/>
     </row>
-    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="43"/>
       <c r="B105" s="45" t="s">
         <v>38</v>
@@ -3976,7 +4031,7 @@
       </c>
       <c r="K105" s="16"/>
     </row>
-    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="43"/>
       <c r="B106" s="45" t="s">
         <v>52</v>
@@ -3994,7 +4049,7 @@
       </c>
       <c r="K106" s="16"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="43"/>
       <c r="B107" s="45"/>
       <c r="C107" s="46"/>
@@ -4007,7 +4062,7 @@
       <c r="J107" s="40"/>
       <c r="K107" s="16"/>
     </row>
-    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A108" s="43">
         <v>8</v>
       </c>
@@ -4024,7 +4079,7 @@
       <c r="J108" s="40"/>
       <c r="K108" s="16"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="43"/>
       <c r="B109" s="45" t="s">
         <v>63</v>
@@ -4047,7 +4102,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="16"/>
     </row>
-    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="43"/>
       <c r="B110" s="45" t="s">
         <v>38</v>
@@ -4072,7 +4127,7 @@
       </c>
       <c r="K110" s="16"/>
     </row>
-    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="43"/>
       <c r="B111" s="45" t="s">
         <v>52</v>
@@ -4090,7 +4145,7 @@
       </c>
       <c r="K111" s="16"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="43"/>
       <c r="B112" s="45"/>
       <c r="C112" s="46"/>
@@ -4103,7 +4158,7 @@
       <c r="J112" s="40"/>
       <c r="K112" s="16"/>
     </row>
-    <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A113" s="43">
         <v>9</v>
       </c>
@@ -4120,7 +4175,7 @@
       <c r="J113" s="40"/>
       <c r="K113" s="16"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="43"/>
       <c r="B114" s="45" t="s">
         <v>63</v>
@@ -4143,7 +4198,7 @@
       <c r="J114" s="9"/>
       <c r="K114" s="16"/>
     </row>
-    <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="43"/>
       <c r="B115" s="45" t="s">
         <v>38</v>
@@ -4168,7 +4223,7 @@
       </c>
       <c r="K115" s="16"/>
     </row>
-    <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="43"/>
       <c r="B116" s="45" t="s">
         <v>52</v>
@@ -4186,7 +4241,7 @@
       </c>
       <c r="K116" s="16"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="43"/>
       <c r="B117" s="45"/>
       <c r="C117" s="46"/>
@@ -4199,7 +4254,7 @@
       <c r="J117" s="40"/>
       <c r="K117" s="16"/>
     </row>
-    <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="43">
         <v>10</v>
       </c>
@@ -4216,7 +4271,7 @@
       <c r="J118" s="40"/>
       <c r="K118" s="5"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="43"/>
       <c r="B119" s="56" t="s">
         <v>67</v>
@@ -4244,7 +4299,7 @@
       <c r="J119" s="40"/>
       <c r="K119" s="5"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="43"/>
       <c r="B120" s="56"/>
       <c r="C120" s="53">
@@ -4269,7 +4324,7 @@
       <c r="J120" s="40"/>
       <c r="K120" s="5"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="43"/>
       <c r="B121" s="56" t="s">
         <v>68</v>
@@ -4296,7 +4351,7 @@
       <c r="J121" s="40"/>
       <c r="K121" s="5"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="43"/>
       <c r="B122" s="56"/>
       <c r="C122" s="53">
@@ -4322,7 +4377,7 @@
       <c r="J122" s="40"/>
       <c r="K122" s="5"/>
     </row>
-    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="43"/>
       <c r="B123" s="56" t="s">
         <v>38</v>
@@ -4348,7 +4403,7 @@
       </c>
       <c r="K123" s="5"/>
     </row>
-    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="43"/>
       <c r="B124" s="56" t="s">
         <v>52</v>
@@ -4366,7 +4421,7 @@
       </c>
       <c r="K124" s="5"/>
     </row>
-    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="43"/>
       <c r="B125" s="56"/>
       <c r="C125" s="53"/>
@@ -4379,7 +4434,7 @@
       <c r="J125" s="61"/>
       <c r="K125" s="5"/>
     </row>
-    <row r="126" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A126" s="43">
         <v>11</v>
       </c>
@@ -4397,7 +4452,7 @@
       <c r="K126" s="5"/>
       <c r="M126" s="63"/>
     </row>
-    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="43"/>
       <c r="B127" s="56" t="s">
         <v>70</v>
@@ -4423,7 +4478,7 @@
       <c r="J127" s="40"/>
       <c r="K127" s="5"/>
     </row>
-    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="43"/>
       <c r="B128" s="56" t="s">
         <v>38</v>
@@ -4449,7 +4504,7 @@
       </c>
       <c r="K128" s="5"/>
     </row>
-    <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="43"/>
       <c r="B129" s="56" t="s">
         <v>52</v>
@@ -4467,7 +4522,7 @@
       </c>
       <c r="K129" s="5"/>
     </row>
-    <row r="130" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="43"/>
       <c r="B130" s="52"/>
       <c r="C130" s="53"/>
@@ -4481,7 +4536,7 @@
       <c r="K130" s="5"/>
       <c r="M130" s="63"/>
     </row>
-    <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="43">
         <v>12</v>
       </c>
@@ -4498,7 +4553,7 @@
       <c r="J131" s="40"/>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="43"/>
       <c r="B132" s="56" t="s">
         <v>70</v>
@@ -4524,7 +4579,7 @@
       <c r="J132" s="40"/>
       <c r="K132" s="5"/>
     </row>
-    <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="43"/>
       <c r="B133" s="56" t="s">
         <v>38</v>
@@ -4550,7 +4605,7 @@
       </c>
       <c r="K133" s="5"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="43"/>
       <c r="B134" s="62"/>
       <c r="C134" s="53"/>
@@ -4563,7 +4618,7 @@
       <c r="J134" s="40"/>
       <c r="K134" s="5"/>
     </row>
-    <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="43">
         <v>13</v>
       </c>
@@ -4580,7 +4635,7 @@
       <c r="J135" s="40"/>
       <c r="K135" s="5"/>
     </row>
-    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="43"/>
       <c r="B136" s="56" t="s">
         <v>72</v>
@@ -4606,7 +4661,7 @@
       <c r="J136" s="40"/>
       <c r="K136" s="5"/>
     </row>
-    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="43"/>
       <c r="B137" s="56" t="s">
         <v>38</v>
@@ -4632,7 +4687,7 @@
       </c>
       <c r="K137" s="5"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="43"/>
       <c r="B138" s="62"/>
       <c r="C138" s="53"/>
@@ -4645,7 +4700,7 @@
       <c r="J138" s="40"/>
       <c r="K138" s="5"/>
     </row>
-    <row r="139" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="43">
         <v>14</v>
       </c>
@@ -4662,7 +4717,7 @@
       <c r="J139" s="40"/>
       <c r="K139" s="5"/>
     </row>
-    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="43"/>
       <c r="B140" s="56" t="s">
         <v>74</v>
@@ -4688,7 +4743,7 @@
       <c r="J140" s="40"/>
       <c r="K140" s="5"/>
     </row>
-    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="43"/>
       <c r="B141" s="70" t="s">
         <v>96</v>
@@ -4713,7 +4768,7 @@
       <c r="J141" s="40"/>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="43"/>
       <c r="B142" s="56" t="s">
         <v>38</v>
@@ -4739,7 +4794,7 @@
       </c>
       <c r="K142" s="5"/>
     </row>
-    <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="43"/>
       <c r="B143" s="56" t="s">
         <v>52</v>
@@ -4757,7 +4812,7 @@
       </c>
       <c r="K143" s="5"/>
     </row>
-    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="43"/>
       <c r="B144" s="56"/>
       <c r="C144" s="53"/>
@@ -4771,7 +4826,7 @@
       <c r="K144" s="5"/>
       <c r="M144" s="63"/>
     </row>
-    <row r="145" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A145" s="65">
         <v>15</v>
       </c>
@@ -4789,7 +4844,7 @@
       <c r="K145" s="5"/>
       <c r="M145" s="63"/>
     </row>
-    <row r="146" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="65"/>
       <c r="B146" s="70" t="s">
         <v>94</v>
@@ -4815,7 +4870,7 @@
       <c r="J146" s="69"/>
       <c r="K146" s="5"/>
     </row>
-    <row r="147" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="65"/>
       <c r="B147" s="70" t="s">
         <v>95</v>
@@ -4841,7 +4896,7 @@
       <c r="J147" s="69"/>
       <c r="K147" s="5"/>
     </row>
-    <row r="148" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="65"/>
       <c r="B148" s="70" t="s">
         <v>38</v>
@@ -4867,7 +4922,7 @@
       </c>
       <c r="K148" s="5"/>
     </row>
-    <row r="149" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="65"/>
       <c r="B149" s="70" t="s">
         <v>52</v>
@@ -4885,7 +4940,7 @@
       </c>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="65"/>
       <c r="B150" s="74"/>
       <c r="C150" s="67"/>
@@ -4899,7 +4954,7 @@
       <c r="K150" s="5"/>
       <c r="M150" s="63"/>
     </row>
-    <row r="151" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="65">
         <v>16</v>
       </c>
@@ -4917,7 +4972,7 @@
       <c r="K151" s="5"/>
       <c r="M151" s="63"/>
     </row>
-    <row r="152" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="65"/>
       <c r="B152" s="70" t="str">
         <f t="shared" ref="B152:E153" si="12">B146</f>
@@ -4945,7 +5000,7 @@
       <c r="J152" s="69"/>
       <c r="K152" s="5"/>
     </row>
-    <row r="153" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="65"/>
       <c r="B153" s="70" t="str">
         <f t="shared" si="12"/>
@@ -4973,7 +5028,7 @@
       <c r="J153" s="69"/>
       <c r="K153" s="5"/>
     </row>
-    <row r="154" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="65"/>
       <c r="B154" s="70" t="s">
         <v>38</v>
@@ -4999,7 +5054,7 @@
       </c>
       <c r="K154" s="5"/>
     </row>
-    <row r="155" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="65"/>
       <c r="B155" s="70" t="s">
         <v>52</v>
@@ -5017,7 +5072,7 @@
       </c>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="43"/>
       <c r="B156" s="52"/>
       <c r="C156" s="53"/>
@@ -5031,7 +5086,7 @@
       <c r="K156" s="5"/>
       <c r="M156" s="63"/>
     </row>
-    <row r="157" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="43"/>
       <c r="B157" s="56"/>
       <c r="C157" s="53"/>
@@ -5045,7 +5100,7 @@
       <c r="K157" s="5"/>
       <c r="M157" s="63"/>
     </row>
-    <row r="158" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="43"/>
       <c r="B158" s="56"/>
       <c r="C158" s="53"/>
@@ -5059,7 +5114,7 @@
       <c r="K158" s="5"/>
       <c r="M158" s="63"/>
     </row>
-    <row r="159" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="43"/>
       <c r="B159" s="56"/>
       <c r="C159" s="53"/>
@@ -5073,7 +5128,7 @@
       <c r="K159" s="5"/>
       <c r="M159" s="63"/>
     </row>
-    <row r="160" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A160" s="26">
         <v>15</v>
       </c>
@@ -5109,7 +5164,7 @@
       <c r="R160" s="31"/>
       <c r="S160" s="31"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" s="43"/>
       <c r="B161" s="45"/>
       <c r="C161" s="46"/>
@@ -5122,7 +5177,7 @@
       <c r="J161" s="44"/>
       <c r="K161" s="16"/>
     </row>
-    <row r="162" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A162" s="26">
         <v>16</v>
       </c>
@@ -5159,7 +5214,7 @@
       <c r="S162" s="18"/>
       <c r="T162" s="18"/>
     </row>
-    <row r="163" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A163" s="26"/>
       <c r="B163" s="30"/>
       <c r="C163" s="27"/>
@@ -5180,7 +5235,7 @@
       <c r="S163" s="18"/>
       <c r="T163" s="18"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" s="43"/>
       <c r="B164" s="50" t="s">
         <v>15</v>
@@ -5198,7 +5253,7 @@
       </c>
       <c r="K164" s="16"/>
     </row>
-    <row r="166" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B166" s="16" t="s">
         <v>25</v>
       </c>
@@ -5217,7 +5272,7 @@
       <c r="J166" s="21"/>
       <c r="K166" s="22"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B167" s="16" t="s">
         <v>30</v>
       </c>
@@ -5227,7 +5282,7 @@
       <c r="D167" s="98"/>
       <c r="E167" s="14"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B168" s="16" t="s">
         <v>31</v>
       </c>
@@ -5241,7 +5296,7 @@
         <v>148.95609240556195</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B169" s="16" t="s">
         <v>32</v>
       </c>
@@ -5255,7 +5310,7 @@
         <v>-48.956092405561947</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B170" s="16" t="s">
         <v>33</v>
       </c>
@@ -5268,7 +5323,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B171" s="16" t="s">
         <v>34</v>
       </c>
@@ -5308,4 +5363,4225 @@
 </oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T197"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H192" sqref="H192"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="93"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="87"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+    </row>
+    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="95"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="92"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="96" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="92" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="92"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="43">
+        <v>1</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="43"/>
+      <c r="B10" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="46">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="14">
+        <f>2.72-1.3</f>
+        <v>1.4200000000000002</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" ref="G10" si="0">PRODUCT(C10:F10)</f>
+        <v>1.9241000000000001</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="43"/>
+      <c r="B11" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="44">
+        <f>SUM(G10:G10)</f>
+        <v>1.9241000000000001</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="44">
+        <v>64.63</v>
+      </c>
+      <c r="J11" s="44">
+        <f>G11*I11</f>
+        <v>124.35458300000001</v>
+      </c>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="43"/>
+      <c r="B12" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44">
+        <f>0.13*G11*(19284/360)</f>
+        <v>13.398791033333337</v>
+      </c>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="29"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+    </row>
+    <row r="14" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="43">
+        <v>2</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="43"/>
+      <c r="B15" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="46">
+        <v>2</v>
+      </c>
+      <c r="D15" s="14">
+        <f>2.7+0.23</f>
+        <v>2.93</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14">
+        <v>2.41</v>
+      </c>
+      <c r="G15" s="14">
+        <f t="shared" ref="G15:G20" si="1">PRODUCT(C15:F15)</f>
+        <v>14.122600000000002</v>
+      </c>
+      <c r="H15" s="47"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="43"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46">
+        <v>2</v>
+      </c>
+      <c r="D16" s="14">
+        <f>2.7+0.23</f>
+        <v>2.93</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14">
+        <v>2.41</v>
+      </c>
+      <c r="G16" s="14">
+        <f t="shared" ref="G16:G17" si="2">PRODUCT(C16:F16)</f>
+        <v>14.122600000000002</v>
+      </c>
+      <c r="H16" s="47"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="43"/>
+      <c r="B17" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="46">
+        <v>1</v>
+      </c>
+      <c r="D17" s="14">
+        <f>2.7-0.23+2.7-0.23+2.7-0.23</f>
+        <v>7.4099999999999993</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14">
+        <v>2.41</v>
+      </c>
+      <c r="G17" s="14">
+        <f t="shared" si="2"/>
+        <v>17.8581</v>
+      </c>
+      <c r="H17" s="47"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="43"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46">
+        <v>1</v>
+      </c>
+      <c r="D18" s="14">
+        <f>2.7-0.23</f>
+        <v>2.4700000000000002</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14">
+        <f>2.41-0.75</f>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="G18" s="14">
+        <f t="shared" ref="G18:G19" si="3">PRODUCT(C18:F18)</f>
+        <v>4.100200000000001</v>
+      </c>
+      <c r="H18" s="47"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="43"/>
+      <c r="B19" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="46">
+        <f>-C33</f>
+        <v>-2</v>
+      </c>
+      <c r="D19" s="14">
+        <f>D33</f>
+        <v>0.53337397135019804</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14">
+        <f>F33</f>
+        <v>0.75</v>
+      </c>
+      <c r="G19" s="14">
+        <f t="shared" si="3"/>
+        <v>-0.800060957025297</v>
+      </c>
+      <c r="H19" s="47"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="43"/>
+      <c r="B20" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="46">
+        <f>2*-3</f>
+        <v>-6</v>
+      </c>
+      <c r="D20" s="14">
+        <f>0.9</f>
+        <v>0.9</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="G20" s="14">
+        <f t="shared" si="1"/>
+        <v>-4.8600000000000003</v>
+      </c>
+      <c r="H20" s="47"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="43"/>
+      <c r="B21" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="46">
+        <f>2*-1</f>
+        <v>-2</v>
+      </c>
+      <c r="D21" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14">
+        <f>7/3.281</f>
+        <v>2.1334958854007922</v>
+      </c>
+      <c r="G21" s="14">
+        <f>PRODUCT(C21:F21)</f>
+        <v>-5.1203901249619008</v>
+      </c>
+      <c r="H21" s="47"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="43"/>
+      <c r="B22" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="46">
+        <v>1</v>
+      </c>
+      <c r="D22" s="14">
+        <v>2.08</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14">
+        <f>0.75-0.15*4</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="G22" s="14">
+        <f>PRODUCT(C22:F22)</f>
+        <v>0.31200000000000006</v>
+      </c>
+      <c r="H22" s="47"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="16"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="43"/>
+      <c r="B23" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="46">
+        <v>-1</v>
+      </c>
+      <c r="D23" s="14">
+        <f>D38</f>
+        <v>14.070000000000002</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14">
+        <f>(11*6)/12/3.281</f>
+        <v>1.6763181956720512</v>
+      </c>
+      <c r="G23" s="14">
+        <f>PRODUCT(C23:F23)</f>
+        <v>-23.585797013105765</v>
+      </c>
+      <c r="H23" s="47"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="43"/>
+      <c r="B24" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="46">
+        <v>-1</v>
+      </c>
+      <c r="D24" s="14">
+        <f>D21</f>
+        <v>1.2</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14">
+        <f>(7+6+3*6)/12/3.281</f>
+        <v>0.78736157675505436</v>
+      </c>
+      <c r="G24" s="14">
+        <f>PRODUCT(C24:F24)</f>
+        <v>-0.94483389210606517</v>
+      </c>
+      <c r="H24" s="47"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="43"/>
+      <c r="B25" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="46">
+        <v>-1</v>
+      </c>
+      <c r="D25" s="14">
+        <f>D20</f>
+        <v>0.9</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14">
+        <f>(3*6)/12/3.281</f>
+        <v>0.45717768972874123</v>
+      </c>
+      <c r="G25" s="14">
+        <f>PRODUCT(C25:F25)</f>
+        <v>-0.41145992075586713</v>
+      </c>
+      <c r="H25" s="47"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="43"/>
+      <c r="B26" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="46">
+        <v>4</v>
+      </c>
+      <c r="D26" s="14">
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="G26" s="14">
+        <f>PRODUCT(C26:F26)</f>
+        <v>2.5601950624809504</v>
+      </c>
+      <c r="H26" s="47"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="43"/>
+      <c r="B27" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="46">
+        <v>-4</v>
+      </c>
+      <c r="D27" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="G27" s="14">
+        <f>PRODUCT(C27:F27)</f>
+        <v>-1.44</v>
+      </c>
+      <c r="H27" s="47"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="16"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="43"/>
+      <c r="B28" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="44">
+        <f>SUM(G15:G27)</f>
+        <v>15.913153154526062</v>
+      </c>
+      <c r="H28" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I28" s="44">
+        <f>6161.31/1.15</f>
+        <v>5357.6608695652185</v>
+      </c>
+      <c r="J28" s="44">
+        <f>G28*I28</f>
+        <v>85257.27796740261</v>
+      </c>
+      <c r="K28" s="16"/>
+    </row>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="43"/>
+      <c r="B29" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44">
+        <f>0.13*G28*(340055.78/100)</f>
+        <v>7034.7676206883689</v>
+      </c>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="43"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="16"/>
+    </row>
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A31" s="43">
+        <v>3</v>
+      </c>
+      <c r="B31" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="46"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="16"/>
+    </row>
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="43"/>
+      <c r="B32" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="46">
+        <v>1</v>
+      </c>
+      <c r="D32" s="14">
+        <f>D22</f>
+        <v>2.08</v>
+      </c>
+      <c r="E32" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="14">
+        <f>F22</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="G32" s="14">
+        <f>PRODUCT(C32:F32)</f>
+        <v>3.1200000000000009E-2</v>
+      </c>
+      <c r="H32" s="47"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="16"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="43"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="46">
+        <v>2</v>
+      </c>
+      <c r="D33" s="14">
+        <f>(1.75/3.281)</f>
+        <v>0.53337397135019804</v>
+      </c>
+      <c r="E33" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F33" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G33" s="14">
+        <f>PRODUCT(C33:F33)</f>
+        <v>0.88006705272782682</v>
+      </c>
+      <c r="H33" s="47"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="43"/>
+      <c r="B34" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="46"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="44">
+        <f>SUM(G32:G33)</f>
+        <v>0.91126705272782682</v>
+      </c>
+      <c r="H34" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="I34" s="44">
+        <v>14362.76</v>
+      </c>
+      <c r="J34" s="44">
+        <f>G34*I34</f>
+        <v>13088.309974237121</v>
+      </c>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="43"/>
+      <c r="B35" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="46"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44">
+        <f>0.13*G34*10311.74</f>
+        <v>1221.5773593784334</v>
+      </c>
+      <c r="K35" s="16"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="26"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="44"/>
+      <c r="K36" s="29"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="31"/>
+      <c r="S36" s="31"/>
+    </row>
+    <row r="37" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="26">
+        <v>3</v>
+      </c>
+      <c r="B37" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="27"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="29"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="44"/>
+      <c r="K37" s="29"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="43"/>
+      <c r="B38" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="46">
+        <v>1</v>
+      </c>
+      <c r="D38" s="14">
+        <f>(2.7+0.1+0.1)*4+(2.7-0.23)</f>
+        <v>14.070000000000002</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14">
+        <f>PRODUCT(C38:F38)</f>
+        <v>14.070000000000002</v>
+      </c>
+      <c r="H38" s="47"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="16"/>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="43"/>
+      <c r="B39" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="46"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="44">
+        <f>SUM(G38)</f>
+        <v>14.070000000000002</v>
+      </c>
+      <c r="H39" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39" s="44">
+        <f>465.63/1.15</f>
+        <v>404.89565217391305</v>
+      </c>
+      <c r="J39" s="44">
+        <f>G39*I39</f>
+        <v>5696.8818260869575</v>
+      </c>
+      <c r="K39" s="16"/>
+    </row>
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="43"/>
+      <c r="B40" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="46"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="44"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44">
+        <f>0.13*G39*(2780.61/10)</f>
+        <v>508.60137510000015</v>
+      </c>
+      <c r="K40" s="16"/>
+    </row>
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="26"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="39"/>
+      <c r="J41" s="44"/>
+      <c r="K41" s="29"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="31"/>
+      <c r="S41" s="31"/>
+    </row>
+    <row r="42" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="26">
+        <v>3</v>
+      </c>
+      <c r="B42" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="27"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="44"/>
+      <c r="K42" s="29"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="43"/>
+      <c r="B43" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="46">
+        <v>1</v>
+      </c>
+      <c r="D43" s="14">
+        <f>(2.7+0.1+0.1)*4+(2.7-0.23)</f>
+        <v>14.070000000000002</v>
+      </c>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14">
+        <f>PRODUCT(C43:F43)</f>
+        <v>14.070000000000002</v>
+      </c>
+      <c r="H43" s="47"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+      <c r="K43" s="16"/>
+    </row>
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="43"/>
+      <c r="B44" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="46"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="44">
+        <f>SUM(G43)</f>
+        <v>14.070000000000002</v>
+      </c>
+      <c r="H44" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I44" s="44">
+        <f>396.86/1.15</f>
+        <v>345.09565217391309</v>
+      </c>
+      <c r="J44" s="44">
+        <f>G44*I44</f>
+        <v>4855.495826086958</v>
+      </c>
+      <c r="K44" s="16"/>
+    </row>
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="43"/>
+      <c r="B45" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="46"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="44"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44">
+        <f>0.13*G44*(2182.61/10)</f>
+        <v>399.2211951000001</v>
+      </c>
+      <c r="K45" s="16"/>
+    </row>
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="26"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="44"/>
+      <c r="K46" s="29"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="31"/>
+      <c r="S46" s="31"/>
+    </row>
+    <row r="47" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="26">
+        <v>3</v>
+      </c>
+      <c r="B47" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="27"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="29"/>
+      <c r="F47" s="29"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="44"/>
+      <c r="K47" s="29"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="31"/>
+      <c r="S47" s="31"/>
+    </row>
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="43"/>
+      <c r="B48" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="46">
+        <v>1</v>
+      </c>
+      <c r="D48" s="14">
+        <f>(2.7+0.1+0.1)*4</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14">
+        <f>PRODUCT(C48:F48)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H48" s="47"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="16"/>
+    </row>
+    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="43"/>
+      <c r="B49" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="46"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="44">
+        <f>SUM(G48)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H49" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I49" s="44">
+        <f>447.23/1.15</f>
+        <v>388.89565217391311</v>
+      </c>
+      <c r="J49" s="44">
+        <f>G49*I49</f>
+        <v>4511.1895652173926</v>
+      </c>
+      <c r="K49" s="16"/>
+    </row>
+    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="43"/>
+      <c r="B50" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50" s="46"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44">
+        <f>0.13*G49*(2620.61/10)</f>
+        <v>395.18798800000013</v>
+      </c>
+      <c r="K50" s="16"/>
+    </row>
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="26"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="27"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="29"/>
+      <c r="F51" s="29"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="39"/>
+      <c r="J51" s="44"/>
+      <c r="K51" s="29"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="31"/>
+      <c r="S51" s="31"/>
+    </row>
+    <row r="52" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="26">
+        <v>3</v>
+      </c>
+      <c r="B52" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="27"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="29"/>
+      <c r="F52" s="29"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="39"/>
+      <c r="J52" s="44"/>
+      <c r="K52" s="29"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="31"/>
+      <c r="S52" s="31"/>
+    </row>
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="43"/>
+      <c r="B53" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C53" s="46">
+        <v>2</v>
+      </c>
+      <c r="D53" s="14">
+        <f>(2.7+0.1+0.1)*4</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14">
+        <f>PRODUCT(C53:F53)</f>
+        <v>23.200000000000003</v>
+      </c>
+      <c r="H53" s="47"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="16"/>
+    </row>
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="43"/>
+      <c r="B54" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="46"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="44">
+        <f>SUM(G53)</f>
+        <v>23.200000000000003</v>
+      </c>
+      <c r="H54" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I54" s="44">
+        <f>406.75/1.15</f>
+        <v>353.69565217391306</v>
+      </c>
+      <c r="J54" s="44">
+        <f>G54*I54</f>
+        <v>8205.7391304347839</v>
+      </c>
+      <c r="K54" s="16"/>
+    </row>
+    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="43"/>
+      <c r="B55" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" s="46"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44">
+        <f>0.13*G54*(2268.61/10)</f>
+        <v>684.21277600000019</v>
+      </c>
+      <c r="K55" s="16"/>
+    </row>
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="26"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="29"/>
+      <c r="F56" s="29"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="39"/>
+      <c r="J56" s="44"/>
+      <c r="K56" s="29"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="31"/>
+    </row>
+    <row r="57" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="64">
+        <v>3</v>
+      </c>
+      <c r="B57" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C57" s="27"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="44"/>
+      <c r="K57" s="29"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="31"/>
+    </row>
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="43"/>
+      <c r="B58" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="46">
+        <v>1</v>
+      </c>
+      <c r="D58" s="14">
+        <f>(2.7+0.1+0.1)*4</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14">
+        <f>PRODUCT(C58:F58)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H58" s="47"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="16"/>
+    </row>
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="43"/>
+      <c r="B59" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="46"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="44">
+        <f>SUM(G58)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H59" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I59" s="44">
+        <f>469.79/1.15</f>
+        <v>408.5130434782609</v>
+      </c>
+      <c r="J59" s="44">
+        <f>G59*I59</f>
+        <v>4738.7513043478266</v>
+      </c>
+      <c r="K59" s="16"/>
+    </row>
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="43"/>
+      <c r="B60" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C60" s="46"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44">
+        <f>0.13*G59*(2140.61/10)</f>
+        <v>322.80398800000006</v>
+      </c>
+      <c r="K60" s="16"/>
+    </row>
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="26"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="27"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="29"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="44"/>
+      <c r="K61" s="29"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="31"/>
+      <c r="S61" s="31"/>
+    </row>
+    <row r="62" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="64">
+        <v>3</v>
+      </c>
+      <c r="B62" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="27"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="29"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="29"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="31"/>
+      <c r="S62" s="31"/>
+    </row>
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="43"/>
+      <c r="B63" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="46">
+        <v>1</v>
+      </c>
+      <c r="D63" s="14">
+        <f>(2.7+0.1+0.1)*4</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14">
+        <f>PRODUCT(C63:F63)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H63" s="47"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="16"/>
+    </row>
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="43"/>
+      <c r="B64" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" s="46"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="44">
+        <f>SUM(G63)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H64" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I64" s="44">
+        <f>476.67/1.15</f>
+        <v>414.49565217391307</v>
+      </c>
+      <c r="J64" s="44">
+        <f>G64*I64</f>
+        <v>4808.1495652173926</v>
+      </c>
+      <c r="K64" s="16"/>
+    </row>
+    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="43"/>
+      <c r="B65" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C65" s="46"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44">
+        <f>0.13*G64*(2876.61/10)</f>
+        <v>433.79278800000009</v>
+      </c>
+      <c r="K65" s="16"/>
+    </row>
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="26"/>
+      <c r="B66" s="30"/>
+      <c r="C66" s="27"/>
+      <c r="D66" s="28"/>
+      <c r="E66" s="29"/>
+      <c r="F66" s="29"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="44"/>
+      <c r="K66" s="29"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="31"/>
+      <c r="S66" s="31"/>
+    </row>
+    <row r="67" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A67" s="64">
+        <v>3</v>
+      </c>
+      <c r="B67" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="27"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="29"/>
+      <c r="F67" s="29"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="39"/>
+      <c r="J67" s="44"/>
+      <c r="K67" s="29"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="31"/>
+      <c r="S67" s="31"/>
+    </row>
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="43"/>
+      <c r="B68" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="46">
+        <v>1</v>
+      </c>
+      <c r="D68" s="14">
+        <f>(2.7+0.1+0.1)*4</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="14">
+        <f>PRODUCT(C68:F68)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H68" s="47"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="16"/>
+    </row>
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="43"/>
+      <c r="B69" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69" s="46"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="44">
+        <f>SUM(G68)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H69" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I69" s="44">
+        <f>593.85/1.15</f>
+        <v>516.39130434782612</v>
+      </c>
+      <c r="J69" s="44">
+        <f>G69*I69</f>
+        <v>5990.1391304347835</v>
+      </c>
+      <c r="K69" s="16"/>
+    </row>
+    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="43"/>
+      <c r="B70" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C70" s="46"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="44"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44">
+        <f>0.13*G69*(3895.61/10)</f>
+        <v>587.45798800000011</v>
+      </c>
+      <c r="K70" s="16"/>
+    </row>
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="26"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="39"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="39"/>
+      <c r="J71" s="44"/>
+      <c r="K71" s="29"/>
+      <c r="M71" s="31"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="31"/>
+      <c r="S71" s="31"/>
+    </row>
+    <row r="72" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="64">
+        <v>3</v>
+      </c>
+      <c r="B72" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" s="27"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="39"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="39"/>
+      <c r="J72" s="44"/>
+      <c r="K72" s="29"/>
+      <c r="M72" s="31"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="31"/>
+      <c r="S72" s="31"/>
+    </row>
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="43"/>
+      <c r="B73" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="46">
+        <v>1</v>
+      </c>
+      <c r="D73" s="14">
+        <f>(2.7+0.1+0.1)*4</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14">
+        <f>PRODUCT(C73:F73)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H73" s="47"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="16"/>
+    </row>
+    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="43"/>
+      <c r="B74" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C74" s="46"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="44">
+        <f>SUM(G73)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H74" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I74" s="44">
+        <f>487.71/1.15</f>
+        <v>424.09565217391304</v>
+      </c>
+      <c r="J74" s="44">
+        <f>G74*I74</f>
+        <v>4919.5095652173923</v>
+      </c>
+      <c r="K74" s="16"/>
+    </row>
+    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="43"/>
+      <c r="B75" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C75" s="46"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="44"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44">
+        <f>0.13*G74*(2972.61/10)</f>
+        <v>448.26958800000011</v>
+      </c>
+      <c r="K75" s="16"/>
+    </row>
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="26"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="27"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="39"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="39"/>
+      <c r="J76" s="44"/>
+      <c r="K76" s="29"/>
+      <c r="M76" s="31"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="31"/>
+      <c r="S76" s="31"/>
+    </row>
+    <row r="77" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="64">
+        <v>3</v>
+      </c>
+      <c r="B77" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C77" s="27"/>
+      <c r="D77" s="28"/>
+      <c r="E77" s="29"/>
+      <c r="F77" s="29"/>
+      <c r="G77" s="39"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="39"/>
+      <c r="J77" s="44"/>
+      <c r="K77" s="29"/>
+      <c r="M77" s="31"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="31"/>
+      <c r="S77" s="31"/>
+    </row>
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="43"/>
+      <c r="B78" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="46">
+        <v>1</v>
+      </c>
+      <c r="D78" s="14">
+        <f>(2.7+0.1+0.1)*4</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14">
+        <f>PRODUCT(C78:F78)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H78" s="47"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="16"/>
+    </row>
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="43"/>
+      <c r="B79" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="46"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+      <c r="G79" s="44">
+        <f>SUM(G78)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H79" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I79" s="44">
+        <f>776.13/1.15</f>
+        <v>674.89565217391305</v>
+      </c>
+      <c r="J79" s="44">
+        <f>G79*I79</f>
+        <v>7828.789565217392</v>
+      </c>
+      <c r="K79" s="16"/>
+    </row>
+    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="43"/>
+      <c r="B80" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C80" s="46"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="44"/>
+      <c r="I80" s="44"/>
+      <c r="J80" s="44">
+        <f>0.13*G79*(5480.61/10)</f>
+        <v>826.47598800000003</v>
+      </c>
+      <c r="K80" s="16"/>
+    </row>
+    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="26"/>
+      <c r="B81" s="30"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="29"/>
+      <c r="F81" s="29"/>
+      <c r="G81" s="39"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="39"/>
+      <c r="J81" s="44"/>
+      <c r="K81" s="29"/>
+      <c r="M81" s="31"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="31"/>
+      <c r="S81" s="31"/>
+    </row>
+    <row r="82" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="64">
+        <v>3</v>
+      </c>
+      <c r="B82" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" s="27"/>
+      <c r="D82" s="28"/>
+      <c r="E82" s="29"/>
+      <c r="F82" s="29"/>
+      <c r="G82" s="39"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="39"/>
+      <c r="J82" s="44"/>
+      <c r="K82" s="29"/>
+      <c r="M82" s="31"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="31"/>
+      <c r="S82" s="31"/>
+    </row>
+    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="43"/>
+      <c r="B83" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="46">
+        <v>1</v>
+      </c>
+      <c r="D83" s="14">
+        <f>(2.7+0.1+0.1)*4</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14">
+        <f>PRODUCT(C83:F83)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H83" s="47"/>
+      <c r="I83" s="44"/>
+      <c r="J83" s="44"/>
+      <c r="K83" s="16"/>
+    </row>
+    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="43"/>
+      <c r="B84" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C84" s="46"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="44">
+        <f>SUM(G83)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H84" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I84" s="44">
+        <f>465.63/1.15</f>
+        <v>404.89565217391305</v>
+      </c>
+      <c r="J84" s="44">
+        <f>G84*I84</f>
+        <v>4696.789565217392</v>
+      </c>
+      <c r="K84" s="16"/>
+    </row>
+    <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="43"/>
+      <c r="B85" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="46"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="44"/>
+      <c r="H85" s="44"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="44">
+        <f>0.13*G84*(2780.61/10)</f>
+        <v>419.31598800000012</v>
+      </c>
+      <c r="K85" s="16"/>
+    </row>
+    <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="26"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="27"/>
+      <c r="D86" s="28"/>
+      <c r="E86" s="29"/>
+      <c r="F86" s="29"/>
+      <c r="G86" s="39"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="39"/>
+      <c r="J86" s="44"/>
+      <c r="K86" s="29"/>
+      <c r="M86" s="31"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="31"/>
+      <c r="S86" s="31"/>
+    </row>
+    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.3">
+      <c r="A87" s="26">
+        <v>3</v>
+      </c>
+      <c r="B87" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87" s="27"/>
+      <c r="D87" s="28"/>
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="39"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="39"/>
+      <c r="J87" s="44"/>
+      <c r="K87" s="29"/>
+      <c r="M87" s="31"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="31"/>
+      <c r="S87" s="31"/>
+    </row>
+    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="43"/>
+      <c r="B88" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C88" s="46">
+        <v>1</v>
+      </c>
+      <c r="D88" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14">
+        <v>2.72</v>
+      </c>
+      <c r="G88" s="14">
+        <f t="shared" ref="G88" si="4">PRODUCT(C88:F88)</f>
+        <v>7.3712000000000009</v>
+      </c>
+      <c r="H88" s="47"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="16"/>
+    </row>
+    <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="43"/>
+      <c r="B89" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" s="46"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="44">
+        <f>SUM(G88:G88)</f>
+        <v>7.3712000000000009</v>
+      </c>
+      <c r="H89" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I89" s="44">
+        <v>438.01</v>
+      </c>
+      <c r="J89" s="44">
+        <f>G88*I89</f>
+        <v>3228.6593120000002</v>
+      </c>
+      <c r="K89" s="16"/>
+    </row>
+    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="43"/>
+      <c r="B90" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C90" s="46"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="44"/>
+      <c r="H90" s="44"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44">
+        <f>0.13*G89*(2725.4/10)</f>
+        <v>261.16309024000003</v>
+      </c>
+      <c r="K90" s="16"/>
+    </row>
+    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="43"/>
+      <c r="B91" s="45"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="47"/>
+      <c r="H91" s="47"/>
+      <c r="I91" s="47"/>
+      <c r="J91" s="40"/>
+      <c r="K91" s="16"/>
+    </row>
+    <row r="92" spans="1:19" ht="30" x14ac:dyDescent="0.3">
+      <c r="A92" s="43">
+        <v>4</v>
+      </c>
+      <c r="B92" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92" s="46"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="47"/>
+      <c r="H92" s="47"/>
+      <c r="I92" s="47"/>
+      <c r="J92" s="40"/>
+      <c r="K92" s="16"/>
+    </row>
+    <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="43"/>
+      <c r="B93" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" s="46">
+        <v>1</v>
+      </c>
+      <c r="D93" s="14">
+        <f>2.71+2.72+2.64+0.3+0.3</f>
+        <v>8.6700000000000017</v>
+      </c>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14">
+        <v>2.72</v>
+      </c>
+      <c r="G93" s="14">
+        <f t="shared" ref="G93:G94" si="5">PRODUCT(C93:F93)</f>
+        <v>23.582400000000007</v>
+      </c>
+      <c r="H93" s="47"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="44"/>
+      <c r="K93" s="16"/>
+    </row>
+    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="43"/>
+      <c r="B94" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C94" s="46">
+        <v>1</v>
+      </c>
+      <c r="D94" s="14">
+        <f>0.32+0.15+2.06+0.12+0.13+2.1+0.12+0.1+2.06+0.14+0.3</f>
+        <v>7.6</v>
+      </c>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14">
+        <v>2.72</v>
+      </c>
+      <c r="G94" s="14">
+        <f t="shared" si="5"/>
+        <v>20.672000000000001</v>
+      </c>
+      <c r="H94" s="47"/>
+      <c r="I94" s="44"/>
+      <c r="J94" s="44"/>
+      <c r="K94" s="16"/>
+    </row>
+    <row r="95" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="43"/>
+      <c r="B95" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C95" s="46"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="44">
+        <f>SUM(G93:G94)</f>
+        <v>44.254400000000004</v>
+      </c>
+      <c r="H95" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I95" s="44">
+        <v>405.86</v>
+      </c>
+      <c r="J95" s="44">
+        <f>G93*I95</f>
+        <v>9571.1528640000033</v>
+      </c>
+      <c r="K95" s="16"/>
+    </row>
+    <row r="96" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="43"/>
+      <c r="B96" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C96" s="46"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="44"/>
+      <c r="H96" s="44"/>
+      <c r="I96" s="44"/>
+      <c r="J96" s="44">
+        <f>0.13*G95*(11166.2/100)</f>
+        <v>642.39952566400007</v>
+      </c>
+      <c r="K96" s="16"/>
+    </row>
+    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="43"/>
+      <c r="B97" s="45"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="47"/>
+      <c r="H97" s="47"/>
+      <c r="I97" s="47"/>
+      <c r="J97" s="40"/>
+      <c r="K97" s="16"/>
+    </row>
+    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A98" s="43">
+        <v>5</v>
+      </c>
+      <c r="B98" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C98" s="46"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="47"/>
+      <c r="H98" s="47"/>
+      <c r="I98" s="47"/>
+      <c r="J98" s="40"/>
+      <c r="K98" s="16"/>
+    </row>
+    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="43"/>
+      <c r="B99" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C99" s="46">
+        <v>1</v>
+      </c>
+      <c r="D99" s="14">
+        <f>D93</f>
+        <v>8.6700000000000017</v>
+      </c>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14">
+        <v>2.72</v>
+      </c>
+      <c r="G99" s="14">
+        <f t="shared" ref="G99" si="6">PRODUCT(C99:F99)</f>
+        <v>23.582400000000007</v>
+      </c>
+      <c r="H99" s="47"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="44"/>
+      <c r="K99" s="16"/>
+    </row>
+    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="43"/>
+      <c r="B100" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C100" s="46"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="44">
+        <f>SUM(G99:G99)</f>
+        <v>23.582400000000007</v>
+      </c>
+      <c r="H100" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I100" s="44">
+        <v>279.02999999999997</v>
+      </c>
+      <c r="J100" s="44">
+        <f>G99*I100</f>
+        <v>6580.1970720000008</v>
+      </c>
+      <c r="K100" s="16"/>
+    </row>
+    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="43"/>
+      <c r="B101" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" s="46"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="44"/>
+      <c r="H101" s="44"/>
+      <c r="I101" s="44"/>
+      <c r="J101" s="44">
+        <f>0.13*G100*(345.36/10)</f>
+        <v>105.87742963200003</v>
+      </c>
+      <c r="K101" s="16"/>
+    </row>
+    <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="43"/>
+      <c r="B102" s="45"/>
+      <c r="C102" s="46"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="47"/>
+      <c r="H102" s="47"/>
+      <c r="I102" s="47"/>
+      <c r="J102" s="40"/>
+      <c r="K102" s="16"/>
+    </row>
+    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A103" s="58">
+        <v>6</v>
+      </c>
+      <c r="B103" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C103" s="46"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="47"/>
+      <c r="H103" s="47"/>
+      <c r="I103" s="47"/>
+      <c r="J103" s="40"/>
+      <c r="K103" s="16"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="43"/>
+      <c r="B104" s="45" t="str">
+        <f>B94</f>
+        <v>-Inner wall face</v>
+      </c>
+      <c r="C104" s="46">
+        <v>1</v>
+      </c>
+      <c r="D104" s="14">
+        <f>D94</f>
+        <v>7.6</v>
+      </c>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14">
+        <f>F94</f>
+        <v>2.72</v>
+      </c>
+      <c r="G104" s="14">
+        <f t="shared" ref="G104" si="7">PRODUCT(C104:F104)</f>
+        <v>20.672000000000001</v>
+      </c>
+      <c r="H104" s="44"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="9"/>
+      <c r="K104" s="16"/>
+    </row>
+    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="43"/>
+      <c r="B105" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C105" s="46"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="44">
+        <f>SUM(G104)</f>
+        <v>20.672000000000001</v>
+      </c>
+      <c r="H105" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I105" s="44">
+        <f>184.41</f>
+        <v>184.41</v>
+      </c>
+      <c r="J105" s="44">
+        <f>G105*I105</f>
+        <v>3812.1235200000001</v>
+      </c>
+      <c r="K105" s="16"/>
+    </row>
+    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="43"/>
+      <c r="B106" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C106" s="46"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="44"/>
+      <c r="H106" s="44"/>
+      <c r="I106" s="44"/>
+      <c r="J106" s="44">
+        <f>0.13*G105*(6000/100)</f>
+        <v>161.24160000000001</v>
+      </c>
+      <c r="K106" s="16"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="43"/>
+      <c r="B107" s="45"/>
+      <c r="C107" s="46"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="47"/>
+      <c r="H107" s="47"/>
+      <c r="I107" s="47"/>
+      <c r="J107" s="40"/>
+      <c r="K107" s="16"/>
+    </row>
+    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A108" s="58">
+        <v>7</v>
+      </c>
+      <c r="B108" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C108" s="46"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="47"/>
+      <c r="H108" s="47"/>
+      <c r="I108" s="47"/>
+      <c r="J108" s="40"/>
+      <c r="K108" s="16"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="43"/>
+      <c r="B109" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C109" s="46">
+        <v>1</v>
+      </c>
+      <c r="D109" s="14">
+        <f>2.32</f>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E109" s="14">
+        <f>2.06+0.12+0.3</f>
+        <v>2.48</v>
+      </c>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14">
+        <f t="shared" ref="G109:G116" si="8">PRODUCT(C109:F109)</f>
+        <v>5.7535999999999996</v>
+      </c>
+      <c r="H109" s="44"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="9"/>
+      <c r="K109" s="16"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="43"/>
+      <c r="B110" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C110" s="46">
+        <v>-1</v>
+      </c>
+      <c r="D110" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="E110" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14">
+        <f t="shared" si="8"/>
+        <v>-1.5599999999999999E-2</v>
+      </c>
+      <c r="H110" s="44"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="9"/>
+      <c r="K110" s="16"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="43"/>
+      <c r="B111" s="45"/>
+      <c r="C111" s="46">
+        <v>-1</v>
+      </c>
+      <c r="D111" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="E111" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14">
+        <f t="shared" si="8"/>
+        <v>-1.2E-2</v>
+      </c>
+      <c r="H111" s="44"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="16"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="43"/>
+      <c r="B112" s="45"/>
+      <c r="C112" s="46">
+        <v>-1</v>
+      </c>
+      <c r="D112" s="14">
+        <f>0.15</f>
+        <v>0.15</v>
+      </c>
+      <c r="E112" s="14">
+        <v>0.32</v>
+      </c>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14">
+        <f t="shared" si="8"/>
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="H112" s="44"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="9"/>
+      <c r="K112" s="16"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="43"/>
+      <c r="B113" s="45"/>
+      <c r="C113" s="46">
+        <v>-1</v>
+      </c>
+      <c r="D113" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E113" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14">
+        <f t="shared" si="8"/>
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="H113" s="44"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="9"/>
+      <c r="K113" s="16"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="43"/>
+      <c r="B114" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C114" s="46">
+        <v>1</v>
+      </c>
+      <c r="D114" s="14">
+        <f>7.25/3.281</f>
+        <v>2.2096921670222494</v>
+      </c>
+      <c r="E114" s="14">
+        <f>5.25/3.281</f>
+        <v>1.6001219140505942</v>
+      </c>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14">
+        <f t="shared" si="8"/>
+        <v>3.5357768597582471</v>
+      </c>
+      <c r="H114" s="44"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="16"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="43"/>
+      <c r="B115" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C115" s="46">
+        <v>2</v>
+      </c>
+      <c r="D115" s="14">
+        <f>14.75/3.281</f>
+        <v>4.495580615665955</v>
+      </c>
+      <c r="E115" s="14">
+        <f>2.583/3.281</f>
+        <v>0.78725998171289246</v>
+      </c>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14">
+        <f t="shared" si="8"/>
+        <v>7.0783814265560272</v>
+      </c>
+      <c r="H115" s="44"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
+      <c r="K115" s="16"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="43"/>
+      <c r="B116" s="45"/>
+      <c r="C116" s="46">
+        <v>2</v>
+      </c>
+      <c r="D116" s="14">
+        <f>9.583/3.281</f>
+        <v>2.9207558671136846</v>
+      </c>
+      <c r="E116" s="14">
+        <f>2.583/3.281</f>
+        <v>0.78725998171289246</v>
+      </c>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14">
+        <f t="shared" si="8"/>
+        <v>4.5987884210634853</v>
+      </c>
+      <c r="H116" s="44"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="9"/>
+      <c r="K116" s="16"/>
+    </row>
+    <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="43"/>
+      <c r="B117" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C117" s="46"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="44">
+        <f>SUM(G109:G116)</f>
+        <v>20.84894670737776</v>
+      </c>
+      <c r="H117" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I117" s="44">
+        <v>6803.67</v>
+      </c>
+      <c r="J117" s="44">
+        <f>G117*I117</f>
+        <v>141849.35324458484</v>
+      </c>
+      <c r="K117" s="16"/>
+    </row>
+    <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="43"/>
+      <c r="B118" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C118" s="46"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="44"/>
+      <c r="H118" s="44"/>
+      <c r="I118" s="44"/>
+      <c r="J118" s="44">
+        <f>0.13*G117*(45806.78/10)</f>
+        <v>12415.300495735508</v>
+      </c>
+      <c r="K118" s="16"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A119" s="43"/>
+      <c r="B119" s="45"/>
+      <c r="C119" s="46"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="47"/>
+      <c r="H119" s="47"/>
+      <c r="I119" s="47"/>
+      <c r="J119" s="40"/>
+      <c r="K119" s="16"/>
+    </row>
+    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A120" s="43">
+        <v>8</v>
+      </c>
+      <c r="B120" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C120" s="46"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="47"/>
+      <c r="H120" s="47"/>
+      <c r="I120" s="47"/>
+      <c r="J120" s="40"/>
+      <c r="K120" s="16"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A121" s="43"/>
+      <c r="B121" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C121" s="46">
+        <v>2</v>
+      </c>
+      <c r="D121" s="14">
+        <f>4.46-0.1-0.1+4.5-0.1-0.1</f>
+        <v>8.5600000000000023</v>
+      </c>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14">
+        <f t="shared" ref="G121" si="9">PRODUCT(C121:F121)</f>
+        <v>17.120000000000005</v>
+      </c>
+      <c r="H121" s="44"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="16"/>
+    </row>
+    <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="43"/>
+      <c r="B122" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C122" s="46"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="44">
+        <f>SUM(G121)</f>
+        <v>17.120000000000005</v>
+      </c>
+      <c r="H122" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I122" s="44">
+        <v>4132.8</v>
+      </c>
+      <c r="J122" s="44">
+        <f>G122*I122</f>
+        <v>70753.536000000022</v>
+      </c>
+      <c r="K122" s="16"/>
+    </row>
+    <row r="123" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="43"/>
+      <c r="B123" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C123" s="46"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="44"/>
+      <c r="H123" s="44"/>
+      <c r="I123" s="44"/>
+      <c r="J123" s="44">
+        <f>0.13*J122</f>
+        <v>9197.9596800000036</v>
+      </c>
+      <c r="K123" s="16"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="43"/>
+      <c r="B124" s="45"/>
+      <c r="C124" s="46"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="47"/>
+      <c r="H124" s="47"/>
+      <c r="I124" s="47"/>
+      <c r="J124" s="40"/>
+      <c r="K124" s="16"/>
+    </row>
+    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A125" s="43">
+        <v>9</v>
+      </c>
+      <c r="B125" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C125" s="46"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="47"/>
+      <c r="H125" s="47"/>
+      <c r="I125" s="47"/>
+      <c r="J125" s="40"/>
+      <c r="K125" s="16"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="43"/>
+      <c r="B126" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C126" s="46">
+        <v>2</v>
+      </c>
+      <c r="D126" s="14">
+        <f>4.46+4.5+4.5+4.5</f>
+        <v>17.96</v>
+      </c>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14">
+        <f t="shared" ref="G126" si="10">PRODUCT(C126:F126)</f>
+        <v>35.92</v>
+      </c>
+      <c r="H126" s="44"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="16"/>
+    </row>
+    <row r="127" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="43"/>
+      <c r="B127" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C127" s="46"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="44">
+        <f>SUM(G126)</f>
+        <v>35.92</v>
+      </c>
+      <c r="H127" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I127" s="44">
+        <v>137.44999999999999</v>
+      </c>
+      <c r="J127" s="44">
+        <f>G127*I127</f>
+        <v>4937.2039999999997</v>
+      </c>
+      <c r="K127" s="16"/>
+    </row>
+    <row r="128" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="43"/>
+      <c r="B128" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C128" s="46"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="44"/>
+      <c r="H128" s="44"/>
+      <c r="I128" s="44"/>
+      <c r="J128" s="44">
+        <f>0.13*G127*97.64</f>
+        <v>455.93974400000002</v>
+      </c>
+      <c r="K128" s="16"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A129" s="43"/>
+      <c r="B129" s="45"/>
+      <c r="C129" s="46"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="47"/>
+      <c r="H129" s="47"/>
+      <c r="I129" s="47"/>
+      <c r="J129" s="40"/>
+      <c r="K129" s="16"/>
+    </row>
+    <row r="130" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A130" s="43">
+        <v>10</v>
+      </c>
+      <c r="B130" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C130" s="53"/>
+      <c r="D130" s="54"/>
+      <c r="E130" s="54"/>
+      <c r="F130" s="54"/>
+      <c r="G130" s="57"/>
+      <c r="H130" s="57"/>
+      <c r="I130" s="57"/>
+      <c r="J130" s="40"/>
+      <c r="K130" s="5"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A131" s="43"/>
+      <c r="B131" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C131" s="53">
+        <v>3</v>
+      </c>
+      <c r="D131" s="54">
+        <f>4/3.281</f>
+        <v>1.2191405059433098</v>
+      </c>
+      <c r="E131" s="54">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="F131" s="54">
+        <v>0.125</v>
+      </c>
+      <c r="G131" s="54">
+        <f t="shared" ref="G131:G134" si="11">PRODUCT(C131:F131)</f>
+        <v>4.571776897287412E-2</v>
+      </c>
+      <c r="H131" s="57"/>
+      <c r="I131" s="57"/>
+      <c r="J131" s="40"/>
+      <c r="K131" s="5"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A132" s="43"/>
+      <c r="B132" s="56"/>
+      <c r="C132" s="53">
+        <v>2</v>
+      </c>
+      <c r="D132" s="54">
+        <f>6.5/3.281</f>
+        <v>1.9811033221578787</v>
+      </c>
+      <c r="E132" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="F132" s="54">
+        <v>0.125</v>
+      </c>
+      <c r="G132" s="54">
+        <f t="shared" si="11"/>
+        <v>4.9527583053946972E-2</v>
+      </c>
+      <c r="H132" s="57"/>
+      <c r="I132" s="57"/>
+      <c r="J132" s="40"/>
+      <c r="K132" s="5"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A133" s="43"/>
+      <c r="B133" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C133" s="53">
+        <f>3*2</f>
+        <v>6</v>
+      </c>
+      <c r="D133" s="54">
+        <v>0.9</v>
+      </c>
+      <c r="E133" s="54">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F133" s="54">
+        <v>0.125</v>
+      </c>
+      <c r="G133" s="54">
+        <f t="shared" si="11"/>
+        <v>5.0625000000000003E-2</v>
+      </c>
+      <c r="H133" s="57"/>
+      <c r="I133" s="57"/>
+      <c r="J133" s="40"/>
+      <c r="K133" s="5"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A134" s="43"/>
+      <c r="B134" s="56"/>
+      <c r="C134" s="53">
+        <f>3*2</f>
+        <v>6</v>
+      </c>
+      <c r="D134" s="54">
+        <f>0.9-0.15</f>
+        <v>0.75</v>
+      </c>
+      <c r="E134" s="54">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F134" s="54">
+        <v>0.125</v>
+      </c>
+      <c r="G134" s="54">
+        <f t="shared" si="11"/>
+        <v>4.2187499999999996E-2</v>
+      </c>
+      <c r="H134" s="57"/>
+      <c r="I134" s="57"/>
+      <c r="J134" s="40"/>
+      <c r="K134" s="5"/>
+    </row>
+    <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="43"/>
+      <c r="B135" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C135" s="53"/>
+      <c r="D135" s="54"/>
+      <c r="E135" s="54"/>
+      <c r="F135" s="54"/>
+      <c r="G135" s="55">
+        <f>SUM(G131:G134)</f>
+        <v>0.18805785202682107</v>
+      </c>
+      <c r="H135" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="I135" s="60">
+        <f>353723.98/1.15</f>
+        <v>307586.06956521742</v>
+      </c>
+      <c r="J135" s="61">
+        <f>G135*I135</f>
+        <v>57843.975555807148</v>
+      </c>
+      <c r="K135" s="5"/>
+    </row>
+    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="43"/>
+      <c r="B136" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C136" s="53"/>
+      <c r="D136" s="54"/>
+      <c r="E136" s="54"/>
+      <c r="F136" s="54"/>
+      <c r="G136" s="55"/>
+      <c r="H136" s="55"/>
+      <c r="I136" s="60"/>
+      <c r="J136" s="61">
+        <f>0.13*G135*262808.07</f>
+        <v>6425.0057481368767</v>
+      </c>
+      <c r="K136" s="5"/>
+    </row>
+    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="43"/>
+      <c r="B137" s="56"/>
+      <c r="C137" s="53"/>
+      <c r="D137" s="54"/>
+      <c r="E137" s="54"/>
+      <c r="F137" s="54"/>
+      <c r="G137" s="55"/>
+      <c r="H137" s="55"/>
+      <c r="I137" s="60"/>
+      <c r="J137" s="61"/>
+      <c r="K137" s="5"/>
+    </row>
+    <row r="138" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A138" s="43">
+        <v>11</v>
+      </c>
+      <c r="B138" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C138" s="53"/>
+      <c r="D138" s="54"/>
+      <c r="E138" s="54"/>
+      <c r="F138" s="54"/>
+      <c r="G138" s="57"/>
+      <c r="H138" s="57"/>
+      <c r="I138" s="57"/>
+      <c r="J138" s="40"/>
+      <c r="K138" s="5"/>
+      <c r="M138" s="63"/>
+    </row>
+    <row r="139" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="43"/>
+      <c r="B139" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C139" s="53">
+        <v>1</v>
+      </c>
+      <c r="D139" s="54"/>
+      <c r="E139" s="54">
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="F139" s="54">
+        <f>5.667/3.281</f>
+        <v>1.7272173117951843</v>
+      </c>
+      <c r="G139" s="54">
+        <f>PRODUCT(C139:F139)</f>
+        <v>1.8425055139540214</v>
+      </c>
+      <c r="H139" s="57"/>
+      <c r="I139" s="57"/>
+      <c r="J139" s="40"/>
+      <c r="K139" s="5"/>
+    </row>
+    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="43"/>
+      <c r="B140" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C140" s="53"/>
+      <c r="D140" s="54"/>
+      <c r="E140" s="54"/>
+      <c r="F140" s="54"/>
+      <c r="G140" s="55">
+        <f>SUM(G139:G139)</f>
+        <v>1.8425055139540214</v>
+      </c>
+      <c r="H140" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I140" s="60">
+        <f>15859.11</f>
+        <v>15859.11</v>
+      </c>
+      <c r="J140" s="61">
+        <f>G140*I140</f>
+        <v>29220.497621403363</v>
+      </c>
+      <c r="K140" s="5"/>
+    </row>
+    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="43"/>
+      <c r="B141" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C141" s="53"/>
+      <c r="D141" s="54"/>
+      <c r="E141" s="54"/>
+      <c r="F141" s="54"/>
+      <c r="G141" s="55"/>
+      <c r="H141" s="55"/>
+      <c r="I141" s="60"/>
+      <c r="J141" s="61">
+        <f>0.13*G140*(20356.18/2.114)</f>
+        <v>2306.4468335360807</v>
+      </c>
+      <c r="K141" s="5"/>
+    </row>
+    <row r="142" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A142" s="43"/>
+      <c r="B142" s="52"/>
+      <c r="C142" s="53"/>
+      <c r="D142" s="54"/>
+      <c r="E142" s="54"/>
+      <c r="F142" s="54"/>
+      <c r="G142" s="57"/>
+      <c r="H142" s="57"/>
+      <c r="I142" s="57"/>
+      <c r="J142" s="40"/>
+      <c r="K142" s="5"/>
+      <c r="M142" s="63"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A143" s="43">
+        <v>12</v>
+      </c>
+      <c r="B143" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C143" s="53"/>
+      <c r="D143" s="54"/>
+      <c r="E143" s="54"/>
+      <c r="F143" s="54"/>
+      <c r="G143" s="57"/>
+      <c r="H143" s="57"/>
+      <c r="I143" s="57"/>
+      <c r="J143" s="40"/>
+      <c r="K143" s="5"/>
+    </row>
+    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="43"/>
+      <c r="B144" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C144" s="53">
+        <v>1</v>
+      </c>
+      <c r="D144" s="54"/>
+      <c r="E144" s="54">
+        <f>4/3.281</f>
+        <v>1.2191405059433098</v>
+      </c>
+      <c r="F144" s="54">
+        <f>7/3.281</f>
+        <v>2.1334958854007922</v>
+      </c>
+      <c r="G144" s="54">
+        <f>PRODUCT(C144:F144)</f>
+        <v>2.6010312531554916</v>
+      </c>
+      <c r="H144" s="57"/>
+      <c r="I144" s="57"/>
+      <c r="J144" s="40"/>
+      <c r="K144" s="5"/>
+    </row>
+    <row r="145" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="43"/>
+      <c r="B145" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C145" s="53"/>
+      <c r="D145" s="54"/>
+      <c r="E145" s="54"/>
+      <c r="F145" s="54"/>
+      <c r="G145" s="55">
+        <f>SUM(G144:G144)</f>
+        <v>2.6010312531554916</v>
+      </c>
+      <c r="H145" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I145" s="60">
+        <f>46573/1.15</f>
+        <v>40498.260869565223</v>
+      </c>
+      <c r="J145" s="61">
+        <f>G145*I145</f>
+        <v>105337.24222018324</v>
+      </c>
+      <c r="K145" s="5"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146" s="43"/>
+      <c r="B146" s="62"/>
+      <c r="C146" s="53"/>
+      <c r="D146" s="54"/>
+      <c r="E146" s="54"/>
+      <c r="F146" s="54"/>
+      <c r="G146" s="57"/>
+      <c r="H146" s="57"/>
+      <c r="I146" s="57"/>
+      <c r="J146" s="40"/>
+      <c r="K146" s="5"/>
+    </row>
+    <row r="147" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A147" s="43">
+        <v>13</v>
+      </c>
+      <c r="B147" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C147" s="53"/>
+      <c r="D147" s="54"/>
+      <c r="E147" s="54"/>
+      <c r="F147" s="54"/>
+      <c r="G147" s="57"/>
+      <c r="H147" s="57"/>
+      <c r="I147" s="57"/>
+      <c r="J147" s="40"/>
+      <c r="K147" s="5"/>
+    </row>
+    <row r="148" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="43"/>
+      <c r="B148" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C148" s="53">
+        <f>3*2</f>
+        <v>6</v>
+      </c>
+      <c r="D148" s="54"/>
+      <c r="E148" s="54">
+        <f>(3+2.333)/3.281</f>
+        <v>1.6254190795489181</v>
+      </c>
+      <c r="F148" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G148" s="54">
+        <f>PRODUCT(C148:F148)</f>
+        <v>0.97525144772935102</v>
+      </c>
+      <c r="H148" s="57"/>
+      <c r="I148" s="57"/>
+      <c r="J148" s="40"/>
+      <c r="K148" s="5"/>
+    </row>
+    <row r="149" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="43"/>
+      <c r="B149" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C149" s="53"/>
+      <c r="D149" s="54"/>
+      <c r="E149" s="54"/>
+      <c r="F149" s="54"/>
+      <c r="G149" s="55">
+        <f>SUM(G148:G148)</f>
+        <v>0.97525144772935102</v>
+      </c>
+      <c r="H149" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I149" s="60">
+        <f>50828.44/1.15</f>
+        <v>44198.643478260878</v>
+      </c>
+      <c r="J149" s="61">
+        <f>G149*I149</f>
+        <v>43104.791039847361</v>
+      </c>
+      <c r="K149" s="5"/>
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A150" s="43"/>
+      <c r="B150" s="62"/>
+      <c r="C150" s="53"/>
+      <c r="D150" s="54"/>
+      <c r="E150" s="54"/>
+      <c r="F150" s="54"/>
+      <c r="G150" s="57"/>
+      <c r="H150" s="57"/>
+      <c r="I150" s="57"/>
+      <c r="J150" s="40"/>
+      <c r="K150" s="5"/>
+    </row>
+    <row r="151" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A151" s="43">
+        <v>14</v>
+      </c>
+      <c r="B151" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C151" s="53"/>
+      <c r="D151" s="54"/>
+      <c r="E151" s="54"/>
+      <c r="F151" s="54"/>
+      <c r="G151" s="57"/>
+      <c r="H151" s="57"/>
+      <c r="I151" s="57"/>
+      <c r="J151" s="40"/>
+      <c r="K151" s="5"/>
+    </row>
+    <row r="152" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="43"/>
+      <c r="B152" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C152" s="53">
+        <v>1</v>
+      </c>
+      <c r="D152" s="54">
+        <f>2.333/3.281</f>
+        <v>0.7110637000914356</v>
+      </c>
+      <c r="E152" s="54"/>
+      <c r="F152" s="54">
+        <f>2.333/3.281</f>
+        <v>0.7110637000914356</v>
+      </c>
+      <c r="G152" s="54">
+        <f>PRODUCT(C152:F152)</f>
+        <v>0.50561158558772312</v>
+      </c>
+      <c r="H152" s="57"/>
+      <c r="I152" s="57"/>
+      <c r="J152" s="40"/>
+      <c r="K152" s="5"/>
+    </row>
+    <row r="153" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="43"/>
+      <c r="B153" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="C153" s="67">
+        <v>4</v>
+      </c>
+      <c r="D153" s="68">
+        <f>0.6</f>
+        <v>0.6</v>
+      </c>
+      <c r="E153" s="68"/>
+      <c r="F153" s="68">
+        <v>0.6</v>
+      </c>
+      <c r="G153" s="68">
+        <f>PRODUCT(C153:F153)</f>
+        <v>1.44</v>
+      </c>
+      <c r="H153" s="57"/>
+      <c r="I153" s="57"/>
+      <c r="J153" s="40"/>
+      <c r="K153" s="5"/>
+    </row>
+    <row r="154" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="43"/>
+      <c r="B154" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C154" s="53"/>
+      <c r="D154" s="54"/>
+      <c r="E154" s="54"/>
+      <c r="F154" s="54"/>
+      <c r="G154" s="55">
+        <f>SUM(G152:G153)</f>
+        <v>1.9456115855877232</v>
+      </c>
+      <c r="H154" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I154" s="60">
+        <f>69579.92/1.15</f>
+        <v>60504.278260869571</v>
+      </c>
+      <c r="J154" s="61">
+        <f>G154*I154</f>
+        <v>117717.82476197125</v>
+      </c>
+      <c r="K154" s="5"/>
+    </row>
+    <row r="155" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="43"/>
+      <c r="B155" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C155" s="53"/>
+      <c r="D155" s="54"/>
+      <c r="E155" s="54"/>
+      <c r="F155" s="54"/>
+      <c r="G155" s="55"/>
+      <c r="H155" s="55"/>
+      <c r="I155" s="60"/>
+      <c r="J155" s="61">
+        <f>0.13*G154*(9888.94/0.92)</f>
+        <v>2718.7007720800452</v>
+      </c>
+      <c r="K155" s="5"/>
+    </row>
+    <row r="156" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="43"/>
+      <c r="B156" s="56"/>
+      <c r="C156" s="53"/>
+      <c r="D156" s="54"/>
+      <c r="E156" s="54"/>
+      <c r="F156" s="54"/>
+      <c r="G156" s="57"/>
+      <c r="H156" s="57"/>
+      <c r="I156" s="57"/>
+      <c r="J156" s="40"/>
+      <c r="K156" s="5"/>
+      <c r="M156" s="63"/>
+    </row>
+    <row r="157" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A157" s="65">
+        <v>15</v>
+      </c>
+      <c r="B157" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C157" s="67"/>
+      <c r="D157" s="68"/>
+      <c r="E157" s="68"/>
+      <c r="F157" s="68"/>
+      <c r="G157" s="68"/>
+      <c r="H157" s="68"/>
+      <c r="I157" s="68"/>
+      <c r="J157" s="69"/>
+      <c r="K157" s="5"/>
+      <c r="M157" s="63"/>
+    </row>
+    <row r="158" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="65"/>
+      <c r="B158" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C158" s="67">
+        <v>4</v>
+      </c>
+      <c r="D158" s="68">
+        <f>(14.75+5.17)/2/3.281</f>
+        <v>3.0356598597988418</v>
+      </c>
+      <c r="E158" s="68">
+        <f>5.5/3.281</f>
+        <v>1.6763181956720512</v>
+      </c>
+      <c r="F158" s="68"/>
+      <c r="G158" s="68">
+        <f>PRODUCT(C158:F158)</f>
+        <v>20.354927435408264</v>
+      </c>
+      <c r="H158" s="68"/>
+      <c r="I158" s="68"/>
+      <c r="J158" s="69"/>
+      <c r="K158" s="5"/>
+    </row>
+    <row r="159" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="65"/>
+      <c r="B159" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C159" s="67">
+        <v>4</v>
+      </c>
+      <c r="D159" s="68">
+        <f>(10.75+1.5)/2/3.281</f>
+        <v>1.8668088997256933</v>
+      </c>
+      <c r="E159" s="68">
+        <f>4.5/3.281</f>
+        <v>1.3715330691862238</v>
+      </c>
+      <c r="F159" s="68"/>
+      <c r="G159" s="68">
+        <f>PRODUCT(C159:F159)</f>
+        <v>10.241560559299749</v>
+      </c>
+      <c r="H159" s="68"/>
+      <c r="I159" s="68"/>
+      <c r="J159" s="69"/>
+      <c r="K159" s="5"/>
+    </row>
+    <row r="160" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="65"/>
+      <c r="B160" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C160" s="67"/>
+      <c r="D160" s="68"/>
+      <c r="E160" s="68"/>
+      <c r="F160" s="68"/>
+      <c r="G160" s="71">
+        <f>SUM(G158:G159)</f>
+        <v>30.596487994708014</v>
+      </c>
+      <c r="H160" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="I160" s="72">
+        <f>1132.13/1.15</f>
+        <v>984.46086956521754</v>
+      </c>
+      <c r="J160" s="73">
+        <f>G160*I160</f>
+        <v>30121.04517691199</v>
+      </c>
+      <c r="K160" s="5"/>
+    </row>
+    <row r="161" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="65"/>
+      <c r="B161" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C161" s="67"/>
+      <c r="D161" s="68"/>
+      <c r="E161" s="68"/>
+      <c r="F161" s="68"/>
+      <c r="G161" s="71"/>
+      <c r="H161" s="71"/>
+      <c r="I161" s="72"/>
+      <c r="J161" s="73">
+        <f>0.13*G160*(2795.1/10)</f>
+        <v>1111.7631667221087</v>
+      </c>
+      <c r="K161" s="5"/>
+    </row>
+    <row r="162" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A162" s="65"/>
+      <c r="B162" s="74"/>
+      <c r="C162" s="67"/>
+      <c r="D162" s="68"/>
+      <c r="E162" s="68"/>
+      <c r="F162" s="68"/>
+      <c r="G162" s="68"/>
+      <c r="H162" s="68"/>
+      <c r="I162" s="68"/>
+      <c r="J162" s="69"/>
+      <c r="K162" s="5"/>
+      <c r="M162" s="63"/>
+    </row>
+    <row r="163" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A163" s="65">
+        <v>16</v>
+      </c>
+      <c r="B163" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="C163" s="67"/>
+      <c r="D163" s="68"/>
+      <c r="E163" s="68"/>
+      <c r="F163" s="68"/>
+      <c r="G163" s="68"/>
+      <c r="H163" s="68"/>
+      <c r="I163" s="68"/>
+      <c r="J163" s="69"/>
+      <c r="K163" s="5"/>
+      <c r="M163" s="63"/>
+    </row>
+    <row r="164" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="65"/>
+      <c r="B164" s="70" t="str">
+        <f t="shared" ref="B164:E165" si="12">B158</f>
+        <v>-First floor inclined roof</v>
+      </c>
+      <c r="C164" s="67">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="D164" s="68">
+        <f t="shared" si="12"/>
+        <v>3.0356598597988418</v>
+      </c>
+      <c r="E164" s="68">
+        <f t="shared" si="12"/>
+        <v>1.6763181956720512</v>
+      </c>
+      <c r="F164" s="68"/>
+      <c r="G164" s="68">
+        <f>PRODUCT(C164:F164)</f>
+        <v>20.354927435408264</v>
+      </c>
+      <c r="H164" s="68"/>
+      <c r="I164" s="68"/>
+      <c r="J164" s="69"/>
+      <c r="K164" s="5"/>
+    </row>
+    <row r="165" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="65"/>
+      <c r="B165" s="70" t="str">
+        <f t="shared" si="12"/>
+        <v>-Second floor inclined roof</v>
+      </c>
+      <c r="C165" s="67">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="D165" s="68">
+        <f t="shared" si="12"/>
+        <v>1.8668088997256933</v>
+      </c>
+      <c r="E165" s="68">
+        <f t="shared" si="12"/>
+        <v>1.3715330691862238</v>
+      </c>
+      <c r="F165" s="68"/>
+      <c r="G165" s="68">
+        <f>PRODUCT(C165:F165)</f>
+        <v>10.241560559299749</v>
+      </c>
+      <c r="H165" s="68"/>
+      <c r="I165" s="68"/>
+      <c r="J165" s="69"/>
+      <c r="K165" s="5"/>
+    </row>
+    <row r="166" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="65"/>
+      <c r="B166" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C166" s="67"/>
+      <c r="D166" s="68"/>
+      <c r="E166" s="68"/>
+      <c r="F166" s="68"/>
+      <c r="G166" s="71">
+        <f>SUM(G164:G165)</f>
+        <v>30.596487994708014</v>
+      </c>
+      <c r="H166" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="I166" s="72">
+        <f>4842.49/1.15</f>
+        <v>4210.8608695652174</v>
+      </c>
+      <c r="J166" s="73">
+        <f>G166*I166</f>
+        <v>128837.55404303792</v>
+      </c>
+      <c r="K166" s="5"/>
+    </row>
+    <row r="167" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="65"/>
+      <c r="B167" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C167" s="67"/>
+      <c r="D167" s="68"/>
+      <c r="E167" s="68"/>
+      <c r="F167" s="68"/>
+      <c r="G167" s="71"/>
+      <c r="H167" s="71"/>
+      <c r="I167" s="72"/>
+      <c r="J167" s="73">
+        <f>0.13*G166*(315405.75/100)</f>
+        <v>12545.400716337939</v>
+      </c>
+      <c r="K167" s="5"/>
+    </row>
+    <row r="168" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A168" s="43"/>
+      <c r="B168" s="52"/>
+      <c r="C168" s="53"/>
+      <c r="D168" s="54"/>
+      <c r="E168" s="54"/>
+      <c r="F168" s="54"/>
+      <c r="G168" s="57"/>
+      <c r="H168" s="57"/>
+      <c r="I168" s="57"/>
+      <c r="J168" s="40"/>
+      <c r="K168" s="5"/>
+      <c r="M168" s="63"/>
+    </row>
+    <row r="169" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A169" s="43">
+        <v>17</v>
+      </c>
+      <c r="B169" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C169" s="53"/>
+      <c r="D169" s="54"/>
+      <c r="E169" s="54"/>
+      <c r="F169" s="54"/>
+      <c r="G169" s="57"/>
+      <c r="H169" s="57"/>
+      <c r="I169" s="57"/>
+      <c r="J169" s="40"/>
+      <c r="K169" s="5"/>
+      <c r="M169" s="63"/>
+    </row>
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A170" s="43"/>
+      <c r="B170" s="99" t="s">
+        <v>105</v>
+      </c>
+      <c r="C170" s="53">
+        <f>2*4</f>
+        <v>8</v>
+      </c>
+      <c r="D170" s="54">
+        <v>1</v>
+      </c>
+      <c r="E170" s="54"/>
+      <c r="F170" s="54"/>
+      <c r="G170" s="68">
+        <f>PRODUCT(C170:F170)</f>
+        <v>8</v>
+      </c>
+      <c r="H170" s="57"/>
+      <c r="I170" s="57"/>
+      <c r="J170" s="40"/>
+      <c r="K170" s="5"/>
+      <c r="M170" s="63"/>
+    </row>
+    <row r="171" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="65"/>
+      <c r="B171" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C171" s="67"/>
+      <c r="D171" s="68"/>
+      <c r="E171" s="68"/>
+      <c r="F171" s="68"/>
+      <c r="G171" s="71">
+        <f>SUM(G170)</f>
+        <v>8</v>
+      </c>
+      <c r="H171" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="I171" s="72">
+        <f>294.4/1.15</f>
+        <v>256</v>
+      </c>
+      <c r="J171" s="73">
+        <f>G171*I171</f>
+        <v>2048</v>
+      </c>
+      <c r="K171" s="5"/>
+    </row>
+    <row r="172" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="65"/>
+      <c r="B172" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C172" s="67"/>
+      <c r="D172" s="68"/>
+      <c r="E172" s="68"/>
+      <c r="F172" s="68"/>
+      <c r="G172" s="71"/>
+      <c r="H172" s="71"/>
+      <c r="I172" s="72"/>
+      <c r="J172" s="73">
+        <f>0.13*J171</f>
+        <v>266.24</v>
+      </c>
+      <c r="K172" s="5"/>
+    </row>
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A173" s="43"/>
+      <c r="B173" s="51"/>
+      <c r="C173" s="53"/>
+      <c r="D173" s="54"/>
+      <c r="E173" s="54"/>
+      <c r="F173" s="54"/>
+      <c r="G173" s="57"/>
+      <c r="H173" s="57"/>
+      <c r="I173" s="57"/>
+      <c r="J173" s="40"/>
+      <c r="K173" s="5"/>
+      <c r="M173" s="63"/>
+    </row>
+    <row r="174" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A174" s="43">
+        <v>17</v>
+      </c>
+      <c r="B174" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C174" s="53"/>
+      <c r="D174" s="54"/>
+      <c r="E174" s="54"/>
+      <c r="F174" s="54"/>
+      <c r="G174" s="57"/>
+      <c r="H174" s="57"/>
+      <c r="I174" s="57"/>
+      <c r="J174" s="40"/>
+      <c r="K174" s="5"/>
+      <c r="M174" s="63"/>
+    </row>
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A175" s="43"/>
+      <c r="B175" s="99" t="s">
+        <v>107</v>
+      </c>
+      <c r="C175" s="53">
+        <v>4</v>
+      </c>
+      <c r="D175" s="54">
+        <f>(5.17)/3.281</f>
+        <v>1.5757391039317281</v>
+      </c>
+      <c r="E175" s="54"/>
+      <c r="F175" s="54"/>
+      <c r="G175" s="68">
+        <f>PRODUCT(C175:F175)</f>
+        <v>6.3029564157269125</v>
+      </c>
+      <c r="H175" s="57"/>
+      <c r="I175" s="57"/>
+      <c r="J175" s="40"/>
+      <c r="K175" s="5"/>
+      <c r="M175" s="63"/>
+    </row>
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A176" s="43"/>
+      <c r="B176" s="99"/>
+      <c r="C176" s="53">
+        <v>4</v>
+      </c>
+      <c r="D176" s="54">
+        <f>(5.5)/3.281</f>
+        <v>1.6763181956720512</v>
+      </c>
+      <c r="E176" s="54"/>
+      <c r="F176" s="54"/>
+      <c r="G176" s="68">
+        <f>PRODUCT(C176:F176)</f>
+        <v>6.7052727826882048</v>
+      </c>
+      <c r="H176" s="57"/>
+      <c r="I176" s="57"/>
+      <c r="J176" s="40"/>
+      <c r="K176" s="5"/>
+      <c r="M176" s="63"/>
+    </row>
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A177" s="43"/>
+      <c r="B177" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="C177" s="53">
+        <v>4</v>
+      </c>
+      <c r="D177" s="54">
+        <f>4.5/3.281</f>
+        <v>1.3715330691862238</v>
+      </c>
+      <c r="E177" s="54"/>
+      <c r="F177" s="54"/>
+      <c r="G177" s="68">
+        <f>PRODUCT(C177:F177)</f>
+        <v>5.486132276744895</v>
+      </c>
+      <c r="H177" s="57"/>
+      <c r="I177" s="57"/>
+      <c r="J177" s="40"/>
+      <c r="K177" s="5"/>
+      <c r="M177" s="63"/>
+    </row>
+    <row r="178" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="65"/>
+      <c r="B178" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C178" s="67"/>
+      <c r="D178" s="68"/>
+      <c r="E178" s="68"/>
+      <c r="F178" s="68"/>
+      <c r="G178" s="71">
+        <f>SUM(G175:G177)</f>
+        <v>18.494361475160012</v>
+      </c>
+      <c r="H178" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="I178" s="72">
+        <f>2356.71/1.15</f>
+        <v>2049.3130434782611</v>
+      </c>
+      <c r="J178" s="73">
+        <f>G178*I178</f>
+        <v>37900.73620184727</v>
+      </c>
+      <c r="K178" s="5"/>
+    </row>
+    <row r="179" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="65"/>
+      <c r="B179" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C179" s="67"/>
+      <c r="D179" s="68"/>
+      <c r="E179" s="68"/>
+      <c r="F179" s="68"/>
+      <c r="G179" s="71"/>
+      <c r="H179" s="71"/>
+      <c r="I179" s="72"/>
+      <c r="J179" s="73">
+        <f>0.13*G178*(184206/100)</f>
+        <v>4428.8040548613226</v>
+      </c>
+      <c r="K179" s="5"/>
+    </row>
+    <row r="180" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="43"/>
+      <c r="B180" s="56"/>
+      <c r="C180" s="53"/>
+      <c r="D180" s="54"/>
+      <c r="E180" s="54"/>
+      <c r="F180" s="54"/>
+      <c r="G180" s="57"/>
+      <c r="H180" s="57"/>
+      <c r="I180" s="57"/>
+      <c r="J180" s="40"/>
+      <c r="K180" s="5"/>
+      <c r="M180" s="63"/>
+    </row>
+    <row r="181" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A181" s="43">
+        <v>17</v>
+      </c>
+      <c r="B181" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C181" s="53"/>
+      <c r="D181" s="54"/>
+      <c r="E181" s="54"/>
+      <c r="F181" s="54"/>
+      <c r="G181" s="57"/>
+      <c r="H181" s="57"/>
+      <c r="I181" s="57"/>
+      <c r="J181" s="40"/>
+      <c r="K181" s="5"/>
+      <c r="M181" s="63"/>
+    </row>
+    <row r="182" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A182" s="43"/>
+      <c r="B182" s="99" t="s">
+        <v>113</v>
+      </c>
+      <c r="C182" s="53">
+        <v>1</v>
+      </c>
+      <c r="D182" s="54">
+        <v>1.2</v>
+      </c>
+      <c r="E182" s="54"/>
+      <c r="F182" s="54"/>
+      <c r="G182" s="68">
+        <f>PRODUCT(C182:F182)</f>
+        <v>1.2</v>
+      </c>
+      <c r="H182" s="57"/>
+      <c r="I182" s="57"/>
+      <c r="J182" s="40"/>
+      <c r="K182" s="5"/>
+      <c r="M182" s="63"/>
+    </row>
+    <row r="183" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="65"/>
+      <c r="B183" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C183" s="67"/>
+      <c r="D183" s="68"/>
+      <c r="E183" s="68"/>
+      <c r="F183" s="68"/>
+      <c r="G183" s="71">
+        <f>SUM(G182:G182)</f>
+        <v>1.2</v>
+      </c>
+      <c r="H183" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="I183" s="72">
+        <f>4289.73/1.15</f>
+        <v>3730.2</v>
+      </c>
+      <c r="J183" s="73">
+        <f>G183*I183</f>
+        <v>4476.24</v>
+      </c>
+      <c r="K183" s="5"/>
+    </row>
+    <row r="184" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="65"/>
+      <c r="B184" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C184" s="67"/>
+      <c r="D184" s="68"/>
+      <c r="E184" s="68"/>
+      <c r="F184" s="68"/>
+      <c r="G184" s="71"/>
+      <c r="H184" s="71"/>
+      <c r="I184" s="72"/>
+      <c r="J184" s="73">
+        <f>0.13*G183*(7326/5)</f>
+        <v>228.5712</v>
+      </c>
+      <c r="K184" s="5"/>
+    </row>
+    <row r="185" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="43"/>
+      <c r="B185" s="56"/>
+      <c r="C185" s="53"/>
+      <c r="D185" s="54"/>
+      <c r="E185" s="54"/>
+      <c r="F185" s="54"/>
+      <c r="G185" s="57"/>
+      <c r="H185" s="57"/>
+      <c r="I185" s="57"/>
+      <c r="J185" s="40"/>
+      <c r="K185" s="5"/>
+      <c r="M185" s="63"/>
+    </row>
+    <row r="186" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A186" s="26">
+        <v>15</v>
+      </c>
+      <c r="B186" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="C186" s="27">
+        <v>1</v>
+      </c>
+      <c r="D186" s="28"/>
+      <c r="E186" s="28"/>
+      <c r="F186" s="29"/>
+      <c r="G186" s="14">
+        <f>PRODUCT(C186:F186)</f>
+        <v>1</v>
+      </c>
+      <c r="H186" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="I186" s="39">
+        <v>100000</v>
+      </c>
+      <c r="J186" s="40">
+        <f>G186*I186</f>
+        <v>100000</v>
+      </c>
+      <c r="K186" s="29"/>
+      <c r="M186" s="31"/>
+      <c r="N186" s="1"/>
+      <c r="O186" s="1"/>
+      <c r="P186" s="1"/>
+      <c r="Q186" s="1"/>
+      <c r="R186" s="31"/>
+      <c r="S186" s="31"/>
+    </row>
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A187" s="43"/>
+      <c r="B187" s="45"/>
+      <c r="C187" s="46"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="14"/>
+      <c r="F187" s="14"/>
+      <c r="G187" s="44"/>
+      <c r="H187" s="44"/>
+      <c r="I187" s="44"/>
+      <c r="J187" s="44"/>
+      <c r="K187" s="16"/>
+    </row>
+    <row r="188" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A188" s="26">
+        <v>16</v>
+      </c>
+      <c r="B188" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C188" s="27">
+        <v>1</v>
+      </c>
+      <c r="D188" s="28"/>
+      <c r="E188" s="29"/>
+      <c r="F188" s="29"/>
+      <c r="G188" s="44">
+        <f t="shared" ref="G188" si="13">PRODUCT(C188:F188)</f>
+        <v>1</v>
+      </c>
+      <c r="H188" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I188" s="39">
+        <v>500</v>
+      </c>
+      <c r="J188" s="44">
+        <f>G188*I188</f>
+        <v>500</v>
+      </c>
+      <c r="K188" s="29"/>
+      <c r="M188" s="31"/>
+      <c r="N188" s="18"/>
+      <c r="O188" s="18"/>
+      <c r="P188" s="18"/>
+      <c r="Q188" s="18"/>
+      <c r="R188" s="18"/>
+      <c r="S188" s="18"/>
+      <c r="T188" s="18"/>
+    </row>
+    <row r="189" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A189" s="26"/>
+      <c r="B189" s="30"/>
+      <c r="C189" s="27"/>
+      <c r="D189" s="28"/>
+      <c r="E189" s="29"/>
+      <c r="F189" s="29"/>
+      <c r="G189" s="39"/>
+      <c r="H189" s="38"/>
+      <c r="I189" s="39"/>
+      <c r="J189" s="44"/>
+      <c r="K189" s="29"/>
+      <c r="M189" s="31"/>
+      <c r="N189" s="18"/>
+      <c r="O189" s="18"/>
+      <c r="P189" s="18"/>
+      <c r="Q189" s="18"/>
+      <c r="R189" s="18"/>
+      <c r="S189" s="18"/>
+      <c r="T189" s="18"/>
+    </row>
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A190" s="43"/>
+      <c r="B190" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C190" s="46"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="14"/>
+      <c r="F190" s="14"/>
+      <c r="G190" s="44"/>
+      <c r="H190" s="44"/>
+      <c r="I190" s="44"/>
+      <c r="J190" s="44">
+        <f>SUM(J10:J188)</f>
+        <v>1119127.4076919584</v>
+      </c>
+      <c r="K190" s="16"/>
+    </row>
+    <row r="192" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C192" s="90">
+        <f>J190</f>
+        <v>1119127.4076919584</v>
+      </c>
+      <c r="D192" s="91"/>
+      <c r="E192" s="14">
+        <v>100</v>
+      </c>
+      <c r="F192" s="18"/>
+      <c r="G192" s="19"/>
+      <c r="H192" s="18"/>
+      <c r="I192" s="20"/>
+      <c r="J192" s="21"/>
+      <c r="K192" s="22"/>
+    </row>
+    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B193" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C193" s="97">
+        <v>1000000</v>
+      </c>
+      <c r="D193" s="98"/>
+      <c r="E193" s="14"/>
+    </row>
+    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B194" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C194" s="97">
+        <f>C193-C196-C197</f>
+        <v>950000</v>
+      </c>
+      <c r="D194" s="98"/>
+      <c r="E194" s="14">
+        <f>C194/C192*100</f>
+        <v>84.887564496274862</v>
+      </c>
+    </row>
+    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B195" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C195" s="89">
+        <f>C192-C194</f>
+        <v>169127.40769195836</v>
+      </c>
+      <c r="D195" s="89"/>
+      <c r="E195" s="14">
+        <f>100-E194</f>
+        <v>15.112435503725138</v>
+      </c>
+    </row>
+    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B196" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C196" s="90">
+        <f>C193*0.03</f>
+        <v>30000</v>
+      </c>
+      <c r="D196" s="91"/>
+      <c r="E196" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B197" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C197" s="90">
+        <f>C193*0.02</f>
+        <v>20000</v>
+      </c>
+      <c r="D197" s="91"/>
+      <c r="E197" s="14">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C196:D196"/>
+    <mergeCell ref="C197:D197"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="H6:K6"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;LPrepared By:
+&amp;CChecked By:        
+&amp;RApproved By:                 
+</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/ofc/estimates/lakilla mandir/lakilla mandir.xlsx
+++ b/ofc/estimates/lakilla mandir/lakilla mandir.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\lakilla mandir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\lakilla mandir\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WCR" sheetId="6" r:id="rId1"/>
@@ -35,7 +35,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">estimate!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">WCR!$1:$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="116">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -398,15 +398,18 @@
   </si>
   <si>
     <t>Kg</t>
+  </si>
+  <si>
+    <t>Project:- लकिल्ला गणेश मन्दिर</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -638,7 +641,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -648,7 +651,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -670,7 +673,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -686,7 +689,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -695,7 +698,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -704,7 +707,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -723,7 +726,7 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -755,7 +758,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -776,7 +779,7 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -794,7 +797,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -804,7 +807,7 @@
     <xf numFmtId="1" fontId="22" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -820,6 +823,27 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -840,24 +864,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -887,9 +893,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1316,107 +1319,107 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-    </row>
-    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="86" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="80"/>
+      <c r="H2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="80"/>
+      <c r="K2" s="80"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="87" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="88" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="83" t="e">
+      <c r="C6" s="77" t="e">
         <f>F18</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="84"/>
+      <c r="D6" s="78"/>
       <c r="E6" s="11"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -1424,13 +1427,13 @@
         <v>18</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="83" t="e">
+      <c r="J6" s="77" t="e">
         <f>I18</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="84"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6" s="78"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>27</v>
       </c>
@@ -1439,75 +1442,75 @@
       <c r="D7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
-      <c r="I7" s="79" t="s">
+      <c r="I7" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="78" t="e">
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="85" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="I8" s="80" t="s">
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="85"/>
+      <c r="F8" s="85"/>
+      <c r="I8" s="87" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="80"/>
-      <c r="K8" s="80"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="81" t="e">
+      <c r="J8" s="87"/>
+      <c r="K8" s="87"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="88" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="I9" s="80" t="s">
+      <c r="B9" s="88"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="I9" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="76" t="s">
+      <c r="J9" s="87"/>
+      <c r="K9" s="87"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="76" t="s">
+      <c r="B11" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="76" t="s">
+      <c r="C11" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82" t="s">
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="76" t="s">
+      <c r="H11" s="89"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="77" t="s">
+      <c r="K11" s="84" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="76"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="83"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="13" t="s">
         <v>24</v>
       </c>
@@ -1526,10 +1529,10 @@
       <c r="I12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="76"/>
-      <c r="K12" s="77"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="83"/>
+      <c r="K12" s="84"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1572,7 +1575,7 @@
       </c>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="36" t="e">
         <f>#REF!</f>
@@ -1597,7 +1600,7 @@
       </c>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33"/>
       <c r="B15" s="36"/>
       <c r="C15" s="14"/>
@@ -1610,7 +1613,7 @@
       <c r="J15" s="34"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1653,7 +1656,7 @@
       </c>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="14"/>
@@ -1666,7 +1669,7 @@
       <c r="J17" s="34"/>
       <c r="K17" s="17"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>15</v>
@@ -1692,13 +1695,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -1711,6 +1707,13 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1732,101 +1735,101 @@
       <selection activeCell="M139" sqref="M139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="94" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="87" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="95" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>46</v>
       </c>
@@ -1836,31 +1839,31 @@
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="92" t="s">
+      <c r="H6" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="96" t="s">
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1895,7 +1898,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -1912,7 +1915,7 @@
       <c r="J9" s="40"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="B10" s="45" t="s">
         <v>42</v>
@@ -1939,7 +1942,7 @@
       <c r="J10" s="44"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" s="45" t="s">
         <v>38</v>
@@ -1964,7 +1967,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="45" t="s">
         <v>52</v>
@@ -1982,7 +1985,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="30"/>
       <c r="C13" s="27"/>
@@ -2002,7 +2005,7 @@
       <c r="R13" s="31"/>
       <c r="S13" s="31"/>
     </row>
-    <row r="14" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="43">
         <v>2</v>
       </c>
@@ -2019,7 +2022,7 @@
       <c r="J14" s="40"/>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
       <c r="B15" s="45" t="s">
         <v>42</v>
@@ -2044,7 +2047,7 @@
       <c r="J15" s="44"/>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
       <c r="B16" s="45" t="s">
         <v>44</v>
@@ -2069,7 +2072,7 @@
       <c r="J16" s="44"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43"/>
       <c r="B17" s="45" t="s">
         <v>43</v>
@@ -2094,7 +2097,7 @@
       <c r="J17" s="44"/>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18" s="45" t="s">
         <v>65</v>
@@ -2118,7 +2121,7 @@
       <c r="J18" s="44"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19" s="45" t="s">
         <v>90</v>
@@ -2144,7 +2147,7 @@
       <c r="J19" s="44"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20" s="45" t="s">
         <v>91</v>
@@ -2170,7 +2173,7 @@
       <c r="J20" s="44"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
       <c r="B21" s="45" t="s">
         <v>92</v>
@@ -2196,7 +2199,7 @@
       <c r="J21" s="44"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
       <c r="B22" s="45" t="s">
         <v>38</v>
@@ -2222,7 +2225,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
       <c r="B23" s="45" t="s">
         <v>52</v>
@@ -2240,7 +2243,7 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="30"/>
       <c r="C24" s="27"/>
@@ -2260,7 +2263,7 @@
       <c r="R24" s="31"/>
       <c r="S24" s="31"/>
     </row>
-    <row r="25" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>3</v>
       </c>
@@ -2284,7 +2287,7 @@
       <c r="R25" s="31"/>
       <c r="S25" s="31"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
       <c r="B26" s="45" t="s">
         <v>79</v>
@@ -2307,7 +2310,7 @@
       <c r="J26" s="44"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
       <c r="B27" s="45" t="s">
         <v>38</v>
@@ -2333,7 +2336,7 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
       <c r="B28" s="45" t="s">
         <v>52</v>
@@ -2351,7 +2354,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="30"/>
       <c r="C29" s="27"/>
@@ -2371,7 +2374,7 @@
       <c r="R29" s="31"/>
       <c r="S29" s="31"/>
     </row>
-    <row r="30" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>3</v>
       </c>
@@ -2395,7 +2398,7 @@
       <c r="R30" s="31"/>
       <c r="S30" s="31"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="43"/>
       <c r="B31" s="45" t="s">
         <v>79</v>
@@ -2418,7 +2421,7 @@
       <c r="J31" s="44"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="43"/>
       <c r="B32" s="45" t="s">
         <v>38</v>
@@ -2444,7 +2447,7 @@
       </c>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="43"/>
       <c r="B33" s="45" t="s">
         <v>52</v>
@@ -2462,7 +2465,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="30"/>
       <c r="C34" s="27"/>
@@ -2482,7 +2485,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="31"/>
     </row>
-    <row r="35" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <v>3</v>
       </c>
@@ -2506,7 +2509,7 @@
       <c r="R35" s="31"/>
       <c r="S35" s="31"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="43"/>
       <c r="B36" s="45" t="s">
         <v>79</v>
@@ -2529,7 +2532,7 @@
       <c r="J36" s="44"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="43"/>
       <c r="B37" s="45" t="s">
         <v>38</v>
@@ -2555,7 +2558,7 @@
       </c>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="43"/>
       <c r="B38" s="45" t="s">
         <v>52</v>
@@ -2573,7 +2576,7 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="30"/>
       <c r="C39" s="27"/>
@@ -2593,7 +2596,7 @@
       <c r="R39" s="31"/>
       <c r="S39" s="31"/>
     </row>
-    <row r="40" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="26">
         <v>3</v>
       </c>
@@ -2617,7 +2620,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="31"/>
     </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="43"/>
       <c r="B41" s="45" t="s">
         <v>79</v>
@@ -2640,7 +2643,7 @@
       <c r="J41" s="44"/>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="43"/>
       <c r="B42" s="45" t="s">
         <v>38</v>
@@ -2666,7 +2669,7 @@
       </c>
       <c r="K42" s="16"/>
     </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
       <c r="B43" s="45" t="s">
         <v>52</v>
@@ -2684,7 +2687,7 @@
       </c>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
       <c r="B44" s="30"/>
       <c r="C44" s="27"/>
@@ -2704,7 +2707,7 @@
       <c r="R44" s="31"/>
       <c r="S44" s="31"/>
     </row>
-    <row r="45" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="64">
         <v>3</v>
       </c>
@@ -2728,7 +2731,7 @@
       <c r="R45" s="31"/>
       <c r="S45" s="31"/>
     </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
       <c r="B46" s="45" t="s">
         <v>79</v>
@@ -2751,7 +2754,7 @@
       <c r="J46" s="44"/>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="43"/>
       <c r="B47" s="45" t="s">
         <v>38</v>
@@ -2777,7 +2780,7 @@
       </c>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="43"/>
       <c r="B48" s="45" t="s">
         <v>52</v>
@@ -2795,7 +2798,7 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
       <c r="B49" s="30"/>
       <c r="C49" s="27"/>
@@ -2815,7 +2818,7 @@
       <c r="R49" s="31"/>
       <c r="S49" s="31"/>
     </row>
-    <row r="50" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="64">
         <v>3</v>
       </c>
@@ -2839,7 +2842,7 @@
       <c r="R50" s="31"/>
       <c r="S50" s="31"/>
     </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="43"/>
       <c r="B51" s="45" t="s">
         <v>79</v>
@@ -2862,7 +2865,7 @@
       <c r="J51" s="44"/>
       <c r="K51" s="16"/>
     </row>
-    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="43"/>
       <c r="B52" s="45" t="s">
         <v>38</v>
@@ -2888,7 +2891,7 @@
       </c>
       <c r="K52" s="16"/>
     </row>
-    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="43"/>
       <c r="B53" s="45" t="s">
         <v>52</v>
@@ -2906,7 +2909,7 @@
       </c>
       <c r="K53" s="16"/>
     </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
       <c r="B54" s="30"/>
       <c r="C54" s="27"/>
@@ -2926,7 +2929,7 @@
       <c r="R54" s="31"/>
       <c r="S54" s="31"/>
     </row>
-    <row r="55" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="64">
         <v>3</v>
       </c>
@@ -2950,7 +2953,7 @@
       <c r="R55" s="31"/>
       <c r="S55" s="31"/>
     </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="43"/>
       <c r="B56" s="45" t="s">
         <v>79</v>
@@ -2973,7 +2976,7 @@
       <c r="J56" s="44"/>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="43"/>
       <c r="B57" s="45" t="s">
         <v>38</v>
@@ -2999,7 +3002,7 @@
       </c>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="43"/>
       <c r="B58" s="45" t="s">
         <v>52</v>
@@ -3017,7 +3020,7 @@
       </c>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
       <c r="B59" s="30"/>
       <c r="C59" s="27"/>
@@ -3037,7 +3040,7 @@
       <c r="R59" s="31"/>
       <c r="S59" s="31"/>
     </row>
-    <row r="60" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="64">
         <v>3</v>
       </c>
@@ -3061,7 +3064,7 @@
       <c r="R60" s="31"/>
       <c r="S60" s="31"/>
     </row>
-    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="43"/>
       <c r="B61" s="45" t="s">
         <v>79</v>
@@ -3084,7 +3087,7 @@
       <c r="J61" s="44"/>
       <c r="K61" s="16"/>
     </row>
-    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43"/>
       <c r="B62" s="45" t="s">
         <v>38</v>
@@ -3110,7 +3113,7 @@
       </c>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="43"/>
       <c r="B63" s="45" t="s">
         <v>52</v>
@@ -3128,7 +3131,7 @@
       </c>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
       <c r="B64" s="30"/>
       <c r="C64" s="27"/>
@@ -3148,7 +3151,7 @@
       <c r="R64" s="31"/>
       <c r="S64" s="31"/>
     </row>
-    <row r="65" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="64">
         <v>3</v>
       </c>
@@ -3172,7 +3175,7 @@
       <c r="R65" s="31"/>
       <c r="S65" s="31"/>
     </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="43"/>
       <c r="B66" s="45" t="s">
         <v>79</v>
@@ -3195,7 +3198,7 @@
       <c r="J66" s="44"/>
       <c r="K66" s="16"/>
     </row>
-    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43"/>
       <c r="B67" s="45" t="s">
         <v>38</v>
@@ -3221,7 +3224,7 @@
       </c>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="43"/>
       <c r="B68" s="45" t="s">
         <v>52</v>
@@ -3239,7 +3242,7 @@
       </c>
       <c r="K68" s="16"/>
     </row>
-    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="26"/>
       <c r="B69" s="30"/>
       <c r="C69" s="27"/>
@@ -3259,7 +3262,7 @@
       <c r="R69" s="31"/>
       <c r="S69" s="31"/>
     </row>
-    <row r="70" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="64">
         <v>3</v>
       </c>
@@ -3283,7 +3286,7 @@
       <c r="R70" s="31"/>
       <c r="S70" s="31"/>
     </row>
-    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="43"/>
       <c r="B71" s="45" t="s">
         <v>79</v>
@@ -3306,7 +3309,7 @@
       <c r="J71" s="44"/>
       <c r="K71" s="16"/>
     </row>
-    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="43"/>
       <c r="B72" s="45" t="s">
         <v>38</v>
@@ -3332,7 +3335,7 @@
       </c>
       <c r="K72" s="16"/>
     </row>
-    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="43"/>
       <c r="B73" s="45" t="s">
         <v>52</v>
@@ -3350,7 +3353,7 @@
       </c>
       <c r="K73" s="16"/>
     </row>
-    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="26"/>
       <c r="B74" s="30"/>
       <c r="C74" s="27"/>
@@ -3370,7 +3373,7 @@
       <c r="R74" s="31"/>
       <c r="S74" s="31"/>
     </row>
-    <row r="75" spans="1:19" ht="30" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="26">
         <v>3</v>
       </c>
@@ -3394,7 +3397,7 @@
       <c r="R75" s="31"/>
       <c r="S75" s="31"/>
     </row>
-    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="43"/>
       <c r="B76" s="45" t="s">
         <v>54</v>
@@ -3418,7 +3421,7 @@
       <c r="J76" s="44"/>
       <c r="K76" s="16"/>
     </row>
-    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="43"/>
       <c r="B77" s="45" t="s">
         <v>38</v>
@@ -3443,7 +3446,7 @@
       </c>
       <c r="K77" s="16"/>
     </row>
-    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="43"/>
       <c r="B78" s="45" t="s">
         <v>52</v>
@@ -3461,7 +3464,7 @@
       </c>
       <c r="K78" s="16"/>
     </row>
-    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="43"/>
       <c r="B79" s="45"/>
       <c r="C79" s="46"/>
@@ -3474,7 +3477,7 @@
       <c r="J79" s="40"/>
       <c r="K79" s="16"/>
     </row>
-    <row r="80" spans="1:19" ht="30" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="43">
         <v>4</v>
       </c>
@@ -3491,7 +3494,7 @@
       <c r="J80" s="40"/>
       <c r="K80" s="16"/>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="43"/>
       <c r="B81" s="45" t="s">
         <v>54</v>
@@ -3516,7 +3519,7 @@
       <c r="J81" s="44"/>
       <c r="K81" s="16"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="43"/>
       <c r="B82" s="45" t="s">
         <v>55</v>
@@ -3541,7 +3544,7 @@
       <c r="J82" s="44"/>
       <c r="K82" s="16"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="43"/>
       <c r="B83" s="45" t="s">
         <v>38</v>
@@ -3566,7 +3569,7 @@
       </c>
       <c r="K83" s="16"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="43"/>
       <c r="B84" s="45" t="s">
         <v>52</v>
@@ -3584,7 +3587,7 @@
       </c>
       <c r="K84" s="16"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="43"/>
       <c r="B85" s="45"/>
       <c r="C85" s="46"/>
@@ -3597,7 +3600,7 @@
       <c r="J85" s="40"/>
       <c r="K85" s="16"/>
     </row>
-    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="43">
         <v>5</v>
       </c>
@@ -3614,7 +3617,7 @@
       <c r="J86" s="40"/>
       <c r="K86" s="16"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="43"/>
       <c r="B87" s="45" t="s">
         <v>54</v>
@@ -3639,7 +3642,7 @@
       <c r="J87" s="44"/>
       <c r="K87" s="16"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="43"/>
       <c r="B88" s="45" t="s">
         <v>38</v>
@@ -3664,7 +3667,7 @@
       </c>
       <c r="K88" s="16"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="43"/>
       <c r="B89" s="45" t="s">
         <v>52</v>
@@ -3682,7 +3685,7 @@
       </c>
       <c r="K89" s="16"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="43"/>
       <c r="B90" s="45"/>
       <c r="C90" s="46"/>
@@ -3695,7 +3698,7 @@
       <c r="J90" s="40"/>
       <c r="K90" s="16"/>
     </row>
-    <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="58">
         <v>6</v>
       </c>
@@ -3712,7 +3715,7 @@
       <c r="J91" s="40"/>
       <c r="K91" s="16"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="43"/>
       <c r="B92" s="45" t="str">
         <f>B82</f>
@@ -3739,7 +3742,7 @@
       <c r="J92" s="9"/>
       <c r="K92" s="16"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="43"/>
       <c r="B93" s="45" t="s">
         <v>38</v>
@@ -3765,7 +3768,7 @@
       </c>
       <c r="K93" s="16"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="43"/>
       <c r="B94" s="45" t="s">
         <v>52</v>
@@ -3783,7 +3786,7 @@
       </c>
       <c r="K94" s="16"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="43"/>
       <c r="B95" s="45"/>
       <c r="C95" s="46"/>
@@ -3796,7 +3799,7 @@
       <c r="J95" s="40"/>
       <c r="K95" s="16"/>
     </row>
-    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="58">
         <v>7</v>
       </c>
@@ -3813,7 +3816,7 @@
       <c r="J96" s="40"/>
       <c r="K96" s="16"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="43"/>
       <c r="B97" s="45" t="s">
         <v>60</v>
@@ -3839,7 +3842,7 @@
       <c r="J97" s="9"/>
       <c r="K97" s="16"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="43"/>
       <c r="B98" s="45" t="s">
         <v>61</v>
@@ -3863,7 +3866,7 @@
       <c r="J98" s="9"/>
       <c r="K98" s="16"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="43"/>
       <c r="B99" s="45"/>
       <c r="C99" s="46">
@@ -3885,7 +3888,7 @@
       <c r="J99" s="9"/>
       <c r="K99" s="16"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="43"/>
       <c r="B100" s="45"/>
       <c r="C100" s="46">
@@ -3908,7 +3911,7 @@
       <c r="J100" s="9"/>
       <c r="K100" s="16"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="43"/>
       <c r="B101" s="45"/>
       <c r="C101" s="46">
@@ -3930,7 +3933,7 @@
       <c r="J101" s="9"/>
       <c r="K101" s="16"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="43"/>
       <c r="B102" s="45" t="s">
         <v>76</v>
@@ -3956,7 +3959,7 @@
       <c r="J102" s="9"/>
       <c r="K102" s="16"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="43"/>
       <c r="B103" s="45" t="s">
         <v>77</v>
@@ -3982,7 +3985,7 @@
       <c r="J103" s="9"/>
       <c r="K103" s="16"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="43"/>
       <c r="B104" s="45"/>
       <c r="C104" s="46">
@@ -4006,7 +4009,7 @@
       <c r="J104" s="9"/>
       <c r="K104" s="16"/>
     </row>
-    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="43"/>
       <c r="B105" s="45" t="s">
         <v>38</v>
@@ -4031,7 +4034,7 @@
       </c>
       <c r="K105" s="16"/>
     </row>
-    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="43"/>
       <c r="B106" s="45" t="s">
         <v>52</v>
@@ -4049,7 +4052,7 @@
       </c>
       <c r="K106" s="16"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="43"/>
       <c r="B107" s="45"/>
       <c r="C107" s="46"/>
@@ -4062,7 +4065,7 @@
       <c r="J107" s="40"/>
       <c r="K107" s="16"/>
     </row>
-    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="43">
         <v>8</v>
       </c>
@@ -4079,7 +4082,7 @@
       <c r="J108" s="40"/>
       <c r="K108" s="16"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="43"/>
       <c r="B109" s="45" t="s">
         <v>63</v>
@@ -4102,7 +4105,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="16"/>
     </row>
-    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="43"/>
       <c r="B110" s="45" t="s">
         <v>38</v>
@@ -4127,7 +4130,7 @@
       </c>
       <c r="K110" s="16"/>
     </row>
-    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="43"/>
       <c r="B111" s="45" t="s">
         <v>52</v>
@@ -4145,7 +4148,7 @@
       </c>
       <c r="K111" s="16"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="43"/>
       <c r="B112" s="45"/>
       <c r="C112" s="46"/>
@@ -4158,7 +4161,7 @@
       <c r="J112" s="40"/>
       <c r="K112" s="16"/>
     </row>
-    <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="43">
         <v>9</v>
       </c>
@@ -4175,7 +4178,7 @@
       <c r="J113" s="40"/>
       <c r="K113" s="16"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="43"/>
       <c r="B114" s="45" t="s">
         <v>63</v>
@@ -4198,7 +4201,7 @@
       <c r="J114" s="9"/>
       <c r="K114" s="16"/>
     </row>
-    <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="43"/>
       <c r="B115" s="45" t="s">
         <v>38</v>
@@ -4223,7 +4226,7 @@
       </c>
       <c r="K115" s="16"/>
     </row>
-    <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="43"/>
       <c r="B116" s="45" t="s">
         <v>52</v>
@@ -4241,7 +4244,7 @@
       </c>
       <c r="K116" s="16"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="43"/>
       <c r="B117" s="45"/>
       <c r="C117" s="46"/>
@@ -4254,7 +4257,7 @@
       <c r="J117" s="40"/>
       <c r="K117" s="16"/>
     </row>
-    <row r="118" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="43">
         <v>10</v>
       </c>
@@ -4271,7 +4274,7 @@
       <c r="J118" s="40"/>
       <c r="K118" s="5"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="43"/>
       <c r="B119" s="56" t="s">
         <v>67</v>
@@ -4299,7 +4302,7 @@
       <c r="J119" s="40"/>
       <c r="K119" s="5"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="43"/>
       <c r="B120" s="56"/>
       <c r="C120" s="53">
@@ -4324,7 +4327,7 @@
       <c r="J120" s="40"/>
       <c r="K120" s="5"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="43"/>
       <c r="B121" s="56" t="s">
         <v>68</v>
@@ -4351,7 +4354,7 @@
       <c r="J121" s="40"/>
       <c r="K121" s="5"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="43"/>
       <c r="B122" s="56"/>
       <c r="C122" s="53">
@@ -4377,7 +4380,7 @@
       <c r="J122" s="40"/>
       <c r="K122" s="5"/>
     </row>
-    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="43"/>
       <c r="B123" s="56" t="s">
         <v>38</v>
@@ -4403,7 +4406,7 @@
       </c>
       <c r="K123" s="5"/>
     </row>
-    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="43"/>
       <c r="B124" s="56" t="s">
         <v>52</v>
@@ -4421,7 +4424,7 @@
       </c>
       <c r="K124" s="5"/>
     </row>
-    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="43"/>
       <c r="B125" s="56"/>
       <c r="C125" s="53"/>
@@ -4434,7 +4437,7 @@
       <c r="J125" s="61"/>
       <c r="K125" s="5"/>
     </row>
-    <row r="126" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A126" s="43">
         <v>11</v>
       </c>
@@ -4452,7 +4455,7 @@
       <c r="K126" s="5"/>
       <c r="M126" s="63"/>
     </row>
-    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="43"/>
       <c r="B127" s="56" t="s">
         <v>70</v>
@@ -4478,7 +4481,7 @@
       <c r="J127" s="40"/>
       <c r="K127" s="5"/>
     </row>
-    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="43"/>
       <c r="B128" s="56" t="s">
         <v>38</v>
@@ -4504,7 +4507,7 @@
       </c>
       <c r="K128" s="5"/>
     </row>
-    <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="43"/>
       <c r="B129" s="56" t="s">
         <v>52</v>
@@ -4522,7 +4525,7 @@
       </c>
       <c r="K129" s="5"/>
     </row>
-    <row r="130" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="43"/>
       <c r="B130" s="52"/>
       <c r="C130" s="53"/>
@@ -4536,7 +4539,7 @@
       <c r="K130" s="5"/>
       <c r="M130" s="63"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="43">
         <v>12</v>
       </c>
@@ -4553,7 +4556,7 @@
       <c r="J131" s="40"/>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="43"/>
       <c r="B132" s="56" t="s">
         <v>70</v>
@@ -4579,7 +4582,7 @@
       <c r="J132" s="40"/>
       <c r="K132" s="5"/>
     </row>
-    <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="43"/>
       <c r="B133" s="56" t="s">
         <v>38</v>
@@ -4605,7 +4608,7 @@
       </c>
       <c r="K133" s="5"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="43"/>
       <c r="B134" s="62"/>
       <c r="C134" s="53"/>
@@ -4618,7 +4621,7 @@
       <c r="J134" s="40"/>
       <c r="K134" s="5"/>
     </row>
-    <row r="135" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="43">
         <v>13</v>
       </c>
@@ -4635,7 +4638,7 @@
       <c r="J135" s="40"/>
       <c r="K135" s="5"/>
     </row>
-    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="43"/>
       <c r="B136" s="56" t="s">
         <v>72</v>
@@ -4661,7 +4664,7 @@
       <c r="J136" s="40"/>
       <c r="K136" s="5"/>
     </row>
-    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="43"/>
       <c r="B137" s="56" t="s">
         <v>38</v>
@@ -4687,7 +4690,7 @@
       </c>
       <c r="K137" s="5"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="43"/>
       <c r="B138" s="62"/>
       <c r="C138" s="53"/>
@@ -4700,7 +4703,7 @@
       <c r="J138" s="40"/>
       <c r="K138" s="5"/>
     </row>
-    <row r="139" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="43">
         <v>14</v>
       </c>
@@ -4717,7 +4720,7 @@
       <c r="J139" s="40"/>
       <c r="K139" s="5"/>
     </row>
-    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="43"/>
       <c r="B140" s="56" t="s">
         <v>74</v>
@@ -4743,7 +4746,7 @@
       <c r="J140" s="40"/>
       <c r="K140" s="5"/>
     </row>
-    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="43"/>
       <c r="B141" s="70" t="s">
         <v>96</v>
@@ -4768,7 +4771,7 @@
       <c r="J141" s="40"/>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="43"/>
       <c r="B142" s="56" t="s">
         <v>38</v>
@@ -4794,7 +4797,7 @@
       </c>
       <c r="K142" s="5"/>
     </row>
-    <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="43"/>
       <c r="B143" s="56" t="s">
         <v>52</v>
@@ -4812,7 +4815,7 @@
       </c>
       <c r="K143" s="5"/>
     </row>
-    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="43"/>
       <c r="B144" s="56"/>
       <c r="C144" s="53"/>
@@ -4826,7 +4829,7 @@
       <c r="K144" s="5"/>
       <c r="M144" s="63"/>
     </row>
-    <row r="145" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="65">
         <v>15</v>
       </c>
@@ -4844,7 +4847,7 @@
       <c r="K145" s="5"/>
       <c r="M145" s="63"/>
     </row>
-    <row r="146" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="65"/>
       <c r="B146" s="70" t="s">
         <v>94</v>
@@ -4870,7 +4873,7 @@
       <c r="J146" s="69"/>
       <c r="K146" s="5"/>
     </row>
-    <row r="147" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="65"/>
       <c r="B147" s="70" t="s">
         <v>95</v>
@@ -4896,7 +4899,7 @@
       <c r="J147" s="69"/>
       <c r="K147" s="5"/>
     </row>
-    <row r="148" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="65"/>
       <c r="B148" s="70" t="s">
         <v>38</v>
@@ -4922,7 +4925,7 @@
       </c>
       <c r="K148" s="5"/>
     </row>
-    <row r="149" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="65"/>
       <c r="B149" s="70" t="s">
         <v>52</v>
@@ -4940,7 +4943,7 @@
       </c>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="65"/>
       <c r="B150" s="74"/>
       <c r="C150" s="67"/>
@@ -4954,7 +4957,7 @@
       <c r="K150" s="5"/>
       <c r="M150" s="63"/>
     </row>
-    <row r="151" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="65">
         <v>16</v>
       </c>
@@ -4972,7 +4975,7 @@
       <c r="K151" s="5"/>
       <c r="M151" s="63"/>
     </row>
-    <row r="152" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="65"/>
       <c r="B152" s="70" t="str">
         <f t="shared" ref="B152:E153" si="12">B146</f>
@@ -5000,7 +5003,7 @@
       <c r="J152" s="69"/>
       <c r="K152" s="5"/>
     </row>
-    <row r="153" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="65"/>
       <c r="B153" s="70" t="str">
         <f t="shared" si="12"/>
@@ -5028,7 +5031,7 @@
       <c r="J153" s="69"/>
       <c r="K153" s="5"/>
     </row>
-    <row r="154" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="65"/>
       <c r="B154" s="70" t="s">
         <v>38</v>
@@ -5054,7 +5057,7 @@
       </c>
       <c r="K154" s="5"/>
     </row>
-    <row r="155" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="65"/>
       <c r="B155" s="70" t="s">
         <v>52</v>
@@ -5072,7 +5075,7 @@
       </c>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="43"/>
       <c r="B156" s="52"/>
       <c r="C156" s="53"/>
@@ -5086,7 +5089,7 @@
       <c r="K156" s="5"/>
       <c r="M156" s="63"/>
     </row>
-    <row r="157" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="43"/>
       <c r="B157" s="56"/>
       <c r="C157" s="53"/>
@@ -5100,7 +5103,7 @@
       <c r="K157" s="5"/>
       <c r="M157" s="63"/>
     </row>
-    <row r="158" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="43"/>
       <c r="B158" s="56"/>
       <c r="C158" s="53"/>
@@ -5114,7 +5117,7 @@
       <c r="K158" s="5"/>
       <c r="M158" s="63"/>
     </row>
-    <row r="159" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="43"/>
       <c r="B159" s="56"/>
       <c r="C159" s="53"/>
@@ -5128,7 +5131,7 @@
       <c r="K159" s="5"/>
       <c r="M159" s="63"/>
     </row>
-    <row r="160" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="26">
         <v>15</v>
       </c>
@@ -5164,7 +5167,7 @@
       <c r="R160" s="31"/>
       <c r="S160" s="31"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="43"/>
       <c r="B161" s="45"/>
       <c r="C161" s="46"/>
@@ -5177,7 +5180,7 @@
       <c r="J161" s="44"/>
       <c r="K161" s="16"/>
     </row>
-    <row r="162" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A162" s="26">
         <v>16</v>
       </c>
@@ -5214,7 +5217,7 @@
       <c r="S162" s="18"/>
       <c r="T162" s="18"/>
     </row>
-    <row r="163" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A163" s="26"/>
       <c r="B163" s="30"/>
       <c r="C163" s="27"/>
@@ -5235,7 +5238,7 @@
       <c r="S163" s="18"/>
       <c r="T163" s="18"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="43"/>
       <c r="B164" s="50" t="s">
         <v>15</v>
@@ -5253,15 +5256,15 @@
       </c>
       <c r="K164" s="16"/>
     </row>
-    <row r="166" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B166" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C166" s="90">
+      <c r="C166" s="91">
         <f>J164</f>
         <v>637771.83239571028</v>
       </c>
-      <c r="D166" s="91"/>
+      <c r="D166" s="92"/>
       <c r="E166" s="14">
         <v>100</v>
       </c>
@@ -5272,66 +5275,66 @@
       <c r="J166" s="21"/>
       <c r="K166" s="22"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B167" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C167" s="97">
+      <c r="C167" s="98">
         <v>1000000</v>
       </c>
-      <c r="D167" s="98"/>
+      <c r="D167" s="99"/>
       <c r="E167" s="14"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B168" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C168" s="97">
+      <c r="C168" s="98">
         <f>C167-C170-C171</f>
         <v>950000</v>
       </c>
-      <c r="D168" s="98"/>
+      <c r="D168" s="99"/>
       <c r="E168" s="14">
         <f>C168/C166*100</f>
         <v>148.95609240556195</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B169" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C169" s="89">
+      <c r="C169" s="90">
         <f>C166-C168</f>
         <v>-312228.16760428972</v>
       </c>
-      <c r="D169" s="89"/>
+      <c r="D169" s="90"/>
       <c r="E169" s="14">
         <f>100-E168</f>
         <v>-48.956092405561947</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B170" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C170" s="90">
+      <c r="C170" s="91">
         <f>C167*0.03</f>
         <v>30000</v>
       </c>
-      <c r="D170" s="91"/>
+      <c r="D170" s="92"/>
       <c r="E170" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B171" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C171" s="90">
+      <c r="C171" s="91">
         <f>C167*0.02</f>
         <v>20000</v>
       </c>
-      <c r="D171" s="91"/>
+      <c r="D171" s="92"/>
       <c r="E171" s="14">
         <v>2</v>
       </c>
@@ -5369,107 +5372,107 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="H192" sqref="H192"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="94" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
-      <c r="K3" s="87"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="87" t="s">
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="81"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="81" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="95" t="s">
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="96" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="95"/>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="95"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="95"/>
-      <c r="I5" s="95"/>
-      <c r="J5" s="95"/>
-      <c r="K5" s="95"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
@@ -5477,31 +5480,31 @@
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="92" t="s">
+      <c r="H6" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
-      <c r="K6" s="92"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="96" t="s">
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="92"/>
-      <c r="J7" s="92"/>
-      <c r="K7" s="92"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -5536,7 +5539,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -5553,7 +5556,7 @@
       <c r="J9" s="40"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="B10" s="45" t="s">
         <v>99</v>
@@ -5580,7 +5583,7 @@
       <c r="J10" s="44"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" s="45" t="s">
         <v>38</v>
@@ -5605,7 +5608,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="45" t="s">
         <v>52</v>
@@ -5623,7 +5626,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="30"/>
       <c r="C13" s="27"/>
@@ -5643,7 +5646,7 @@
       <c r="R13" s="31"/>
       <c r="S13" s="31"/>
     </row>
-    <row r="14" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="43">
         <v>2</v>
       </c>
@@ -5660,7 +5663,7 @@
       <c r="J14" s="40"/>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
       <c r="B15" s="45" t="s">
         <v>100</v>
@@ -5685,7 +5688,7 @@
       <c r="J15" s="44"/>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
       <c r="B16" s="45"/>
       <c r="C16" s="46">
@@ -5708,7 +5711,7 @@
       <c r="J16" s="44"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43"/>
       <c r="B17" s="45" t="s">
         <v>101</v>
@@ -5733,7 +5736,7 @@
       <c r="J17" s="44"/>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18" s="45"/>
       <c r="C18" s="46">
@@ -5757,7 +5760,7 @@
       <c r="J18" s="44"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19" s="45" t="s">
         <v>103</v>
@@ -5784,7 +5787,7 @@
       <c r="J19" s="44"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20" s="45" t="s">
         <v>44</v>
@@ -5810,7 +5813,7 @@
       <c r="J20" s="44"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
       <c r="B21" s="45" t="s">
         <v>43</v>
@@ -5828,7 +5831,7 @@
         <v>2.1334958854007922</v>
       </c>
       <c r="G21" s="14">
-        <f>PRODUCT(C21:F21)</f>
+        <f t="shared" ref="G21:G27" si="4">PRODUCT(C21:F21)</f>
         <v>-5.1203901249619008</v>
       </c>
       <c r="H21" s="47"/>
@@ -5836,7 +5839,7 @@
       <c r="J21" s="44"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
       <c r="B22" s="45" t="s">
         <v>65</v>
@@ -5853,7 +5856,7 @@
         <v>0.15000000000000002</v>
       </c>
       <c r="G22" s="14">
-        <f>PRODUCT(C22:F22)</f>
+        <f t="shared" si="4"/>
         <v>0.31200000000000006</v>
       </c>
       <c r="H22" s="47"/>
@@ -5861,7 +5864,7 @@
       <c r="J22" s="44"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
       <c r="B23" s="45" t="s">
         <v>90</v>
@@ -5879,7 +5882,7 @@
         <v>1.6763181956720512</v>
       </c>
       <c r="G23" s="14">
-        <f>PRODUCT(C23:F23)</f>
+        <f t="shared" si="4"/>
         <v>-23.585797013105765</v>
       </c>
       <c r="H23" s="47"/>
@@ -5887,7 +5890,7 @@
       <c r="J23" s="44"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43"/>
       <c r="B24" s="45" t="s">
         <v>91</v>
@@ -5905,7 +5908,7 @@
         <v>0.78736157675505436</v>
       </c>
       <c r="G24" s="14">
-        <f>PRODUCT(C24:F24)</f>
+        <f t="shared" si="4"/>
         <v>-0.94483389210606517</v>
       </c>
       <c r="H24" s="47"/>
@@ -5913,7 +5916,7 @@
       <c r="J24" s="44"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
       <c r="B25" s="45" t="s">
         <v>92</v>
@@ -5931,7 +5934,7 @@
         <v>0.45717768972874123</v>
       </c>
       <c r="G25" s="14">
-        <f>PRODUCT(C25:F25)</f>
+        <f t="shared" si="4"/>
         <v>-0.41145992075586713</v>
       </c>
       <c r="H25" s="47"/>
@@ -5939,7 +5942,7 @@
       <c r="J25" s="44"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
       <c r="B26" s="45" t="s">
         <v>109</v>
@@ -5956,7 +5959,7 @@
         <v>0.6</v>
       </c>
       <c r="G26" s="14">
-        <f>PRODUCT(C26:F26)</f>
+        <f t="shared" si="4"/>
         <v>2.5601950624809504</v>
       </c>
       <c r="H26" s="47"/>
@@ -5964,7 +5967,7 @@
       <c r="J26" s="44"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
       <c r="B27" s="45" t="s">
         <v>110</v>
@@ -5980,7 +5983,7 @@
         <v>0.6</v>
       </c>
       <c r="G27" s="14">
-        <f>PRODUCT(C27:F27)</f>
+        <f t="shared" si="4"/>
         <v>-1.44</v>
       </c>
       <c r="H27" s="47"/>
@@ -5988,7 +5991,7 @@
       <c r="J27" s="44"/>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
       <c r="B28" s="45" t="s">
         <v>38</v>
@@ -6014,7 +6017,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="43"/>
       <c r="B29" s="45" t="s">
         <v>52</v>
@@ -6032,7 +6035,7 @@
       </c>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="43"/>
       <c r="B30" s="45"/>
       <c r="C30" s="46"/>
@@ -6045,7 +6048,7 @@
       <c r="J30" s="44"/>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="43">
         <v>3</v>
       </c>
@@ -6062,7 +6065,7 @@
       <c r="J31" s="44"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="43"/>
       <c r="B32" s="45" t="s">
         <v>65</v>
@@ -6090,7 +6093,7 @@
       <c r="J32" s="44"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="43"/>
       <c r="B33" s="45"/>
       <c r="C33" s="46">
@@ -6115,7 +6118,7 @@
       <c r="J33" s="44"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="43"/>
       <c r="B34" s="45" t="s">
         <v>38</v>
@@ -6140,7 +6143,7 @@
       </c>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="43"/>
       <c r="B35" s="45" t="s">
         <v>52</v>
@@ -6158,7 +6161,7 @@
       </c>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="30"/>
       <c r="C36" s="27"/>
@@ -6178,9 +6181,9 @@
       <c r="R36" s="31"/>
       <c r="S36" s="31"/>
     </row>
-    <row r="37" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B37" s="41" t="s">
         <v>78</v>
@@ -6202,7 +6205,7 @@
       <c r="R37" s="31"/>
       <c r="S37" s="31"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="43"/>
       <c r="B38" s="45" t="s">
         <v>79</v>
@@ -6225,7 +6228,7 @@
       <c r="J38" s="44"/>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="43"/>
       <c r="B39" s="45" t="s">
         <v>38</v>
@@ -6251,7 +6254,7 @@
       </c>
       <c r="K39" s="16"/>
     </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="43"/>
       <c r="B40" s="45" t="s">
         <v>52</v>
@@ -6269,7 +6272,7 @@
       </c>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
       <c r="B41" s="30"/>
       <c r="C41" s="27"/>
@@ -6289,9 +6292,9 @@
       <c r="R41" s="31"/>
       <c r="S41" s="31"/>
     </row>
-    <row r="42" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B42" s="41" t="s">
         <v>81</v>
@@ -6313,7 +6316,7 @@
       <c r="R42" s="31"/>
       <c r="S42" s="31"/>
     </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
       <c r="B43" s="45" t="s">
         <v>79</v>
@@ -6336,7 +6339,7 @@
       <c r="J43" s="44"/>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
       <c r="B44" s="45" t="s">
         <v>38</v>
@@ -6362,7 +6365,7 @@
       </c>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>
       <c r="B45" s="45" t="s">
         <v>52</v>
@@ -6380,7 +6383,7 @@
       </c>
       <c r="K45" s="16"/>
     </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
       <c r="B46" s="30"/>
       <c r="C46" s="27"/>
@@ -6400,9 +6403,9 @@
       <c r="R46" s="31"/>
       <c r="S46" s="31"/>
     </row>
-    <row r="47" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B47" s="41" t="s">
         <v>82</v>
@@ -6424,7 +6427,7 @@
       <c r="R47" s="31"/>
       <c r="S47" s="31"/>
     </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="43"/>
       <c r="B48" s="45" t="s">
         <v>79</v>
@@ -6447,7 +6450,7 @@
       <c r="J48" s="44"/>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="43"/>
       <c r="B49" s="45" t="s">
         <v>38</v>
@@ -6473,7 +6476,7 @@
       </c>
       <c r="K49" s="16"/>
     </row>
-    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="43"/>
       <c r="B50" s="45" t="s">
         <v>52</v>
@@ -6491,7 +6494,7 @@
       </c>
       <c r="K50" s="16"/>
     </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
       <c r="B51" s="30"/>
       <c r="C51" s="27"/>
@@ -6511,9 +6514,9 @@
       <c r="R51" s="31"/>
       <c r="S51" s="31"/>
     </row>
-    <row r="52" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="26">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B52" s="41" t="s">
         <v>84</v>
@@ -6535,7 +6538,7 @@
       <c r="R52" s="31"/>
       <c r="S52" s="31"/>
     </row>
-    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="43"/>
       <c r="B53" s="45" t="s">
         <v>79</v>
@@ -6558,7 +6561,7 @@
       <c r="J53" s="44"/>
       <c r="K53" s="16"/>
     </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="43"/>
       <c r="B54" s="45" t="s">
         <v>38</v>
@@ -6584,7 +6587,7 @@
       </c>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="43"/>
       <c r="B55" s="45" t="s">
         <v>52</v>
@@ -6602,7 +6605,7 @@
       </c>
       <c r="K55" s="16"/>
     </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="26"/>
       <c r="B56" s="30"/>
       <c r="C56" s="27"/>
@@ -6622,9 +6625,9 @@
       <c r="R56" s="31"/>
       <c r="S56" s="31"/>
     </row>
-    <row r="57" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="64">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B57" s="41" t="s">
         <v>83</v>
@@ -6646,7 +6649,7 @@
       <c r="R57" s="31"/>
       <c r="S57" s="31"/>
     </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="43"/>
       <c r="B58" s="45" t="s">
         <v>79</v>
@@ -6669,7 +6672,7 @@
       <c r="J58" s="44"/>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="43"/>
       <c r="B59" s="45" t="s">
         <v>38</v>
@@ -6695,7 +6698,7 @@
       </c>
       <c r="K59" s="16"/>
     </row>
-    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="43"/>
       <c r="B60" s="45" t="s">
         <v>52</v>
@@ -6713,7 +6716,7 @@
       </c>
       <c r="K60" s="16"/>
     </row>
-    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
       <c r="B61" s="30"/>
       <c r="C61" s="27"/>
@@ -6733,9 +6736,9 @@
       <c r="R61" s="31"/>
       <c r="S61" s="31"/>
     </row>
-    <row r="62" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="64">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B62" s="41" t="s">
         <v>85</v>
@@ -6757,7 +6760,7 @@
       <c r="R62" s="31"/>
       <c r="S62" s="31"/>
     </row>
-    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="43"/>
       <c r="B63" s="45" t="s">
         <v>79</v>
@@ -6780,7 +6783,7 @@
       <c r="J63" s="44"/>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="43"/>
       <c r="B64" s="45" t="s">
         <v>38</v>
@@ -6806,7 +6809,7 @@
       </c>
       <c r="K64" s="16"/>
     </row>
-    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="43"/>
       <c r="B65" s="45" t="s">
         <v>52</v>
@@ -6824,7 +6827,7 @@
       </c>
       <c r="K65" s="16"/>
     </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="26"/>
       <c r="B66" s="30"/>
       <c r="C66" s="27"/>
@@ -6844,9 +6847,9 @@
       <c r="R66" s="31"/>
       <c r="S66" s="31"/>
     </row>
-    <row r="67" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="64">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B67" s="41" t="s">
         <v>86</v>
@@ -6868,7 +6871,7 @@
       <c r="R67" s="31"/>
       <c r="S67" s="31"/>
     </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="43"/>
       <c r="B68" s="45" t="s">
         <v>79</v>
@@ -6891,7 +6894,7 @@
       <c r="J68" s="44"/>
       <c r="K68" s="16"/>
     </row>
-    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="43"/>
       <c r="B69" s="45" t="s">
         <v>38</v>
@@ -6917,7 +6920,7 @@
       </c>
       <c r="K69" s="16"/>
     </row>
-    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="43"/>
       <c r="B70" s="45" t="s">
         <v>52</v>
@@ -6935,7 +6938,7 @@
       </c>
       <c r="K70" s="16"/>
     </row>
-    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="26"/>
       <c r="B71" s="30"/>
       <c r="C71" s="27"/>
@@ -6955,9 +6958,9 @@
       <c r="R71" s="31"/>
       <c r="S71" s="31"/>
     </row>
-    <row r="72" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="64">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B72" s="41" t="s">
         <v>87</v>
@@ -6979,7 +6982,7 @@
       <c r="R72" s="31"/>
       <c r="S72" s="31"/>
     </row>
-    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="43"/>
       <c r="B73" s="45" t="s">
         <v>79</v>
@@ -7002,7 +7005,7 @@
       <c r="J73" s="44"/>
       <c r="K73" s="16"/>
     </row>
-    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="43"/>
       <c r="B74" s="45" t="s">
         <v>38</v>
@@ -7028,7 +7031,7 @@
       </c>
       <c r="K74" s="16"/>
     </row>
-    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="43"/>
       <c r="B75" s="45" t="s">
         <v>52</v>
@@ -7046,7 +7049,7 @@
       </c>
       <c r="K75" s="16"/>
     </row>
-    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="26"/>
       <c r="B76" s="30"/>
       <c r="C76" s="27"/>
@@ -7066,9 +7069,9 @@
       <c r="R76" s="31"/>
       <c r="S76" s="31"/>
     </row>
-    <row r="77" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="64">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B77" s="41" t="s">
         <v>88</v>
@@ -7090,7 +7093,7 @@
       <c r="R77" s="31"/>
       <c r="S77" s="31"/>
     </row>
-    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="43"/>
       <c r="B78" s="45" t="s">
         <v>79</v>
@@ -7113,7 +7116,7 @@
       <c r="J78" s="44"/>
       <c r="K78" s="16"/>
     </row>
-    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="43"/>
       <c r="B79" s="45" t="s">
         <v>38</v>
@@ -7139,7 +7142,7 @@
       </c>
       <c r="K79" s="16"/>
     </row>
-    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="43"/>
       <c r="B80" s="45" t="s">
         <v>52</v>
@@ -7157,7 +7160,7 @@
       </c>
       <c r="K80" s="16"/>
     </row>
-    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="26"/>
       <c r="B81" s="30"/>
       <c r="C81" s="27"/>
@@ -7177,9 +7180,9 @@
       <c r="R81" s="31"/>
       <c r="S81" s="31"/>
     </row>
-    <row r="82" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="64">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B82" s="41" t="s">
         <v>89</v>
@@ -7201,7 +7204,7 @@
       <c r="R82" s="31"/>
       <c r="S82" s="31"/>
     </row>
-    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="43"/>
       <c r="B83" s="45" t="s">
         <v>79</v>
@@ -7224,7 +7227,7 @@
       <c r="J83" s="44"/>
       <c r="K83" s="16"/>
     </row>
-    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="43"/>
       <c r="B84" s="45" t="s">
         <v>38</v>
@@ -7250,7 +7253,7 @@
       </c>
       <c r="K84" s="16"/>
     </row>
-    <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="43"/>
       <c r="B85" s="45" t="s">
         <v>52</v>
@@ -7268,7 +7271,7 @@
       </c>
       <c r="K85" s="16"/>
     </row>
-    <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="26"/>
       <c r="B86" s="30"/>
       <c r="C86" s="27"/>
@@ -7288,9 +7291,9 @@
       <c r="R86" s="31"/>
       <c r="S86" s="31"/>
     </row>
-    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="26">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B87" s="48" t="s">
         <v>57</v>
@@ -7312,7 +7315,7 @@
       <c r="R87" s="31"/>
       <c r="S87" s="31"/>
     </row>
-    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="43"/>
       <c r="B88" s="45" t="s">
         <v>54</v>
@@ -7328,7 +7331,7 @@
         <v>2.72</v>
       </c>
       <c r="G88" s="14">
-        <f t="shared" ref="G88" si="4">PRODUCT(C88:F88)</f>
+        <f t="shared" ref="G88" si="5">PRODUCT(C88:F88)</f>
         <v>7.3712000000000009</v>
       </c>
       <c r="H88" s="47"/>
@@ -7336,7 +7339,7 @@
       <c r="J88" s="44"/>
       <c r="K88" s="16"/>
     </row>
-    <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="43"/>
       <c r="B89" s="45" t="s">
         <v>38</v>
@@ -7361,7 +7364,7 @@
       </c>
       <c r="K89" s="16"/>
     </row>
-    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="43"/>
       <c r="B90" s="45" t="s">
         <v>52</v>
@@ -7379,7 +7382,7 @@
       </c>
       <c r="K90" s="16"/>
     </row>
-    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="43"/>
       <c r="B91" s="45"/>
       <c r="C91" s="46"/>
@@ -7392,9 +7395,9 @@
       <c r="J91" s="40"/>
       <c r="K91" s="16"/>
     </row>
-    <row r="92" spans="1:19" ht="30" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="43">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B92" s="48" t="s">
         <v>40</v>
@@ -7409,7 +7412,7 @@
       <c r="J92" s="40"/>
       <c r="K92" s="16"/>
     </row>
-    <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="43"/>
       <c r="B93" s="45" t="s">
         <v>54</v>
@@ -7426,7 +7429,7 @@
         <v>2.72</v>
       </c>
       <c r="G93" s="14">
-        <f t="shared" ref="G93:G94" si="5">PRODUCT(C93:F93)</f>
+        <f t="shared" ref="G93:G94" si="6">PRODUCT(C93:F93)</f>
         <v>23.582400000000007</v>
       </c>
       <c r="H93" s="47"/>
@@ -7434,7 +7437,7 @@
       <c r="J93" s="44"/>
       <c r="K93" s="16"/>
     </row>
-    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="43"/>
       <c r="B94" s="45" t="s">
         <v>55</v>
@@ -7451,7 +7454,7 @@
         <v>2.72</v>
       </c>
       <c r="G94" s="14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20.672000000000001</v>
       </c>
       <c r="H94" s="47"/>
@@ -7459,7 +7462,7 @@
       <c r="J94" s="44"/>
       <c r="K94" s="16"/>
     </row>
-    <row r="95" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="43"/>
       <c r="B95" s="45" t="s">
         <v>38</v>
@@ -7484,7 +7487,7 @@
       </c>
       <c r="K95" s="16"/>
     </row>
-    <row r="96" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="43"/>
       <c r="B96" s="45" t="s">
         <v>52</v>
@@ -7502,7 +7505,7 @@
       </c>
       <c r="K96" s="16"/>
     </row>
-    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="43"/>
       <c r="B97" s="45"/>
       <c r="C97" s="46"/>
@@ -7515,9 +7518,9 @@
       <c r="J97" s="40"/>
       <c r="K97" s="16"/>
     </row>
-    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="43">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B98" s="48" t="s">
         <v>58</v>
@@ -7532,7 +7535,7 @@
       <c r="J98" s="40"/>
       <c r="K98" s="16"/>
     </row>
-    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="43"/>
       <c r="B99" s="45" t="s">
         <v>54</v>
@@ -7549,7 +7552,7 @@
         <v>2.72</v>
       </c>
       <c r="G99" s="14">
-        <f t="shared" ref="G99" si="6">PRODUCT(C99:F99)</f>
+        <f t="shared" ref="G99" si="7">PRODUCT(C99:F99)</f>
         <v>23.582400000000007</v>
       </c>
       <c r="H99" s="47"/>
@@ -7557,7 +7560,7 @@
       <c r="J99" s="44"/>
       <c r="K99" s="16"/>
     </row>
-    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="43"/>
       <c r="B100" s="45" t="s">
         <v>38</v>
@@ -7582,7 +7585,7 @@
       </c>
       <c r="K100" s="16"/>
     </row>
-    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="43"/>
       <c r="B101" s="45" t="s">
         <v>52</v>
@@ -7600,7 +7603,7 @@
       </c>
       <c r="K101" s="16"/>
     </row>
-    <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="43"/>
       <c r="B102" s="45"/>
       <c r="C102" s="46"/>
@@ -7613,9 +7616,9 @@
       <c r="J102" s="40"/>
       <c r="K102" s="16"/>
     </row>
-    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="58">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B103" s="48" t="s">
         <v>45</v>
@@ -7630,7 +7633,7 @@
       <c r="J103" s="40"/>
       <c r="K103" s="16"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="43"/>
       <c r="B104" s="45" t="str">
         <f>B94</f>
@@ -7649,7 +7652,7 @@
         <v>2.72</v>
       </c>
       <c r="G104" s="14">
-        <f t="shared" ref="G104" si="7">PRODUCT(C104:F104)</f>
+        <f t="shared" ref="G104" si="8">PRODUCT(C104:F104)</f>
         <v>20.672000000000001</v>
       </c>
       <c r="H104" s="44"/>
@@ -7657,7 +7660,7 @@
       <c r="J104" s="9"/>
       <c r="K104" s="16"/>
     </row>
-    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="43"/>
       <c r="B105" s="45" t="s">
         <v>38</v>
@@ -7683,7 +7686,7 @@
       </c>
       <c r="K105" s="16"/>
     </row>
-    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="43"/>
       <c r="B106" s="45" t="s">
         <v>52</v>
@@ -7701,7 +7704,7 @@
       </c>
       <c r="K106" s="16"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="43"/>
       <c r="B107" s="45"/>
       <c r="C107" s="46"/>
@@ -7714,9 +7717,9 @@
       <c r="J107" s="40"/>
       <c r="K107" s="16"/>
     </row>
-    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="58">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B108" s="48" t="s">
         <v>59</v>
@@ -7731,7 +7734,7 @@
       <c r="J108" s="40"/>
       <c r="K108" s="16"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="43"/>
       <c r="B109" s="45" t="s">
         <v>60</v>
@@ -7749,7 +7752,7 @@
       </c>
       <c r="F109" s="14"/>
       <c r="G109" s="14">
-        <f t="shared" ref="G109:G116" si="8">PRODUCT(C109:F109)</f>
+        <f t="shared" ref="G109:G116" si="9">PRODUCT(C109:F109)</f>
         <v>5.7535999999999996</v>
       </c>
       <c r="H109" s="44"/>
@@ -7757,7 +7760,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="16"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="43"/>
       <c r="B110" s="45" t="s">
         <v>61</v>
@@ -7773,7 +7776,7 @@
       </c>
       <c r="F110" s="14"/>
       <c r="G110" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.5599999999999999E-2</v>
       </c>
       <c r="H110" s="44"/>
@@ -7781,7 +7784,7 @@
       <c r="J110" s="9"/>
       <c r="K110" s="16"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="43"/>
       <c r="B111" s="45"/>
       <c r="C111" s="46">
@@ -7795,7 +7798,7 @@
       </c>
       <c r="F111" s="14"/>
       <c r="G111" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-1.2E-2</v>
       </c>
       <c r="H111" s="44"/>
@@ -7803,7 +7806,7 @@
       <c r="J111" s="9"/>
       <c r="K111" s="16"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="43"/>
       <c r="B112" s="45"/>
       <c r="C112" s="46">
@@ -7818,7 +7821,7 @@
       </c>
       <c r="F112" s="14"/>
       <c r="G112" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-4.8000000000000001E-2</v>
       </c>
       <c r="H112" s="44"/>
@@ -7826,7 +7829,7 @@
       <c r="J112" s="9"/>
       <c r="K112" s="16"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="43"/>
       <c r="B113" s="45"/>
       <c r="C113" s="46">
@@ -7840,7 +7843,7 @@
       </c>
       <c r="F113" s="14"/>
       <c r="G113" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-4.2000000000000003E-2</v>
       </c>
       <c r="H113" s="44"/>
@@ -7848,7 +7851,7 @@
       <c r="J113" s="9"/>
       <c r="K113" s="16"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="43"/>
       <c r="B114" s="45" t="s">
         <v>76</v>
@@ -7866,7 +7869,7 @@
       </c>
       <c r="F114" s="14"/>
       <c r="G114" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.5357768597582471</v>
       </c>
       <c r="H114" s="44"/>
@@ -7874,7 +7877,7 @@
       <c r="J114" s="9"/>
       <c r="K114" s="16"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="43"/>
       <c r="B115" s="45" t="s">
         <v>111</v>
@@ -7892,7 +7895,7 @@
       </c>
       <c r="F115" s="14"/>
       <c r="G115" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>7.0783814265560272</v>
       </c>
       <c r="H115" s="44"/>
@@ -7900,7 +7903,7 @@
       <c r="J115" s="9"/>
       <c r="K115" s="16"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="43"/>
       <c r="B116" s="45"/>
       <c r="C116" s="46">
@@ -7916,7 +7919,7 @@
       </c>
       <c r="F116" s="14"/>
       <c r="G116" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>4.5987884210634853</v>
       </c>
       <c r="H116" s="44"/>
@@ -7924,7 +7927,7 @@
       <c r="J116" s="9"/>
       <c r="K116" s="16"/>
     </row>
-    <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="43"/>
       <c r="B117" s="45" t="s">
         <v>38</v>
@@ -7949,7 +7952,7 @@
       </c>
       <c r="K117" s="16"/>
     </row>
-    <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="43"/>
       <c r="B118" s="45" t="s">
         <v>52</v>
@@ -7967,7 +7970,7 @@
       </c>
       <c r="K118" s="16"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="43"/>
       <c r="B119" s="45"/>
       <c r="C119" s="46"/>
@@ -7980,9 +7983,9 @@
       <c r="J119" s="40"/>
       <c r="K119" s="16"/>
     </row>
-    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="43">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B120" s="48" t="s">
         <v>62</v>
@@ -7997,7 +8000,7 @@
       <c r="J120" s="40"/>
       <c r="K120" s="16"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="43"/>
       <c r="B121" s="45" t="s">
         <v>63</v>
@@ -8012,7 +8015,7 @@
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
       <c r="G121" s="14">
-        <f t="shared" ref="G121" si="9">PRODUCT(C121:F121)</f>
+        <f t="shared" ref="G121" si="10">PRODUCT(C121:F121)</f>
         <v>17.120000000000005</v>
       </c>
       <c r="H121" s="44"/>
@@ -8020,7 +8023,7 @@
       <c r="J121" s="9"/>
       <c r="K121" s="16"/>
     </row>
-    <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="43"/>
       <c r="B122" s="45" t="s">
         <v>38</v>
@@ -8045,7 +8048,7 @@
       </c>
       <c r="K122" s="16"/>
     </row>
-    <row r="123" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="43"/>
       <c r="B123" s="45" t="s">
         <v>52</v>
@@ -8063,7 +8066,7 @@
       </c>
       <c r="K123" s="16"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="43"/>
       <c r="B124" s="45"/>
       <c r="C124" s="46"/>
@@ -8076,9 +8079,9 @@
       <c r="J124" s="40"/>
       <c r="K124" s="16"/>
     </row>
-    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="43">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="B125" s="48" t="s">
         <v>64</v>
@@ -8093,7 +8096,7 @@
       <c r="J125" s="40"/>
       <c r="K125" s="16"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="43"/>
       <c r="B126" s="45" t="s">
         <v>63</v>
@@ -8108,7 +8111,7 @@
       <c r="E126" s="14"/>
       <c r="F126" s="14"/>
       <c r="G126" s="14">
-        <f t="shared" ref="G126" si="10">PRODUCT(C126:F126)</f>
+        <f t="shared" ref="G126" si="11">PRODUCT(C126:F126)</f>
         <v>35.92</v>
       </c>
       <c r="H126" s="44"/>
@@ -8116,7 +8119,7 @@
       <c r="J126" s="9"/>
       <c r="K126" s="16"/>
     </row>
-    <row r="127" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="43"/>
       <c r="B127" s="45" t="s">
         <v>38</v>
@@ -8141,7 +8144,7 @@
       </c>
       <c r="K127" s="16"/>
     </row>
-    <row r="128" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="43"/>
       <c r="B128" s="45" t="s">
         <v>52</v>
@@ -8159,7 +8162,7 @@
       </c>
       <c r="K128" s="16"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="43"/>
       <c r="B129" s="45"/>
       <c r="C129" s="46"/>
@@ -8172,9 +8175,9 @@
       <c r="J129" s="40"/>
       <c r="K129" s="16"/>
     </row>
-    <row r="130" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="43">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B130" s="59" t="s">
         <v>66</v>
@@ -8189,7 +8192,7 @@
       <c r="J130" s="40"/>
       <c r="K130" s="5"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="43"/>
       <c r="B131" s="56" t="s">
         <v>67</v>
@@ -8209,7 +8212,7 @@
         <v>0.125</v>
       </c>
       <c r="G131" s="54">
-        <f t="shared" ref="G131:G134" si="11">PRODUCT(C131:F131)</f>
+        <f t="shared" ref="G131:G134" si="12">PRODUCT(C131:F131)</f>
         <v>4.571776897287412E-2</v>
       </c>
       <c r="H131" s="57"/>
@@ -8217,7 +8220,7 @@
       <c r="J131" s="40"/>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="43"/>
       <c r="B132" s="56"/>
       <c r="C132" s="53">
@@ -8234,7 +8237,7 @@
         <v>0.125</v>
       </c>
       <c r="G132" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.9527583053946972E-2</v>
       </c>
       <c r="H132" s="57"/>
@@ -8242,7 +8245,7 @@
       <c r="J132" s="40"/>
       <c r="K132" s="5"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="43"/>
       <c r="B133" s="56" t="s">
         <v>68</v>
@@ -8261,7 +8264,7 @@
         <v>0.125</v>
       </c>
       <c r="G133" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.0625000000000003E-2</v>
       </c>
       <c r="H133" s="57"/>
@@ -8269,7 +8272,7 @@
       <c r="J133" s="40"/>
       <c r="K133" s="5"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="43"/>
       <c r="B134" s="56"/>
       <c r="C134" s="53">
@@ -8287,7 +8290,7 @@
         <v>0.125</v>
       </c>
       <c r="G134" s="54">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.2187499999999996E-2</v>
       </c>
       <c r="H134" s="57"/>
@@ -8295,7 +8298,7 @@
       <c r="J134" s="40"/>
       <c r="K134" s="5"/>
     </row>
-    <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="43"/>
       <c r="B135" s="56" t="s">
         <v>38</v>
@@ -8321,7 +8324,7 @@
       </c>
       <c r="K135" s="5"/>
     </row>
-    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="43"/>
       <c r="B136" s="56" t="s">
         <v>52</v>
@@ -8339,7 +8342,7 @@
       </c>
       <c r="K136" s="5"/>
     </row>
-    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="43"/>
       <c r="B137" s="56"/>
       <c r="C137" s="53"/>
@@ -8352,9 +8355,9 @@
       <c r="J137" s="61"/>
       <c r="K137" s="5"/>
     </row>
-    <row r="138" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A138" s="43">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B138" s="52" t="s">
         <v>75</v>
@@ -8370,7 +8373,7 @@
       <c r="K138" s="5"/>
       <c r="M138" s="63"/>
     </row>
-    <row r="139" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="43"/>
       <c r="B139" s="56" t="s">
         <v>70</v>
@@ -8396,7 +8399,7 @@
       <c r="J139" s="40"/>
       <c r="K139" s="5"/>
     </row>
-    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="43"/>
       <c r="B140" s="56" t="s">
         <v>38</v>
@@ -8422,7 +8425,7 @@
       </c>
       <c r="K140" s="5"/>
     </row>
-    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="43"/>
       <c r="B141" s="56" t="s">
         <v>52</v>
@@ -8440,7 +8443,7 @@
       </c>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="43"/>
       <c r="B142" s="52"/>
       <c r="C142" s="53"/>
@@ -8454,9 +8457,9 @@
       <c r="K142" s="5"/>
       <c r="M142" s="63"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="43">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B143" s="62" t="s">
         <v>69</v>
@@ -8471,7 +8474,7 @@
       <c r="J143" s="40"/>
       <c r="K143" s="5"/>
     </row>
-    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="43"/>
       <c r="B144" s="56" t="s">
         <v>70</v>
@@ -8497,7 +8500,7 @@
       <c r="J144" s="40"/>
       <c r="K144" s="5"/>
     </row>
-    <row r="145" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="43"/>
       <c r="B145" s="56" t="s">
         <v>38</v>
@@ -8523,7 +8526,7 @@
       </c>
       <c r="K145" s="5"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="43"/>
       <c r="B146" s="62"/>
       <c r="C146" s="53"/>
@@ -8536,9 +8539,9 @@
       <c r="J146" s="40"/>
       <c r="K146" s="5"/>
     </row>
-    <row r="147" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="43">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B147" s="62" t="s">
         <v>71</v>
@@ -8553,7 +8556,7 @@
       <c r="J147" s="40"/>
       <c r="K147" s="5"/>
     </row>
-    <row r="148" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="43"/>
       <c r="B148" s="56" t="s">
         <v>72</v>
@@ -8579,7 +8582,7 @@
       <c r="J148" s="40"/>
       <c r="K148" s="5"/>
     </row>
-    <row r="149" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="43"/>
       <c r="B149" s="56" t="s">
         <v>38</v>
@@ -8605,7 +8608,7 @@
       </c>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="43"/>
       <c r="B150" s="62"/>
       <c r="C150" s="53"/>
@@ -8618,9 +8621,9 @@
       <c r="J150" s="40"/>
       <c r="K150" s="5"/>
     </row>
-    <row r="151" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="43">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B151" s="62" t="s">
         <v>73</v>
@@ -8635,7 +8638,7 @@
       <c r="J151" s="40"/>
       <c r="K151" s="5"/>
     </row>
-    <row r="152" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="43"/>
       <c r="B152" s="56" t="s">
         <v>74</v>
@@ -8661,7 +8664,7 @@
       <c r="J152" s="40"/>
       <c r="K152" s="5"/>
     </row>
-    <row r="153" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="43"/>
       <c r="B153" s="70" t="s">
         <v>96</v>
@@ -8686,7 +8689,7 @@
       <c r="J153" s="40"/>
       <c r="K153" s="5"/>
     </row>
-    <row r="154" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="43"/>
       <c r="B154" s="56" t="s">
         <v>38</v>
@@ -8712,7 +8715,7 @@
       </c>
       <c r="K154" s="5"/>
     </row>
-    <row r="155" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="43"/>
       <c r="B155" s="56" t="s">
         <v>52</v>
@@ -8730,7 +8733,7 @@
       </c>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="43"/>
       <c r="B156" s="56"/>
       <c r="C156" s="53"/>
@@ -8744,9 +8747,9 @@
       <c r="K156" s="5"/>
       <c r="M156" s="63"/>
     </row>
-    <row r="157" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="65">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B157" s="66" t="s">
         <v>93</v>
@@ -8762,7 +8765,7 @@
       <c r="K157" s="5"/>
       <c r="M157" s="63"/>
     </row>
-    <row r="158" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="65"/>
       <c r="B158" s="70" t="s">
         <v>94</v>
@@ -8788,7 +8791,7 @@
       <c r="J158" s="69"/>
       <c r="K158" s="5"/>
     </row>
-    <row r="159" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="65"/>
       <c r="B159" s="70" t="s">
         <v>95</v>
@@ -8814,7 +8817,7 @@
       <c r="J159" s="69"/>
       <c r="K159" s="5"/>
     </row>
-    <row r="160" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="65"/>
       <c r="B160" s="70" t="s">
         <v>38</v>
@@ -8840,7 +8843,7 @@
       </c>
       <c r="K160" s="5"/>
     </row>
-    <row r="161" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="65"/>
       <c r="B161" s="70" t="s">
         <v>52</v>
@@ -8858,7 +8861,7 @@
       </c>
       <c r="K161" s="5"/>
     </row>
-    <row r="162" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="65"/>
       <c r="B162" s="74"/>
       <c r="C162" s="67"/>
@@ -8872,9 +8875,9 @@
       <c r="K162" s="5"/>
       <c r="M162" s="63"/>
     </row>
-    <row r="163" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="65">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="B163" s="75" t="s">
         <v>97</v>
@@ -8890,22 +8893,22 @@
       <c r="K163" s="5"/>
       <c r="M163" s="63"/>
     </row>
-    <row r="164" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="65"/>
       <c r="B164" s="70" t="str">
-        <f t="shared" ref="B164:E165" si="12">B158</f>
+        <f t="shared" ref="B164:E165" si="13">B158</f>
         <v>-First floor inclined roof</v>
       </c>
       <c r="C164" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D164" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.0356598597988418</v>
       </c>
       <c r="E164" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.6763181956720512</v>
       </c>
       <c r="F164" s="68"/>
@@ -8918,22 +8921,22 @@
       <c r="J164" s="69"/>
       <c r="K164" s="5"/>
     </row>
-    <row r="165" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="65"/>
       <c r="B165" s="70" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>-Second floor inclined roof</v>
       </c>
       <c r="C165" s="67">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="D165" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.8668088997256933</v>
       </c>
       <c r="E165" s="68">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.3715330691862238</v>
       </c>
       <c r="F165" s="68"/>
@@ -8946,7 +8949,7 @@
       <c r="J165" s="69"/>
       <c r="K165" s="5"/>
     </row>
-    <row r="166" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="65"/>
       <c r="B166" s="70" t="s">
         <v>38</v>
@@ -8972,7 +8975,7 @@
       </c>
       <c r="K166" s="5"/>
     </row>
-    <row r="167" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="65"/>
       <c r="B167" s="70" t="s">
         <v>52</v>
@@ -8990,7 +8993,7 @@
       </c>
       <c r="K167" s="5"/>
     </row>
-    <row r="168" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="43"/>
       <c r="B168" s="52"/>
       <c r="C168" s="53"/>
@@ -9004,9 +9007,9 @@
       <c r="K168" s="5"/>
       <c r="M168" s="63"/>
     </row>
-    <row r="169" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="43">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B169" s="51" t="s">
         <v>104</v>
@@ -9022,9 +9025,9 @@
       <c r="K169" s="5"/>
       <c r="M169" s="63"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="43"/>
-      <c r="B170" s="99" t="s">
+      <c r="B170" s="76" t="s">
         <v>105</v>
       </c>
       <c r="C170" s="53">
@@ -9046,7 +9049,7 @@
       <c r="K170" s="5"/>
       <c r="M170" s="63"/>
     </row>
-    <row r="171" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="65"/>
       <c r="B171" s="70" t="s">
         <v>38</v>
@@ -9072,7 +9075,7 @@
       </c>
       <c r="K171" s="5"/>
     </row>
-    <row r="172" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="65"/>
       <c r="B172" s="70" t="s">
         <v>52</v>
@@ -9090,7 +9093,7 @@
       </c>
       <c r="K172" s="5"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="43"/>
       <c r="B173" s="51"/>
       <c r="C173" s="53"/>
@@ -9104,9 +9107,9 @@
       <c r="K173" s="5"/>
       <c r="M173" s="63"/>
     </row>
-    <row r="174" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="43">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B174" s="51" t="s">
         <v>106</v>
@@ -9122,9 +9125,9 @@
       <c r="K174" s="5"/>
       <c r="M174" s="63"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="43"/>
-      <c r="B175" s="99" t="s">
+      <c r="B175" s="76" t="s">
         <v>107</v>
       </c>
       <c r="C175" s="53">
@@ -9146,9 +9149,9 @@
       <c r="K175" s="5"/>
       <c r="M175" s="63"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="43"/>
-      <c r="B176" s="99"/>
+      <c r="B176" s="76"/>
       <c r="C176" s="53">
         <v>4</v>
       </c>
@@ -9168,9 +9171,9 @@
       <c r="K176" s="5"/>
       <c r="M176" s="63"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="43"/>
-      <c r="B177" s="99" t="s">
+      <c r="B177" s="76" t="s">
         <v>108</v>
       </c>
       <c r="C177" s="53">
@@ -9192,7 +9195,7 @@
       <c r="K177" s="5"/>
       <c r="M177" s="63"/>
     </row>
-    <row r="178" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="65"/>
       <c r="B178" s="70" t="s">
         <v>38</v>
@@ -9218,7 +9221,7 @@
       </c>
       <c r="K178" s="5"/>
     </row>
-    <row r="179" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="65"/>
       <c r="B179" s="70" t="s">
         <v>52</v>
@@ -9236,7 +9239,7 @@
       </c>
       <c r="K179" s="5"/>
     </row>
-    <row r="180" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="43"/>
       <c r="B180" s="56"/>
       <c r="C180" s="53"/>
@@ -9250,9 +9253,9 @@
       <c r="K180" s="5"/>
       <c r="M180" s="63"/>
     </row>
-    <row r="181" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="43">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B181" s="51" t="s">
         <v>112</v>
@@ -9268,9 +9271,9 @@
       <c r="K181" s="5"/>
       <c r="M181" s="63"/>
     </row>
-    <row r="182" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="43"/>
-      <c r="B182" s="99" t="s">
+      <c r="B182" s="76" t="s">
         <v>113</v>
       </c>
       <c r="C182" s="53">
@@ -9291,7 +9294,7 @@
       <c r="K182" s="5"/>
       <c r="M182" s="63"/>
     </row>
-    <row r="183" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="65"/>
       <c r="B183" s="70" t="s">
         <v>38</v>
@@ -9317,7 +9320,7 @@
       </c>
       <c r="K183" s="5"/>
     </row>
-    <row r="184" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="65"/>
       <c r="B184" s="70" t="s">
         <v>52</v>
@@ -9335,7 +9338,7 @@
       </c>
       <c r="K184" s="5"/>
     </row>
-    <row r="185" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="43"/>
       <c r="B185" s="56"/>
       <c r="C185" s="53"/>
@@ -9349,9 +9352,9 @@
       <c r="K185" s="5"/>
       <c r="M185" s="63"/>
     </row>
-    <row r="186" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="26">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B186" s="51" t="s">
         <v>47</v>
@@ -9385,7 +9388,7 @@
       <c r="R186" s="31"/>
       <c r="S186" s="31"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="43"/>
       <c r="B187" s="45"/>
       <c r="C187" s="46"/>
@@ -9398,9 +9401,9 @@
       <c r="J187" s="44"/>
       <c r="K187" s="16"/>
     </row>
-    <row r="188" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A188" s="26">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B188" s="41" t="s">
         <v>28</v>
@@ -9412,7 +9415,7 @@
       <c r="E188" s="29"/>
       <c r="F188" s="29"/>
       <c r="G188" s="44">
-        <f t="shared" ref="G188" si="13">PRODUCT(C188:F188)</f>
+        <f t="shared" ref="G188" si="14">PRODUCT(C188:F188)</f>
         <v>1</v>
       </c>
       <c r="H188" s="38" t="s">
@@ -9435,7 +9438,7 @@
       <c r="S188" s="18"/>
       <c r="T188" s="18"/>
     </row>
-    <row r="189" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A189" s="26"/>
       <c r="B189" s="30"/>
       <c r="C189" s="27"/>
@@ -9456,7 +9459,7 @@
       <c r="S189" s="18"/>
       <c r="T189" s="18"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="43"/>
       <c r="B190" s="50" t="s">
         <v>15</v>
@@ -9474,15 +9477,15 @@
       </c>
       <c r="K190" s="16"/>
     </row>
-    <row r="192" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B192" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C192" s="90">
+      <c r="C192" s="91">
         <f>J190</f>
         <v>1119127.4076919584</v>
       </c>
-      <c r="D192" s="91"/>
+      <c r="D192" s="92"/>
       <c r="E192" s="14">
         <v>100</v>
       </c>
@@ -9493,72 +9496,78 @@
       <c r="J192" s="21"/>
       <c r="K192" s="22"/>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B193" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C193" s="97">
+      <c r="C193" s="98">
         <v>1000000</v>
       </c>
-      <c r="D193" s="98"/>
+      <c r="D193" s="99"/>
       <c r="E193" s="14"/>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B194" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C194" s="97">
+      <c r="C194" s="98">
         <f>C193-C196-C197</f>
         <v>950000</v>
       </c>
-      <c r="D194" s="98"/>
+      <c r="D194" s="99"/>
       <c r="E194" s="14">
         <f>C194/C192*100</f>
         <v>84.887564496274862</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B195" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C195" s="89">
+      <c r="C195" s="90">
         <f>C192-C194</f>
         <v>169127.40769195836</v>
       </c>
-      <c r="D195" s="89"/>
+      <c r="D195" s="90"/>
       <c r="E195" s="14">
         <f>100-E194</f>
         <v>15.112435503725138</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B196" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C196" s="90">
+      <c r="C196" s="91">
         <f>C193*0.03</f>
         <v>30000</v>
       </c>
-      <c r="D196" s="91"/>
+      <c r="D196" s="92"/>
       <c r="E196" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B197" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C197" s="90">
+      <c r="C197" s="91">
         <f>C193*0.02</f>
         <v>20000</v>
       </c>
-      <c r="D197" s="91"/>
+      <c r="D197" s="92"/>
       <c r="E197" s="14">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C196:D196"/>
     <mergeCell ref="C197:D197"/>
     <mergeCell ref="A7:F7"/>
@@ -9567,12 +9576,6 @@
     <mergeCell ref="C193:D193"/>
     <mergeCell ref="C194:D194"/>
     <mergeCell ref="C195:D195"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ofc/estimates/lakilla mandir/lakilla mandir.xlsx
+++ b/ofc/estimates/lakilla mandir/lakilla mandir.xlsx
@@ -2,26 +2,28 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\lakilla mandir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\lakilla mandir\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="WCR" sheetId="6" r:id="rId1"/>
     <sheet name="estimate" sheetId="17" r:id="rId2"/>
     <sheet name="dachi both sides" sheetId="18" r:id="rId3"/>
+    <sheet name="dachi one side only" sheetId="19" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="description_124" localSheetId="2">#REF!</definedName>
+    <definedName name="description_124" localSheetId="3">#REF!</definedName>
     <definedName name="description_124" localSheetId="1">#REF!</definedName>
     <definedName name="description_124">#REF!</definedName>
     <definedName name="description_261">[1]Abstract!$B$33</definedName>
@@ -30,12 +32,14 @@
     <definedName name="description_759">[2]Abstract!$B$278</definedName>
     <definedName name="description_783">[2]Abstract!$B$301</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'dachi both sides'!$A$1:$K$197</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'dachi one side only'!$A$1:$K$219</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">estimate!$A$1:$K$171</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'dachi both sides'!$1:$8</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'dachi one side only'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">estimate!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">WCR!$1:$12</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -53,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="124">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -402,16 +406,57 @@
   <si>
     <t>Project:- लकिल्ला गणेश मन्दिर</t>
   </si>
+  <si>
+    <t>-inner wall</t>
+  </si>
+  <si>
+    <t>-inside worship area</t>
+  </si>
+  <si>
+    <t>Knf:6/ ;km]{;df XjfO6 l;d]G6 b'O{ sf]6 nufpg] sfd .</t>
+  </si>
+  <si>
+    <t>-as of item no. 17</t>
+  </si>
+  <si>
+    <t>-deduction for window</t>
+  </si>
+  <si>
+    <t>-deduction for door</t>
+  </si>
+  <si>
+    <r>
+      <t>kf]/l;lng Un]H8 6fO{n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Ordinary floor and Wall Tile-as per approved standard of manufactured country)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Preeti"/>
+      </rPr>
+      <t xml:space="preserve"> !M$ l;d]G6 afn'jfdf 5fKg] sfd .</t>
+    </r>
+  </si>
+  <si>
+    <t>Provisional sum for fittings works &amp; other unforseen works/items</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +613,15 @@
       <color rgb="FFFF0000"/>
       <name val="Preeti"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Preeti"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -641,9 +695,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -651,7 +705,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -673,7 +727,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -689,7 +743,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -698,7 +752,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -707,7 +761,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -726,7 +780,7 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -758,7 +812,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -779,7 +833,7 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -797,7 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -807,7 +861,7 @@
     <xf numFmtId="1" fontId="22" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -826,24 +880,6 @@
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -864,6 +900,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -893,6 +947,12 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1319,107 +1379,107 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-    </row>
-    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="80" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+    </row>
+    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
+      <c r="A2" s="87" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
-      <c r="G2" s="80"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+      <c r="B2" s="87"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-    </row>
-    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="82" t="s">
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="89" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="89"/>
+      <c r="H5" s="89"/>
+      <c r="I5" s="89"/>
+      <c r="J5" s="89"/>
+      <c r="K5" s="89"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="77" t="e">
+      <c r="C6" s="84" t="e">
         <f>F18</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="78"/>
+      <c r="D6" s="85"/>
       <c r="E6" s="11"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -1427,13 +1487,13 @@
         <v>18</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="77" t="e">
+      <c r="J6" s="84" t="e">
         <f>I18</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="78"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="85"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>27</v>
       </c>
@@ -1442,75 +1502,75 @@
       <c r="D7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
-      <c r="I7" s="86" t="s">
+      <c r="I7" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="85" t="e">
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="79" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="I8" s="87" t="s">
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="I8" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="87"/>
-      <c r="K8" s="87"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="88" t="e">
+      <c r="J8" s="81"/>
+      <c r="K8" s="81"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="82" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="I9" s="87" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="I9" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="87"/>
-      <c r="K9" s="87"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="83" t="s">
+      <c r="B11" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="83" t="s">
+      <c r="C11" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="89" t="s">
+      <c r="D11" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89" t="s">
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="83" t="s">
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="84" t="s">
+      <c r="K11" s="78" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="83"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="77"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="13" t="s">
         <v>24</v>
       </c>
@@ -1529,10 +1589,10 @@
       <c r="I12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="83"/>
-      <c r="K12" s="84"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J12" s="77"/>
+      <c r="K12" s="78"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1575,7 +1635,7 @@
       </c>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33"/>
       <c r="B14" s="36" t="e">
         <f>#REF!</f>
@@ -1600,7 +1660,7 @@
       </c>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33"/>
       <c r="B15" s="36"/>
       <c r="C15" s="14"/>
@@ -1613,7 +1673,7 @@
       <c r="J15" s="34"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1656,7 +1716,7 @@
       </c>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="14"/>
@@ -1669,7 +1729,7 @@
       <c r="J17" s="34"/>
       <c r="K17" s="17"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>15</v>
@@ -1695,6 +1755,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -1707,13 +1774,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1731,30 +1791,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T171"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="M139" sqref="M139"/>
+    <sheetView topLeftCell="A152" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="G160" sqref="G160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
@@ -1769,7 +1829,7 @@
       <c r="J1" s="94"/>
       <c r="K1" s="94"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A2" s="95" t="s">
         <v>1</v>
       </c>
@@ -1784,37 +1844,37 @@
       <c r="J2" s="95"/>
       <c r="K2" s="95"/>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-    </row>
-    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+    </row>
+    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="96" t="s">
         <v>50</v>
       </c>
@@ -1829,7 +1889,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>46</v>
       </c>
@@ -1846,7 +1906,7 @@
       <c r="J6" s="93"/>
       <c r="K6" s="93"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="97" t="s">
         <v>26</v>
       </c>
@@ -1863,7 +1923,7 @@
       <c r="J7" s="93"/>
       <c r="K7" s="93"/>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1898,7 +1958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -1915,7 +1975,7 @@
       <c r="J9" s="40"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" s="45" t="s">
         <v>42</v>
@@ -1942,7 +2002,7 @@
       <c r="J10" s="44"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="45" t="s">
         <v>38</v>
@@ -1967,7 +2027,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="45" t="s">
         <v>52</v>
@@ -1985,7 +2045,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
       <c r="B13" s="30"/>
       <c r="C13" s="27"/>
@@ -2005,7 +2065,7 @@
       <c r="R13" s="31"/>
       <c r="S13" s="31"/>
     </row>
-    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="43">
         <v>2</v>
       </c>
@@ -2022,7 +2082,7 @@
       <c r="J14" s="40"/>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="43"/>
       <c r="B15" s="45" t="s">
         <v>42</v>
@@ -2047,7 +2107,7 @@
       <c r="J15" s="44"/>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="43"/>
       <c r="B16" s="45" t="s">
         <v>44</v>
@@ -2072,7 +2132,7 @@
       <c r="J16" s="44"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
       <c r="B17" s="45" t="s">
         <v>43</v>
@@ -2097,7 +2157,7 @@
       <c r="J17" s="44"/>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
       <c r="B18" s="45" t="s">
         <v>65</v>
@@ -2121,7 +2181,7 @@
       <c r="J18" s="44"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
       <c r="B19" s="45" t="s">
         <v>90</v>
@@ -2147,7 +2207,7 @@
       <c r="J19" s="44"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
       <c r="B20" s="45" t="s">
         <v>91</v>
@@ -2173,7 +2233,7 @@
       <c r="J20" s="44"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="45" t="s">
         <v>92</v>
@@ -2199,7 +2259,7 @@
       <c r="J21" s="44"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
       <c r="B22" s="45" t="s">
         <v>38</v>
@@ -2225,7 +2285,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="43"/>
       <c r="B23" s="45" t="s">
         <v>52</v>
@@ -2243,7 +2303,7 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="26"/>
       <c r="B24" s="30"/>
       <c r="C24" s="27"/>
@@ -2263,7 +2323,7 @@
       <c r="R24" s="31"/>
       <c r="S24" s="31"/>
     </row>
-    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A25" s="26">
         <v>3</v>
       </c>
@@ -2287,7 +2347,7 @@
       <c r="R25" s="31"/>
       <c r="S25" s="31"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="43"/>
       <c r="B26" s="45" t="s">
         <v>79</v>
@@ -2310,7 +2370,7 @@
       <c r="J26" s="44"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="43"/>
       <c r="B27" s="45" t="s">
         <v>38</v>
@@ -2336,7 +2396,7 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="43"/>
       <c r="B28" s="45" t="s">
         <v>52</v>
@@ -2354,7 +2414,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="26"/>
       <c r="B29" s="30"/>
       <c r="C29" s="27"/>
@@ -2374,7 +2434,7 @@
       <c r="R29" s="31"/>
       <c r="S29" s="31"/>
     </row>
-    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A30" s="26">
         <v>3</v>
       </c>
@@ -2398,7 +2458,7 @@
       <c r="R30" s="31"/>
       <c r="S30" s="31"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="43"/>
       <c r="B31" s="45" t="s">
         <v>79</v>
@@ -2421,7 +2481,7 @@
       <c r="J31" s="44"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
       <c r="B32" s="45" t="s">
         <v>38</v>
@@ -2447,7 +2507,7 @@
       </c>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="43"/>
       <c r="B33" s="45" t="s">
         <v>52</v>
@@ -2465,7 +2525,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="26"/>
       <c r="B34" s="30"/>
       <c r="C34" s="27"/>
@@ -2485,7 +2545,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="31"/>
     </row>
-    <row r="35" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A35" s="26">
         <v>3</v>
       </c>
@@ -2509,7 +2569,7 @@
       <c r="R35" s="31"/>
       <c r="S35" s="31"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="43"/>
       <c r="B36" s="45" t="s">
         <v>79</v>
@@ -2532,7 +2592,7 @@
       <c r="J36" s="44"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="43"/>
       <c r="B37" s="45" t="s">
         <v>38</v>
@@ -2558,7 +2618,7 @@
       </c>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="43"/>
       <c r="B38" s="45" t="s">
         <v>52</v>
@@ -2576,7 +2636,7 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="26"/>
       <c r="B39" s="30"/>
       <c r="C39" s="27"/>
@@ -2596,7 +2656,7 @@
       <c r="R39" s="31"/>
       <c r="S39" s="31"/>
     </row>
-    <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A40" s="26">
         <v>3</v>
       </c>
@@ -2620,7 +2680,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="31"/>
     </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="43"/>
       <c r="B41" s="45" t="s">
         <v>79</v>
@@ -2643,7 +2703,7 @@
       <c r="J41" s="44"/>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="43"/>
       <c r="B42" s="45" t="s">
         <v>38</v>
@@ -2669,7 +2729,7 @@
       </c>
       <c r="K42" s="16"/>
     </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="43"/>
       <c r="B43" s="45" t="s">
         <v>52</v>
@@ -2687,7 +2747,7 @@
       </c>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="26"/>
       <c r="B44" s="30"/>
       <c r="C44" s="27"/>
@@ -2707,7 +2767,7 @@
       <c r="R44" s="31"/>
       <c r="S44" s="31"/>
     </row>
-    <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A45" s="64">
         <v>3</v>
       </c>
@@ -2731,7 +2791,7 @@
       <c r="R45" s="31"/>
       <c r="S45" s="31"/>
     </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="43"/>
       <c r="B46" s="45" t="s">
         <v>79</v>
@@ -2754,7 +2814,7 @@
       <c r="J46" s="44"/>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="43"/>
       <c r="B47" s="45" t="s">
         <v>38</v>
@@ -2780,7 +2840,7 @@
       </c>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="43"/>
       <c r="B48" s="45" t="s">
         <v>52</v>
@@ -2798,7 +2858,7 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="26"/>
       <c r="B49" s="30"/>
       <c r="C49" s="27"/>
@@ -2818,7 +2878,7 @@
       <c r="R49" s="31"/>
       <c r="S49" s="31"/>
     </row>
-    <row r="50" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A50" s="64">
         <v>3</v>
       </c>
@@ -2842,7 +2902,7 @@
       <c r="R50" s="31"/>
       <c r="S50" s="31"/>
     </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="43"/>
       <c r="B51" s="45" t="s">
         <v>79</v>
@@ -2865,7 +2925,7 @@
       <c r="J51" s="44"/>
       <c r="K51" s="16"/>
     </row>
-    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="43"/>
       <c r="B52" s="45" t="s">
         <v>38</v>
@@ -2891,7 +2951,7 @@
       </c>
       <c r="K52" s="16"/>
     </row>
-    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="43"/>
       <c r="B53" s="45" t="s">
         <v>52</v>
@@ -2909,7 +2969,7 @@
       </c>
       <c r="K53" s="16"/>
     </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="26"/>
       <c r="B54" s="30"/>
       <c r="C54" s="27"/>
@@ -2929,7 +2989,7 @@
       <c r="R54" s="31"/>
       <c r="S54" s="31"/>
     </row>
-    <row r="55" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A55" s="64">
         <v>3</v>
       </c>
@@ -2953,7 +3013,7 @@
       <c r="R55" s="31"/>
       <c r="S55" s="31"/>
     </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="43"/>
       <c r="B56" s="45" t="s">
         <v>79</v>
@@ -2976,7 +3036,7 @@
       <c r="J56" s="44"/>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="43"/>
       <c r="B57" s="45" t="s">
         <v>38</v>
@@ -3002,7 +3062,7 @@
       </c>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="43"/>
       <c r="B58" s="45" t="s">
         <v>52</v>
@@ -3020,7 +3080,7 @@
       </c>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="26"/>
       <c r="B59" s="30"/>
       <c r="C59" s="27"/>
@@ -3040,7 +3100,7 @@
       <c r="R59" s="31"/>
       <c r="S59" s="31"/>
     </row>
-    <row r="60" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A60" s="64">
         <v>3</v>
       </c>
@@ -3064,7 +3124,7 @@
       <c r="R60" s="31"/>
       <c r="S60" s="31"/>
     </row>
-    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="43"/>
       <c r="B61" s="45" t="s">
         <v>79</v>
@@ -3087,7 +3147,7 @@
       <c r="J61" s="44"/>
       <c r="K61" s="16"/>
     </row>
-    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="43"/>
       <c r="B62" s="45" t="s">
         <v>38</v>
@@ -3113,7 +3173,7 @@
       </c>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="43"/>
       <c r="B63" s="45" t="s">
         <v>52</v>
@@ -3131,7 +3191,7 @@
       </c>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="26"/>
       <c r="B64" s="30"/>
       <c r="C64" s="27"/>
@@ -3151,7 +3211,7 @@
       <c r="R64" s="31"/>
       <c r="S64" s="31"/>
     </row>
-    <row r="65" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A65" s="64">
         <v>3</v>
       </c>
@@ -3175,7 +3235,7 @@
       <c r="R65" s="31"/>
       <c r="S65" s="31"/>
     </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="43"/>
       <c r="B66" s="45" t="s">
         <v>79</v>
@@ -3198,7 +3258,7 @@
       <c r="J66" s="44"/>
       <c r="K66" s="16"/>
     </row>
-    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="43"/>
       <c r="B67" s="45" t="s">
         <v>38</v>
@@ -3224,7 +3284,7 @@
       </c>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="43"/>
       <c r="B68" s="45" t="s">
         <v>52</v>
@@ -3242,7 +3302,7 @@
       </c>
       <c r="K68" s="16"/>
     </row>
-    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="26"/>
       <c r="B69" s="30"/>
       <c r="C69" s="27"/>
@@ -3262,7 +3322,7 @@
       <c r="R69" s="31"/>
       <c r="S69" s="31"/>
     </row>
-    <row r="70" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A70" s="64">
         <v>3</v>
       </c>
@@ -3286,7 +3346,7 @@
       <c r="R70" s="31"/>
       <c r="S70" s="31"/>
     </row>
-    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="43"/>
       <c r="B71" s="45" t="s">
         <v>79</v>
@@ -3309,7 +3369,7 @@
       <c r="J71" s="44"/>
       <c r="K71" s="16"/>
     </row>
-    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="43"/>
       <c r="B72" s="45" t="s">
         <v>38</v>
@@ -3335,7 +3395,7 @@
       </c>
       <c r="K72" s="16"/>
     </row>
-    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="43"/>
       <c r="B73" s="45" t="s">
         <v>52</v>
@@ -3353,7 +3413,7 @@
       </c>
       <c r="K73" s="16"/>
     </row>
-    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="26"/>
       <c r="B74" s="30"/>
       <c r="C74" s="27"/>
@@ -3373,7 +3433,7 @@
       <c r="R74" s="31"/>
       <c r="S74" s="31"/>
     </row>
-    <row r="75" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="30" x14ac:dyDescent="0.3">
       <c r="A75" s="26">
         <v>3</v>
       </c>
@@ -3397,7 +3457,7 @@
       <c r="R75" s="31"/>
       <c r="S75" s="31"/>
     </row>
-    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="43"/>
       <c r="B76" s="45" t="s">
         <v>54</v>
@@ -3421,7 +3481,7 @@
       <c r="J76" s="44"/>
       <c r="K76" s="16"/>
     </row>
-    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="43"/>
       <c r="B77" s="45" t="s">
         <v>38</v>
@@ -3446,7 +3506,7 @@
       </c>
       <c r="K77" s="16"/>
     </row>
-    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="43"/>
       <c r="B78" s="45" t="s">
         <v>52</v>
@@ -3464,7 +3524,7 @@
       </c>
       <c r="K78" s="16"/>
     </row>
-    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="43"/>
       <c r="B79" s="45"/>
       <c r="C79" s="46"/>
@@ -3477,7 +3537,7 @@
       <c r="J79" s="40"/>
       <c r="K79" s="16"/>
     </row>
-    <row r="80" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="30" x14ac:dyDescent="0.3">
       <c r="A80" s="43">
         <v>4</v>
       </c>
@@ -3494,7 +3554,7 @@
       <c r="J80" s="40"/>
       <c r="K80" s="16"/>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="43"/>
       <c r="B81" s="45" t="s">
         <v>54</v>
@@ -3519,7 +3579,7 @@
       <c r="J81" s="44"/>
       <c r="K81" s="16"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="43"/>
       <c r="B82" s="45" t="s">
         <v>55</v>
@@ -3544,7 +3604,7 @@
       <c r="J82" s="44"/>
       <c r="K82" s="16"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="43"/>
       <c r="B83" s="45" t="s">
         <v>38</v>
@@ -3569,7 +3629,7 @@
       </c>
       <c r="K83" s="16"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="43"/>
       <c r="B84" s="45" t="s">
         <v>52</v>
@@ -3587,7 +3647,7 @@
       </c>
       <c r="K84" s="16"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="43"/>
       <c r="B85" s="45"/>
       <c r="C85" s="46"/>
@@ -3600,7 +3660,7 @@
       <c r="J85" s="40"/>
       <c r="K85" s="16"/>
     </row>
-    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A86" s="43">
         <v>5</v>
       </c>
@@ -3617,7 +3677,7 @@
       <c r="J86" s="40"/>
       <c r="K86" s="16"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="43"/>
       <c r="B87" s="45" t="s">
         <v>54</v>
@@ -3642,7 +3702,7 @@
       <c r="J87" s="44"/>
       <c r="K87" s="16"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="43"/>
       <c r="B88" s="45" t="s">
         <v>38</v>
@@ -3667,7 +3727,7 @@
       </c>
       <c r="K88" s="16"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="43"/>
       <c r="B89" s="45" t="s">
         <v>52</v>
@@ -3685,7 +3745,7 @@
       </c>
       <c r="K89" s="16"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="43"/>
       <c r="B90" s="45"/>
       <c r="C90" s="46"/>
@@ -3698,7 +3758,7 @@
       <c r="J90" s="40"/>
       <c r="K90" s="16"/>
     </row>
-    <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A91" s="58">
         <v>6</v>
       </c>
@@ -3715,7 +3775,7 @@
       <c r="J91" s="40"/>
       <c r="K91" s="16"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="43"/>
       <c r="B92" s="45" t="str">
         <f>B82</f>
@@ -3742,7 +3802,7 @@
       <c r="J92" s="9"/>
       <c r="K92" s="16"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="43"/>
       <c r="B93" s="45" t="s">
         <v>38</v>
@@ -3768,7 +3828,7 @@
       </c>
       <c r="K93" s="16"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="43"/>
       <c r="B94" s="45" t="s">
         <v>52</v>
@@ -3786,7 +3846,7 @@
       </c>
       <c r="K94" s="16"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="43"/>
       <c r="B95" s="45"/>
       <c r="C95" s="46"/>
@@ -3799,7 +3859,7 @@
       <c r="J95" s="40"/>
       <c r="K95" s="16"/>
     </row>
-    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A96" s="58">
         <v>7</v>
       </c>
@@ -3816,7 +3876,7 @@
       <c r="J96" s="40"/>
       <c r="K96" s="16"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="43"/>
       <c r="B97" s="45" t="s">
         <v>60</v>
@@ -3842,7 +3902,7 @@
       <c r="J97" s="9"/>
       <c r="K97" s="16"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="43"/>
       <c r="B98" s="45" t="s">
         <v>61</v>
@@ -3866,7 +3926,7 @@
       <c r="J98" s="9"/>
       <c r="K98" s="16"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="43"/>
       <c r="B99" s="45"/>
       <c r="C99" s="46">
@@ -3888,7 +3948,7 @@
       <c r="J99" s="9"/>
       <c r="K99" s="16"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="43"/>
       <c r="B100" s="45"/>
       <c r="C100" s="46">
@@ -3911,7 +3971,7 @@
       <c r="J100" s="9"/>
       <c r="K100" s="16"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="43"/>
       <c r="B101" s="45"/>
       <c r="C101" s="46">
@@ -3933,7 +3993,7 @@
       <c r="J101" s="9"/>
       <c r="K101" s="16"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="43"/>
       <c r="B102" s="45" t="s">
         <v>76</v>
@@ -3959,7 +4019,7 @@
       <c r="J102" s="9"/>
       <c r="K102" s="16"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="43"/>
       <c r="B103" s="45" t="s">
         <v>77</v>
@@ -3985,7 +4045,7 @@
       <c r="J103" s="9"/>
       <c r="K103" s="16"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="43"/>
       <c r="B104" s="45"/>
       <c r="C104" s="46">
@@ -4009,7 +4069,7 @@
       <c r="J104" s="9"/>
       <c r="K104" s="16"/>
     </row>
-    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="43"/>
       <c r="B105" s="45" t="s">
         <v>38</v>
@@ -4034,7 +4094,7 @@
       </c>
       <c r="K105" s="16"/>
     </row>
-    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="43"/>
       <c r="B106" s="45" t="s">
         <v>52</v>
@@ -4052,7 +4112,7 @@
       </c>
       <c r="K106" s="16"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="43"/>
       <c r="B107" s="45"/>
       <c r="C107" s="46"/>
@@ -4065,7 +4125,7 @@
       <c r="J107" s="40"/>
       <c r="K107" s="16"/>
     </row>
-    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A108" s="43">
         <v>8</v>
       </c>
@@ -4082,7 +4142,7 @@
       <c r="J108" s="40"/>
       <c r="K108" s="16"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="43"/>
       <c r="B109" s="45" t="s">
         <v>63</v>
@@ -4105,7 +4165,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="16"/>
     </row>
-    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="43"/>
       <c r="B110" s="45" t="s">
         <v>38</v>
@@ -4130,7 +4190,7 @@
       </c>
       <c r="K110" s="16"/>
     </row>
-    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="43"/>
       <c r="B111" s="45" t="s">
         <v>52</v>
@@ -4148,7 +4208,7 @@
       </c>
       <c r="K111" s="16"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="43"/>
       <c r="B112" s="45"/>
       <c r="C112" s="46"/>
@@ -4161,7 +4221,7 @@
       <c r="J112" s="40"/>
       <c r="K112" s="16"/>
     </row>
-    <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.3">
       <c r="A113" s="43">
         <v>9</v>
       </c>
@@ -4178,7 +4238,7 @@
       <c r="J113" s="40"/>
       <c r="K113" s="16"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="43"/>
       <c r="B114" s="45" t="s">
         <v>63</v>
@@ -4201,7 +4261,7 @@
       <c r="J114" s="9"/>
       <c r="K114" s="16"/>
     </row>
-    <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="43"/>
       <c r="B115" s="45" t="s">
         <v>38</v>
@@ -4226,7 +4286,7 @@
       </c>
       <c r="K115" s="16"/>
     </row>
-    <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="43"/>
       <c r="B116" s="45" t="s">
         <v>52</v>
@@ -4244,7 +4304,7 @@
       </c>
       <c r="K116" s="16"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="43"/>
       <c r="B117" s="45"/>
       <c r="C117" s="46"/>
@@ -4257,7 +4317,7 @@
       <c r="J117" s="40"/>
       <c r="K117" s="16"/>
     </row>
-    <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A118" s="43">
         <v>10</v>
       </c>
@@ -4274,7 +4334,7 @@
       <c r="J118" s="40"/>
       <c r="K118" s="5"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="43"/>
       <c r="B119" s="56" t="s">
         <v>67</v>
@@ -4302,7 +4362,7 @@
       <c r="J119" s="40"/>
       <c r="K119" s="5"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="43"/>
       <c r="B120" s="56"/>
       <c r="C120" s="53">
@@ -4327,7 +4387,7 @@
       <c r="J120" s="40"/>
       <c r="K120" s="5"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="43"/>
       <c r="B121" s="56" t="s">
         <v>68</v>
@@ -4354,7 +4414,7 @@
       <c r="J121" s="40"/>
       <c r="K121" s="5"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="43"/>
       <c r="B122" s="56"/>
       <c r="C122" s="53">
@@ -4380,7 +4440,7 @@
       <c r="J122" s="40"/>
       <c r="K122" s="5"/>
     </row>
-    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="43"/>
       <c r="B123" s="56" t="s">
         <v>38</v>
@@ -4406,7 +4466,7 @@
       </c>
       <c r="K123" s="5"/>
     </row>
-    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="43"/>
       <c r="B124" s="56" t="s">
         <v>52</v>
@@ -4424,7 +4484,7 @@
       </c>
       <c r="K124" s="5"/>
     </row>
-    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="43"/>
       <c r="B125" s="56"/>
       <c r="C125" s="53"/>
@@ -4437,7 +4497,7 @@
       <c r="J125" s="61"/>
       <c r="K125" s="5"/>
     </row>
-    <row r="126" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A126" s="43">
         <v>11</v>
       </c>
@@ -4455,7 +4515,7 @@
       <c r="K126" s="5"/>
       <c r="M126" s="63"/>
     </row>
-    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="43"/>
       <c r="B127" s="56" t="s">
         <v>70</v>
@@ -4481,7 +4541,7 @@
       <c r="J127" s="40"/>
       <c r="K127" s="5"/>
     </row>
-    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="43"/>
       <c r="B128" s="56" t="s">
         <v>38</v>
@@ -4507,7 +4567,7 @@
       </c>
       <c r="K128" s="5"/>
     </row>
-    <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="43"/>
       <c r="B129" s="56" t="s">
         <v>52</v>
@@ -4525,7 +4585,7 @@
       </c>
       <c r="K129" s="5"/>
     </row>
-    <row r="130" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="43"/>
       <c r="B130" s="52"/>
       <c r="C130" s="53"/>
@@ -4539,7 +4599,7 @@
       <c r="K130" s="5"/>
       <c r="M130" s="63"/>
     </row>
-    <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="43">
         <v>12</v>
       </c>
@@ -4556,7 +4616,7 @@
       <c r="J131" s="40"/>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="43"/>
       <c r="B132" s="56" t="s">
         <v>70</v>
@@ -4582,7 +4642,7 @@
       <c r="J132" s="40"/>
       <c r="K132" s="5"/>
     </row>
-    <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="43"/>
       <c r="B133" s="56" t="s">
         <v>38</v>
@@ -4608,7 +4668,7 @@
       </c>
       <c r="K133" s="5"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="43"/>
       <c r="B134" s="62"/>
       <c r="C134" s="53"/>
@@ -4621,7 +4681,7 @@
       <c r="J134" s="40"/>
       <c r="K134" s="5"/>
     </row>
-    <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A135" s="43">
         <v>13</v>
       </c>
@@ -4638,7 +4698,7 @@
       <c r="J135" s="40"/>
       <c r="K135" s="5"/>
     </row>
-    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="43"/>
       <c r="B136" s="56" t="s">
         <v>72</v>
@@ -4664,7 +4724,7 @@
       <c r="J136" s="40"/>
       <c r="K136" s="5"/>
     </row>
-    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="43"/>
       <c r="B137" s="56" t="s">
         <v>38</v>
@@ -4690,7 +4750,7 @@
       </c>
       <c r="K137" s="5"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" s="43"/>
       <c r="B138" s="62"/>
       <c r="C138" s="53"/>
@@ -4703,7 +4763,7 @@
       <c r="J138" s="40"/>
       <c r="K138" s="5"/>
     </row>
-    <row r="139" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A139" s="43">
         <v>14</v>
       </c>
@@ -4720,7 +4780,7 @@
       <c r="J139" s="40"/>
       <c r="K139" s="5"/>
     </row>
-    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="43"/>
       <c r="B140" s="56" t="s">
         <v>74</v>
@@ -4746,7 +4806,7 @@
       <c r="J140" s="40"/>
       <c r="K140" s="5"/>
     </row>
-    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="43"/>
       <c r="B141" s="70" t="s">
         <v>96</v>
@@ -4771,7 +4831,7 @@
       <c r="J141" s="40"/>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="43"/>
       <c r="B142" s="56" t="s">
         <v>38</v>
@@ -4797,7 +4857,7 @@
       </c>
       <c r="K142" s="5"/>
     </row>
-    <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="43"/>
       <c r="B143" s="56" t="s">
         <v>52</v>
@@ -4815,7 +4875,7 @@
       </c>
       <c r="K143" s="5"/>
     </row>
-    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="43"/>
       <c r="B144" s="56"/>
       <c r="C144" s="53"/>
@@ -4829,7 +4889,7 @@
       <c r="K144" s="5"/>
       <c r="M144" s="63"/>
     </row>
-    <row r="145" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A145" s="65">
         <v>15</v>
       </c>
@@ -4847,7 +4907,7 @@
       <c r="K145" s="5"/>
       <c r="M145" s="63"/>
     </row>
-    <row r="146" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="65"/>
       <c r="B146" s="70" t="s">
         <v>94</v>
@@ -4873,7 +4933,7 @@
       <c r="J146" s="69"/>
       <c r="K146" s="5"/>
     </row>
-    <row r="147" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="65"/>
       <c r="B147" s="70" t="s">
         <v>95</v>
@@ -4899,7 +4959,7 @@
       <c r="J147" s="69"/>
       <c r="K147" s="5"/>
     </row>
-    <row r="148" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="65"/>
       <c r="B148" s="70" t="s">
         <v>38</v>
@@ -4925,7 +4985,7 @@
       </c>
       <c r="K148" s="5"/>
     </row>
-    <row r="149" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="65"/>
       <c r="B149" s="70" t="s">
         <v>52</v>
@@ -4943,7 +5003,7 @@
       </c>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="65"/>
       <c r="B150" s="74"/>
       <c r="C150" s="67"/>
@@ -4957,7 +5017,7 @@
       <c r="K150" s="5"/>
       <c r="M150" s="63"/>
     </row>
-    <row r="151" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A151" s="65">
         <v>16</v>
       </c>
@@ -4975,7 +5035,7 @@
       <c r="K151" s="5"/>
       <c r="M151" s="63"/>
     </row>
-    <row r="152" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="65"/>
       <c r="B152" s="70" t="str">
         <f t="shared" ref="B152:E153" si="12">B146</f>
@@ -5003,7 +5063,7 @@
       <c r="J152" s="69"/>
       <c r="K152" s="5"/>
     </row>
-    <row r="153" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="65"/>
       <c r="B153" s="70" t="str">
         <f t="shared" si="12"/>
@@ -5031,7 +5091,7 @@
       <c r="J153" s="69"/>
       <c r="K153" s="5"/>
     </row>
-    <row r="154" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="65"/>
       <c r="B154" s="70" t="s">
         <v>38</v>
@@ -5057,7 +5117,7 @@
       </c>
       <c r="K154" s="5"/>
     </row>
-    <row r="155" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="65"/>
       <c r="B155" s="70" t="s">
         <v>52</v>
@@ -5075,7 +5135,7 @@
       </c>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="43"/>
       <c r="B156" s="52"/>
       <c r="C156" s="53"/>
@@ -5089,7 +5149,7 @@
       <c r="K156" s="5"/>
       <c r="M156" s="63"/>
     </row>
-    <row r="157" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="43"/>
       <c r="B157" s="56"/>
       <c r="C157" s="53"/>
@@ -5103,7 +5163,7 @@
       <c r="K157" s="5"/>
       <c r="M157" s="63"/>
     </row>
-    <row r="158" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="43"/>
       <c r="B158" s="56"/>
       <c r="C158" s="53"/>
@@ -5117,7 +5177,7 @@
       <c r="K158" s="5"/>
       <c r="M158" s="63"/>
     </row>
-    <row r="159" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="43"/>
       <c r="B159" s="56"/>
       <c r="C159" s="53"/>
@@ -5131,7 +5191,7 @@
       <c r="K159" s="5"/>
       <c r="M159" s="63"/>
     </row>
-    <row r="160" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A160" s="26">
         <v>15</v>
       </c>
@@ -5167,7 +5227,7 @@
       <c r="R160" s="31"/>
       <c r="S160" s="31"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A161" s="43"/>
       <c r="B161" s="45"/>
       <c r="C161" s="46"/>
@@ -5180,7 +5240,7 @@
       <c r="J161" s="44"/>
       <c r="K161" s="16"/>
     </row>
-    <row r="162" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A162" s="26">
         <v>16</v>
       </c>
@@ -5217,7 +5277,7 @@
       <c r="S162" s="18"/>
       <c r="T162" s="18"/>
     </row>
-    <row r="163" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A163" s="26"/>
       <c r="B163" s="30"/>
       <c r="C163" s="27"/>
@@ -5238,7 +5298,7 @@
       <c r="S163" s="18"/>
       <c r="T163" s="18"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A164" s="43"/>
       <c r="B164" s="50" t="s">
         <v>15</v>
@@ -5256,7 +5316,7 @@
       </c>
       <c r="K164" s="16"/>
     </row>
-    <row r="166" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B166" s="16" t="s">
         <v>25</v>
       </c>
@@ -5275,7 +5335,7 @@
       <c r="J166" s="21"/>
       <c r="K166" s="22"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B167" s="16" t="s">
         <v>30</v>
       </c>
@@ -5285,7 +5345,7 @@
       <c r="D167" s="99"/>
       <c r="E167" s="14"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B168" s="16" t="s">
         <v>31</v>
       </c>
@@ -5299,7 +5359,7 @@
         <v>148.95609240556195</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B169" s="16" t="s">
         <v>32</v>
       </c>
@@ -5313,7 +5373,7 @@
         <v>-48.956092405561947</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B170" s="16" t="s">
         <v>33</v>
       </c>
@@ -5326,7 +5386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B171" s="16" t="s">
         <v>34</v>
       </c>
@@ -5372,30 +5432,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T197"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.140625" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="94" t="s">
         <v>0</v>
       </c>
@@ -5410,7 +5470,7 @@
       <c r="J1" s="94"/>
       <c r="K1" s="94"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
       <c r="A2" s="95" t="s">
         <v>1</v>
       </c>
@@ -5425,37 +5485,37 @@
       <c r="J2" s="95"/>
       <c r="K2" s="95"/>
     </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="81"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="81"/>
-      <c r="K3" s="81"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-    </row>
-    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+    </row>
+    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A5" s="96" t="s">
         <v>50</v>
       </c>
@@ -5470,7 +5530,7 @@
       <c r="J5" s="96"/>
       <c r="K5" s="96"/>
     </row>
-    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>115</v>
       </c>
@@ -5487,7 +5547,7 @@
       <c r="J6" s="93"/>
       <c r="K6" s="93"/>
     </row>
-    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="97" t="s">
         <v>26</v>
       </c>
@@ -5504,7 +5564,7 @@
       <c r="J7" s="93"/>
       <c r="K7" s="93"/>
     </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -5539,7 +5599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="124.2" x14ac:dyDescent="0.3">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -5556,7 +5616,7 @@
       <c r="J9" s="40"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="43"/>
       <c r="B10" s="45" t="s">
         <v>99</v>
@@ -5583,7 +5643,7 @@
       <c r="J10" s="44"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="43"/>
       <c r="B11" s="45" t="s">
         <v>38</v>
@@ -5608,7 +5668,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="43"/>
       <c r="B12" s="45" t="s">
         <v>52</v>
@@ -5626,7 +5686,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
       <c r="B13" s="30"/>
       <c r="C13" s="27"/>
@@ -5646,7 +5706,7 @@
       <c r="R13" s="31"/>
       <c r="S13" s="31"/>
     </row>
-    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A14" s="43">
         <v>2</v>
       </c>
@@ -5663,7 +5723,7 @@
       <c r="J14" s="40"/>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="43"/>
       <c r="B15" s="45" t="s">
         <v>100</v>
@@ -5688,7 +5748,7 @@
       <c r="J15" s="44"/>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="43"/>
       <c r="B16" s="45"/>
       <c r="C16" s="46">
@@ -5711,7 +5771,7 @@
       <c r="J16" s="44"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="43"/>
       <c r="B17" s="45" t="s">
         <v>101</v>
@@ -5736,7 +5796,7 @@
       <c r="J17" s="44"/>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="43"/>
       <c r="B18" s="45"/>
       <c r="C18" s="46">
@@ -5760,7 +5820,7 @@
       <c r="J18" s="44"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="43"/>
       <c r="B19" s="45" t="s">
         <v>103</v>
@@ -5787,7 +5847,7 @@
       <c r="J19" s="44"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43"/>
       <c r="B20" s="45" t="s">
         <v>44</v>
@@ -5813,7 +5873,7 @@
       <c r="J20" s="44"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="43"/>
       <c r="B21" s="45" t="s">
         <v>43</v>
@@ -5839,7 +5899,7 @@
       <c r="J21" s="44"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="43"/>
       <c r="B22" s="45" t="s">
         <v>65</v>
@@ -5864,7 +5924,7 @@
       <c r="J22" s="44"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="43"/>
       <c r="B23" s="45" t="s">
         <v>90</v>
@@ -5890,7 +5950,7 @@
       <c r="J23" s="44"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="43"/>
       <c r="B24" s="45" t="s">
         <v>91</v>
@@ -5916,7 +5976,7 @@
       <c r="J24" s="44"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="43"/>
       <c r="B25" s="45" t="s">
         <v>92</v>
@@ -5942,7 +6002,7 @@
       <c r="J25" s="44"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="43"/>
       <c r="B26" s="45" t="s">
         <v>109</v>
@@ -5967,7 +6027,7 @@
       <c r="J26" s="44"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="43"/>
       <c r="B27" s="45" t="s">
         <v>110</v>
@@ -5991,7 +6051,7 @@
       <c r="J27" s="44"/>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="43"/>
       <c r="B28" s="45" t="s">
         <v>38</v>
@@ -6017,7 +6077,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="43"/>
       <c r="B29" s="45" t="s">
         <v>52</v>
@@ -6035,7 +6095,7 @@
       </c>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="43"/>
       <c r="B30" s="45"/>
       <c r="C30" s="46"/>
@@ -6048,7 +6108,7 @@
       <c r="J30" s="44"/>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A31" s="43">
         <v>3</v>
       </c>
@@ -6065,7 +6125,7 @@
       <c r="J31" s="44"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="43"/>
       <c r="B32" s="45" t="s">
         <v>65</v>
@@ -6093,7 +6153,7 @@
       <c r="J32" s="44"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="43"/>
       <c r="B33" s="45"/>
       <c r="C33" s="46">
@@ -6118,7 +6178,7 @@
       <c r="J33" s="44"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="43"/>
       <c r="B34" s="45" t="s">
         <v>38</v>
@@ -6143,7 +6203,7 @@
       </c>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="43"/>
       <c r="B35" s="45" t="s">
         <v>52</v>
@@ -6161,7 +6221,7 @@
       </c>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="26"/>
       <c r="B36" s="30"/>
       <c r="C36" s="27"/>
@@ -6181,7 +6241,7 @@
       <c r="R36" s="31"/>
       <c r="S36" s="31"/>
     </row>
-    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A37" s="26">
         <v>4</v>
       </c>
@@ -6205,7 +6265,7 @@
       <c r="R37" s="31"/>
       <c r="S37" s="31"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="43"/>
       <c r="B38" s="45" t="s">
         <v>79</v>
@@ -6228,7 +6288,7 @@
       <c r="J38" s="44"/>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="43"/>
       <c r="B39" s="45" t="s">
         <v>38</v>
@@ -6254,7 +6314,7 @@
       </c>
       <c r="K39" s="16"/>
     </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="43"/>
       <c r="B40" s="45" t="s">
         <v>52</v>
@@ -6272,7 +6332,7 @@
       </c>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="26"/>
       <c r="B41" s="30"/>
       <c r="C41" s="27"/>
@@ -6292,7 +6352,7 @@
       <c r="R41" s="31"/>
       <c r="S41" s="31"/>
     </row>
-    <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A42" s="26">
         <v>5</v>
       </c>
@@ -6316,7 +6376,7 @@
       <c r="R42" s="31"/>
       <c r="S42" s="31"/>
     </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="43"/>
       <c r="B43" s="45" t="s">
         <v>79</v>
@@ -6339,7 +6399,7 @@
       <c r="J43" s="44"/>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="43"/>
       <c r="B44" s="45" t="s">
         <v>38</v>
@@ -6365,7 +6425,7 @@
       </c>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="43"/>
       <c r="B45" s="45" t="s">
         <v>52</v>
@@ -6383,7 +6443,7 @@
       </c>
       <c r="K45" s="16"/>
     </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="26"/>
       <c r="B46" s="30"/>
       <c r="C46" s="27"/>
@@ -6403,7 +6463,7 @@
       <c r="R46" s="31"/>
       <c r="S46" s="31"/>
     </row>
-    <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A47" s="26">
         <v>6</v>
       </c>
@@ -6427,7 +6487,7 @@
       <c r="R47" s="31"/>
       <c r="S47" s="31"/>
     </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="43"/>
       <c r="B48" s="45" t="s">
         <v>79</v>
@@ -6450,7 +6510,7 @@
       <c r="J48" s="44"/>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="43"/>
       <c r="B49" s="45" t="s">
         <v>38</v>
@@ -6476,7 +6536,7 @@
       </c>
       <c r="K49" s="16"/>
     </row>
-    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="43"/>
       <c r="B50" s="45" t="s">
         <v>52</v>
@@ -6494,7 +6554,7 @@
       </c>
       <c r="K50" s="16"/>
     </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="26"/>
       <c r="B51" s="30"/>
       <c r="C51" s="27"/>
@@ -6514,7 +6574,7 @@
       <c r="R51" s="31"/>
       <c r="S51" s="31"/>
     </row>
-    <row r="52" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A52" s="26">
         <v>7</v>
       </c>
@@ -6538,7 +6598,7 @@
       <c r="R52" s="31"/>
       <c r="S52" s="31"/>
     </row>
-    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="43"/>
       <c r="B53" s="45" t="s">
         <v>79</v>
@@ -6561,7 +6621,7 @@
       <c r="J53" s="44"/>
       <c r="K53" s="16"/>
     </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="43"/>
       <c r="B54" s="45" t="s">
         <v>38</v>
@@ -6587,7 +6647,7 @@
       </c>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="43"/>
       <c r="B55" s="45" t="s">
         <v>52</v>
@@ -6605,7 +6665,7 @@
       </c>
       <c r="K55" s="16"/>
     </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="26"/>
       <c r="B56" s="30"/>
       <c r="C56" s="27"/>
@@ -6625,7 +6685,7 @@
       <c r="R56" s="31"/>
       <c r="S56" s="31"/>
     </row>
-    <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A57" s="64">
         <v>8</v>
       </c>
@@ -6649,7 +6709,7 @@
       <c r="R57" s="31"/>
       <c r="S57" s="31"/>
     </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="43"/>
       <c r="B58" s="45" t="s">
         <v>79</v>
@@ -6672,7 +6732,7 @@
       <c r="J58" s="44"/>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="43"/>
       <c r="B59" s="45" t="s">
         <v>38</v>
@@ -6698,7 +6758,7 @@
       </c>
       <c r="K59" s="16"/>
     </row>
-    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="43"/>
       <c r="B60" s="45" t="s">
         <v>52</v>
@@ -6716,7 +6776,7 @@
       </c>
       <c r="K60" s="16"/>
     </row>
-    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="26"/>
       <c r="B61" s="30"/>
       <c r="C61" s="27"/>
@@ -6736,7 +6796,7 @@
       <c r="R61" s="31"/>
       <c r="S61" s="31"/>
     </row>
-    <row r="62" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A62" s="64">
         <v>9</v>
       </c>
@@ -6760,7 +6820,7 @@
       <c r="R62" s="31"/>
       <c r="S62" s="31"/>
     </row>
-    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="43"/>
       <c r="B63" s="45" t="s">
         <v>79</v>
@@ -6783,7 +6843,7 @@
       <c r="J63" s="44"/>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="43"/>
       <c r="B64" s="45" t="s">
         <v>38</v>
@@ -6809,7 +6869,7 @@
       </c>
       <c r="K64" s="16"/>
     </row>
-    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="43"/>
       <c r="B65" s="45" t="s">
         <v>52</v>
@@ -6827,7 +6887,7 @@
       </c>
       <c r="K65" s="16"/>
     </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="26"/>
       <c r="B66" s="30"/>
       <c r="C66" s="27"/>
@@ -6847,7 +6907,7 @@
       <c r="R66" s="31"/>
       <c r="S66" s="31"/>
     </row>
-    <row r="67" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A67" s="64">
         <v>10</v>
       </c>
@@ -6871,7 +6931,7 @@
       <c r="R67" s="31"/>
       <c r="S67" s="31"/>
     </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="43"/>
       <c r="B68" s="45" t="s">
         <v>79</v>
@@ -6894,7 +6954,7 @@
       <c r="J68" s="44"/>
       <c r="K68" s="16"/>
     </row>
-    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="43"/>
       <c r="B69" s="45" t="s">
         <v>38</v>
@@ -6920,7 +6980,7 @@
       </c>
       <c r="K69" s="16"/>
     </row>
-    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="43"/>
       <c r="B70" s="45" t="s">
         <v>52</v>
@@ -6938,7 +6998,7 @@
       </c>
       <c r="K70" s="16"/>
     </row>
-    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="26"/>
       <c r="B71" s="30"/>
       <c r="C71" s="27"/>
@@ -6958,7 +7018,7 @@
       <c r="R71" s="31"/>
       <c r="S71" s="31"/>
     </row>
-    <row r="72" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A72" s="64">
         <v>11</v>
       </c>
@@ -6982,7 +7042,7 @@
       <c r="R72" s="31"/>
       <c r="S72" s="31"/>
     </row>
-    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="43"/>
       <c r="B73" s="45" t="s">
         <v>79</v>
@@ -7005,7 +7065,7 @@
       <c r="J73" s="44"/>
       <c r="K73" s="16"/>
     </row>
-    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="43"/>
       <c r="B74" s="45" t="s">
         <v>38</v>
@@ -7031,7 +7091,7 @@
       </c>
       <c r="K74" s="16"/>
     </row>
-    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="43"/>
       <c r="B75" s="45" t="s">
         <v>52</v>
@@ -7049,7 +7109,7 @@
       </c>
       <c r="K75" s="16"/>
     </row>
-    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="26"/>
       <c r="B76" s="30"/>
       <c r="C76" s="27"/>
@@ -7069,7 +7129,7 @@
       <c r="R76" s="31"/>
       <c r="S76" s="31"/>
     </row>
-    <row r="77" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A77" s="64">
         <v>12</v>
       </c>
@@ -7093,7 +7153,7 @@
       <c r="R77" s="31"/>
       <c r="S77" s="31"/>
     </row>
-    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="43"/>
       <c r="B78" s="45" t="s">
         <v>79</v>
@@ -7116,7 +7176,7 @@
       <c r="J78" s="44"/>
       <c r="K78" s="16"/>
     </row>
-    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="43"/>
       <c r="B79" s="45" t="s">
         <v>38</v>
@@ -7142,7 +7202,7 @@
       </c>
       <c r="K79" s="16"/>
     </row>
-    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="43"/>
       <c r="B80" s="45" t="s">
         <v>52</v>
@@ -7160,7 +7220,7 @@
       </c>
       <c r="K80" s="16"/>
     </row>
-    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="26"/>
       <c r="B81" s="30"/>
       <c r="C81" s="27"/>
@@ -7180,7 +7240,7 @@
       <c r="R81" s="31"/>
       <c r="S81" s="31"/>
     </row>
-    <row r="82" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A82" s="64">
         <v>13</v>
       </c>
@@ -7204,7 +7264,7 @@
       <c r="R82" s="31"/>
       <c r="S82" s="31"/>
     </row>
-    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="43"/>
       <c r="B83" s="45" t="s">
         <v>79</v>
@@ -7227,7 +7287,7 @@
       <c r="J83" s="44"/>
       <c r="K83" s="16"/>
     </row>
-    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="43"/>
       <c r="B84" s="45" t="s">
         <v>38</v>
@@ -7253,7 +7313,7 @@
       </c>
       <c r="K84" s="16"/>
     </row>
-    <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="43"/>
       <c r="B85" s="45" t="s">
         <v>52</v>
@@ -7271,7 +7331,7 @@
       </c>
       <c r="K85" s="16"/>
     </row>
-    <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="26"/>
       <c r="B86" s="30"/>
       <c r="C86" s="27"/>
@@ -7291,7 +7351,7 @@
       <c r="R86" s="31"/>
       <c r="S86" s="31"/>
     </row>
-    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.3">
       <c r="A87" s="26">
         <v>14</v>
       </c>
@@ -7315,7 +7375,7 @@
       <c r="R87" s="31"/>
       <c r="S87" s="31"/>
     </row>
-    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="43"/>
       <c r="B88" s="45" t="s">
         <v>54</v>
@@ -7339,7 +7399,7 @@
       <c r="J88" s="44"/>
       <c r="K88" s="16"/>
     </row>
-    <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="43"/>
       <c r="B89" s="45" t="s">
         <v>38</v>
@@ -7364,7 +7424,7 @@
       </c>
       <c r="K89" s="16"/>
     </row>
-    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="43"/>
       <c r="B90" s="45" t="s">
         <v>52</v>
@@ -7382,7 +7442,7 @@
       </c>
       <c r="K90" s="16"/>
     </row>
-    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="43"/>
       <c r="B91" s="45"/>
       <c r="C91" s="46"/>
@@ -7395,7 +7455,7 @@
       <c r="J91" s="40"/>
       <c r="K91" s="16"/>
     </row>
-    <row r="92" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="30" x14ac:dyDescent="0.3">
       <c r="A92" s="43">
         <v>15</v>
       </c>
@@ -7412,7 +7472,7 @@
       <c r="J92" s="40"/>
       <c r="K92" s="16"/>
     </row>
-    <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="43"/>
       <c r="B93" s="45" t="s">
         <v>54</v>
@@ -7437,7 +7497,7 @@
       <c r="J93" s="44"/>
       <c r="K93" s="16"/>
     </row>
-    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="43"/>
       <c r="B94" s="45" t="s">
         <v>55</v>
@@ -7462,7 +7522,7 @@
       <c r="J94" s="44"/>
       <c r="K94" s="16"/>
     </row>
-    <row r="95" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="43"/>
       <c r="B95" s="45" t="s">
         <v>38</v>
@@ -7487,7 +7547,7 @@
       </c>
       <c r="K95" s="16"/>
     </row>
-    <row r="96" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="43"/>
       <c r="B96" s="45" t="s">
         <v>52</v>
@@ -7505,7 +7565,7 @@
       </c>
       <c r="K96" s="16"/>
     </row>
-    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="43"/>
       <c r="B97" s="45"/>
       <c r="C97" s="46"/>
@@ -7518,7 +7578,7 @@
       <c r="J97" s="40"/>
       <c r="K97" s="16"/>
     </row>
-    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A98" s="43">
         <v>16</v>
       </c>
@@ -7535,7 +7595,7 @@
       <c r="J98" s="40"/>
       <c r="K98" s="16"/>
     </row>
-    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="43"/>
       <c r="B99" s="45" t="s">
         <v>54</v>
@@ -7560,7 +7620,7 @@
       <c r="J99" s="44"/>
       <c r="K99" s="16"/>
     </row>
-    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="43"/>
       <c r="B100" s="45" t="s">
         <v>38</v>
@@ -7585,7 +7645,7 @@
       </c>
       <c r="K100" s="16"/>
     </row>
-    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="43"/>
       <c r="B101" s="45" t="s">
         <v>52</v>
@@ -7603,7 +7663,7 @@
       </c>
       <c r="K101" s="16"/>
     </row>
-    <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="43"/>
       <c r="B102" s="45"/>
       <c r="C102" s="46"/>
@@ -7616,7 +7676,7 @@
       <c r="J102" s="40"/>
       <c r="K102" s="16"/>
     </row>
-    <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A103" s="58">
         <v>17</v>
       </c>
@@ -7633,7 +7693,7 @@
       <c r="J103" s="40"/>
       <c r="K103" s="16"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="43"/>
       <c r="B104" s="45" t="str">
         <f>B94</f>
@@ -7660,7 +7720,7 @@
       <c r="J104" s="9"/>
       <c r="K104" s="16"/>
     </row>
-    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="43"/>
       <c r="B105" s="45" t="s">
         <v>38</v>
@@ -7686,7 +7746,7 @@
       </c>
       <c r="K105" s="16"/>
     </row>
-    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="43"/>
       <c r="B106" s="45" t="s">
         <v>52</v>
@@ -7704,7 +7764,7 @@
       </c>
       <c r="K106" s="16"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="43"/>
       <c r="B107" s="45"/>
       <c r="C107" s="46"/>
@@ -7717,7 +7777,7 @@
       <c r="J107" s="40"/>
       <c r="K107" s="16"/>
     </row>
-    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A108" s="58">
         <v>18</v>
       </c>
@@ -7734,7 +7794,7 @@
       <c r="J108" s="40"/>
       <c r="K108" s="16"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="43"/>
       <c r="B109" s="45" t="s">
         <v>60</v>
@@ -7760,7 +7820,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="16"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="43"/>
       <c r="B110" s="45" t="s">
         <v>61</v>
@@ -7784,7 +7844,7 @@
       <c r="J110" s="9"/>
       <c r="K110" s="16"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="43"/>
       <c r="B111" s="45"/>
       <c r="C111" s="46">
@@ -7806,7 +7866,7 @@
       <c r="J111" s="9"/>
       <c r="K111" s="16"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="43"/>
       <c r="B112" s="45"/>
       <c r="C112" s="46">
@@ -7829,7 +7889,7 @@
       <c r="J112" s="9"/>
       <c r="K112" s="16"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="43"/>
       <c r="B113" s="45"/>
       <c r="C113" s="46">
@@ -7851,7 +7911,7 @@
       <c r="J113" s="9"/>
       <c r="K113" s="16"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="43"/>
       <c r="B114" s="45" t="s">
         <v>76</v>
@@ -7877,7 +7937,7 @@
       <c r="J114" s="9"/>
       <c r="K114" s="16"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="43"/>
       <c r="B115" s="45" t="s">
         <v>111</v>
@@ -7903,7 +7963,7 @@
       <c r="J115" s="9"/>
       <c r="K115" s="16"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="43"/>
       <c r="B116" s="45"/>
       <c r="C116" s="46">
@@ -7927,7 +7987,7 @@
       <c r="J116" s="9"/>
       <c r="K116" s="16"/>
     </row>
-    <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="43"/>
       <c r="B117" s="45" t="s">
         <v>38</v>
@@ -7952,7 +8012,7 @@
       </c>
       <c r="K117" s="16"/>
     </row>
-    <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="43"/>
       <c r="B118" s="45" t="s">
         <v>52</v>
@@ -7970,7 +8030,7 @@
       </c>
       <c r="K118" s="16"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="43"/>
       <c r="B119" s="45"/>
       <c r="C119" s="46"/>
@@ -7983,7 +8043,7 @@
       <c r="J119" s="40"/>
       <c r="K119" s="16"/>
     </row>
-    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A120" s="43">
         <v>19</v>
       </c>
@@ -8000,7 +8060,7 @@
       <c r="J120" s="40"/>
       <c r="K120" s="16"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="43"/>
       <c r="B121" s="45" t="s">
         <v>63</v>
@@ -8023,7 +8083,7 @@
       <c r="J121" s="9"/>
       <c r="K121" s="16"/>
     </row>
-    <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="43"/>
       <c r="B122" s="45" t="s">
         <v>38</v>
@@ -8048,7 +8108,7 @@
       </c>
       <c r="K122" s="16"/>
     </row>
-    <row r="123" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="43"/>
       <c r="B123" s="45" t="s">
         <v>52</v>
@@ -8066,7 +8126,7 @@
       </c>
       <c r="K123" s="16"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="43"/>
       <c r="B124" s="45"/>
       <c r="C124" s="46"/>
@@ -8079,7 +8139,7 @@
       <c r="J124" s="40"/>
       <c r="K124" s="16"/>
     </row>
-    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.3">
       <c r="A125" s="43">
         <v>20</v>
       </c>
@@ -8096,7 +8156,7 @@
       <c r="J125" s="40"/>
       <c r="K125" s="16"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="43"/>
       <c r="B126" s="45" t="s">
         <v>63</v>
@@ -8119,7 +8179,7 @@
       <c r="J126" s="9"/>
       <c r="K126" s="16"/>
     </row>
-    <row r="127" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="43"/>
       <c r="B127" s="45" t="s">
         <v>38</v>
@@ -8144,7 +8204,7 @@
       </c>
       <c r="K127" s="16"/>
     </row>
-    <row r="128" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="43"/>
       <c r="B128" s="45" t="s">
         <v>52</v>
@@ -8162,7 +8222,7 @@
       </c>
       <c r="K128" s="16"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" s="43"/>
       <c r="B129" s="45"/>
       <c r="C129" s="46"/>
@@ -8175,7 +8235,7 @@
       <c r="J129" s="40"/>
       <c r="K129" s="16"/>
     </row>
-    <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A130" s="43">
         <v>21</v>
       </c>
@@ -8192,7 +8252,7 @@
       <c r="J130" s="40"/>
       <c r="K130" s="5"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" s="43"/>
       <c r="B131" s="56" t="s">
         <v>67</v>
@@ -8220,7 +8280,7 @@
       <c r="J131" s="40"/>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" s="43"/>
       <c r="B132" s="56"/>
       <c r="C132" s="53">
@@ -8245,7 +8305,7 @@
       <c r="J132" s="40"/>
       <c r="K132" s="5"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" s="43"/>
       <c r="B133" s="56" t="s">
         <v>68</v>
@@ -8272,7 +8332,7 @@
       <c r="J133" s="40"/>
       <c r="K133" s="5"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" s="43"/>
       <c r="B134" s="56"/>
       <c r="C134" s="53">
@@ -8298,7 +8358,7 @@
       <c r="J134" s="40"/>
       <c r="K134" s="5"/>
     </row>
-    <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="43"/>
       <c r="B135" s="56" t="s">
         <v>38</v>
@@ -8324,7 +8384,7 @@
       </c>
       <c r="K135" s="5"/>
     </row>
-    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="43"/>
       <c r="B136" s="56" t="s">
         <v>52</v>
@@ -8342,7 +8402,7 @@
       </c>
       <c r="K136" s="5"/>
     </row>
-    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="43"/>
       <c r="B137" s="56"/>
       <c r="C137" s="53"/>
@@ -8355,7 +8415,7 @@
       <c r="J137" s="61"/>
       <c r="K137" s="5"/>
     </row>
-    <row r="138" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
       <c r="A138" s="43">
         <v>22</v>
       </c>
@@ -8373,7 +8433,7 @@
       <c r="K138" s="5"/>
       <c r="M138" s="63"/>
     </row>
-    <row r="139" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="43"/>
       <c r="B139" s="56" t="s">
         <v>70</v>
@@ -8399,7 +8459,7 @@
       <c r="J139" s="40"/>
       <c r="K139" s="5"/>
     </row>
-    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="43"/>
       <c r="B140" s="56" t="s">
         <v>38</v>
@@ -8425,7 +8485,7 @@
       </c>
       <c r="K140" s="5"/>
     </row>
-    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="43"/>
       <c r="B141" s="56" t="s">
         <v>52</v>
@@ -8443,7 +8503,7 @@
       </c>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="43"/>
       <c r="B142" s="52"/>
       <c r="C142" s="53"/>
@@ -8457,7 +8517,7 @@
       <c r="K142" s="5"/>
       <c r="M142" s="63"/>
     </row>
-    <row r="143" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" s="43">
         <v>23</v>
       </c>
@@ -8474,7 +8534,7 @@
       <c r="J143" s="40"/>
       <c r="K143" s="5"/>
     </row>
-    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="43"/>
       <c r="B144" s="56" t="s">
         <v>70</v>
@@ -8500,7 +8560,7 @@
       <c r="J144" s="40"/>
       <c r="K144" s="5"/>
     </row>
-    <row r="145" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="43"/>
       <c r="B145" s="56" t="s">
         <v>38</v>
@@ -8526,7 +8586,7 @@
       </c>
       <c r="K145" s="5"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A146" s="43"/>
       <c r="B146" s="62"/>
       <c r="C146" s="53"/>
@@ -8539,7 +8599,7 @@
       <c r="J146" s="40"/>
       <c r="K146" s="5"/>
     </row>
-    <row r="147" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A147" s="43">
         <v>24</v>
       </c>
@@ -8556,7 +8616,7 @@
       <c r="J147" s="40"/>
       <c r="K147" s="5"/>
     </row>
-    <row r="148" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="43"/>
       <c r="B148" s="56" t="s">
         <v>72</v>
@@ -8582,7 +8642,7 @@
       <c r="J148" s="40"/>
       <c r="K148" s="5"/>
     </row>
-    <row r="149" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="43"/>
       <c r="B149" s="56" t="s">
         <v>38</v>
@@ -8608,7 +8668,7 @@
       </c>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A150" s="43"/>
       <c r="B150" s="62"/>
       <c r="C150" s="53"/>
@@ -8621,7 +8681,7 @@
       <c r="J150" s="40"/>
       <c r="K150" s="5"/>
     </row>
-    <row r="151" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A151" s="43">
         <v>25</v>
       </c>
@@ -8638,7 +8698,7 @@
       <c r="J151" s="40"/>
       <c r="K151" s="5"/>
     </row>
-    <row r="152" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="43"/>
       <c r="B152" s="56" t="s">
         <v>74</v>
@@ -8664,7 +8724,7 @@
       <c r="J152" s="40"/>
       <c r="K152" s="5"/>
     </row>
-    <row r="153" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="43"/>
       <c r="B153" s="70" t="s">
         <v>96</v>
@@ -8689,7 +8749,7 @@
       <c r="J153" s="40"/>
       <c r="K153" s="5"/>
     </row>
-    <row r="154" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="43"/>
       <c r="B154" s="56" t="s">
         <v>38</v>
@@ -8715,7 +8775,7 @@
       </c>
       <c r="K154" s="5"/>
     </row>
-    <row r="155" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="43"/>
       <c r="B155" s="56" t="s">
         <v>52</v>
@@ -8733,7 +8793,7 @@
       </c>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="43"/>
       <c r="B156" s="56"/>
       <c r="C156" s="53"/>
@@ -8747,7 +8807,7 @@
       <c r="K156" s="5"/>
       <c r="M156" s="63"/>
     </row>
-    <row r="157" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A157" s="65">
         <v>26</v>
       </c>
@@ -8765,7 +8825,7 @@
       <c r="K157" s="5"/>
       <c r="M157" s="63"/>
     </row>
-    <row r="158" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="65"/>
       <c r="B158" s="70" t="s">
         <v>94</v>
@@ -8791,7 +8851,7 @@
       <c r="J158" s="69"/>
       <c r="K158" s="5"/>
     </row>
-    <row r="159" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="65"/>
       <c r="B159" s="70" t="s">
         <v>95</v>
@@ -8817,7 +8877,7 @@
       <c r="J159" s="69"/>
       <c r="K159" s="5"/>
     </row>
-    <row r="160" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="65"/>
       <c r="B160" s="70" t="s">
         <v>38</v>
@@ -8843,7 +8903,7 @@
       </c>
       <c r="K160" s="5"/>
     </row>
-    <row r="161" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="65"/>
       <c r="B161" s="70" t="s">
         <v>52</v>
@@ -8861,7 +8921,7 @@
       </c>
       <c r="K161" s="5"/>
     </row>
-    <row r="162" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="65"/>
       <c r="B162" s="74"/>
       <c r="C162" s="67"/>
@@ -8875,7 +8935,7 @@
       <c r="K162" s="5"/>
       <c r="M162" s="63"/>
     </row>
-    <row r="163" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A163" s="65">
         <v>27</v>
       </c>
@@ -8893,7 +8953,7 @@
       <c r="K163" s="5"/>
       <c r="M163" s="63"/>
     </row>
-    <row r="164" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="65"/>
       <c r="B164" s="70" t="str">
         <f t="shared" ref="B164:E165" si="13">B158</f>
@@ -8921,7 +8981,7 @@
       <c r="J164" s="69"/>
       <c r="K164" s="5"/>
     </row>
-    <row r="165" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="65"/>
       <c r="B165" s="70" t="str">
         <f t="shared" si="13"/>
@@ -8949,7 +9009,7 @@
       <c r="J165" s="69"/>
       <c r="K165" s="5"/>
     </row>
-    <row r="166" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="65"/>
       <c r="B166" s="70" t="s">
         <v>38</v>
@@ -8975,7 +9035,7 @@
       </c>
       <c r="K166" s="5"/>
     </row>
-    <row r="167" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="65"/>
       <c r="B167" s="70" t="s">
         <v>52</v>
@@ -8993,7 +9053,7 @@
       </c>
       <c r="K167" s="5"/>
     </row>
-    <row r="168" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="43"/>
       <c r="B168" s="52"/>
       <c r="C168" s="53"/>
@@ -9007,7 +9067,7 @@
       <c r="K168" s="5"/>
       <c r="M168" s="63"/>
     </row>
-    <row r="169" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A169" s="43">
         <v>28</v>
       </c>
@@ -9025,7 +9085,7 @@
       <c r="K169" s="5"/>
       <c r="M169" s="63"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A170" s="43"/>
       <c r="B170" s="76" t="s">
         <v>105</v>
@@ -9049,7 +9109,7 @@
       <c r="K170" s="5"/>
       <c r="M170" s="63"/>
     </row>
-    <row r="171" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="65"/>
       <c r="B171" s="70" t="s">
         <v>38</v>
@@ -9075,7 +9135,7 @@
       </c>
       <c r="K171" s="5"/>
     </row>
-    <row r="172" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="65"/>
       <c r="B172" s="70" t="s">
         <v>52</v>
@@ -9093,7 +9153,7 @@
       </c>
       <c r="K172" s="5"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A173" s="43"/>
       <c r="B173" s="51"/>
       <c r="C173" s="53"/>
@@ -9107,7 +9167,7 @@
       <c r="K173" s="5"/>
       <c r="M173" s="63"/>
     </row>
-    <row r="174" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A174" s="43">
         <v>29</v>
       </c>
@@ -9125,7 +9185,7 @@
       <c r="K174" s="5"/>
       <c r="M174" s="63"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A175" s="43"/>
       <c r="B175" s="76" t="s">
         <v>107</v>
@@ -9149,7 +9209,7 @@
       <c r="K175" s="5"/>
       <c r="M175" s="63"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A176" s="43"/>
       <c r="B176" s="76"/>
       <c r="C176" s="53">
@@ -9171,7 +9231,7 @@
       <c r="K176" s="5"/>
       <c r="M176" s="63"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A177" s="43"/>
       <c r="B177" s="76" t="s">
         <v>108</v>
@@ -9195,7 +9255,7 @@
       <c r="K177" s="5"/>
       <c r="M177" s="63"/>
     </row>
-    <row r="178" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="65"/>
       <c r="B178" s="70" t="s">
         <v>38</v>
@@ -9221,7 +9281,7 @@
       </c>
       <c r="K178" s="5"/>
     </row>
-    <row r="179" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="65"/>
       <c r="B179" s="70" t="s">
         <v>52</v>
@@ -9239,7 +9299,7 @@
       </c>
       <c r="K179" s="5"/>
     </row>
-    <row r="180" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="43"/>
       <c r="B180" s="56"/>
       <c r="C180" s="53"/>
@@ -9253,7 +9313,7 @@
       <c r="K180" s="5"/>
       <c r="M180" s="63"/>
     </row>
-    <row r="181" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A181" s="43">
         <v>30</v>
       </c>
@@ -9271,7 +9331,7 @@
       <c r="K181" s="5"/>
       <c r="M181" s="63"/>
     </row>
-    <row r="182" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A182" s="43"/>
       <c r="B182" s="76" t="s">
         <v>113</v>
@@ -9294,7 +9354,7 @@
       <c r="K182" s="5"/>
       <c r="M182" s="63"/>
     </row>
-    <row r="183" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="65"/>
       <c r="B183" s="70" t="s">
         <v>38</v>
@@ -9320,7 +9380,7 @@
       </c>
       <c r="K183" s="5"/>
     </row>
-    <row r="184" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="65"/>
       <c r="B184" s="70" t="s">
         <v>52</v>
@@ -9338,7 +9398,7 @@
       </c>
       <c r="K184" s="5"/>
     </row>
-    <row r="185" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="43"/>
       <c r="B185" s="56"/>
       <c r="C185" s="53"/>
@@ -9352,7 +9412,7 @@
       <c r="K185" s="5"/>
       <c r="M185" s="63"/>
     </row>
-    <row r="186" spans="1:20" ht="45" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A186" s="26">
         <v>31</v>
       </c>
@@ -9388,7 +9448,7 @@
       <c r="R186" s="31"/>
       <c r="S186" s="31"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A187" s="43"/>
       <c r="B187" s="45"/>
       <c r="C187" s="46"/>
@@ -9401,7 +9461,7 @@
       <c r="J187" s="44"/>
       <c r="K187" s="16"/>
     </row>
-    <row r="188" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A188" s="26">
         <v>32</v>
       </c>
@@ -9438,7 +9498,7 @@
       <c r="S188" s="18"/>
       <c r="T188" s="18"/>
     </row>
-    <row r="189" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A189" s="26"/>
       <c r="B189" s="30"/>
       <c r="C189" s="27"/>
@@ -9459,7 +9519,7 @@
       <c r="S189" s="18"/>
       <c r="T189" s="18"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A190" s="43"/>
       <c r="B190" s="50" t="s">
         <v>15</v>
@@ -9477,7 +9537,7 @@
       </c>
       <c r="K190" s="16"/>
     </row>
-    <row r="192" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B192" s="16" t="s">
         <v>25</v>
       </c>
@@ -9496,7 +9556,7 @@
       <c r="J192" s="21"/>
       <c r="K192" s="22"/>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B193" s="16" t="s">
         <v>30</v>
       </c>
@@ -9506,7 +9566,7 @@
       <c r="D193" s="99"/>
       <c r="E193" s="14"/>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B194" s="16" t="s">
         <v>31</v>
       </c>
@@ -9520,7 +9580,7 @@
         <v>84.887564496274862</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B195" s="16" t="s">
         <v>32</v>
       </c>
@@ -9534,7 +9594,7 @@
         <v>15.112435503725138</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B196" s="16" t="s">
         <v>33</v>
       </c>
@@ -9547,7 +9607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B197" s="16" t="s">
         <v>34</v>
       </c>
@@ -9562,12 +9622,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C196:D196"/>
     <mergeCell ref="C197:D197"/>
     <mergeCell ref="A7:F7"/>
@@ -9576,6 +9630,4730 @@
     <mergeCell ref="C193:D193"/>
     <mergeCell ref="C194:D194"/>
     <mergeCell ref="C195:D195"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="80" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;LPrepared By:
+&amp;CChecked By:        
+&amp;RApproved By:                 
+</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T219"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A203" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I216" sqref="I216"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.44140625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" style="7" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.109375" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+      <c r="K1" s="94"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="88"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="88"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="88" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="88"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="88"/>
+    </row>
+    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A5" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="96"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="93"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="97" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="93" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="43">
+        <v>1</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="49"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="16"/>
+    </row>
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="43"/>
+      <c r="B10" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" s="46">
+        <v>1</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="E10" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="14">
+        <f>2.72-1.3</f>
+        <v>1.4200000000000002</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" ref="G10" si="0">PRODUCT(C10:F10)</f>
+        <v>1.9241000000000001</v>
+      </c>
+      <c r="H10" s="47"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="16"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="43"/>
+      <c r="B11" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="44">
+        <f>SUM(G10:G10)</f>
+        <v>1.9241000000000001</v>
+      </c>
+      <c r="H11" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="44">
+        <v>64.63</v>
+      </c>
+      <c r="J11" s="44">
+        <f>G11*I11</f>
+        <v>124.35458300000001</v>
+      </c>
+      <c r="K11" s="16"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="43"/>
+      <c r="B12" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="46"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44">
+        <f>0.13*G11*(19284/360)</f>
+        <v>13.398791033333337</v>
+      </c>
+      <c r="K12" s="16"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="29"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="31"/>
+      <c r="S13" s="31"/>
+    </row>
+    <row r="14" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="43">
+        <v>2</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="49"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="16"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="43"/>
+      <c r="B15" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="46">
+        <v>2</v>
+      </c>
+      <c r="D15" s="14">
+        <f>2.7+0.23</f>
+        <v>2.93</v>
+      </c>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14">
+        <v>2.41</v>
+      </c>
+      <c r="G15" s="14">
+        <f t="shared" ref="G15:G25" si="1">PRODUCT(C15:F15)</f>
+        <v>14.122600000000002</v>
+      </c>
+      <c r="H15" s="47"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="16"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="43"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46">
+        <v>2</v>
+      </c>
+      <c r="D16" s="14">
+        <f>2.7+0.23</f>
+        <v>2.93</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14">
+        <v>2.41</v>
+      </c>
+      <c r="G16" s="14">
+        <f t="shared" si="1"/>
+        <v>14.122600000000002</v>
+      </c>
+      <c r="H16" s="47"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="43"/>
+      <c r="B17" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="46">
+        <f>-C35</f>
+        <v>-2</v>
+      </c>
+      <c r="D17" s="14">
+        <f>D35</f>
+        <v>0.53337397135019804</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14">
+        <f>F35</f>
+        <v>0.75</v>
+      </c>
+      <c r="G17" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.800060957025297</v>
+      </c>
+      <c r="H17" s="47"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="43"/>
+      <c r="B18" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="46">
+        <f>2*-3</f>
+        <v>-6</v>
+      </c>
+      <c r="D18" s="14">
+        <f>0.9</f>
+        <v>0.9</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="G18" s="14">
+        <f t="shared" si="1"/>
+        <v>-4.8600000000000003</v>
+      </c>
+      <c r="H18" s="47"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="16"/>
+    </row>
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="43"/>
+      <c r="B19" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="46">
+        <f>2*-1</f>
+        <v>-2</v>
+      </c>
+      <c r="D19" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14">
+        <f>7/3.281</f>
+        <v>2.1334958854007922</v>
+      </c>
+      <c r="G19" s="14">
+        <f t="shared" si="1"/>
+        <v>-5.1203901249619008</v>
+      </c>
+      <c r="H19" s="47"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="16"/>
+    </row>
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="43"/>
+      <c r="B20" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="46">
+        <v>1</v>
+      </c>
+      <c r="D20" s="14">
+        <v>2.08</v>
+      </c>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14">
+        <f>0.75-0.15*4</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="G20" s="14">
+        <f t="shared" si="1"/>
+        <v>0.31200000000000006</v>
+      </c>
+      <c r="H20" s="47"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="16"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="43"/>
+      <c r="B21" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="46">
+        <v>-1</v>
+      </c>
+      <c r="D21" s="14">
+        <f>D40</f>
+        <v>14.070000000000002</v>
+      </c>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14">
+        <f>(11*6)/12/3.281</f>
+        <v>1.6763181956720512</v>
+      </c>
+      <c r="G21" s="14">
+        <f t="shared" si="1"/>
+        <v>-23.585797013105765</v>
+      </c>
+      <c r="H21" s="47"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="16"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="43"/>
+      <c r="B22" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="46">
+        <v>-1</v>
+      </c>
+      <c r="D22" s="14">
+        <f>D19</f>
+        <v>1.2</v>
+      </c>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14">
+        <f>(7+6+3*6)/12/3.281</f>
+        <v>0.78736157675505436</v>
+      </c>
+      <c r="G22" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.94483389210606517</v>
+      </c>
+      <c r="H22" s="47"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="16"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="43"/>
+      <c r="B23" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" s="46">
+        <v>-1</v>
+      </c>
+      <c r="D23" s="14">
+        <f>D18</f>
+        <v>0.9</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14">
+        <f>(3*6)/12/3.281</f>
+        <v>0.45717768972874123</v>
+      </c>
+      <c r="G23" s="14">
+        <f t="shared" si="1"/>
+        <v>-0.41145992075586713</v>
+      </c>
+      <c r="H23" s="47"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="16"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="43"/>
+      <c r="B24" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="46">
+        <v>4</v>
+      </c>
+      <c r="D24" s="14">
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="G24" s="14">
+        <f t="shared" si="1"/>
+        <v>2.5601950624809504</v>
+      </c>
+      <c r="H24" s="47"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="16"/>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="43"/>
+      <c r="B25" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="46">
+        <v>-4</v>
+      </c>
+      <c r="D25" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="G25" s="14">
+        <f t="shared" si="1"/>
+        <v>-1.44</v>
+      </c>
+      <c r="H25" s="47"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="16"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="43"/>
+      <c r="B26" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="46"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="44">
+        <f>SUM(G15:G25)</f>
+        <v>-6.0451468454739405</v>
+      </c>
+      <c r="H26" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I26" s="44">
+        <f>6161.31/1.15</f>
+        <v>5357.6608695652185</v>
+      </c>
+      <c r="J26" s="44">
+        <f>G26*I26</f>
+        <v>-32387.846704771349</v>
+      </c>
+      <c r="K26" s="16"/>
+    </row>
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="43"/>
+      <c r="B27" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="46"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44">
+        <f>0.13*G26*(340055.78/100)</f>
+        <v>-2672.3932634778348</v>
+      </c>
+      <c r="K27" s="16"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="43"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="16"/>
+    </row>
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A29" s="43">
+        <v>3</v>
+      </c>
+      <c r="B29" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="46"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="16"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="43"/>
+      <c r="B30" s="45" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="46">
+        <v>2</v>
+      </c>
+      <c r="D30" s="14">
+        <f>8.17/3.281</f>
+        <v>2.4900944833892105</v>
+      </c>
+      <c r="E30" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F30" s="14">
+        <v>2.41</v>
+      </c>
+      <c r="G30" s="14">
+        <f t="shared" ref="G30:G33" si="2">PRODUCT(C30:F30)</f>
+        <v>1.2002255409935996</v>
+      </c>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="16"/>
+    </row>
+    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+      <c r="A31" s="43"/>
+      <c r="B31" s="48"/>
+      <c r="C31" s="46">
+        <v>2</v>
+      </c>
+      <c r="D31" s="14">
+        <f>8.17/3.281</f>
+        <v>2.4900944833892105</v>
+      </c>
+      <c r="E31" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="14">
+        <v>2.41</v>
+      </c>
+      <c r="G31" s="14">
+        <f t="shared" si="2"/>
+        <v>1.2002255409935996</v>
+      </c>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="44"/>
+      <c r="K31" s="16"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="43"/>
+      <c r="B32" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="46">
+        <v>-3</v>
+      </c>
+      <c r="D32" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="E32" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F32" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="G32" s="14">
+        <f t="shared" si="2"/>
+        <v>-0.16200000000000001</v>
+      </c>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="16"/>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="43"/>
+      <c r="B33" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="46">
+        <v>-1</v>
+      </c>
+      <c r="D33" s="14">
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="E33" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F33" s="14">
+        <f>7/3.281</f>
+        <v>2.1334958854007922</v>
+      </c>
+      <c r="G33" s="14">
+        <f t="shared" si="2"/>
+        <v>-0.22759023465110553</v>
+      </c>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="43"/>
+      <c r="B34" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" s="46">
+        <v>1</v>
+      </c>
+      <c r="D34" s="14">
+        <f>D20</f>
+        <v>2.08</v>
+      </c>
+      <c r="E34" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F34" s="14">
+        <f>F20</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="G34" s="14">
+        <f>PRODUCT(C34:F34)</f>
+        <v>3.1200000000000009E-2</v>
+      </c>
+      <c r="H34" s="47"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="16"/>
+    </row>
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="43"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="46">
+        <v>2</v>
+      </c>
+      <c r="D35" s="14">
+        <f>(1.75/3.281)</f>
+        <v>0.53337397135019804</v>
+      </c>
+      <c r="E35" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G35" s="14">
+        <f>PRODUCT(C35:F35)</f>
+        <v>8.0006095702529714E-2</v>
+      </c>
+      <c r="H35" s="47"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="16"/>
+    </row>
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="43"/>
+      <c r="B36" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="46"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="44">
+        <f>SUM(G30:G35)</f>
+        <v>2.1220669430386239</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="I36" s="44">
+        <v>14362.76</v>
+      </c>
+      <c r="J36" s="44">
+        <f>G36*I36</f>
+        <v>30478.738206797425</v>
+      </c>
+      <c r="K36" s="16"/>
+    </row>
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="43"/>
+      <c r="B37" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="46"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44">
+        <f>0.13*G36*10311.74</f>
+        <v>2844.6863352971827</v>
+      </c>
+      <c r="K37" s="16"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="26"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="29"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="44"/>
+      <c r="K38" s="29"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="31"/>
+      <c r="S38" s="31"/>
+    </row>
+    <row r="39" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="26">
+        <v>4</v>
+      </c>
+      <c r="B39" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="27"/>
+      <c r="D39" s="28"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="29"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="31"/>
+      <c r="S39" s="31"/>
+    </row>
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="43"/>
+      <c r="B40" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" s="46">
+        <v>1</v>
+      </c>
+      <c r="D40" s="14">
+        <f>(2.7+0.1+0.1)*4+(2.7-0.23)</f>
+        <v>14.070000000000002</v>
+      </c>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14">
+        <f>PRODUCT(C40:F40)</f>
+        <v>14.070000000000002</v>
+      </c>
+      <c r="H40" s="47"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="44"/>
+      <c r="K40" s="16"/>
+    </row>
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="43"/>
+      <c r="B41" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="46"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="44">
+        <f>SUM(G40)</f>
+        <v>14.070000000000002</v>
+      </c>
+      <c r="H41" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I41" s="44">
+        <f>465.63/1.15</f>
+        <v>404.89565217391305</v>
+      </c>
+      <c r="J41" s="44">
+        <f>G41*I41</f>
+        <v>5696.8818260869575</v>
+      </c>
+      <c r="K41" s="16"/>
+    </row>
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="43"/>
+      <c r="B42" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="46"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="44"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="44">
+        <f>0.13*G41*(2780.61/10)</f>
+        <v>508.60137510000015</v>
+      </c>
+      <c r="K42" s="16"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="43"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="47"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="16"/>
+    </row>
+    <row r="44" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="26">
+        <v>5</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="27"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="44"/>
+      <c r="K44" s="29"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="31"/>
+      <c r="S44" s="31"/>
+    </row>
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="43"/>
+      <c r="B45" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="46">
+        <v>1</v>
+      </c>
+      <c r="D45" s="14">
+        <f>(2.7+0.1+0.1)*4+(2.7-0.23)</f>
+        <v>14.070000000000002</v>
+      </c>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14">
+        <f>PRODUCT(C45:F45)</f>
+        <v>14.070000000000002</v>
+      </c>
+      <c r="H45" s="47"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="44"/>
+      <c r="K45" s="16"/>
+    </row>
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="43"/>
+      <c r="B46" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" s="46"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="44">
+        <f>SUM(G45)</f>
+        <v>14.070000000000002</v>
+      </c>
+      <c r="H46" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I46" s="44">
+        <f>396.86/1.15</f>
+        <v>345.09565217391309</v>
+      </c>
+      <c r="J46" s="44">
+        <f>G46*I46</f>
+        <v>4855.495826086958</v>
+      </c>
+      <c r="K46" s="16"/>
+    </row>
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="43"/>
+      <c r="B47" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C47" s="46"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="44">
+        <f>0.13*G46*(2182.61/10)</f>
+        <v>399.2211951000001</v>
+      </c>
+      <c r="K47" s="16"/>
+    </row>
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="26"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="29"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="44"/>
+      <c r="K48" s="29"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="31"/>
+      <c r="S48" s="31"/>
+    </row>
+    <row r="49" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="26">
+        <v>6</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C49" s="27"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="29"/>
+      <c r="F49" s="29"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="39"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="29"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="31"/>
+      <c r="S49" s="31"/>
+    </row>
+    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="43"/>
+      <c r="B50" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="46">
+        <v>1</v>
+      </c>
+      <c r="D50" s="14">
+        <f>(2.7+0.1+0.1)*4</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14">
+        <f>PRODUCT(C50:F50)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H50" s="47"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="44"/>
+      <c r="K50" s="16"/>
+    </row>
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="43"/>
+      <c r="B51" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="46"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="44">
+        <f>SUM(G50)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H51" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I51" s="44">
+        <f>447.23/1.15</f>
+        <v>388.89565217391311</v>
+      </c>
+      <c r="J51" s="44">
+        <f>G51*I51</f>
+        <v>4511.1895652173926</v>
+      </c>
+      <c r="K51" s="16"/>
+    </row>
+    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="43"/>
+      <c r="B52" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="46"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="44">
+        <f>0.13*G51*(2620.61/10)</f>
+        <v>395.18798800000013</v>
+      </c>
+      <c r="K52" s="16"/>
+    </row>
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="26"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="27"/>
+      <c r="D53" s="28"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="44"/>
+      <c r="K53" s="29"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="31"/>
+      <c r="S53" s="31"/>
+    </row>
+    <row r="54" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="26">
+        <v>7</v>
+      </c>
+      <c r="B54" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" s="27"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="29"/>
+      <c r="F54" s="29"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="39"/>
+      <c r="J54" s="44"/>
+      <c r="K54" s="29"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
+    </row>
+    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="43"/>
+      <c r="B55" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="46">
+        <v>2</v>
+      </c>
+      <c r="D55" s="14">
+        <f>(2.7+0.1+0.1)*4</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14">
+        <f>PRODUCT(C55:F55)</f>
+        <v>23.200000000000003</v>
+      </c>
+      <c r="H55" s="47"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="44"/>
+      <c r="K55" s="16"/>
+    </row>
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="43"/>
+      <c r="B56" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="46"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+      <c r="G56" s="44">
+        <f>SUM(G55)</f>
+        <v>23.200000000000003</v>
+      </c>
+      <c r="H56" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I56" s="44">
+        <f>406.75/1.15</f>
+        <v>353.69565217391306</v>
+      </c>
+      <c r="J56" s="44">
+        <f>G56*I56</f>
+        <v>8205.7391304347839</v>
+      </c>
+      <c r="K56" s="16"/>
+    </row>
+    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="43"/>
+      <c r="B57" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="46"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="44">
+        <f>0.13*G56*(2268.61/10)</f>
+        <v>684.21277600000019</v>
+      </c>
+      <c r="K57" s="16"/>
+    </row>
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="26"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="29"/>
+      <c r="F58" s="29"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="39"/>
+      <c r="J58" s="44"/>
+      <c r="K58" s="29"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="31"/>
+      <c r="S58" s="31"/>
+    </row>
+    <row r="59" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="64">
+        <v>8</v>
+      </c>
+      <c r="B59" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C59" s="27"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="29"/>
+      <c r="F59" s="29"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="39"/>
+      <c r="J59" s="44"/>
+      <c r="K59" s="29"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="31"/>
+      <c r="S59" s="31"/>
+    </row>
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="43"/>
+      <c r="B60" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="46">
+        <v>1</v>
+      </c>
+      <c r="D60" s="14">
+        <f>(2.7+0.1+0.1)*4</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+      <c r="G60" s="14">
+        <f>PRODUCT(C60:F60)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H60" s="47"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="44"/>
+      <c r="K60" s="16"/>
+    </row>
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="43"/>
+      <c r="B61" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="46"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+      <c r="G61" s="44">
+        <f>SUM(G60)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H61" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I61" s="44">
+        <f>469.79/1.15</f>
+        <v>408.5130434782609</v>
+      </c>
+      <c r="J61" s="44">
+        <f>G61*I61</f>
+        <v>4738.7513043478266</v>
+      </c>
+      <c r="K61" s="16"/>
+    </row>
+    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="43"/>
+      <c r="B62" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C62" s="46"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44">
+        <f>0.13*G61*(2140.61/10)</f>
+        <v>322.80398800000006</v>
+      </c>
+      <c r="K62" s="16"/>
+    </row>
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="26"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="27"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="29"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="31"/>
+      <c r="S63" s="31"/>
+    </row>
+    <row r="64" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="64">
+        <v>9</v>
+      </c>
+      <c r="B64" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C64" s="27"/>
+      <c r="D64" s="28"/>
+      <c r="E64" s="29"/>
+      <c r="F64" s="29"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="44"/>
+      <c r="K64" s="29"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="31"/>
+      <c r="S64" s="31"/>
+    </row>
+    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="43"/>
+      <c r="B65" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="46">
+        <v>1</v>
+      </c>
+      <c r="D65" s="14">
+        <f>(2.7+0.1+0.1)*4</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14">
+        <f>PRODUCT(C65:F65)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H65" s="47"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="44"/>
+      <c r="K65" s="16"/>
+    </row>
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="43"/>
+      <c r="B66" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="46"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="44">
+        <f>SUM(G65)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H66" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I66" s="44">
+        <f>476.67/1.15</f>
+        <v>414.49565217391307</v>
+      </c>
+      <c r="J66" s="44">
+        <f>G66*I66</f>
+        <v>4808.1495652173926</v>
+      </c>
+      <c r="K66" s="16"/>
+    </row>
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="43"/>
+      <c r="B67" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C67" s="46"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="44"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="44">
+        <f>0.13*G66*(2876.61/10)</f>
+        <v>433.79278800000009</v>
+      </c>
+      <c r="K67" s="16"/>
+    </row>
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="26"/>
+      <c r="B68" s="30"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="39"/>
+      <c r="J68" s="44"/>
+      <c r="K68" s="29"/>
+      <c r="M68" s="31"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="31"/>
+      <c r="S68" s="31"/>
+    </row>
+    <row r="69" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A69" s="64">
+        <v>10</v>
+      </c>
+      <c r="B69" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C69" s="27"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="29"/>
+      <c r="F69" s="29"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="39"/>
+      <c r="J69" s="44"/>
+      <c r="K69" s="29"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="31"/>
+      <c r="S69" s="31"/>
+    </row>
+    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="43"/>
+      <c r="B70" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="46">
+        <v>1</v>
+      </c>
+      <c r="D70" s="14">
+        <f>(2.7+0.1+0.1)*4</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+      <c r="G70" s="14">
+        <f>PRODUCT(C70:F70)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H70" s="47"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="44"/>
+      <c r="K70" s="16"/>
+    </row>
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="43"/>
+      <c r="B71" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C71" s="46"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="44">
+        <f>SUM(G70)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H71" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I71" s="44">
+        <f>593.85/1.15</f>
+        <v>516.39130434782612</v>
+      </c>
+      <c r="J71" s="44">
+        <f>G71*I71</f>
+        <v>5990.1391304347835</v>
+      </c>
+      <c r="K71" s="16"/>
+    </row>
+    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="43"/>
+      <c r="B72" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C72" s="46"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="44"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="44">
+        <f>0.13*G71*(3895.61/10)</f>
+        <v>587.45798800000011</v>
+      </c>
+      <c r="K72" s="16"/>
+    </row>
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="26"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="27"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="29"/>
+      <c r="F73" s="29"/>
+      <c r="G73" s="39"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="39"/>
+      <c r="J73" s="44"/>
+      <c r="K73" s="29"/>
+      <c r="M73" s="31"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="31"/>
+      <c r="S73" s="31"/>
+    </row>
+    <row r="74" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="64">
+        <v>11</v>
+      </c>
+      <c r="B74" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C74" s="27"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="29"/>
+      <c r="F74" s="29"/>
+      <c r="G74" s="39"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="39"/>
+      <c r="J74" s="44"/>
+      <c r="K74" s="29"/>
+      <c r="M74" s="31"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="31"/>
+      <c r="S74" s="31"/>
+    </row>
+    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="43"/>
+      <c r="B75" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="46">
+        <v>1</v>
+      </c>
+      <c r="D75" s="14">
+        <f>(2.7+0.1+0.1)*4</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14">
+        <f>PRODUCT(C75:F75)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H75" s="47"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="44"/>
+      <c r="K75" s="16"/>
+    </row>
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="43"/>
+      <c r="B76" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76" s="46"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+      <c r="G76" s="44">
+        <f>SUM(G75)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H76" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I76" s="44">
+        <f>487.71/1.15</f>
+        <v>424.09565217391304</v>
+      </c>
+      <c r="J76" s="44">
+        <f>G76*I76</f>
+        <v>4919.5095652173923</v>
+      </c>
+      <c r="K76" s="16"/>
+    </row>
+    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="43"/>
+      <c r="B77" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77" s="46"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="44"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="44">
+        <f>0.13*G76*(2972.61/10)</f>
+        <v>448.26958800000011</v>
+      </c>
+      <c r="K77" s="16"/>
+    </row>
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="26"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="27"/>
+      <c r="D78" s="28"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="39"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="39"/>
+      <c r="J78" s="44"/>
+      <c r="K78" s="29"/>
+      <c r="M78" s="31"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="31"/>
+      <c r="S78" s="31"/>
+    </row>
+    <row r="79" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="64">
+        <v>12</v>
+      </c>
+      <c r="B79" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="27"/>
+      <c r="D79" s="28"/>
+      <c r="E79" s="29"/>
+      <c r="F79" s="29"/>
+      <c r="G79" s="39"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="39"/>
+      <c r="J79" s="44"/>
+      <c r="K79" s="29"/>
+      <c r="M79" s="31"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="31"/>
+      <c r="S79" s="31"/>
+    </row>
+    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="43"/>
+      <c r="B80" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" s="46">
+        <v>1</v>
+      </c>
+      <c r="D80" s="14">
+        <f>(2.7+0.1+0.1)*4</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14">
+        <f>PRODUCT(C80:F80)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H80" s="47"/>
+      <c r="I80" s="44"/>
+      <c r="J80" s="44"/>
+      <c r="K80" s="16"/>
+    </row>
+    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="43"/>
+      <c r="B81" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" s="46"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="44">
+        <f>SUM(G80)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H81" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I81" s="44">
+        <f>776.13/1.15</f>
+        <v>674.89565217391305</v>
+      </c>
+      <c r="J81" s="44">
+        <f>G81*I81</f>
+        <v>7828.789565217392</v>
+      </c>
+      <c r="K81" s="16"/>
+    </row>
+    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="43"/>
+      <c r="B82" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C82" s="46"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="44"/>
+      <c r="H82" s="44"/>
+      <c r="I82" s="44"/>
+      <c r="J82" s="44">
+        <f>0.13*G81*(5480.61/10)</f>
+        <v>826.47598800000003</v>
+      </c>
+      <c r="K82" s="16"/>
+    </row>
+    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="26"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="29"/>
+      <c r="F83" s="29"/>
+      <c r="G83" s="39"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="39"/>
+      <c r="J83" s="44"/>
+      <c r="K83" s="29"/>
+      <c r="M83" s="31"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="31"/>
+      <c r="S83" s="31"/>
+    </row>
+    <row r="84" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="64">
+        <v>13</v>
+      </c>
+      <c r="B84" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C84" s="27"/>
+      <c r="D84" s="28"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="39"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="39"/>
+      <c r="J84" s="44"/>
+      <c r="K84" s="29"/>
+      <c r="M84" s="31"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="31"/>
+      <c r="S84" s="31"/>
+    </row>
+    <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="43"/>
+      <c r="B85" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" s="46">
+        <v>1</v>
+      </c>
+      <c r="D85" s="14">
+        <f>(2.7+0.1+0.1)*4</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14">
+        <f>PRODUCT(C85:F85)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H85" s="47"/>
+      <c r="I85" s="44"/>
+      <c r="J85" s="44"/>
+      <c r="K85" s="16"/>
+    </row>
+    <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="43"/>
+      <c r="B86" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" s="46"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="44">
+        <f>SUM(G85)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H86" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I86" s="44">
+        <f>465.63/1.15</f>
+        <v>404.89565217391305</v>
+      </c>
+      <c r="J86" s="44">
+        <f>G86*I86</f>
+        <v>4696.789565217392</v>
+      </c>
+      <c r="K86" s="16"/>
+    </row>
+    <row r="87" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="43"/>
+      <c r="B87" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C87" s="46"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="44"/>
+      <c r="H87" s="44"/>
+      <c r="I87" s="44"/>
+      <c r="J87" s="44">
+        <f>0.13*G86*(2780.61/10)</f>
+        <v>419.31598800000012</v>
+      </c>
+      <c r="K87" s="16"/>
+    </row>
+    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="26"/>
+      <c r="B88" s="30"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="28"/>
+      <c r="E88" s="29"/>
+      <c r="F88" s="29"/>
+      <c r="G88" s="39"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="39"/>
+      <c r="J88" s="44"/>
+      <c r="K88" s="29"/>
+      <c r="M88" s="31"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="31"/>
+      <c r="S88" s="31"/>
+    </row>
+    <row r="89" spans="1:19" ht="30" x14ac:dyDescent="0.3">
+      <c r="A89" s="26">
+        <v>14</v>
+      </c>
+      <c r="B89" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C89" s="27"/>
+      <c r="D89" s="28"/>
+      <c r="E89" s="29"/>
+      <c r="F89" s="29"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="44"/>
+      <c r="K89" s="29"/>
+      <c r="M89" s="31"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="31"/>
+      <c r="S89" s="31"/>
+    </row>
+    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="43"/>
+      <c r="B90" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C90" s="46">
+        <v>1</v>
+      </c>
+      <c r="D90" s="14">
+        <v>2.71</v>
+      </c>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14">
+        <v>2.72</v>
+      </c>
+      <c r="G90" s="14">
+        <f t="shared" ref="G90" si="3">PRODUCT(C90:F90)</f>
+        <v>7.3712000000000009</v>
+      </c>
+      <c r="H90" s="47"/>
+      <c r="I90" s="44"/>
+      <c r="J90" s="44"/>
+      <c r="K90" s="16"/>
+    </row>
+    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="43"/>
+      <c r="B91" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C91" s="46"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="44">
+        <f>SUM(G90:G90)</f>
+        <v>7.3712000000000009</v>
+      </c>
+      <c r="H91" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I91" s="44">
+        <v>438.01</v>
+      </c>
+      <c r="J91" s="44">
+        <f>G90*I91</f>
+        <v>3228.6593120000002</v>
+      </c>
+      <c r="K91" s="16"/>
+    </row>
+    <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="43"/>
+      <c r="B92" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C92" s="46"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="44"/>
+      <c r="H92" s="44"/>
+      <c r="I92" s="44"/>
+      <c r="J92" s="44">
+        <f>0.13*G91*(2725.4/10)</f>
+        <v>261.16309024000003</v>
+      </c>
+      <c r="K92" s="16"/>
+    </row>
+    <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="43"/>
+      <c r="B93" s="45"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="47"/>
+      <c r="H93" s="47"/>
+      <c r="I93" s="47"/>
+      <c r="J93" s="40"/>
+      <c r="K93" s="16"/>
+    </row>
+    <row r="94" spans="1:19" ht="30" x14ac:dyDescent="0.3">
+      <c r="A94" s="43">
+        <v>15</v>
+      </c>
+      <c r="B94" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C94" s="46"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="47"/>
+      <c r="H94" s="47"/>
+      <c r="I94" s="47"/>
+      <c r="J94" s="40"/>
+      <c r="K94" s="16"/>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A95" s="43"/>
+      <c r="B95" s="45" t="s">
+        <v>117</v>
+      </c>
+      <c r="C95" s="46">
+        <f>C30</f>
+        <v>2</v>
+      </c>
+      <c r="D95" s="14">
+        <f>D30</f>
+        <v>2.4900944833892105</v>
+      </c>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14">
+        <f>F30-1.2</f>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="G95" s="14">
+        <f t="shared" ref="G95:G100" si="4">PRODUCT(C95:F95)</f>
+        <v>6.0260286498018907</v>
+      </c>
+      <c r="H95" s="47"/>
+      <c r="I95" s="47"/>
+      <c r="J95" s="40"/>
+      <c r="K95" s="16"/>
+    </row>
+    <row r="96" spans="1:19" ht="15" x14ac:dyDescent="0.3">
+      <c r="A96" s="43"/>
+      <c r="B96" s="48"/>
+      <c r="C96" s="46">
+        <f>C31</f>
+        <v>2</v>
+      </c>
+      <c r="D96" s="14">
+        <f>D31</f>
+        <v>2.4900944833892105</v>
+      </c>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14">
+        <f>F31-1.2</f>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="G96" s="14">
+        <f t="shared" si="4"/>
+        <v>6.0260286498018907</v>
+      </c>
+      <c r="H96" s="47"/>
+      <c r="I96" s="47"/>
+      <c r="J96" s="40"/>
+      <c r="K96" s="16"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="43"/>
+      <c r="B97" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="C97" s="46">
+        <v>-3</v>
+      </c>
+      <c r="D97" s="14">
+        <f>0.6</f>
+        <v>0.6</v>
+      </c>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="G97" s="14">
+        <f t="shared" si="4"/>
+        <v>-1.6199999999999999</v>
+      </c>
+      <c r="H97" s="47"/>
+      <c r="I97" s="47"/>
+      <c r="J97" s="40"/>
+      <c r="K97" s="16"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="43"/>
+      <c r="B98" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C98" s="46">
+        <v>-1</v>
+      </c>
+      <c r="D98" s="14">
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14">
+        <f>(7/3.281)-1.2</f>
+        <v>0.9334958854007922</v>
+      </c>
+      <c r="G98" s="14">
+        <f t="shared" si="4"/>
+        <v>-0.99580481527057974</v>
+      </c>
+      <c r="H98" s="47"/>
+      <c r="I98" s="47"/>
+      <c r="J98" s="40"/>
+      <c r="K98" s="16"/>
+    </row>
+    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="43"/>
+      <c r="B99" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C99" s="46">
+        <v>1</v>
+      </c>
+      <c r="D99" s="14">
+        <f>2.71+2.72+2.64+0.3+0.3</f>
+        <v>8.6700000000000017</v>
+      </c>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14">
+        <v>2.72</v>
+      </c>
+      <c r="G99" s="14">
+        <f t="shared" si="4"/>
+        <v>23.582400000000007</v>
+      </c>
+      <c r="H99" s="47"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="44"/>
+      <c r="K99" s="16"/>
+    </row>
+    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="43"/>
+      <c r="B100" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100" s="46">
+        <v>1</v>
+      </c>
+      <c r="D100" s="14">
+        <f>0.32+0.15+2.06+0.12+0.13+2.1+0.12+0.1+2.06+0.14+0.3</f>
+        <v>7.6</v>
+      </c>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14">
+        <v>2.72</v>
+      </c>
+      <c r="G100" s="14">
+        <f t="shared" si="4"/>
+        <v>20.672000000000001</v>
+      </c>
+      <c r="H100" s="47"/>
+      <c r="I100" s="44"/>
+      <c r="J100" s="44"/>
+      <c r="K100" s="16"/>
+    </row>
+    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="43"/>
+      <c r="B101" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C101" s="46"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="44">
+        <f>SUM(G95:G100)</f>
+        <v>53.690652484333214</v>
+      </c>
+      <c r="H101" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I101" s="44">
+        <v>405.86</v>
+      </c>
+      <c r="J101" s="44">
+        <f>G99*I101</f>
+        <v>9571.1528640000033</v>
+      </c>
+      <c r="K101" s="16"/>
+    </row>
+    <row r="102" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="43"/>
+      <c r="B102" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" s="46"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="44"/>
+      <c r="J102" s="44">
+        <f>0.13*G101*(11166.2/100)</f>
+        <v>779.37673290173007</v>
+      </c>
+      <c r="K102" s="16"/>
+    </row>
+    <row r="103" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="43"/>
+      <c r="B103" s="45"/>
+      <c r="C103" s="46"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="44"/>
+      <c r="H103" s="44"/>
+      <c r="I103" s="44"/>
+      <c r="J103" s="44"/>
+      <c r="K103" s="16"/>
+    </row>
+    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A104" s="43">
+        <v>16</v>
+      </c>
+      <c r="B104" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C104" s="46"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="47"/>
+      <c r="H104" s="47"/>
+      <c r="I104" s="47"/>
+      <c r="J104" s="40"/>
+      <c r="K104" s="16"/>
+    </row>
+    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="43"/>
+      <c r="B105" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="C105" s="46">
+        <v>1</v>
+      </c>
+      <c r="D105" s="14">
+        <f>D99</f>
+        <v>8.6700000000000017</v>
+      </c>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14">
+        <v>2.72</v>
+      </c>
+      <c r="G105" s="14">
+        <f t="shared" ref="G105" si="5">PRODUCT(C105:F105)</f>
+        <v>23.582400000000007</v>
+      </c>
+      <c r="H105" s="47"/>
+      <c r="I105" s="44"/>
+      <c r="J105" s="44"/>
+      <c r="K105" s="16"/>
+    </row>
+    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="43"/>
+      <c r="B106" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C106" s="46"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="44">
+        <f>SUM(G105:G105)</f>
+        <v>23.582400000000007</v>
+      </c>
+      <c r="H106" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I106" s="44">
+        <v>279.02999999999997</v>
+      </c>
+      <c r="J106" s="44">
+        <f>G105*I106</f>
+        <v>6580.1970720000008</v>
+      </c>
+      <c r="K106" s="16"/>
+    </row>
+    <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="43"/>
+      <c r="B107" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C107" s="46"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="44"/>
+      <c r="H107" s="44"/>
+      <c r="I107" s="44"/>
+      <c r="J107" s="44">
+        <f>0.13*G106*(345.36/10)</f>
+        <v>105.87742963200003</v>
+      </c>
+      <c r="K107" s="16"/>
+    </row>
+    <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="43"/>
+      <c r="B108" s="45"/>
+      <c r="C108" s="46"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="47"/>
+      <c r="H108" s="47"/>
+      <c r="I108" s="47"/>
+      <c r="J108" s="40"/>
+      <c r="K108" s="16"/>
+    </row>
+    <row r="109" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A109" s="58">
+        <v>17</v>
+      </c>
+      <c r="B109" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C109" s="46"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="47"/>
+      <c r="H109" s="47"/>
+      <c r="I109" s="47"/>
+      <c r="J109" s="40"/>
+      <c r="K109" s="16"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="58"/>
+      <c r="B110" s="45" t="str">
+        <f>B95</f>
+        <v>-inside worship area</v>
+      </c>
+      <c r="C110" s="46">
+        <f>C95</f>
+        <v>2</v>
+      </c>
+      <c r="D110" s="14">
+        <f>D95</f>
+        <v>2.4900944833892105</v>
+      </c>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14">
+        <f>F95</f>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="G110" s="14">
+        <f t="shared" ref="G110:G114" si="6">PRODUCT(C110:F110)</f>
+        <v>6.0260286498018907</v>
+      </c>
+      <c r="H110" s="47"/>
+      <c r="I110" s="47"/>
+      <c r="J110" s="40"/>
+      <c r="K110" s="16"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="58"/>
+      <c r="B111" s="45"/>
+      <c r="C111" s="46">
+        <f t="shared" ref="C111:D111" si="7">C96</f>
+        <v>2</v>
+      </c>
+      <c r="D111" s="14">
+        <f t="shared" si="7"/>
+        <v>2.4900944833892105</v>
+      </c>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14">
+        <f t="shared" ref="F111:F113" si="8">F96</f>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="G111" s="14">
+        <f t="shared" si="6"/>
+        <v>6.0260286498018907</v>
+      </c>
+      <c r="H111" s="47"/>
+      <c r="I111" s="47"/>
+      <c r="J111" s="40"/>
+      <c r="K111" s="16"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="58"/>
+      <c r="B112" s="45" t="str">
+        <f>B97</f>
+        <v>-Deduction for window</v>
+      </c>
+      <c r="C112" s="46">
+        <f t="shared" ref="C112:D112" si="9">C97</f>
+        <v>-3</v>
+      </c>
+      <c r="D112" s="14">
+        <f t="shared" si="9"/>
+        <v>0.6</v>
+      </c>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="G112" s="14">
+        <f t="shared" si="6"/>
+        <v>-1.6199999999999999</v>
+      </c>
+      <c r="H112" s="47"/>
+      <c r="I112" s="47"/>
+      <c r="J112" s="40"/>
+      <c r="K112" s="16"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="58"/>
+      <c r="B113" s="45" t="str">
+        <f>B98</f>
+        <v>-Deduction for door</v>
+      </c>
+      <c r="C113" s="46">
+        <f t="shared" ref="C113:D113" si="10">C98</f>
+        <v>-1</v>
+      </c>
+      <c r="D113" s="14">
+        <f t="shared" si="10"/>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14">
+        <f t="shared" si="8"/>
+        <v>0.9334958854007922</v>
+      </c>
+      <c r="G113" s="14">
+        <f t="shared" si="6"/>
+        <v>-0.99580481527057974</v>
+      </c>
+      <c r="H113" s="47"/>
+      <c r="I113" s="47"/>
+      <c r="J113" s="40"/>
+      <c r="K113" s="16"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="43"/>
+      <c r="B114" s="45" t="str">
+        <f>B100</f>
+        <v>-Inner wall face</v>
+      </c>
+      <c r="C114" s="46">
+        <v>1</v>
+      </c>
+      <c r="D114" s="14">
+        <f>D100</f>
+        <v>7.6</v>
+      </c>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14">
+        <f>F100</f>
+        <v>2.72</v>
+      </c>
+      <c r="G114" s="14">
+        <f t="shared" si="6"/>
+        <v>20.672000000000001</v>
+      </c>
+      <c r="H114" s="44"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="9"/>
+      <c r="K114" s="16"/>
+    </row>
+    <row r="115" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="43"/>
+      <c r="B115" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C115" s="46"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="44">
+        <f>SUM(G110:G114)</f>
+        <v>30.108252484333203</v>
+      </c>
+      <c r="H115" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I115" s="44">
+        <f>184.41</f>
+        <v>184.41</v>
+      </c>
+      <c r="J115" s="44">
+        <f>G115*I115</f>
+        <v>5552.2628406358863</v>
+      </c>
+      <c r="K115" s="16"/>
+    </row>
+    <row r="116" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="43"/>
+      <c r="B116" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C116" s="46"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="44"/>
+      <c r="H116" s="44"/>
+      <c r="I116" s="44"/>
+      <c r="J116" s="44">
+        <f>0.13*G115*(6000/100)</f>
+        <v>234.84436937779898</v>
+      </c>
+      <c r="K116" s="16"/>
+    </row>
+    <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="43"/>
+      <c r="B117" s="45"/>
+      <c r="C117" s="46"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="44"/>
+      <c r="H117" s="44"/>
+      <c r="I117" s="44"/>
+      <c r="J117" s="44"/>
+      <c r="K117" s="16"/>
+    </row>
+    <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A118" s="43">
+        <v>18</v>
+      </c>
+      <c r="B118" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C118" s="46"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="44"/>
+      <c r="H118" s="44"/>
+      <c r="I118" s="44"/>
+      <c r="J118" s="44"/>
+      <c r="K118" s="16"/>
+    </row>
+    <row r="119" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="43"/>
+      <c r="B119" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C119" s="46">
+        <v>1</v>
+      </c>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="47">
+        <f>G115</f>
+        <v>30.108252484333203</v>
+      </c>
+      <c r="H119" s="44"/>
+      <c r="I119" s="44"/>
+      <c r="J119" s="44"/>
+      <c r="K119" s="16"/>
+    </row>
+    <row r="120" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="43"/>
+      <c r="B120" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C120" s="46"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="44">
+        <f>SUM(G119)</f>
+        <v>30.108252484333203</v>
+      </c>
+      <c r="H120" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I120" s="44">
+        <v>154.91999999999999</v>
+      </c>
+      <c r="J120" s="44">
+        <f>G120*I120</f>
+        <v>4664.3704748728996</v>
+      </c>
+      <c r="K120" s="16"/>
+    </row>
+    <row r="121" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="43"/>
+      <c r="B121" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C121" s="46"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="44"/>
+      <c r="H121" s="44"/>
+      <c r="I121" s="44"/>
+      <c r="J121" s="44">
+        <f>0.13*G120*(1550/100)</f>
+        <v>60.668128755931406</v>
+      </c>
+      <c r="K121" s="16"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A122" s="43"/>
+      <c r="B122" s="45"/>
+      <c r="C122" s="46"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="47"/>
+      <c r="H122" s="47"/>
+      <c r="I122" s="47"/>
+      <c r="J122" s="40"/>
+      <c r="K122" s="16"/>
+    </row>
+    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A123" s="58">
+        <v>19</v>
+      </c>
+      <c r="B123" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C123" s="46"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="47"/>
+      <c r="H123" s="47"/>
+      <c r="I123" s="47"/>
+      <c r="J123" s="40"/>
+      <c r="K123" s="16"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A124" s="43"/>
+      <c r="B124" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C124" s="46">
+        <v>1</v>
+      </c>
+      <c r="D124" s="14">
+        <f>2.32</f>
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E124" s="14">
+        <f>2.06+0.12+0.3</f>
+        <v>2.48</v>
+      </c>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14">
+        <f t="shared" ref="G124:G131" si="11">PRODUCT(C124:F124)</f>
+        <v>5.7535999999999996</v>
+      </c>
+      <c r="H124" s="44"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="9"/>
+      <c r="K124" s="16"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A125" s="43"/>
+      <c r="B125" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C125" s="46">
+        <v>-1</v>
+      </c>
+      <c r="D125" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="E125" s="14">
+        <v>0.13</v>
+      </c>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14">
+        <f t="shared" si="11"/>
+        <v>-1.5599999999999999E-2</v>
+      </c>
+      <c r="H125" s="44"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="9"/>
+      <c r="K125" s="16"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A126" s="43"/>
+      <c r="B126" s="45"/>
+      <c r="C126" s="46">
+        <v>-1</v>
+      </c>
+      <c r="D126" s="14">
+        <v>0.12</v>
+      </c>
+      <c r="E126" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14">
+        <f t="shared" si="11"/>
+        <v>-1.2E-2</v>
+      </c>
+      <c r="H126" s="44"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="9"/>
+      <c r="K126" s="16"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A127" s="43"/>
+      <c r="B127" s="45"/>
+      <c r="C127" s="46">
+        <v>-1</v>
+      </c>
+      <c r="D127" s="14">
+        <f>0.15</f>
+        <v>0.15</v>
+      </c>
+      <c r="E127" s="14">
+        <v>0.32</v>
+      </c>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14">
+        <f t="shared" si="11"/>
+        <v>-4.8000000000000001E-2</v>
+      </c>
+      <c r="H127" s="44"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="9"/>
+      <c r="K127" s="16"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A128" s="43"/>
+      <c r="B128" s="45"/>
+      <c r="C128" s="46">
+        <v>-1</v>
+      </c>
+      <c r="D128" s="14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E128" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14">
+        <f t="shared" si="11"/>
+        <v>-4.2000000000000003E-2</v>
+      </c>
+      <c r="H128" s="44"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="9"/>
+      <c r="K128" s="16"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A129" s="43"/>
+      <c r="B129" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C129" s="46">
+        <v>1</v>
+      </c>
+      <c r="D129" s="14">
+        <f>7.25/3.281</f>
+        <v>2.2096921670222494</v>
+      </c>
+      <c r="E129" s="14">
+        <f>5.25/3.281</f>
+        <v>1.6001219140505942</v>
+      </c>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14">
+        <f t="shared" si="11"/>
+        <v>3.5357768597582471</v>
+      </c>
+      <c r="H129" s="44"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="9"/>
+      <c r="K129" s="16"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A130" s="43"/>
+      <c r="B130" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="C130" s="46">
+        <v>2</v>
+      </c>
+      <c r="D130" s="14">
+        <f>14.75/3.281</f>
+        <v>4.495580615665955</v>
+      </c>
+      <c r="E130" s="14">
+        <f>2.583/3.281</f>
+        <v>0.78725998171289246</v>
+      </c>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14">
+        <f t="shared" si="11"/>
+        <v>7.0783814265560272</v>
+      </c>
+      <c r="H130" s="44"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="16"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="43"/>
+      <c r="B131" s="45"/>
+      <c r="C131" s="46">
+        <v>2</v>
+      </c>
+      <c r="D131" s="14">
+        <f>9.583/3.281</f>
+        <v>2.9207558671136846</v>
+      </c>
+      <c r="E131" s="14">
+        <f>2.583/3.281</f>
+        <v>0.78725998171289246</v>
+      </c>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14">
+        <f t="shared" si="11"/>
+        <v>4.5987884210634853</v>
+      </c>
+      <c r="H131" s="44"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="9"/>
+      <c r="K131" s="16"/>
+    </row>
+    <row r="132" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="43"/>
+      <c r="B132" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C132" s="46"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="44">
+        <f>SUM(G124:G131)</f>
+        <v>20.84894670737776</v>
+      </c>
+      <c r="H132" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I132" s="44">
+        <v>6803.67</v>
+      </c>
+      <c r="J132" s="44">
+        <f>G132*I132</f>
+        <v>141849.35324458484</v>
+      </c>
+      <c r="K132" s="16"/>
+    </row>
+    <row r="133" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="43"/>
+      <c r="B133" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C133" s="46"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="44"/>
+      <c r="H133" s="44"/>
+      <c r="I133" s="44"/>
+      <c r="J133" s="44">
+        <f>0.13*G132*(45806.78/10)</f>
+        <v>12415.300495735508</v>
+      </c>
+      <c r="K133" s="16"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="43"/>
+      <c r="B134" s="45"/>
+      <c r="C134" s="46"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="47"/>
+      <c r="H134" s="47"/>
+      <c r="I134" s="47"/>
+      <c r="J134" s="40"/>
+      <c r="K134" s="16"/>
+    </row>
+    <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A135" s="43">
+        <v>20</v>
+      </c>
+      <c r="B135" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C135" s="46"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c r="G135" s="47"/>
+      <c r="H135" s="47"/>
+      <c r="I135" s="47"/>
+      <c r="J135" s="40"/>
+      <c r="K135" s="16"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="43"/>
+      <c r="B136" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C136" s="46">
+        <v>2</v>
+      </c>
+      <c r="D136" s="14">
+        <f>4.46-0.1-0.1+4.5-0.1-0.1</f>
+        <v>8.5600000000000023</v>
+      </c>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="14">
+        <f t="shared" ref="G136" si="12">PRODUCT(C136:F136)</f>
+        <v>17.120000000000005</v>
+      </c>
+      <c r="H136" s="44"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="9"/>
+      <c r="K136" s="16"/>
+    </row>
+    <row r="137" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="43"/>
+      <c r="B137" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C137" s="46"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="44">
+        <f>SUM(G136)</f>
+        <v>17.120000000000005</v>
+      </c>
+      <c r="H137" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I137" s="44">
+        <v>4132.8</v>
+      </c>
+      <c r="J137" s="44">
+        <f>G137*I137</f>
+        <v>70753.536000000022</v>
+      </c>
+      <c r="K137" s="16"/>
+    </row>
+    <row r="138" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="43"/>
+      <c r="B138" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C138" s="46"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="44"/>
+      <c r="H138" s="44"/>
+      <c r="I138" s="44"/>
+      <c r="J138" s="44">
+        <f>0.13*J137</f>
+        <v>9197.9596800000036</v>
+      </c>
+      <c r="K138" s="16"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="43"/>
+      <c r="B139" s="45"/>
+      <c r="C139" s="46"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="47"/>
+      <c r="H139" s="47"/>
+      <c r="I139" s="47"/>
+      <c r="J139" s="40"/>
+      <c r="K139" s="16"/>
+    </row>
+    <row r="140" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+      <c r="A140" s="43">
+        <v>21</v>
+      </c>
+      <c r="B140" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C140" s="46"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="47"/>
+      <c r="H140" s="47"/>
+      <c r="I140" s="47"/>
+      <c r="J140" s="40"/>
+      <c r="K140" s="16"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="43"/>
+      <c r="B141" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C141" s="46">
+        <v>2</v>
+      </c>
+      <c r="D141" s="14">
+        <f>4.46+4.5+4.5+4.5</f>
+        <v>17.96</v>
+      </c>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="14">
+        <f t="shared" ref="G141" si="13">PRODUCT(C141:F141)</f>
+        <v>35.92</v>
+      </c>
+      <c r="H141" s="44"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="9"/>
+      <c r="K141" s="16"/>
+    </row>
+    <row r="142" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="43"/>
+      <c r="B142" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C142" s="46"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="44">
+        <f>SUM(G141)</f>
+        <v>35.92</v>
+      </c>
+      <c r="H142" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I142" s="44">
+        <v>137.44999999999999</v>
+      </c>
+      <c r="J142" s="44">
+        <f>G142*I142</f>
+        <v>4937.2039999999997</v>
+      </c>
+      <c r="K142" s="16"/>
+    </row>
+    <row r="143" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="43"/>
+      <c r="B143" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C143" s="46"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="44"/>
+      <c r="H143" s="44"/>
+      <c r="I143" s="44"/>
+      <c r="J143" s="44">
+        <f>0.13*G142*97.64</f>
+        <v>455.93974400000002</v>
+      </c>
+      <c r="K143" s="16"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="43"/>
+      <c r="B144" s="45"/>
+      <c r="C144" s="46"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="47"/>
+      <c r="H144" s="47"/>
+      <c r="I144" s="47"/>
+      <c r="J144" s="40"/>
+      <c r="K144" s="16"/>
+    </row>
+    <row r="145" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A145" s="43">
+        <v>22</v>
+      </c>
+      <c r="B145" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C145" s="53"/>
+      <c r="D145" s="54"/>
+      <c r="E145" s="54"/>
+      <c r="F145" s="54"/>
+      <c r="G145" s="57"/>
+      <c r="H145" s="57"/>
+      <c r="I145" s="57"/>
+      <c r="J145" s="40"/>
+      <c r="K145" s="5"/>
+    </row>
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A146" s="43"/>
+      <c r="B146" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C146" s="53">
+        <v>3</v>
+      </c>
+      <c r="D146" s="54">
+        <f>2.833/3.281</f>
+        <v>0.86345626333434933</v>
+      </c>
+      <c r="E146" s="54">
+        <f>0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="F146" s="54">
+        <v>0.125</v>
+      </c>
+      <c r="G146" s="54">
+        <f t="shared" ref="G146:G149" si="14">PRODUCT(C146:F146)</f>
+        <v>3.2379609875038101E-2</v>
+      </c>
+      <c r="H146" s="57"/>
+      <c r="I146" s="57"/>
+      <c r="J146" s="40"/>
+      <c r="K146" s="5"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A147" s="43"/>
+      <c r="B147" s="56"/>
+      <c r="C147" s="53">
+        <v>2</v>
+      </c>
+      <c r="D147" s="54">
+        <f>7/3.281</f>
+        <v>2.1334958854007922</v>
+      </c>
+      <c r="E147" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="F147" s="54">
+        <v>0.125</v>
+      </c>
+      <c r="G147" s="54">
+        <f t="shared" si="14"/>
+        <v>5.333739713501981E-2</v>
+      </c>
+      <c r="H147" s="57"/>
+      <c r="I147" s="57"/>
+      <c r="J147" s="40"/>
+      <c r="K147" s="5"/>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A148" s="43"/>
+      <c r="B148" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="C148" s="53">
+        <f>3*2</f>
+        <v>6</v>
+      </c>
+      <c r="D148" s="54">
+        <v>0.9</v>
+      </c>
+      <c r="E148" s="54">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F148" s="54">
+        <v>0.125</v>
+      </c>
+      <c r="G148" s="54">
+        <f t="shared" si="14"/>
+        <v>5.0625000000000003E-2</v>
+      </c>
+      <c r="H148" s="57"/>
+      <c r="I148" s="57"/>
+      <c r="J148" s="40"/>
+      <c r="K148" s="5"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A149" s="43"/>
+      <c r="B149" s="56"/>
+      <c r="C149" s="53">
+        <f>3*2</f>
+        <v>6</v>
+      </c>
+      <c r="D149" s="54">
+        <f>0.6-0.15</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="E149" s="54">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F149" s="54">
+        <v>0.125</v>
+      </c>
+      <c r="G149" s="54">
+        <f t="shared" si="14"/>
+        <v>2.5312499999999998E-2</v>
+      </c>
+      <c r="H149" s="57"/>
+      <c r="I149" s="57"/>
+      <c r="J149" s="40"/>
+      <c r="K149" s="5"/>
+    </row>
+    <row r="150" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="43"/>
+      <c r="B150" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C150" s="53"/>
+      <c r="D150" s="54"/>
+      <c r="E150" s="54"/>
+      <c r="F150" s="54"/>
+      <c r="G150" s="55">
+        <f>SUM(G146:G149)</f>
+        <v>0.1616545070100579</v>
+      </c>
+      <c r="H150" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="I150" s="60">
+        <f>353723.98/1.15</f>
+        <v>307586.06956521742</v>
+      </c>
+      <c r="J150" s="61">
+        <f>G150*I150</f>
+        <v>49722.674438726594</v>
+      </c>
+      <c r="K150" s="5"/>
+    </row>
+    <row r="151" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="43"/>
+      <c r="B151" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C151" s="53"/>
+      <c r="D151" s="54"/>
+      <c r="E151" s="54"/>
+      <c r="F151" s="54"/>
+      <c r="G151" s="55"/>
+      <c r="H151" s="55"/>
+      <c r="I151" s="60"/>
+      <c r="J151" s="61">
+        <f>0.13*G150*262808.07</f>
+        <v>5522.9341692349226</v>
+      </c>
+      <c r="K151" s="5"/>
+    </row>
+    <row r="152" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="43"/>
+      <c r="B152" s="56"/>
+      <c r="C152" s="53"/>
+      <c r="D152" s="54"/>
+      <c r="E152" s="54"/>
+      <c r="F152" s="54"/>
+      <c r="G152" s="55"/>
+      <c r="H152" s="55"/>
+      <c r="I152" s="60"/>
+      <c r="J152" s="61"/>
+      <c r="K152" s="5"/>
+    </row>
+    <row r="153" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A153" s="43">
+        <v>23</v>
+      </c>
+      <c r="B153" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C153" s="53"/>
+      <c r="D153" s="54"/>
+      <c r="E153" s="54"/>
+      <c r="F153" s="54"/>
+      <c r="G153" s="57"/>
+      <c r="H153" s="57"/>
+      <c r="I153" s="57"/>
+      <c r="J153" s="40"/>
+      <c r="K153" s="5"/>
+      <c r="M153" s="63"/>
+    </row>
+    <row r="154" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="43"/>
+      <c r="B154" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C154" s="53">
+        <v>1</v>
+      </c>
+      <c r="D154" s="54"/>
+      <c r="E154" s="54">
+        <f>3/3.281</f>
+        <v>0.91435537945748246</v>
+      </c>
+      <c r="F154" s="54">
+        <f>5.667/3.281</f>
+        <v>1.7272173117951843</v>
+      </c>
+      <c r="G154" s="54">
+        <f>PRODUCT(C154:F154)</f>
+        <v>1.5792904405320185</v>
+      </c>
+      <c r="H154" s="57"/>
+      <c r="I154" s="57"/>
+      <c r="J154" s="40"/>
+      <c r="K154" s="5"/>
+    </row>
+    <row r="155" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="43"/>
+      <c r="B155" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C155" s="53"/>
+      <c r="D155" s="54"/>
+      <c r="E155" s="54"/>
+      <c r="F155" s="54"/>
+      <c r="G155" s="55">
+        <f>SUM(G154:G154)</f>
+        <v>1.5792904405320185</v>
+      </c>
+      <c r="H155" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I155" s="60">
+        <f>15859.11</f>
+        <v>15859.11</v>
+      </c>
+      <c r="J155" s="61">
+        <f>G155*I155</f>
+        <v>25046.140818345742</v>
+      </c>
+      <c r="K155" s="5"/>
+    </row>
+    <row r="156" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="43"/>
+      <c r="B156" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C156" s="53"/>
+      <c r="D156" s="54"/>
+      <c r="E156" s="54"/>
+      <c r="F156" s="54"/>
+      <c r="G156" s="55"/>
+      <c r="H156" s="55"/>
+      <c r="I156" s="60"/>
+      <c r="J156" s="61">
+        <f>0.13*G155*(20356.18/2.114)</f>
+        <v>1976.9544287452122</v>
+      </c>
+      <c r="K156" s="5"/>
+    </row>
+    <row r="157" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A157" s="43"/>
+      <c r="B157" s="52"/>
+      <c r="C157" s="53"/>
+      <c r="D157" s="54"/>
+      <c r="E157" s="54"/>
+      <c r="F157" s="54"/>
+      <c r="G157" s="57"/>
+      <c r="H157" s="57"/>
+      <c r="I157" s="57"/>
+      <c r="J157" s="40"/>
+      <c r="K157" s="5"/>
+      <c r="M157" s="63"/>
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A158" s="43">
+        <v>24</v>
+      </c>
+      <c r="B158" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C158" s="53"/>
+      <c r="D158" s="54"/>
+      <c r="E158" s="54"/>
+      <c r="F158" s="54"/>
+      <c r="G158" s="57"/>
+      <c r="H158" s="57"/>
+      <c r="I158" s="57"/>
+      <c r="J158" s="40"/>
+      <c r="K158" s="5"/>
+    </row>
+    <row r="159" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="43"/>
+      <c r="B159" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C159" s="53">
+        <v>1</v>
+      </c>
+      <c r="D159" s="54"/>
+      <c r="E159" s="54">
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="F159" s="54">
+        <f>7/3.281</f>
+        <v>2.1334958854007922</v>
+      </c>
+      <c r="G159" s="54">
+        <f>PRODUCT(C159:F159)</f>
+        <v>2.2759023465110548</v>
+      </c>
+      <c r="H159" s="57"/>
+      <c r="I159" s="57"/>
+      <c r="J159" s="40"/>
+      <c r="K159" s="5"/>
+    </row>
+    <row r="160" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="43"/>
+      <c r="B160" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C160" s="53"/>
+      <c r="D160" s="54"/>
+      <c r="E160" s="54"/>
+      <c r="F160" s="54"/>
+      <c r="G160" s="55">
+        <f>SUM(G159:G159)</f>
+        <v>2.2759023465110548</v>
+      </c>
+      <c r="H160" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I160" s="60">
+        <f>46573/1.15</f>
+        <v>40498.260869565223</v>
+      </c>
+      <c r="J160" s="61">
+        <f>G160*I160</f>
+        <v>92170.086942660317</v>
+      </c>
+      <c r="K160" s="5"/>
+    </row>
+    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A161" s="43"/>
+      <c r="B161" s="62"/>
+      <c r="C161" s="53"/>
+      <c r="D161" s="54"/>
+      <c r="E161" s="54"/>
+      <c r="F161" s="54"/>
+      <c r="G161" s="57"/>
+      <c r="H161" s="57"/>
+      <c r="I161" s="57"/>
+      <c r="J161" s="40"/>
+      <c r="K161" s="5"/>
+    </row>
+    <row r="162" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A162" s="43">
+        <v>25</v>
+      </c>
+      <c r="B162" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C162" s="53"/>
+      <c r="D162" s="54"/>
+      <c r="E162" s="54"/>
+      <c r="F162" s="54"/>
+      <c r="G162" s="57"/>
+      <c r="H162" s="57"/>
+      <c r="I162" s="57"/>
+      <c r="J162" s="40"/>
+      <c r="K162" s="5"/>
+    </row>
+    <row r="163" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="43"/>
+      <c r="B163" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C163" s="53">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="D163" s="54"/>
+      <c r="E163" s="54">
+        <f>(3+1.333)/3.281</f>
+        <v>1.3206339530630906</v>
+      </c>
+      <c r="F163" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G163" s="54">
+        <f>PRODUCT(C163:F163)</f>
+        <v>0.39619018591892718</v>
+      </c>
+      <c r="H163" s="57"/>
+      <c r="I163" s="57"/>
+      <c r="J163" s="40"/>
+      <c r="K163" s="5"/>
+    </row>
+    <row r="164" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="43"/>
+      <c r="B164" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C164" s="53"/>
+      <c r="D164" s="54"/>
+      <c r="E164" s="54"/>
+      <c r="F164" s="54"/>
+      <c r="G164" s="55">
+        <f>SUM(G163:G163)</f>
+        <v>0.39619018591892718</v>
+      </c>
+      <c r="H164" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I164" s="60">
+        <f>50828.44/1.15</f>
+        <v>44198.643478260878</v>
+      </c>
+      <c r="J164" s="61">
+        <f>G164*I164</f>
+        <v>17511.068777016557</v>
+      </c>
+      <c r="K164" s="5"/>
+    </row>
+    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A165" s="43"/>
+      <c r="B165" s="62"/>
+      <c r="C165" s="53"/>
+      <c r="D165" s="54"/>
+      <c r="E165" s="54"/>
+      <c r="F165" s="54"/>
+      <c r="G165" s="57"/>
+      <c r="H165" s="57"/>
+      <c r="I165" s="57"/>
+      <c r="J165" s="40"/>
+      <c r="K165" s="5"/>
+    </row>
+    <row r="166" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A166" s="43">
+        <v>26</v>
+      </c>
+      <c r="B166" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C166" s="53"/>
+      <c r="D166" s="54"/>
+      <c r="E166" s="54"/>
+      <c r="F166" s="54"/>
+      <c r="G166" s="57"/>
+      <c r="H166" s="57"/>
+      <c r="I166" s="57"/>
+      <c r="J166" s="40"/>
+      <c r="K166" s="5"/>
+    </row>
+    <row r="167" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="43"/>
+      <c r="B167" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C167" s="53">
+        <v>1</v>
+      </c>
+      <c r="D167" s="54">
+        <f>2.333/3.281</f>
+        <v>0.7110637000914356</v>
+      </c>
+      <c r="E167" s="54"/>
+      <c r="F167" s="54">
+        <f>1.333/3.281</f>
+        <v>0.40627857360560804</v>
+      </c>
+      <c r="G167" s="54">
+        <f>PRODUCT(C167:F167)</f>
+        <v>0.28888994581587429</v>
+      </c>
+      <c r="H167" s="57"/>
+      <c r="I167" s="57"/>
+      <c r="J167" s="40"/>
+      <c r="K167" s="5"/>
+    </row>
+    <row r="168" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="43"/>
+      <c r="B168" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="C168" s="67">
+        <v>4</v>
+      </c>
+      <c r="D168" s="68">
+        <f>0.6</f>
+        <v>0.6</v>
+      </c>
+      <c r="E168" s="68"/>
+      <c r="F168" s="68">
+        <v>0.6</v>
+      </c>
+      <c r="G168" s="68">
+        <f>PRODUCT(C168:F168)</f>
+        <v>1.44</v>
+      </c>
+      <c r="H168" s="57"/>
+      <c r="I168" s="57"/>
+      <c r="J168" s="40"/>
+      <c r="K168" s="5"/>
+    </row>
+    <row r="169" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="43"/>
+      <c r="B169" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C169" s="53"/>
+      <c r="D169" s="54"/>
+      <c r="E169" s="54"/>
+      <c r="F169" s="54"/>
+      <c r="G169" s="55">
+        <f>SUM(G167:G168)</f>
+        <v>1.7288899458158742</v>
+      </c>
+      <c r="H169" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I169" s="60">
+        <f>69579.92/1.15</f>
+        <v>60504.278260869571</v>
+      </c>
+      <c r="J169" s="61">
+        <f>G169*I169</f>
+        <v>104605.23836406336</v>
+      </c>
+      <c r="K169" s="5"/>
+    </row>
+    <row r="170" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="43"/>
+      <c r="B170" s="56" t="s">
+        <v>52</v>
+      </c>
+      <c r="C170" s="53"/>
+      <c r="D170" s="54"/>
+      <c r="E170" s="54"/>
+      <c r="F170" s="54"/>
+      <c r="G170" s="55"/>
+      <c r="H170" s="55"/>
+      <c r="I170" s="60"/>
+      <c r="J170" s="61">
+        <f>0.13*G169*(9888.94/0.92)</f>
+        <v>2415.864741631452</v>
+      </c>
+      <c r="K170" s="5"/>
+    </row>
+    <row r="171" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="43"/>
+      <c r="B171" s="56"/>
+      <c r="C171" s="53"/>
+      <c r="D171" s="54"/>
+      <c r="E171" s="54"/>
+      <c r="F171" s="54"/>
+      <c r="G171" s="57"/>
+      <c r="H171" s="57"/>
+      <c r="I171" s="57"/>
+      <c r="J171" s="40"/>
+      <c r="K171" s="5"/>
+      <c r="M171" s="63"/>
+    </row>
+    <row r="172" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A172" s="65">
+        <v>27</v>
+      </c>
+      <c r="B172" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C172" s="67"/>
+      <c r="D172" s="68"/>
+      <c r="E172" s="68"/>
+      <c r="F172" s="68"/>
+      <c r="G172" s="68"/>
+      <c r="H172" s="68"/>
+      <c r="I172" s="68"/>
+      <c r="J172" s="69"/>
+      <c r="K172" s="5"/>
+      <c r="M172" s="63"/>
+    </row>
+    <row r="173" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="65"/>
+      <c r="B173" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="C173" s="67">
+        <v>4</v>
+      </c>
+      <c r="D173" s="68">
+        <f>(14.75+5.17)/2/3.281</f>
+        <v>3.0356598597988418</v>
+      </c>
+      <c r="E173" s="68">
+        <f>5.5/3.281</f>
+        <v>1.6763181956720512</v>
+      </c>
+      <c r="F173" s="68"/>
+      <c r="G173" s="68">
+        <f>PRODUCT(C173:F173)</f>
+        <v>20.354927435408264</v>
+      </c>
+      <c r="H173" s="68"/>
+      <c r="I173" s="68"/>
+      <c r="J173" s="69"/>
+      <c r="K173" s="5"/>
+    </row>
+    <row r="174" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="65"/>
+      <c r="B174" s="70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C174" s="67">
+        <v>4</v>
+      </c>
+      <c r="D174" s="68">
+        <f>(10.75+1.5)/2/3.281</f>
+        <v>1.8668088997256933</v>
+      </c>
+      <c r="E174" s="68">
+        <f>4.5/3.281</f>
+        <v>1.3715330691862238</v>
+      </c>
+      <c r="F174" s="68"/>
+      <c r="G174" s="68">
+        <f>PRODUCT(C174:F174)</f>
+        <v>10.241560559299749</v>
+      </c>
+      <c r="H174" s="68"/>
+      <c r="I174" s="68"/>
+      <c r="J174" s="69"/>
+      <c r="K174" s="5"/>
+    </row>
+    <row r="175" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="65"/>
+      <c r="B175" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C175" s="67"/>
+      <c r="D175" s="68"/>
+      <c r="E175" s="68"/>
+      <c r="F175" s="68"/>
+      <c r="G175" s="71">
+        <f>SUM(G173:G174)</f>
+        <v>30.596487994708014</v>
+      </c>
+      <c r="H175" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="I175" s="72">
+        <f>1132.13/1.15</f>
+        <v>984.46086956521754</v>
+      </c>
+      <c r="J175" s="73">
+        <f>G175*I175</f>
+        <v>30121.04517691199</v>
+      </c>
+      <c r="K175" s="5"/>
+    </row>
+    <row r="176" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="65"/>
+      <c r="B176" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C176" s="67"/>
+      <c r="D176" s="68"/>
+      <c r="E176" s="68"/>
+      <c r="F176" s="68"/>
+      <c r="G176" s="71"/>
+      <c r="H176" s="71"/>
+      <c r="I176" s="72"/>
+      <c r="J176" s="73">
+        <f>0.13*G175*(2795.1/10)</f>
+        <v>1111.7631667221087</v>
+      </c>
+      <c r="K176" s="5"/>
+    </row>
+    <row r="177" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A177" s="65"/>
+      <c r="B177" s="74"/>
+      <c r="C177" s="67"/>
+      <c r="D177" s="68"/>
+      <c r="E177" s="68"/>
+      <c r="F177" s="68"/>
+      <c r="G177" s="68"/>
+      <c r="H177" s="68"/>
+      <c r="I177" s="68"/>
+      <c r="J177" s="69"/>
+      <c r="K177" s="5"/>
+      <c r="M177" s="63"/>
+    </row>
+    <row r="178" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A178" s="65">
+        <v>28</v>
+      </c>
+      <c r="B178" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="C178" s="67"/>
+      <c r="D178" s="68"/>
+      <c r="E178" s="68"/>
+      <c r="F178" s="68"/>
+      <c r="G178" s="68"/>
+      <c r="H178" s="68"/>
+      <c r="I178" s="68"/>
+      <c r="J178" s="69"/>
+      <c r="K178" s="5"/>
+      <c r="M178" s="63"/>
+    </row>
+    <row r="179" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="65"/>
+      <c r="B179" s="70" t="str">
+        <f t="shared" ref="B179:E180" si="15">B173</f>
+        <v>-First floor inclined roof</v>
+      </c>
+      <c r="C179" s="67">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="D179" s="68">
+        <f t="shared" si="15"/>
+        <v>3.0356598597988418</v>
+      </c>
+      <c r="E179" s="68">
+        <f t="shared" si="15"/>
+        <v>1.6763181956720512</v>
+      </c>
+      <c r="F179" s="68"/>
+      <c r="G179" s="68">
+        <f>PRODUCT(C179:F179)</f>
+        <v>20.354927435408264</v>
+      </c>
+      <c r="H179" s="68"/>
+      <c r="I179" s="68"/>
+      <c r="J179" s="69"/>
+      <c r="K179" s="5"/>
+    </row>
+    <row r="180" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="65"/>
+      <c r="B180" s="70" t="str">
+        <f t="shared" si="15"/>
+        <v>-Second floor inclined roof</v>
+      </c>
+      <c r="C180" s="67">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="D180" s="68">
+        <f t="shared" si="15"/>
+        <v>1.8668088997256933</v>
+      </c>
+      <c r="E180" s="68">
+        <f t="shared" si="15"/>
+        <v>1.3715330691862238</v>
+      </c>
+      <c r="F180" s="68"/>
+      <c r="G180" s="68">
+        <f>PRODUCT(C180:F180)</f>
+        <v>10.241560559299749</v>
+      </c>
+      <c r="H180" s="68"/>
+      <c r="I180" s="68"/>
+      <c r="J180" s="69"/>
+      <c r="K180" s="5"/>
+    </row>
+    <row r="181" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="65"/>
+      <c r="B181" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C181" s="67"/>
+      <c r="D181" s="68"/>
+      <c r="E181" s="68"/>
+      <c r="F181" s="68"/>
+      <c r="G181" s="71">
+        <f>SUM(G179:G180)</f>
+        <v>30.596487994708014</v>
+      </c>
+      <c r="H181" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="I181" s="72">
+        <f>4842.49/1.15</f>
+        <v>4210.8608695652174</v>
+      </c>
+      <c r="J181" s="73">
+        <f>G181*I181</f>
+        <v>128837.55404303792</v>
+      </c>
+      <c r="K181" s="5"/>
+    </row>
+    <row r="182" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="65"/>
+      <c r="B182" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C182" s="67"/>
+      <c r="D182" s="68"/>
+      <c r="E182" s="68"/>
+      <c r="F182" s="68"/>
+      <c r="G182" s="71"/>
+      <c r="H182" s="71"/>
+      <c r="I182" s="72"/>
+      <c r="J182" s="73">
+        <f>0.13*G181*(315405.75/100)</f>
+        <v>12545.400716337939</v>
+      </c>
+      <c r="K182" s="5"/>
+    </row>
+    <row r="183" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A183" s="43"/>
+      <c r="B183" s="52"/>
+      <c r="C183" s="53"/>
+      <c r="D183" s="54"/>
+      <c r="E183" s="54"/>
+      <c r="F183" s="54"/>
+      <c r="G183" s="57"/>
+      <c r="H183" s="57"/>
+      <c r="I183" s="57"/>
+      <c r="J183" s="40"/>
+      <c r="K183" s="5"/>
+      <c r="M183" s="63"/>
+    </row>
+    <row r="184" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A184" s="43">
+        <v>29</v>
+      </c>
+      <c r="B184" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C184" s="53"/>
+      <c r="D184" s="54"/>
+      <c r="E184" s="54"/>
+      <c r="F184" s="54"/>
+      <c r="G184" s="57"/>
+      <c r="H184" s="57"/>
+      <c r="I184" s="57"/>
+      <c r="J184" s="40"/>
+      <c r="K184" s="5"/>
+      <c r="M184" s="63"/>
+    </row>
+    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A185" s="43"/>
+      <c r="B185" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="C185" s="53">
+        <f>2*4</f>
+        <v>8</v>
+      </c>
+      <c r="D185" s="54">
+        <v>1</v>
+      </c>
+      <c r="E185" s="54"/>
+      <c r="F185" s="54"/>
+      <c r="G185" s="68">
+        <f>PRODUCT(C185:F185)</f>
+        <v>8</v>
+      </c>
+      <c r="H185" s="57"/>
+      <c r="I185" s="57"/>
+      <c r="J185" s="40"/>
+      <c r="K185" s="5"/>
+      <c r="M185" s="63"/>
+    </row>
+    <row r="186" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="65"/>
+      <c r="B186" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C186" s="67"/>
+      <c r="D186" s="68"/>
+      <c r="E186" s="68"/>
+      <c r="F186" s="68"/>
+      <c r="G186" s="71">
+        <f>SUM(G185)</f>
+        <v>8</v>
+      </c>
+      <c r="H186" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="I186" s="72">
+        <f>294.4/1.15</f>
+        <v>256</v>
+      </c>
+      <c r="J186" s="73">
+        <f>G186*I186</f>
+        <v>2048</v>
+      </c>
+      <c r="K186" s="5"/>
+    </row>
+    <row r="187" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="65"/>
+      <c r="B187" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C187" s="67"/>
+      <c r="D187" s="68"/>
+      <c r="E187" s="68"/>
+      <c r="F187" s="68"/>
+      <c r="G187" s="71"/>
+      <c r="H187" s="71"/>
+      <c r="I187" s="72"/>
+      <c r="J187" s="73">
+        <f>0.13*J186</f>
+        <v>266.24</v>
+      </c>
+      <c r="K187" s="5"/>
+    </row>
+    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A188" s="43"/>
+      <c r="B188" s="51"/>
+      <c r="C188" s="53"/>
+      <c r="D188" s="54"/>
+      <c r="E188" s="54"/>
+      <c r="F188" s="54"/>
+      <c r="G188" s="57"/>
+      <c r="H188" s="57"/>
+      <c r="I188" s="57"/>
+      <c r="J188" s="40"/>
+      <c r="K188" s="5"/>
+      <c r="M188" s="63"/>
+    </row>
+    <row r="189" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A189" s="43">
+        <v>30</v>
+      </c>
+      <c r="B189" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C189" s="53"/>
+      <c r="D189" s="54"/>
+      <c r="E189" s="54"/>
+      <c r="F189" s="54"/>
+      <c r="G189" s="57"/>
+      <c r="H189" s="57"/>
+      <c r="I189" s="57"/>
+      <c r="J189" s="40"/>
+      <c r="K189" s="5"/>
+      <c r="M189" s="63"/>
+    </row>
+    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A190" s="43"/>
+      <c r="B190" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="C190" s="53">
+        <v>4</v>
+      </c>
+      <c r="D190" s="54">
+        <f>(5.17)/3.281</f>
+        <v>1.5757391039317281</v>
+      </c>
+      <c r="E190" s="54"/>
+      <c r="F190" s="54"/>
+      <c r="G190" s="68">
+        <f>PRODUCT(C190:F190)</f>
+        <v>6.3029564157269125</v>
+      </c>
+      <c r="H190" s="57"/>
+      <c r="I190" s="57"/>
+      <c r="J190" s="40"/>
+      <c r="K190" s="5"/>
+      <c r="M190" s="63"/>
+    </row>
+    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A191" s="43"/>
+      <c r="B191" s="76"/>
+      <c r="C191" s="53">
+        <v>4</v>
+      </c>
+      <c r="D191" s="54">
+        <f>(5.5)/3.281</f>
+        <v>1.6763181956720512</v>
+      </c>
+      <c r="E191" s="54"/>
+      <c r="F191" s="54"/>
+      <c r="G191" s="68">
+        <f>PRODUCT(C191:F191)</f>
+        <v>6.7052727826882048</v>
+      </c>
+      <c r="H191" s="57"/>
+      <c r="I191" s="57"/>
+      <c r="J191" s="40"/>
+      <c r="K191" s="5"/>
+      <c r="M191" s="63"/>
+    </row>
+    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A192" s="43"/>
+      <c r="B192" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="C192" s="53">
+        <v>4</v>
+      </c>
+      <c r="D192" s="54">
+        <f>4.5/3.281</f>
+        <v>1.3715330691862238</v>
+      </c>
+      <c r="E192" s="54"/>
+      <c r="F192" s="54"/>
+      <c r="G192" s="68">
+        <f>PRODUCT(C192:F192)</f>
+        <v>5.486132276744895</v>
+      </c>
+      <c r="H192" s="57"/>
+      <c r="I192" s="57"/>
+      <c r="J192" s="40"/>
+      <c r="K192" s="5"/>
+      <c r="M192" s="63"/>
+    </row>
+    <row r="193" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="65"/>
+      <c r="B193" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C193" s="67"/>
+      <c r="D193" s="68"/>
+      <c r="E193" s="68"/>
+      <c r="F193" s="68"/>
+      <c r="G193" s="71">
+        <f>SUM(G190:G192)</f>
+        <v>18.494361475160012</v>
+      </c>
+      <c r="H193" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="I193" s="72">
+        <f>2356.71/1.15</f>
+        <v>2049.3130434782611</v>
+      </c>
+      <c r="J193" s="73">
+        <f>G193*I193</f>
+        <v>37900.73620184727</v>
+      </c>
+      <c r="K193" s="5"/>
+    </row>
+    <row r="194" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="65"/>
+      <c r="B194" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C194" s="67"/>
+      <c r="D194" s="68"/>
+      <c r="E194" s="68"/>
+      <c r="F194" s="68"/>
+      <c r="G194" s="71"/>
+      <c r="H194" s="71"/>
+      <c r="I194" s="72"/>
+      <c r="J194" s="73">
+        <f>0.13*G193*(184206/100)</f>
+        <v>4428.8040548613226</v>
+      </c>
+      <c r="K194" s="5"/>
+    </row>
+    <row r="195" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="43"/>
+      <c r="B195" s="56"/>
+      <c r="C195" s="53"/>
+      <c r="D195" s="54"/>
+      <c r="E195" s="54"/>
+      <c r="F195" s="54"/>
+      <c r="G195" s="57"/>
+      <c r="H195" s="57"/>
+      <c r="I195" s="57"/>
+      <c r="J195" s="40"/>
+      <c r="K195" s="5"/>
+      <c r="M195" s="63"/>
+    </row>
+    <row r="196" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A196" s="43">
+        <v>31</v>
+      </c>
+      <c r="B196" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C196" s="53"/>
+      <c r="D196" s="54"/>
+      <c r="E196" s="54"/>
+      <c r="F196" s="54"/>
+      <c r="G196" s="57"/>
+      <c r="H196" s="57"/>
+      <c r="I196" s="57"/>
+      <c r="J196" s="40"/>
+      <c r="K196" s="5"/>
+      <c r="M196" s="63"/>
+    </row>
+    <row r="197" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A197" s="43"/>
+      <c r="B197" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="C197" s="53">
+        <v>1</v>
+      </c>
+      <c r="D197" s="54">
+        <v>1.2</v>
+      </c>
+      <c r="E197" s="54"/>
+      <c r="F197" s="54"/>
+      <c r="G197" s="68">
+        <f>PRODUCT(C197:F197)</f>
+        <v>1.2</v>
+      </c>
+      <c r="H197" s="57"/>
+      <c r="I197" s="57"/>
+      <c r="J197" s="40"/>
+      <c r="K197" s="5"/>
+      <c r="M197" s="63"/>
+    </row>
+    <row r="198" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="65"/>
+      <c r="B198" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C198" s="67"/>
+      <c r="D198" s="68"/>
+      <c r="E198" s="68"/>
+      <c r="F198" s="68"/>
+      <c r="G198" s="71">
+        <f>SUM(G197:G197)</f>
+        <v>1.2</v>
+      </c>
+      <c r="H198" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="I198" s="72">
+        <f>4289.73/1.15</f>
+        <v>3730.2</v>
+      </c>
+      <c r="J198" s="73">
+        <f>G198*I198</f>
+        <v>4476.24</v>
+      </c>
+      <c r="K198" s="5"/>
+    </row>
+    <row r="199" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="65"/>
+      <c r="B199" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C199" s="67"/>
+      <c r="D199" s="68"/>
+      <c r="E199" s="68"/>
+      <c r="F199" s="68"/>
+      <c r="G199" s="71"/>
+      <c r="H199" s="71"/>
+      <c r="I199" s="72"/>
+      <c r="J199" s="73">
+        <f>0.13*G198*(7326/5)</f>
+        <v>228.5712</v>
+      </c>
+      <c r="K199" s="5"/>
+    </row>
+    <row r="200" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="43"/>
+      <c r="B200" s="45"/>
+      <c r="C200" s="46"/>
+      <c r="D200" s="14"/>
+      <c r="E200" s="14"/>
+      <c r="F200" s="14"/>
+      <c r="G200" s="47"/>
+      <c r="H200" s="47"/>
+      <c r="I200" s="47"/>
+      <c r="J200" s="40"/>
+      <c r="K200" s="16"/>
+    </row>
+    <row r="201" spans="1:19" ht="58.2" x14ac:dyDescent="0.3">
+      <c r="A201" s="43">
+        <v>32</v>
+      </c>
+      <c r="B201" s="101" t="s">
+        <v>122</v>
+      </c>
+      <c r="C201" s="100"/>
+      <c r="D201" s="14"/>
+      <c r="E201" s="14"/>
+      <c r="F201" s="14"/>
+      <c r="G201" s="44"/>
+      <c r="H201" s="44"/>
+      <c r="I201" s="44"/>
+      <c r="J201" s="44"/>
+      <c r="K201" s="16"/>
+    </row>
+    <row r="202" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="43"/>
+      <c r="B202" s="45" t="str">
+        <f>B95</f>
+        <v>-inside worship area</v>
+      </c>
+      <c r="C202" s="46">
+        <f>C110</f>
+        <v>2</v>
+      </c>
+      <c r="D202" s="14">
+        <f t="shared" ref="D202:D203" si="16">D110</f>
+        <v>2.4900944833892105</v>
+      </c>
+      <c r="E202" s="14"/>
+      <c r="F202" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="G202" s="68">
+        <f>PRODUCT(C202:F202)</f>
+        <v>5.9762267601341046</v>
+      </c>
+      <c r="H202" s="47"/>
+      <c r="I202" s="47"/>
+      <c r="J202" s="40"/>
+      <c r="K202" s="16"/>
+    </row>
+    <row r="203" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="43"/>
+      <c r="B203" s="45"/>
+      <c r="C203" s="46">
+        <f>C111</f>
+        <v>2</v>
+      </c>
+      <c r="D203" s="14">
+        <f t="shared" si="16"/>
+        <v>2.4900944833892105</v>
+      </c>
+      <c r="E203" s="14"/>
+      <c r="F203" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G203" s="68">
+        <f t="shared" ref="G203:G204" si="17">PRODUCT(C203:F203)</f>
+        <v>10.956415726912526</v>
+      </c>
+      <c r="H203" s="47"/>
+      <c r="I203" s="47"/>
+      <c r="J203" s="40"/>
+      <c r="K203" s="16"/>
+    </row>
+    <row r="204" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="43"/>
+      <c r="B204" s="45" t="str">
+        <f>B98</f>
+        <v>-Deduction for door</v>
+      </c>
+      <c r="C204" s="46">
+        <f>C98</f>
+        <v>-1</v>
+      </c>
+      <c r="D204" s="14">
+        <f>D98</f>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="E204" s="14"/>
+      <c r="F204" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="G204" s="68">
+        <f t="shared" si="17"/>
+        <v>-1.2800975312404752</v>
+      </c>
+      <c r="H204" s="47"/>
+      <c r="I204" s="47"/>
+      <c r="J204" s="40"/>
+      <c r="K204" s="16"/>
+    </row>
+    <row r="205" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A205" s="65"/>
+      <c r="B205" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C205" s="67"/>
+      <c r="D205" s="68"/>
+      <c r="E205" s="68"/>
+      <c r="F205" s="68"/>
+      <c r="G205" s="71">
+        <f>SUM(G202:G204)</f>
+        <v>15.652544955806157</v>
+      </c>
+      <c r="H205" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="I205" s="72">
+        <v>2807.39</v>
+      </c>
+      <c r="J205" s="73">
+        <f>G205*I205</f>
+        <v>43942.798183480641</v>
+      </c>
+      <c r="K205" s="5"/>
+    </row>
+    <row r="206" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="65"/>
+      <c r="B206" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C206" s="67"/>
+      <c r="D206" s="68"/>
+      <c r="E206" s="68"/>
+      <c r="F206" s="68"/>
+      <c r="G206" s="71"/>
+      <c r="H206" s="71"/>
+      <c r="I206" s="72"/>
+      <c r="J206" s="73">
+        <f>0.13*G205*(8008.95/10)</f>
+        <v>1629.6858490094485</v>
+      </c>
+      <c r="K206" s="5"/>
+    </row>
+    <row r="207" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="65"/>
+      <c r="B207" s="70"/>
+      <c r="C207" s="67"/>
+      <c r="D207" s="68"/>
+      <c r="E207" s="68"/>
+      <c r="F207" s="68"/>
+      <c r="G207" s="71"/>
+      <c r="H207" s="71"/>
+      <c r="I207" s="72"/>
+      <c r="J207" s="73"/>
+      <c r="K207" s="5"/>
+    </row>
+    <row r="208" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A208" s="26">
+        <v>33</v>
+      </c>
+      <c r="B208" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="C208" s="27">
+        <v>1</v>
+      </c>
+      <c r="D208" s="28"/>
+      <c r="E208" s="28"/>
+      <c r="F208" s="29"/>
+      <c r="G208" s="14">
+        <f>PRODUCT(C208:F208)</f>
+        <v>1</v>
+      </c>
+      <c r="H208" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="I208" s="39">
+        <v>110000</v>
+      </c>
+      <c r="J208" s="40">
+        <f>G208*I208</f>
+        <v>110000</v>
+      </c>
+      <c r="K208" s="29"/>
+      <c r="M208" s="31"/>
+      <c r="N208" s="1"/>
+      <c r="O208" s="1"/>
+      <c r="P208" s="1"/>
+      <c r="Q208" s="1"/>
+      <c r="R208" s="31"/>
+      <c r="S208" s="31"/>
+    </row>
+    <row r="209" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="43"/>
+      <c r="B209" s="45"/>
+      <c r="C209" s="46"/>
+      <c r="D209" s="14"/>
+      <c r="E209" s="14"/>
+      <c r="F209" s="14"/>
+      <c r="G209" s="47"/>
+      <c r="H209" s="47"/>
+      <c r="I209" s="47"/>
+      <c r="J209" s="40"/>
+      <c r="K209" s="16"/>
+    </row>
+    <row r="210" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A210" s="26">
+        <v>34</v>
+      </c>
+      <c r="B210" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C210" s="27">
+        <v>1</v>
+      </c>
+      <c r="D210" s="28"/>
+      <c r="E210" s="29"/>
+      <c r="F210" s="29"/>
+      <c r="G210" s="44">
+        <f t="shared" ref="G210" si="18">PRODUCT(C210:F210)</f>
+        <v>1</v>
+      </c>
+      <c r="H210" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I210" s="39">
+        <v>500</v>
+      </c>
+      <c r="J210" s="44">
+        <f>G210*I210</f>
+        <v>500</v>
+      </c>
+      <c r="K210" s="29"/>
+      <c r="M210" s="31"/>
+      <c r="N210" s="18"/>
+      <c r="O210" s="18"/>
+      <c r="P210" s="18"/>
+      <c r="Q210" s="18"/>
+      <c r="R210" s="18"/>
+      <c r="S210" s="18"/>
+      <c r="T210" s="18"/>
+    </row>
+    <row r="211" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="43"/>
+      <c r="B211" s="45"/>
+      <c r="C211" s="46"/>
+      <c r="D211" s="14"/>
+      <c r="E211" s="14"/>
+      <c r="F211" s="14"/>
+      <c r="G211" s="47"/>
+      <c r="H211" s="47"/>
+      <c r="I211" s="47"/>
+      <c r="J211" s="40"/>
+      <c r="K211" s="16"/>
+    </row>
+    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A212" s="43"/>
+      <c r="B212" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C212" s="46"/>
+      <c r="D212" s="14"/>
+      <c r="E212" s="14"/>
+      <c r="F212" s="14"/>
+      <c r="G212" s="44"/>
+      <c r="H212" s="44"/>
+      <c r="I212" s="44"/>
+      <c r="J212" s="44">
+        <f>SUM(J10:J210)</f>
+        <v>1007333.3794049266</v>
+      </c>
+      <c r="K212" s="16"/>
+    </row>
+    <row r="214" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C214" s="91">
+        <f>J212</f>
+        <v>1007333.3794049266</v>
+      </c>
+      <c r="D214" s="92"/>
+      <c r="E214" s="14">
+        <v>100</v>
+      </c>
+      <c r="F214" s="18"/>
+      <c r="G214" s="19"/>
+      <c r="H214" s="18"/>
+      <c r="I214" s="20"/>
+      <c r="J214" s="21"/>
+      <c r="K214" s="22"/>
+    </row>
+    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B215" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C215" s="98">
+        <v>900000</v>
+      </c>
+      <c r="D215" s="99"/>
+      <c r="E215" s="14"/>
+    </row>
+    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B216" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C216" s="98">
+        <f>C215-C218-C219</f>
+        <v>855000</v>
+      </c>
+      <c r="D216" s="99"/>
+      <c r="E216" s="14">
+        <f>C216/C214*100</f>
+        <v>84.877560644826815</v>
+      </c>
+    </row>
+    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B217" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C217" s="90">
+        <f>C214-C216</f>
+        <v>152333.37940492656</v>
+      </c>
+      <c r="D217" s="90"/>
+      <c r="E217" s="14">
+        <f>100-E216</f>
+        <v>15.122439355173185</v>
+      </c>
+    </row>
+    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B218" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C218" s="91">
+        <f>C215*0.03</f>
+        <v>27000</v>
+      </c>
+      <c r="D218" s="92"/>
+      <c r="E218" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="B219" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C219" s="91">
+        <f>C215*0.02</f>
+        <v>18000</v>
+      </c>
+      <c r="D219" s="92"/>
+      <c r="E219" s="14">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C218:D218"/>
+    <mergeCell ref="C219:D219"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C214:D214"/>
+    <mergeCell ref="C215:D215"/>
+    <mergeCell ref="C216:D216"/>
+    <mergeCell ref="C217:D217"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ofc/estimates/lakilla mandir/lakilla mandir.xlsx
+++ b/ofc/estimates/lakilla mandir/lakilla mandir.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\081_082\ofc\ofc\estimates\lakilla mandir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\081-082\ofc\estimates\lakilla mandir\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="WCR" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">estimate!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">WCR!$1:$12</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -451,10 +451,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -695,7 +695,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -705,7 +705,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -727,7 +727,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -743,7 +743,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -752,7 +752,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -761,7 +761,7 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="13" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -780,7 +780,7 @@
     <xf numFmtId="1" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -812,7 +812,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -833,7 +833,7 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -851,7 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -861,7 +861,7 @@
     <xf numFmtId="1" fontId="22" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="21" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -880,6 +880,30 @@
     </xf>
     <xf numFmtId="1" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -900,24 +924,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -947,12 +953,6 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1379,107 +1379,107 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="13" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-    </row>
-    <row r="2" spans="1:11" ht="24.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="87" t="s">
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+    </row>
+    <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="87"/>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-    </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="88" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+    </row>
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="88" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-    </row>
-    <row r="5" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="89" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+    </row>
+    <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
-      <c r="H5" s="89"/>
-      <c r="I5" s="89"/>
-      <c r="J5" s="89"/>
-      <c r="K5" s="89"/>
-    </row>
-    <row r="6" spans="1:11" ht="18" x14ac:dyDescent="0.35">
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+    </row>
+    <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="84" t="e">
+      <c r="C6" s="79" t="e">
         <f>F18</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="85"/>
+      <c r="D6" s="80"/>
       <c r="E6" s="11"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -1487,13 +1487,13 @@
         <v>18</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="84" t="e">
+      <c r="J6" s="79" t="e">
         <f>I18</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="85"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K6" s="80"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>27</v>
       </c>
@@ -1502,75 +1502,75 @@
       <c r="D7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
-      <c r="I7" s="80" t="s">
+      <c r="I7" s="88" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="80"/>
-      <c r="K7" s="80"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="79" t="e">
+      <c r="J7" s="88"/>
+      <c r="K7" s="88"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="87" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="79"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="I8" s="81" t="s">
+      <c r="B8" s="87"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="I8" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="81"/>
-      <c r="K8" s="81"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="82" t="e">
+      <c r="J8" s="89"/>
+      <c r="K8" s="89"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="90" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="I9" s="81" t="s">
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="I9" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="77" t="s">
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="77" t="s">
+      <c r="B11" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="77" t="s">
+      <c r="C11" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="83" t="s">
+      <c r="D11" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83" t="s">
+      <c r="E11" s="91"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="77" t="s">
+      <c r="H11" s="91"/>
+      <c r="I11" s="91"/>
+      <c r="J11" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="78" t="s">
+      <c r="K11" s="86" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="77"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="77"/>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
       <c r="D12" s="13" t="s">
         <v>24</v>
       </c>
@@ -1589,10 +1589,10 @@
       <c r="I12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="77"/>
-      <c r="K12" s="78"/>
-    </row>
-    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="85"/>
+      <c r="K12" s="86"/>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K13" s="17"/>
     </row>
-    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="33"/>
       <c r="B14" s="36" t="e">
         <f>#REF!</f>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="K14" s="17"/>
     </row>
-    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="33"/>
       <c r="B15" s="36"/>
       <c r="C15" s="14"/>
@@ -1673,7 +1673,7 @@
       <c r="J15" s="34"/>
       <c r="K15" s="17"/>
     </row>
-    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="K16" s="17"/>
     </row>
-    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="14"/>
@@ -1729,7 +1729,7 @@
       <c r="J17" s="34"/>
       <c r="K17" s="17"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>15</v>
@@ -1755,13 +1755,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -1774,6 +1767,13 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1795,101 +1795,101 @@
       <selection activeCell="G160" sqref="G160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="95" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="88" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="88" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="96" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>46</v>
       </c>
@@ -1899,31 +1899,31 @@
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="93" t="s">
+      <c r="H6" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="97" t="s">
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="93" t="s">
+      <c r="H7" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -1975,7 +1975,7 @@
       <c r="J9" s="40"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="B10" s="45" t="s">
         <v>42</v>
@@ -2002,7 +2002,7 @@
       <c r="J10" s="44"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" s="45" t="s">
         <v>38</v>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="45" t="s">
         <v>52</v>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="30"/>
       <c r="C13" s="27"/>
@@ -2065,7 +2065,7 @@
       <c r="R13" s="31"/>
       <c r="S13" s="31"/>
     </row>
-    <row r="14" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="43">
         <v>2</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="J14" s="40"/>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
       <c r="B15" s="45" t="s">
         <v>42</v>
@@ -2107,7 +2107,7 @@
       <c r="J15" s="44"/>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
       <c r="B16" s="45" t="s">
         <v>44</v>
@@ -2132,7 +2132,7 @@
       <c r="J16" s="44"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43"/>
       <c r="B17" s="45" t="s">
         <v>43</v>
@@ -2157,7 +2157,7 @@
       <c r="J17" s="44"/>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18" s="45" t="s">
         <v>65</v>
@@ -2181,7 +2181,7 @@
       <c r="J18" s="44"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19" s="45" t="s">
         <v>90</v>
@@ -2207,7 +2207,7 @@
       <c r="J19" s="44"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20" s="45" t="s">
         <v>91</v>
@@ -2233,7 +2233,7 @@
       <c r="J20" s="44"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
       <c r="B21" s="45" t="s">
         <v>92</v>
@@ -2259,7 +2259,7 @@
       <c r="J21" s="44"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
       <c r="B22" s="45" t="s">
         <v>38</v>
@@ -2285,7 +2285,7 @@
       </c>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
       <c r="B23" s="45" t="s">
         <v>52</v>
@@ -2303,7 +2303,7 @@
       </c>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="30"/>
       <c r="C24" s="27"/>
@@ -2323,7 +2323,7 @@
       <c r="R24" s="31"/>
       <c r="S24" s="31"/>
     </row>
-    <row r="25" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="26">
         <v>3</v>
       </c>
@@ -2347,7 +2347,7 @@
       <c r="R25" s="31"/>
       <c r="S25" s="31"/>
     </row>
-    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
       <c r="B26" s="45" t="s">
         <v>79</v>
@@ -2370,7 +2370,7 @@
       <c r="J26" s="44"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
       <c r="B27" s="45" t="s">
         <v>38</v>
@@ -2396,7 +2396,7 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
       <c r="B28" s="45" t="s">
         <v>52</v>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="26"/>
       <c r="B29" s="30"/>
       <c r="C29" s="27"/>
@@ -2434,7 +2434,7 @@
       <c r="R29" s="31"/>
       <c r="S29" s="31"/>
     </row>
-    <row r="30" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="26">
         <v>3</v>
       </c>
@@ -2458,7 +2458,7 @@
       <c r="R30" s="31"/>
       <c r="S30" s="31"/>
     </row>
-    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="43"/>
       <c r="B31" s="45" t="s">
         <v>79</v>
@@ -2481,7 +2481,7 @@
       <c r="J31" s="44"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="43"/>
       <c r="B32" s="45" t="s">
         <v>38</v>
@@ -2507,7 +2507,7 @@
       </c>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="43"/>
       <c r="B33" s="45" t="s">
         <v>52</v>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="26"/>
       <c r="B34" s="30"/>
       <c r="C34" s="27"/>
@@ -2545,7 +2545,7 @@
       <c r="R34" s="31"/>
       <c r="S34" s="31"/>
     </row>
-    <row r="35" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="26">
         <v>3</v>
       </c>
@@ -2569,7 +2569,7 @@
       <c r="R35" s="31"/>
       <c r="S35" s="31"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="43"/>
       <c r="B36" s="45" t="s">
         <v>79</v>
@@ -2592,7 +2592,7 @@
       <c r="J36" s="44"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="43"/>
       <c r="B37" s="45" t="s">
         <v>38</v>
@@ -2618,7 +2618,7 @@
       </c>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="43"/>
       <c r="B38" s="45" t="s">
         <v>52</v>
@@ -2636,7 +2636,7 @@
       </c>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="26"/>
       <c r="B39" s="30"/>
       <c r="C39" s="27"/>
@@ -2656,7 +2656,7 @@
       <c r="R39" s="31"/>
       <c r="S39" s="31"/>
     </row>
-    <row r="40" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="26">
         <v>3</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="R40" s="31"/>
       <c r="S40" s="31"/>
     </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="43"/>
       <c r="B41" s="45" t="s">
         <v>79</v>
@@ -2703,7 +2703,7 @@
       <c r="J41" s="44"/>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="43"/>
       <c r="B42" s="45" t="s">
         <v>38</v>
@@ -2729,7 +2729,7 @@
       </c>
       <c r="K42" s="16"/>
     </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
       <c r="B43" s="45" t="s">
         <v>52</v>
@@ -2747,7 +2747,7 @@
       </c>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="26"/>
       <c r="B44" s="30"/>
       <c r="C44" s="27"/>
@@ -2767,7 +2767,7 @@
       <c r="R44" s="31"/>
       <c r="S44" s="31"/>
     </row>
-    <row r="45" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="64">
         <v>3</v>
       </c>
@@ -2791,7 +2791,7 @@
       <c r="R45" s="31"/>
       <c r="S45" s="31"/>
     </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
       <c r="B46" s="45" t="s">
         <v>79</v>
@@ -2814,7 +2814,7 @@
       <c r="J46" s="44"/>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="43"/>
       <c r="B47" s="45" t="s">
         <v>38</v>
@@ -2840,7 +2840,7 @@
       </c>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="43"/>
       <c r="B48" s="45" t="s">
         <v>52</v>
@@ -2858,7 +2858,7 @@
       </c>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="26"/>
       <c r="B49" s="30"/>
       <c r="C49" s="27"/>
@@ -2878,7 +2878,7 @@
       <c r="R49" s="31"/>
       <c r="S49" s="31"/>
     </row>
-    <row r="50" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="64">
         <v>3</v>
       </c>
@@ -2902,7 +2902,7 @@
       <c r="R50" s="31"/>
       <c r="S50" s="31"/>
     </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="43"/>
       <c r="B51" s="45" t="s">
         <v>79</v>
@@ -2925,7 +2925,7 @@
       <c r="J51" s="44"/>
       <c r="K51" s="16"/>
     </row>
-    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="43"/>
       <c r="B52" s="45" t="s">
         <v>38</v>
@@ -2951,7 +2951,7 @@
       </c>
       <c r="K52" s="16"/>
     </row>
-    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="43"/>
       <c r="B53" s="45" t="s">
         <v>52</v>
@@ -2969,7 +2969,7 @@
       </c>
       <c r="K53" s="16"/>
     </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="26"/>
       <c r="B54" s="30"/>
       <c r="C54" s="27"/>
@@ -2989,7 +2989,7 @@
       <c r="R54" s="31"/>
       <c r="S54" s="31"/>
     </row>
-    <row r="55" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="64">
         <v>3</v>
       </c>
@@ -3013,7 +3013,7 @@
       <c r="R55" s="31"/>
       <c r="S55" s="31"/>
     </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="43"/>
       <c r="B56" s="45" t="s">
         <v>79</v>
@@ -3036,7 +3036,7 @@
       <c r="J56" s="44"/>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="43"/>
       <c r="B57" s="45" t="s">
         <v>38</v>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="43"/>
       <c r="B58" s="45" t="s">
         <v>52</v>
@@ -3080,7 +3080,7 @@
       </c>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="26"/>
       <c r="B59" s="30"/>
       <c r="C59" s="27"/>
@@ -3100,7 +3100,7 @@
       <c r="R59" s="31"/>
       <c r="S59" s="31"/>
     </row>
-    <row r="60" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="64">
         <v>3</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="R60" s="31"/>
       <c r="S60" s="31"/>
     </row>
-    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="43"/>
       <c r="B61" s="45" t="s">
         <v>79</v>
@@ -3147,7 +3147,7 @@
       <c r="J61" s="44"/>
       <c r="K61" s="16"/>
     </row>
-    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43"/>
       <c r="B62" s="45" t="s">
         <v>38</v>
@@ -3173,7 +3173,7 @@
       </c>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="43"/>
       <c r="B63" s="45" t="s">
         <v>52</v>
@@ -3191,7 +3191,7 @@
       </c>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="26"/>
       <c r="B64" s="30"/>
       <c r="C64" s="27"/>
@@ -3211,7 +3211,7 @@
       <c r="R64" s="31"/>
       <c r="S64" s="31"/>
     </row>
-    <row r="65" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="64">
         <v>3</v>
       </c>
@@ -3235,7 +3235,7 @@
       <c r="R65" s="31"/>
       <c r="S65" s="31"/>
     </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="43"/>
       <c r="B66" s="45" t="s">
         <v>79</v>
@@ -3258,7 +3258,7 @@
       <c r="J66" s="44"/>
       <c r="K66" s="16"/>
     </row>
-    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43"/>
       <c r="B67" s="45" t="s">
         <v>38</v>
@@ -3284,7 +3284,7 @@
       </c>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="43"/>
       <c r="B68" s="45" t="s">
         <v>52</v>
@@ -3302,7 +3302,7 @@
       </c>
       <c r="K68" s="16"/>
     </row>
-    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="26"/>
       <c r="B69" s="30"/>
       <c r="C69" s="27"/>
@@ -3322,7 +3322,7 @@
       <c r="R69" s="31"/>
       <c r="S69" s="31"/>
     </row>
-    <row r="70" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="64">
         <v>3</v>
       </c>
@@ -3346,7 +3346,7 @@
       <c r="R70" s="31"/>
       <c r="S70" s="31"/>
     </row>
-    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="43"/>
       <c r="B71" s="45" t="s">
         <v>79</v>
@@ -3369,7 +3369,7 @@
       <c r="J71" s="44"/>
       <c r="K71" s="16"/>
     </row>
-    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="43"/>
       <c r="B72" s="45" t="s">
         <v>38</v>
@@ -3395,7 +3395,7 @@
       </c>
       <c r="K72" s="16"/>
     </row>
-    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="43"/>
       <c r="B73" s="45" t="s">
         <v>52</v>
@@ -3413,7 +3413,7 @@
       </c>
       <c r="K73" s="16"/>
     </row>
-    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="26"/>
       <c r="B74" s="30"/>
       <c r="C74" s="27"/>
@@ -3433,7 +3433,7 @@
       <c r="R74" s="31"/>
       <c r="S74" s="31"/>
     </row>
-    <row r="75" spans="1:19" ht="30" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="26">
         <v>3</v>
       </c>
@@ -3457,7 +3457,7 @@
       <c r="R75" s="31"/>
       <c r="S75" s="31"/>
     </row>
-    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="43"/>
       <c r="B76" s="45" t="s">
         <v>54</v>
@@ -3481,7 +3481,7 @@
       <c r="J76" s="44"/>
       <c r="K76" s="16"/>
     </row>
-    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="43"/>
       <c r="B77" s="45" t="s">
         <v>38</v>
@@ -3506,7 +3506,7 @@
       </c>
       <c r="K77" s="16"/>
     </row>
-    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="43"/>
       <c r="B78" s="45" t="s">
         <v>52</v>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="K78" s="16"/>
     </row>
-    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="43"/>
       <c r="B79" s="45"/>
       <c r="C79" s="46"/>
@@ -3537,7 +3537,7 @@
       <c r="J79" s="40"/>
       <c r="K79" s="16"/>
     </row>
-    <row r="80" spans="1:19" ht="30" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="43">
         <v>4</v>
       </c>
@@ -3554,7 +3554,7 @@
       <c r="J80" s="40"/>
       <c r="K80" s="16"/>
     </row>
-    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="43"/>
       <c r="B81" s="45" t="s">
         <v>54</v>
@@ -3579,7 +3579,7 @@
       <c r="J81" s="44"/>
       <c r="K81" s="16"/>
     </row>
-    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="43"/>
       <c r="B82" s="45" t="s">
         <v>55</v>
@@ -3604,7 +3604,7 @@
       <c r="J82" s="44"/>
       <c r="K82" s="16"/>
     </row>
-    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="43"/>
       <c r="B83" s="45" t="s">
         <v>38</v>
@@ -3629,7 +3629,7 @@
       </c>
       <c r="K83" s="16"/>
     </row>
-    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="43"/>
       <c r="B84" s="45" t="s">
         <v>52</v>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="K84" s="16"/>
     </row>
-    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="43"/>
       <c r="B85" s="45"/>
       <c r="C85" s="46"/>
@@ -3660,7 +3660,7 @@
       <c r="J85" s="40"/>
       <c r="K85" s="16"/>
     </row>
-    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="43">
         <v>5</v>
       </c>
@@ -3677,7 +3677,7 @@
       <c r="J86" s="40"/>
       <c r="K86" s="16"/>
     </row>
-    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="43"/>
       <c r="B87" s="45" t="s">
         <v>54</v>
@@ -3702,7 +3702,7 @@
       <c r="J87" s="44"/>
       <c r="K87" s="16"/>
     </row>
-    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="43"/>
       <c r="B88" s="45" t="s">
         <v>38</v>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="K88" s="16"/>
     </row>
-    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="43"/>
       <c r="B89" s="45" t="s">
         <v>52</v>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="K89" s="16"/>
     </row>
-    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="43"/>
       <c r="B90" s="45"/>
       <c r="C90" s="46"/>
@@ -3758,7 +3758,7 @@
       <c r="J90" s="40"/>
       <c r="K90" s="16"/>
     </row>
-    <row r="91" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="58">
         <v>6</v>
       </c>
@@ -3775,7 +3775,7 @@
       <c r="J91" s="40"/>
       <c r="K91" s="16"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="43"/>
       <c r="B92" s="45" t="str">
         <f>B82</f>
@@ -3802,7 +3802,7 @@
       <c r="J92" s="9"/>
       <c r="K92" s="16"/>
     </row>
-    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="43"/>
       <c r="B93" s="45" t="s">
         <v>38</v>
@@ -3828,7 +3828,7 @@
       </c>
       <c r="K93" s="16"/>
     </row>
-    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="43"/>
       <c r="B94" s="45" t="s">
         <v>52</v>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="K94" s="16"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="43"/>
       <c r="B95" s="45"/>
       <c r="C95" s="46"/>
@@ -3859,7 +3859,7 @@
       <c r="J95" s="40"/>
       <c r="K95" s="16"/>
     </row>
-    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="58">
         <v>7</v>
       </c>
@@ -3876,7 +3876,7 @@
       <c r="J96" s="40"/>
       <c r="K96" s="16"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="43"/>
       <c r="B97" s="45" t="s">
         <v>60</v>
@@ -3902,7 +3902,7 @@
       <c r="J97" s="9"/>
       <c r="K97" s="16"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="43"/>
       <c r="B98" s="45" t="s">
         <v>61</v>
@@ -3926,7 +3926,7 @@
       <c r="J98" s="9"/>
       <c r="K98" s="16"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="43"/>
       <c r="B99" s="45"/>
       <c r="C99" s="46">
@@ -3948,7 +3948,7 @@
       <c r="J99" s="9"/>
       <c r="K99" s="16"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="43"/>
       <c r="B100" s="45"/>
       <c r="C100" s="46">
@@ -3971,7 +3971,7 @@
       <c r="J100" s="9"/>
       <c r="K100" s="16"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="43"/>
       <c r="B101" s="45"/>
       <c r="C101" s="46">
@@ -3993,7 +3993,7 @@
       <c r="J101" s="9"/>
       <c r="K101" s="16"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="43"/>
       <c r="B102" s="45" t="s">
         <v>76</v>
@@ -4019,7 +4019,7 @@
       <c r="J102" s="9"/>
       <c r="K102" s="16"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="43"/>
       <c r="B103" s="45" t="s">
         <v>77</v>
@@ -4045,7 +4045,7 @@
       <c r="J103" s="9"/>
       <c r="K103" s="16"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="43"/>
       <c r="B104" s="45"/>
       <c r="C104" s="46">
@@ -4069,7 +4069,7 @@
       <c r="J104" s="9"/>
       <c r="K104" s="16"/>
     </row>
-    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="43"/>
       <c r="B105" s="45" t="s">
         <v>38</v>
@@ -4094,7 +4094,7 @@
       </c>
       <c r="K105" s="16"/>
     </row>
-    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="43"/>
       <c r="B106" s="45" t="s">
         <v>52</v>
@@ -4112,7 +4112,7 @@
       </c>
       <c r="K106" s="16"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="43"/>
       <c r="B107" s="45"/>
       <c r="C107" s="46"/>
@@ -4125,7 +4125,7 @@
       <c r="J107" s="40"/>
       <c r="K107" s="16"/>
     </row>
-    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="43">
         <v>8</v>
       </c>
@@ -4142,7 +4142,7 @@
       <c r="J108" s="40"/>
       <c r="K108" s="16"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="43"/>
       <c r="B109" s="45" t="s">
         <v>63</v>
@@ -4165,7 +4165,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="16"/>
     </row>
-    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="43"/>
       <c r="B110" s="45" t="s">
         <v>38</v>
@@ -4190,7 +4190,7 @@
       </c>
       <c r="K110" s="16"/>
     </row>
-    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="43"/>
       <c r="B111" s="45" t="s">
         <v>52</v>
@@ -4208,7 +4208,7 @@
       </c>
       <c r="K111" s="16"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="43"/>
       <c r="B112" s="45"/>
       <c r="C112" s="46"/>
@@ -4221,7 +4221,7 @@
       <c r="J112" s="40"/>
       <c r="K112" s="16"/>
     </row>
-    <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="43">
         <v>9</v>
       </c>
@@ -4238,7 +4238,7 @@
       <c r="J113" s="40"/>
       <c r="K113" s="16"/>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="43"/>
       <c r="B114" s="45" t="s">
         <v>63</v>
@@ -4261,7 +4261,7 @@
       <c r="J114" s="9"/>
       <c r="K114" s="16"/>
     </row>
-    <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="43"/>
       <c r="B115" s="45" t="s">
         <v>38</v>
@@ -4286,7 +4286,7 @@
       </c>
       <c r="K115" s="16"/>
     </row>
-    <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="43"/>
       <c r="B116" s="45" t="s">
         <v>52</v>
@@ -4304,7 +4304,7 @@
       </c>
       <c r="K116" s="16"/>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="43"/>
       <c r="B117" s="45"/>
       <c r="C117" s="46"/>
@@ -4317,7 +4317,7 @@
       <c r="J117" s="40"/>
       <c r="K117" s="16"/>
     </row>
-    <row r="118" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="43">
         <v>10</v>
       </c>
@@ -4334,7 +4334,7 @@
       <c r="J118" s="40"/>
       <c r="K118" s="5"/>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="43"/>
       <c r="B119" s="56" t="s">
         <v>67</v>
@@ -4362,7 +4362,7 @@
       <c r="J119" s="40"/>
       <c r="K119" s="5"/>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="43"/>
       <c r="B120" s="56"/>
       <c r="C120" s="53">
@@ -4387,7 +4387,7 @@
       <c r="J120" s="40"/>
       <c r="K120" s="5"/>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="43"/>
       <c r="B121" s="56" t="s">
         <v>68</v>
@@ -4414,7 +4414,7 @@
       <c r="J121" s="40"/>
       <c r="K121" s="5"/>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="43"/>
       <c r="B122" s="56"/>
       <c r="C122" s="53">
@@ -4440,7 +4440,7 @@
       <c r="J122" s="40"/>
       <c r="K122" s="5"/>
     </row>
-    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="43"/>
       <c r="B123" s="56" t="s">
         <v>38</v>
@@ -4466,7 +4466,7 @@
       </c>
       <c r="K123" s="5"/>
     </row>
-    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="43"/>
       <c r="B124" s="56" t="s">
         <v>52</v>
@@ -4484,7 +4484,7 @@
       </c>
       <c r="K124" s="5"/>
     </row>
-    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="43"/>
       <c r="B125" s="56"/>
       <c r="C125" s="53"/>
@@ -4497,7 +4497,7 @@
       <c r="J125" s="61"/>
       <c r="K125" s="5"/>
     </row>
-    <row r="126" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A126" s="43">
         <v>11</v>
       </c>
@@ -4515,7 +4515,7 @@
       <c r="K126" s="5"/>
       <c r="M126" s="63"/>
     </row>
-    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="43"/>
       <c r="B127" s="56" t="s">
         <v>70</v>
@@ -4541,7 +4541,7 @@
       <c r="J127" s="40"/>
       <c r="K127" s="5"/>
     </row>
-    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="43"/>
       <c r="B128" s="56" t="s">
         <v>38</v>
@@ -4567,7 +4567,7 @@
       </c>
       <c r="K128" s="5"/>
     </row>
-    <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="43"/>
       <c r="B129" s="56" t="s">
         <v>52</v>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="K129" s="5"/>
     </row>
-    <row r="130" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A130" s="43"/>
       <c r="B130" s="52"/>
       <c r="C130" s="53"/>
@@ -4599,7 +4599,7 @@
       <c r="K130" s="5"/>
       <c r="M130" s="63"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="43">
         <v>12</v>
       </c>
@@ -4616,7 +4616,7 @@
       <c r="J131" s="40"/>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="43"/>
       <c r="B132" s="56" t="s">
         <v>70</v>
@@ -4642,7 +4642,7 @@
       <c r="J132" s="40"/>
       <c r="K132" s="5"/>
     </row>
-    <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="43"/>
       <c r="B133" s="56" t="s">
         <v>38</v>
@@ -4668,7 +4668,7 @@
       </c>
       <c r="K133" s="5"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="43"/>
       <c r="B134" s="62"/>
       <c r="C134" s="53"/>
@@ -4681,7 +4681,7 @@
       <c r="J134" s="40"/>
       <c r="K134" s="5"/>
     </row>
-    <row r="135" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="43">
         <v>13</v>
       </c>
@@ -4698,7 +4698,7 @@
       <c r="J135" s="40"/>
       <c r="K135" s="5"/>
     </row>
-    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="43"/>
       <c r="B136" s="56" t="s">
         <v>72</v>
@@ -4724,7 +4724,7 @@
       <c r="J136" s="40"/>
       <c r="K136" s="5"/>
     </row>
-    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="43"/>
       <c r="B137" s="56" t="s">
         <v>38</v>
@@ -4750,7 +4750,7 @@
       </c>
       <c r="K137" s="5"/>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="43"/>
       <c r="B138" s="62"/>
       <c r="C138" s="53"/>
@@ -4763,7 +4763,7 @@
       <c r="J138" s="40"/>
       <c r="K138" s="5"/>
     </row>
-    <row r="139" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A139" s="43">
         <v>14</v>
       </c>
@@ -4780,7 +4780,7 @@
       <c r="J139" s="40"/>
       <c r="K139" s="5"/>
     </row>
-    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="43"/>
       <c r="B140" s="56" t="s">
         <v>74</v>
@@ -4806,7 +4806,7 @@
       <c r="J140" s="40"/>
       <c r="K140" s="5"/>
     </row>
-    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="43"/>
       <c r="B141" s="70" t="s">
         <v>96</v>
@@ -4831,7 +4831,7 @@
       <c r="J141" s="40"/>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="43"/>
       <c r="B142" s="56" t="s">
         <v>38</v>
@@ -4857,7 +4857,7 @@
       </c>
       <c r="K142" s="5"/>
     </row>
-    <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="43"/>
       <c r="B143" s="56" t="s">
         <v>52</v>
@@ -4875,7 +4875,7 @@
       </c>
       <c r="K143" s="5"/>
     </row>
-    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="43"/>
       <c r="B144" s="56"/>
       <c r="C144" s="53"/>
@@ -4889,7 +4889,7 @@
       <c r="K144" s="5"/>
       <c r="M144" s="63"/>
     </row>
-    <row r="145" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="65">
         <v>15</v>
       </c>
@@ -4907,7 +4907,7 @@
       <c r="K145" s="5"/>
       <c r="M145" s="63"/>
     </row>
-    <row r="146" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="65"/>
       <c r="B146" s="70" t="s">
         <v>94</v>
@@ -4933,7 +4933,7 @@
       <c r="J146" s="69"/>
       <c r="K146" s="5"/>
     </row>
-    <row r="147" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="65"/>
       <c r="B147" s="70" t="s">
         <v>95</v>
@@ -4959,7 +4959,7 @@
       <c r="J147" s="69"/>
       <c r="K147" s="5"/>
     </row>
-    <row r="148" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="65"/>
       <c r="B148" s="70" t="s">
         <v>38</v>
@@ -4985,7 +4985,7 @@
       </c>
       <c r="K148" s="5"/>
     </row>
-    <row r="149" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="65"/>
       <c r="B149" s="70" t="s">
         <v>52</v>
@@ -5003,7 +5003,7 @@
       </c>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A150" s="65"/>
       <c r="B150" s="74"/>
       <c r="C150" s="67"/>
@@ -5017,7 +5017,7 @@
       <c r="K150" s="5"/>
       <c r="M150" s="63"/>
     </row>
-    <row r="151" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="65">
         <v>16</v>
       </c>
@@ -5035,7 +5035,7 @@
       <c r="K151" s="5"/>
       <c r="M151" s="63"/>
     </row>
-    <row r="152" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="65"/>
       <c r="B152" s="70" t="str">
         <f t="shared" ref="B152:E153" si="12">B146</f>
@@ -5063,7 +5063,7 @@
       <c r="J152" s="69"/>
       <c r="K152" s="5"/>
     </row>
-    <row r="153" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="65"/>
       <c r="B153" s="70" t="str">
         <f t="shared" si="12"/>
@@ -5091,7 +5091,7 @@
       <c r="J153" s="69"/>
       <c r="K153" s="5"/>
     </row>
-    <row r="154" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="65"/>
       <c r="B154" s="70" t="s">
         <v>38</v>
@@ -5117,7 +5117,7 @@
       </c>
       <c r="K154" s="5"/>
     </row>
-    <row r="155" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="65"/>
       <c r="B155" s="70" t="s">
         <v>52</v>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A156" s="43"/>
       <c r="B156" s="52"/>
       <c r="C156" s="53"/>
@@ -5149,7 +5149,7 @@
       <c r="K156" s="5"/>
       <c r="M156" s="63"/>
     </row>
-    <row r="157" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="43"/>
       <c r="B157" s="56"/>
       <c r="C157" s="53"/>
@@ -5163,7 +5163,7 @@
       <c r="K157" s="5"/>
       <c r="M157" s="63"/>
     </row>
-    <row r="158" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="43"/>
       <c r="B158" s="56"/>
       <c r="C158" s="53"/>
@@ -5177,7 +5177,7 @@
       <c r="K158" s="5"/>
       <c r="M158" s="63"/>
     </row>
-    <row r="159" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="43"/>
       <c r="B159" s="56"/>
       <c r="C159" s="53"/>
@@ -5191,7 +5191,7 @@
       <c r="K159" s="5"/>
       <c r="M159" s="63"/>
     </row>
-    <row r="160" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="26">
         <v>15</v>
       </c>
@@ -5227,7 +5227,7 @@
       <c r="R160" s="31"/>
       <c r="S160" s="31"/>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A161" s="43"/>
       <c r="B161" s="45"/>
       <c r="C161" s="46"/>
@@ -5240,7 +5240,7 @@
       <c r="J161" s="44"/>
       <c r="K161" s="16"/>
     </row>
-    <row r="162" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A162" s="26">
         <v>16</v>
       </c>
@@ -5277,7 +5277,7 @@
       <c r="S162" s="18"/>
       <c r="T162" s="18"/>
     </row>
-    <row r="163" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A163" s="26"/>
       <c r="B163" s="30"/>
       <c r="C163" s="27"/>
@@ -5298,7 +5298,7 @@
       <c r="S163" s="18"/>
       <c r="T163" s="18"/>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A164" s="43"/>
       <c r="B164" s="50" t="s">
         <v>15</v>
@@ -5316,15 +5316,15 @@
       </c>
       <c r="K164" s="16"/>
     </row>
-    <row r="166" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B166" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C166" s="91">
+      <c r="C166" s="93">
         <f>J164</f>
         <v>637771.83239571028</v>
       </c>
-      <c r="D166" s="92"/>
+      <c r="D166" s="94"/>
       <c r="E166" s="14">
         <v>100</v>
       </c>
@@ -5335,66 +5335,66 @@
       <c r="J166" s="21"/>
       <c r="K166" s="22"/>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B167" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C167" s="98">
+      <c r="C167" s="100">
         <v>1000000</v>
       </c>
-      <c r="D167" s="99"/>
+      <c r="D167" s="101"/>
       <c r="E167" s="14"/>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B168" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C168" s="98">
+      <c r="C168" s="100">
         <f>C167-C170-C171</f>
         <v>950000</v>
       </c>
-      <c r="D168" s="99"/>
+      <c r="D168" s="101"/>
       <c r="E168" s="14">
         <f>C168/C166*100</f>
         <v>148.95609240556195</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B169" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C169" s="90">
+      <c r="C169" s="92">
         <f>C166-C168</f>
         <v>-312228.16760428972</v>
       </c>
-      <c r="D169" s="90"/>
+      <c r="D169" s="92"/>
       <c r="E169" s="14">
         <f>100-E168</f>
         <v>-48.956092405561947</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B170" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C170" s="91">
+      <c r="C170" s="93">
         <f>C167*0.03</f>
         <v>30000</v>
       </c>
-      <c r="D170" s="92"/>
+      <c r="D170" s="94"/>
       <c r="E170" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B171" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C171" s="91">
+      <c r="C171" s="93">
         <f>C167*0.02</f>
         <v>20000</v>
       </c>
-      <c r="D171" s="92"/>
+      <c r="D171" s="94"/>
       <c r="E171" s="14">
         <v>2</v>
       </c>
@@ -5436,101 +5436,101 @@
       <selection activeCell="A7" sqref="A7:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="95" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="88" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="88" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="96" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>115</v>
       </c>
@@ -5540,31 +5540,31 @@
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="93" t="s">
+      <c r="H6" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="97" t="s">
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="93" t="s">
+      <c r="H7" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -5616,7 +5616,7 @@
       <c r="J9" s="40"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="B10" s="45" t="s">
         <v>99</v>
@@ -5643,7 +5643,7 @@
       <c r="J10" s="44"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" s="45" t="s">
         <v>38</v>
@@ -5668,7 +5668,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="45" t="s">
         <v>52</v>
@@ -5686,7 +5686,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="30"/>
       <c r="C13" s="27"/>
@@ -5706,7 +5706,7 @@
       <c r="R13" s="31"/>
       <c r="S13" s="31"/>
     </row>
-    <row r="14" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="43">
         <v>2</v>
       </c>
@@ -5723,7 +5723,7 @@
       <c r="J14" s="40"/>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
       <c r="B15" s="45" t="s">
         <v>100</v>
@@ -5748,7 +5748,7 @@
       <c r="J15" s="44"/>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
       <c r="B16" s="45"/>
       <c r="C16" s="46">
@@ -5771,7 +5771,7 @@
       <c r="J16" s="44"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43"/>
       <c r="B17" s="45" t="s">
         <v>101</v>
@@ -5796,7 +5796,7 @@
       <c r="J17" s="44"/>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18" s="45"/>
       <c r="C18" s="46">
@@ -5820,7 +5820,7 @@
       <c r="J18" s="44"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19" s="45" t="s">
         <v>103</v>
@@ -5847,7 +5847,7 @@
       <c r="J19" s="44"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20" s="45" t="s">
         <v>44</v>
@@ -5873,7 +5873,7 @@
       <c r="J20" s="44"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
       <c r="B21" s="45" t="s">
         <v>43</v>
@@ -5899,7 +5899,7 @@
       <c r="J21" s="44"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
       <c r="B22" s="45" t="s">
         <v>65</v>
@@ -5924,7 +5924,7 @@
       <c r="J22" s="44"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
       <c r="B23" s="45" t="s">
         <v>90</v>
@@ -5950,7 +5950,7 @@
       <c r="J23" s="44"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43"/>
       <c r="B24" s="45" t="s">
         <v>91</v>
@@ -5976,7 +5976,7 @@
       <c r="J24" s="44"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
       <c r="B25" s="45" t="s">
         <v>92</v>
@@ -6002,7 +6002,7 @@
       <c r="J25" s="44"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
       <c r="B26" s="45" t="s">
         <v>109</v>
@@ -6027,7 +6027,7 @@
       <c r="J26" s="44"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
       <c r="B27" s="45" t="s">
         <v>110</v>
@@ -6051,7 +6051,7 @@
       <c r="J27" s="44"/>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
       <c r="B28" s="45" t="s">
         <v>38</v>
@@ -6077,7 +6077,7 @@
       </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="43"/>
       <c r="B29" s="45" t="s">
         <v>52</v>
@@ -6095,7 +6095,7 @@
       </c>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="43"/>
       <c r="B30" s="45"/>
       <c r="C30" s="46"/>
@@ -6108,7 +6108,7 @@
       <c r="J30" s="44"/>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="43">
         <v>3</v>
       </c>
@@ -6125,7 +6125,7 @@
       <c r="J31" s="44"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="43"/>
       <c r="B32" s="45" t="s">
         <v>65</v>
@@ -6153,7 +6153,7 @@
       <c r="J32" s="44"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="43"/>
       <c r="B33" s="45"/>
       <c r="C33" s="46">
@@ -6178,7 +6178,7 @@
       <c r="J33" s="44"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="43"/>
       <c r="B34" s="45" t="s">
         <v>38</v>
@@ -6203,7 +6203,7 @@
       </c>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="43"/>
       <c r="B35" s="45" t="s">
         <v>52</v>
@@ -6221,7 +6221,7 @@
       </c>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="26"/>
       <c r="B36" s="30"/>
       <c r="C36" s="27"/>
@@ -6241,7 +6241,7 @@
       <c r="R36" s="31"/>
       <c r="S36" s="31"/>
     </row>
-    <row r="37" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="26">
         <v>4</v>
       </c>
@@ -6265,7 +6265,7 @@
       <c r="R37" s="31"/>
       <c r="S37" s="31"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="43"/>
       <c r="B38" s="45" t="s">
         <v>79</v>
@@ -6288,7 +6288,7 @@
       <c r="J38" s="44"/>
       <c r="K38" s="16"/>
     </row>
-    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="43"/>
       <c r="B39" s="45" t="s">
         <v>38</v>
@@ -6314,7 +6314,7 @@
       </c>
       <c r="K39" s="16"/>
     </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="43"/>
       <c r="B40" s="45" t="s">
         <v>52</v>
@@ -6332,7 +6332,7 @@
       </c>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="26"/>
       <c r="B41" s="30"/>
       <c r="C41" s="27"/>
@@ -6352,7 +6352,7 @@
       <c r="R41" s="31"/>
       <c r="S41" s="31"/>
     </row>
-    <row r="42" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="26">
         <v>5</v>
       </c>
@@ -6376,7 +6376,7 @@
       <c r="R42" s="31"/>
       <c r="S42" s="31"/>
     </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
       <c r="B43" s="45" t="s">
         <v>79</v>
@@ -6399,7 +6399,7 @@
       <c r="J43" s="44"/>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="43"/>
       <c r="B44" s="45" t="s">
         <v>38</v>
@@ -6425,7 +6425,7 @@
       </c>
       <c r="K44" s="16"/>
     </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>
       <c r="B45" s="45" t="s">
         <v>52</v>
@@ -6443,7 +6443,7 @@
       </c>
       <c r="K45" s="16"/>
     </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="26"/>
       <c r="B46" s="30"/>
       <c r="C46" s="27"/>
@@ -6463,7 +6463,7 @@
       <c r="R46" s="31"/>
       <c r="S46" s="31"/>
     </row>
-    <row r="47" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="26">
         <v>6</v>
       </c>
@@ -6487,7 +6487,7 @@
       <c r="R47" s="31"/>
       <c r="S47" s="31"/>
     </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="43"/>
       <c r="B48" s="45" t="s">
         <v>79</v>
@@ -6510,7 +6510,7 @@
       <c r="J48" s="44"/>
       <c r="K48" s="16"/>
     </row>
-    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="43"/>
       <c r="B49" s="45" t="s">
         <v>38</v>
@@ -6536,7 +6536,7 @@
       </c>
       <c r="K49" s="16"/>
     </row>
-    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="43"/>
       <c r="B50" s="45" t="s">
         <v>52</v>
@@ -6554,7 +6554,7 @@
       </c>
       <c r="K50" s="16"/>
     </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="26"/>
       <c r="B51" s="30"/>
       <c r="C51" s="27"/>
@@ -6574,7 +6574,7 @@
       <c r="R51" s="31"/>
       <c r="S51" s="31"/>
     </row>
-    <row r="52" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="26">
         <v>7</v>
       </c>
@@ -6598,7 +6598,7 @@
       <c r="R52" s="31"/>
       <c r="S52" s="31"/>
     </row>
-    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="43"/>
       <c r="B53" s="45" t="s">
         <v>79</v>
@@ -6621,7 +6621,7 @@
       <c r="J53" s="44"/>
       <c r="K53" s="16"/>
     </row>
-    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="43"/>
       <c r="B54" s="45" t="s">
         <v>38</v>
@@ -6647,7 +6647,7 @@
       </c>
       <c r="K54" s="16"/>
     </row>
-    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="43"/>
       <c r="B55" s="45" t="s">
         <v>52</v>
@@ -6665,7 +6665,7 @@
       </c>
       <c r="K55" s="16"/>
     </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="26"/>
       <c r="B56" s="30"/>
       <c r="C56" s="27"/>
@@ -6685,7 +6685,7 @@
       <c r="R56" s="31"/>
       <c r="S56" s="31"/>
     </row>
-    <row r="57" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="64">
         <v>8</v>
       </c>
@@ -6709,7 +6709,7 @@
       <c r="R57" s="31"/>
       <c r="S57" s="31"/>
     </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="43"/>
       <c r="B58" s="45" t="s">
         <v>79</v>
@@ -6732,7 +6732,7 @@
       <c r="J58" s="44"/>
       <c r="K58" s="16"/>
     </row>
-    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="43"/>
       <c r="B59" s="45" t="s">
         <v>38</v>
@@ -6758,7 +6758,7 @@
       </c>
       <c r="K59" s="16"/>
     </row>
-    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="43"/>
       <c r="B60" s="45" t="s">
         <v>52</v>
@@ -6776,7 +6776,7 @@
       </c>
       <c r="K60" s="16"/>
     </row>
-    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="26"/>
       <c r="B61" s="30"/>
       <c r="C61" s="27"/>
@@ -6796,7 +6796,7 @@
       <c r="R61" s="31"/>
       <c r="S61" s="31"/>
     </row>
-    <row r="62" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="64">
         <v>9</v>
       </c>
@@ -6820,7 +6820,7 @@
       <c r="R62" s="31"/>
       <c r="S62" s="31"/>
     </row>
-    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="43"/>
       <c r="B63" s="45" t="s">
         <v>79</v>
@@ -6843,7 +6843,7 @@
       <c r="J63" s="44"/>
       <c r="K63" s="16"/>
     </row>
-    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="43"/>
       <c r="B64" s="45" t="s">
         <v>38</v>
@@ -6869,7 +6869,7 @@
       </c>
       <c r="K64" s="16"/>
     </row>
-    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="43"/>
       <c r="B65" s="45" t="s">
         <v>52</v>
@@ -6887,7 +6887,7 @@
       </c>
       <c r="K65" s="16"/>
     </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="26"/>
       <c r="B66" s="30"/>
       <c r="C66" s="27"/>
@@ -6907,7 +6907,7 @@
       <c r="R66" s="31"/>
       <c r="S66" s="31"/>
     </row>
-    <row r="67" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" s="64">
         <v>10</v>
       </c>
@@ -6931,7 +6931,7 @@
       <c r="R67" s="31"/>
       <c r="S67" s="31"/>
     </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="43"/>
       <c r="B68" s="45" t="s">
         <v>79</v>
@@ -6954,7 +6954,7 @@
       <c r="J68" s="44"/>
       <c r="K68" s="16"/>
     </row>
-    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="43"/>
       <c r="B69" s="45" t="s">
         <v>38</v>
@@ -6980,7 +6980,7 @@
       </c>
       <c r="K69" s="16"/>
     </row>
-    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="43"/>
       <c r="B70" s="45" t="s">
         <v>52</v>
@@ -6998,7 +6998,7 @@
       </c>
       <c r="K70" s="16"/>
     </row>
-    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="26"/>
       <c r="B71" s="30"/>
       <c r="C71" s="27"/>
@@ -7018,7 +7018,7 @@
       <c r="R71" s="31"/>
       <c r="S71" s="31"/>
     </row>
-    <row r="72" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="64">
         <v>11</v>
       </c>
@@ -7042,7 +7042,7 @@
       <c r="R72" s="31"/>
       <c r="S72" s="31"/>
     </row>
-    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="43"/>
       <c r="B73" s="45" t="s">
         <v>79</v>
@@ -7065,7 +7065,7 @@
       <c r="J73" s="44"/>
       <c r="K73" s="16"/>
     </row>
-    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="43"/>
       <c r="B74" s="45" t="s">
         <v>38</v>
@@ -7091,7 +7091,7 @@
       </c>
       <c r="K74" s="16"/>
     </row>
-    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="43"/>
       <c r="B75" s="45" t="s">
         <v>52</v>
@@ -7109,7 +7109,7 @@
       </c>
       <c r="K75" s="16"/>
     </row>
-    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="26"/>
       <c r="B76" s="30"/>
       <c r="C76" s="27"/>
@@ -7129,7 +7129,7 @@
       <c r="R76" s="31"/>
       <c r="S76" s="31"/>
     </row>
-    <row r="77" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="64">
         <v>12</v>
       </c>
@@ -7153,7 +7153,7 @@
       <c r="R77" s="31"/>
       <c r="S77" s="31"/>
     </row>
-    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="43"/>
       <c r="B78" s="45" t="s">
         <v>79</v>
@@ -7176,7 +7176,7 @@
       <c r="J78" s="44"/>
       <c r="K78" s="16"/>
     </row>
-    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="43"/>
       <c r="B79" s="45" t="s">
         <v>38</v>
@@ -7202,7 +7202,7 @@
       </c>
       <c r="K79" s="16"/>
     </row>
-    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="43"/>
       <c r="B80" s="45" t="s">
         <v>52</v>
@@ -7220,7 +7220,7 @@
       </c>
       <c r="K80" s="16"/>
     </row>
-    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="26"/>
       <c r="B81" s="30"/>
       <c r="C81" s="27"/>
@@ -7240,7 +7240,7 @@
       <c r="R81" s="31"/>
       <c r="S81" s="31"/>
     </row>
-    <row r="82" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="64">
         <v>13</v>
       </c>
@@ -7264,7 +7264,7 @@
       <c r="R82" s="31"/>
       <c r="S82" s="31"/>
     </row>
-    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="43"/>
       <c r="B83" s="45" t="s">
         <v>79</v>
@@ -7287,7 +7287,7 @@
       <c r="J83" s="44"/>
       <c r="K83" s="16"/>
     </row>
-    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="43"/>
       <c r="B84" s="45" t="s">
         <v>38</v>
@@ -7313,7 +7313,7 @@
       </c>
       <c r="K84" s="16"/>
     </row>
-    <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="43"/>
       <c r="B85" s="45" t="s">
         <v>52</v>
@@ -7331,7 +7331,7 @@
       </c>
       <c r="K85" s="16"/>
     </row>
-    <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="26"/>
       <c r="B86" s="30"/>
       <c r="C86" s="27"/>
@@ -7351,7 +7351,7 @@
       <c r="R86" s="31"/>
       <c r="S86" s="31"/>
     </row>
-    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="26">
         <v>14</v>
       </c>
@@ -7375,7 +7375,7 @@
       <c r="R87" s="31"/>
       <c r="S87" s="31"/>
     </row>
-    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="43"/>
       <c r="B88" s="45" t="s">
         <v>54</v>
@@ -7399,7 +7399,7 @@
       <c r="J88" s="44"/>
       <c r="K88" s="16"/>
     </row>
-    <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="43"/>
       <c r="B89" s="45" t="s">
         <v>38</v>
@@ -7424,7 +7424,7 @@
       </c>
       <c r="K89" s="16"/>
     </row>
-    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="43"/>
       <c r="B90" s="45" t="s">
         <v>52</v>
@@ -7442,7 +7442,7 @@
       </c>
       <c r="K90" s="16"/>
     </row>
-    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="43"/>
       <c r="B91" s="45"/>
       <c r="C91" s="46"/>
@@ -7455,7 +7455,7 @@
       <c r="J91" s="40"/>
       <c r="K91" s="16"/>
     </row>
-    <row r="92" spans="1:19" ht="30" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="43">
         <v>15</v>
       </c>
@@ -7472,7 +7472,7 @@
       <c r="J92" s="40"/>
       <c r="K92" s="16"/>
     </row>
-    <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="43"/>
       <c r="B93" s="45" t="s">
         <v>54</v>
@@ -7497,7 +7497,7 @@
       <c r="J93" s="44"/>
       <c r="K93" s="16"/>
     </row>
-    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="43"/>
       <c r="B94" s="45" t="s">
         <v>55</v>
@@ -7522,7 +7522,7 @@
       <c r="J94" s="44"/>
       <c r="K94" s="16"/>
     </row>
-    <row r="95" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="43"/>
       <c r="B95" s="45" t="s">
         <v>38</v>
@@ -7547,7 +7547,7 @@
       </c>
       <c r="K95" s="16"/>
     </row>
-    <row r="96" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="43"/>
       <c r="B96" s="45" t="s">
         <v>52</v>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="K96" s="16"/>
     </row>
-    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="43"/>
       <c r="B97" s="45"/>
       <c r="C97" s="46"/>
@@ -7578,7 +7578,7 @@
       <c r="J97" s="40"/>
       <c r="K97" s="16"/>
     </row>
-    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="43">
         <v>16</v>
       </c>
@@ -7595,7 +7595,7 @@
       <c r="J98" s="40"/>
       <c r="K98" s="16"/>
     </row>
-    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="43"/>
       <c r="B99" s="45" t="s">
         <v>54</v>
@@ -7620,7 +7620,7 @@
       <c r="J99" s="44"/>
       <c r="K99" s="16"/>
     </row>
-    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="43"/>
       <c r="B100" s="45" t="s">
         <v>38</v>
@@ -7645,7 +7645,7 @@
       </c>
       <c r="K100" s="16"/>
     </row>
-    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="43"/>
       <c r="B101" s="45" t="s">
         <v>52</v>
@@ -7663,7 +7663,7 @@
       </c>
       <c r="K101" s="16"/>
     </row>
-    <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="43"/>
       <c r="B102" s="45"/>
       <c r="C102" s="46"/>
@@ -7676,7 +7676,7 @@
       <c r="J102" s="40"/>
       <c r="K102" s="16"/>
     </row>
-    <row r="103" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="58">
         <v>17</v>
       </c>
@@ -7693,7 +7693,7 @@
       <c r="J103" s="40"/>
       <c r="K103" s="16"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="43"/>
       <c r="B104" s="45" t="str">
         <f>B94</f>
@@ -7720,7 +7720,7 @@
       <c r="J104" s="9"/>
       <c r="K104" s="16"/>
     </row>
-    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="43"/>
       <c r="B105" s="45" t="s">
         <v>38</v>
@@ -7746,7 +7746,7 @@
       </c>
       <c r="K105" s="16"/>
     </row>
-    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="43"/>
       <c r="B106" s="45" t="s">
         <v>52</v>
@@ -7764,7 +7764,7 @@
       </c>
       <c r="K106" s="16"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="43"/>
       <c r="B107" s="45"/>
       <c r="C107" s="46"/>
@@ -7777,7 +7777,7 @@
       <c r="J107" s="40"/>
       <c r="K107" s="16"/>
     </row>
-    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="58">
         <v>18</v>
       </c>
@@ -7794,7 +7794,7 @@
       <c r="J108" s="40"/>
       <c r="K108" s="16"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="43"/>
       <c r="B109" s="45" t="s">
         <v>60</v>
@@ -7820,7 +7820,7 @@
       <c r="J109" s="9"/>
       <c r="K109" s="16"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="43"/>
       <c r="B110" s="45" t="s">
         <v>61</v>
@@ -7844,7 +7844,7 @@
       <c r="J110" s="9"/>
       <c r="K110" s="16"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="43"/>
       <c r="B111" s="45"/>
       <c r="C111" s="46">
@@ -7866,7 +7866,7 @@
       <c r="J111" s="9"/>
       <c r="K111" s="16"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="43"/>
       <c r="B112" s="45"/>
       <c r="C112" s="46">
@@ -7889,7 +7889,7 @@
       <c r="J112" s="9"/>
       <c r="K112" s="16"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="43"/>
       <c r="B113" s="45"/>
       <c r="C113" s="46">
@@ -7911,7 +7911,7 @@
       <c r="J113" s="9"/>
       <c r="K113" s="16"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="43"/>
       <c r="B114" s="45" t="s">
         <v>76</v>
@@ -7937,7 +7937,7 @@
       <c r="J114" s="9"/>
       <c r="K114" s="16"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="43"/>
       <c r="B115" s="45" t="s">
         <v>111</v>
@@ -7963,7 +7963,7 @@
       <c r="J115" s="9"/>
       <c r="K115" s="16"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="43"/>
       <c r="B116" s="45"/>
       <c r="C116" s="46">
@@ -7987,7 +7987,7 @@
       <c r="J116" s="9"/>
       <c r="K116" s="16"/>
     </row>
-    <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="43"/>
       <c r="B117" s="45" t="s">
         <v>38</v>
@@ -8012,7 +8012,7 @@
       </c>
       <c r="K117" s="16"/>
     </row>
-    <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="43"/>
       <c r="B118" s="45" t="s">
         <v>52</v>
@@ -8030,7 +8030,7 @@
       </c>
       <c r="K118" s="16"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="43"/>
       <c r="B119" s="45"/>
       <c r="C119" s="46"/>
@@ -8043,7 +8043,7 @@
       <c r="J119" s="40"/>
       <c r="K119" s="16"/>
     </row>
-    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="43">
         <v>19</v>
       </c>
@@ -8060,7 +8060,7 @@
       <c r="J120" s="40"/>
       <c r="K120" s="16"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="43"/>
       <c r="B121" s="45" t="s">
         <v>63</v>
@@ -8083,7 +8083,7 @@
       <c r="J121" s="9"/>
       <c r="K121" s="16"/>
     </row>
-    <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="43"/>
       <c r="B122" s="45" t="s">
         <v>38</v>
@@ -8108,7 +8108,7 @@
       </c>
       <c r="K122" s="16"/>
     </row>
-    <row r="123" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="43"/>
       <c r="B123" s="45" t="s">
         <v>52</v>
@@ -8126,7 +8126,7 @@
       </c>
       <c r="K123" s="16"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="43"/>
       <c r="B124" s="45"/>
       <c r="C124" s="46"/>
@@ -8139,7 +8139,7 @@
       <c r="J124" s="40"/>
       <c r="K124" s="16"/>
     </row>
-    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="43">
         <v>20</v>
       </c>
@@ -8156,7 +8156,7 @@
       <c r="J125" s="40"/>
       <c r="K125" s="16"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="43"/>
       <c r="B126" s="45" t="s">
         <v>63</v>
@@ -8179,7 +8179,7 @@
       <c r="J126" s="9"/>
       <c r="K126" s="16"/>
     </row>
-    <row r="127" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="43"/>
       <c r="B127" s="45" t="s">
         <v>38</v>
@@ -8204,7 +8204,7 @@
       </c>
       <c r="K127" s="16"/>
     </row>
-    <row r="128" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="43"/>
       <c r="B128" s="45" t="s">
         <v>52</v>
@@ -8222,7 +8222,7 @@
       </c>
       <c r="K128" s="16"/>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="43"/>
       <c r="B129" s="45"/>
       <c r="C129" s="46"/>
@@ -8235,7 +8235,7 @@
       <c r="J129" s="40"/>
       <c r="K129" s="16"/>
     </row>
-    <row r="130" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A130" s="43">
         <v>21</v>
       </c>
@@ -8252,7 +8252,7 @@
       <c r="J130" s="40"/>
       <c r="K130" s="5"/>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="43"/>
       <c r="B131" s="56" t="s">
         <v>67</v>
@@ -8280,7 +8280,7 @@
       <c r="J131" s="40"/>
       <c r="K131" s="5"/>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="43"/>
       <c r="B132" s="56"/>
       <c r="C132" s="53">
@@ -8305,7 +8305,7 @@
       <c r="J132" s="40"/>
       <c r="K132" s="5"/>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="43"/>
       <c r="B133" s="56" t="s">
         <v>68</v>
@@ -8332,7 +8332,7 @@
       <c r="J133" s="40"/>
       <c r="K133" s="5"/>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="43"/>
       <c r="B134" s="56"/>
       <c r="C134" s="53">
@@ -8358,7 +8358,7 @@
       <c r="J134" s="40"/>
       <c r="K134" s="5"/>
     </row>
-    <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="43"/>
       <c r="B135" s="56" t="s">
         <v>38</v>
@@ -8384,7 +8384,7 @@
       </c>
       <c r="K135" s="5"/>
     </row>
-    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="43"/>
       <c r="B136" s="56" t="s">
         <v>52</v>
@@ -8402,7 +8402,7 @@
       </c>
       <c r="K136" s="5"/>
     </row>
-    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="43"/>
       <c r="B137" s="56"/>
       <c r="C137" s="53"/>
@@ -8415,7 +8415,7 @@
       <c r="J137" s="61"/>
       <c r="K137" s="5"/>
     </row>
-    <row r="138" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A138" s="43">
         <v>22</v>
       </c>
@@ -8433,7 +8433,7 @@
       <c r="K138" s="5"/>
       <c r="M138" s="63"/>
     </row>
-    <row r="139" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="43"/>
       <c r="B139" s="56" t="s">
         <v>70</v>
@@ -8459,7 +8459,7 @@
       <c r="J139" s="40"/>
       <c r="K139" s="5"/>
     </row>
-    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="43"/>
       <c r="B140" s="56" t="s">
         <v>38</v>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="K140" s="5"/>
     </row>
-    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="43"/>
       <c r="B141" s="56" t="s">
         <v>52</v>
@@ -8503,7 +8503,7 @@
       </c>
       <c r="K141" s="5"/>
     </row>
-    <row r="142" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A142" s="43"/>
       <c r="B142" s="52"/>
       <c r="C142" s="53"/>
@@ -8517,7 +8517,7 @@
       <c r="K142" s="5"/>
       <c r="M142" s="63"/>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="43">
         <v>23</v>
       </c>
@@ -8534,7 +8534,7 @@
       <c r="J143" s="40"/>
       <c r="K143" s="5"/>
     </row>
-    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="43"/>
       <c r="B144" s="56" t="s">
         <v>70</v>
@@ -8560,7 +8560,7 @@
       <c r="J144" s="40"/>
       <c r="K144" s="5"/>
     </row>
-    <row r="145" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="43"/>
       <c r="B145" s="56" t="s">
         <v>38</v>
@@ -8586,7 +8586,7 @@
       </c>
       <c r="K145" s="5"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="43"/>
       <c r="B146" s="62"/>
       <c r="C146" s="53"/>
@@ -8599,7 +8599,7 @@
       <c r="J146" s="40"/>
       <c r="K146" s="5"/>
     </row>
-    <row r="147" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="43">
         <v>24</v>
       </c>
@@ -8616,7 +8616,7 @@
       <c r="J147" s="40"/>
       <c r="K147" s="5"/>
     </row>
-    <row r="148" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="43"/>
       <c r="B148" s="56" t="s">
         <v>72</v>
@@ -8642,7 +8642,7 @@
       <c r="J148" s="40"/>
       <c r="K148" s="5"/>
     </row>
-    <row r="149" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="43"/>
       <c r="B149" s="56" t="s">
         <v>38</v>
@@ -8668,7 +8668,7 @@
       </c>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="43"/>
       <c r="B150" s="62"/>
       <c r="C150" s="53"/>
@@ -8681,7 +8681,7 @@
       <c r="J150" s="40"/>
       <c r="K150" s="5"/>
     </row>
-    <row r="151" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A151" s="43">
         <v>25</v>
       </c>
@@ -8698,7 +8698,7 @@
       <c r="J151" s="40"/>
       <c r="K151" s="5"/>
     </row>
-    <row r="152" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="43"/>
       <c r="B152" s="56" t="s">
         <v>74</v>
@@ -8724,7 +8724,7 @@
       <c r="J152" s="40"/>
       <c r="K152" s="5"/>
     </row>
-    <row r="153" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="43"/>
       <c r="B153" s="70" t="s">
         <v>96</v>
@@ -8749,7 +8749,7 @@
       <c r="J153" s="40"/>
       <c r="K153" s="5"/>
     </row>
-    <row r="154" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="43"/>
       <c r="B154" s="56" t="s">
         <v>38</v>
@@ -8775,7 +8775,7 @@
       </c>
       <c r="K154" s="5"/>
     </row>
-    <row r="155" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="43"/>
       <c r="B155" s="56" t="s">
         <v>52</v>
@@ -8793,7 +8793,7 @@
       </c>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="43"/>
       <c r="B156" s="56"/>
       <c r="C156" s="53"/>
@@ -8807,7 +8807,7 @@
       <c r="K156" s="5"/>
       <c r="M156" s="63"/>
     </row>
-    <row r="157" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="65">
         <v>26</v>
       </c>
@@ -8825,7 +8825,7 @@
       <c r="K157" s="5"/>
       <c r="M157" s="63"/>
     </row>
-    <row r="158" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="65"/>
       <c r="B158" s="70" t="s">
         <v>94</v>
@@ -8851,7 +8851,7 @@
       <c r="J158" s="69"/>
       <c r="K158" s="5"/>
     </row>
-    <row r="159" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="65"/>
       <c r="B159" s="70" t="s">
         <v>95</v>
@@ -8877,7 +8877,7 @@
       <c r="J159" s="69"/>
       <c r="K159" s="5"/>
     </row>
-    <row r="160" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="65"/>
       <c r="B160" s="70" t="s">
         <v>38</v>
@@ -8903,7 +8903,7 @@
       </c>
       <c r="K160" s="5"/>
     </row>
-    <row r="161" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="65"/>
       <c r="B161" s="70" t="s">
         <v>52</v>
@@ -8921,7 +8921,7 @@
       </c>
       <c r="K161" s="5"/>
     </row>
-    <row r="162" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A162" s="65"/>
       <c r="B162" s="74"/>
       <c r="C162" s="67"/>
@@ -8935,7 +8935,7 @@
       <c r="K162" s="5"/>
       <c r="M162" s="63"/>
     </row>
-    <row r="163" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="65">
         <v>27</v>
       </c>
@@ -8953,7 +8953,7 @@
       <c r="K163" s="5"/>
       <c r="M163" s="63"/>
     </row>
-    <row r="164" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="65"/>
       <c r="B164" s="70" t="str">
         <f t="shared" ref="B164:E165" si="13">B158</f>
@@ -8981,7 +8981,7 @@
       <c r="J164" s="69"/>
       <c r="K164" s="5"/>
     </row>
-    <row r="165" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="65"/>
       <c r="B165" s="70" t="str">
         <f t="shared" si="13"/>
@@ -9009,7 +9009,7 @@
       <c r="J165" s="69"/>
       <c r="K165" s="5"/>
     </row>
-    <row r="166" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="65"/>
       <c r="B166" s="70" t="s">
         <v>38</v>
@@ -9035,7 +9035,7 @@
       </c>
       <c r="K166" s="5"/>
     </row>
-    <row r="167" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="65"/>
       <c r="B167" s="70" t="s">
         <v>52</v>
@@ -9053,7 +9053,7 @@
       </c>
       <c r="K167" s="5"/>
     </row>
-    <row r="168" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A168" s="43"/>
       <c r="B168" s="52"/>
       <c r="C168" s="53"/>
@@ -9067,7 +9067,7 @@
       <c r="K168" s="5"/>
       <c r="M168" s="63"/>
     </row>
-    <row r="169" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="43">
         <v>28</v>
       </c>
@@ -9085,7 +9085,7 @@
       <c r="K169" s="5"/>
       <c r="M169" s="63"/>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A170" s="43"/>
       <c r="B170" s="76" t="s">
         <v>105</v>
@@ -9109,7 +9109,7 @@
       <c r="K170" s="5"/>
       <c r="M170" s="63"/>
     </row>
-    <row r="171" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="65"/>
       <c r="B171" s="70" t="s">
         <v>38</v>
@@ -9135,7 +9135,7 @@
       </c>
       <c r="K171" s="5"/>
     </row>
-    <row r="172" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="65"/>
       <c r="B172" s="70" t="s">
         <v>52</v>
@@ -9153,7 +9153,7 @@
       </c>
       <c r="K172" s="5"/>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A173" s="43"/>
       <c r="B173" s="51"/>
       <c r="C173" s="53"/>
@@ -9167,7 +9167,7 @@
       <c r="K173" s="5"/>
       <c r="M173" s="63"/>
     </row>
-    <row r="174" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A174" s="43">
         <v>29</v>
       </c>
@@ -9185,7 +9185,7 @@
       <c r="K174" s="5"/>
       <c r="M174" s="63"/>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A175" s="43"/>
       <c r="B175" s="76" t="s">
         <v>107</v>
@@ -9209,7 +9209,7 @@
       <c r="K175" s="5"/>
       <c r="M175" s="63"/>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A176" s="43"/>
       <c r="B176" s="76"/>
       <c r="C176" s="53">
@@ -9231,7 +9231,7 @@
       <c r="K176" s="5"/>
       <c r="M176" s="63"/>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A177" s="43"/>
       <c r="B177" s="76" t="s">
         <v>108</v>
@@ -9255,7 +9255,7 @@
       <c r="K177" s="5"/>
       <c r="M177" s="63"/>
     </row>
-    <row r="178" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="65"/>
       <c r="B178" s="70" t="s">
         <v>38</v>
@@ -9281,7 +9281,7 @@
       </c>
       <c r="K178" s="5"/>
     </row>
-    <row r="179" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="65"/>
       <c r="B179" s="70" t="s">
         <v>52</v>
@@ -9299,7 +9299,7 @@
       </c>
       <c r="K179" s="5"/>
     </row>
-    <row r="180" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="43"/>
       <c r="B180" s="56"/>
       <c r="C180" s="53"/>
@@ -9313,7 +9313,7 @@
       <c r="K180" s="5"/>
       <c r="M180" s="63"/>
     </row>
-    <row r="181" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="43">
         <v>30</v>
       </c>
@@ -9331,7 +9331,7 @@
       <c r="K181" s="5"/>
       <c r="M181" s="63"/>
     </row>
-    <row r="182" spans="1:20" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="43"/>
       <c r="B182" s="76" t="s">
         <v>113</v>
@@ -9354,7 +9354,7 @@
       <c r="K182" s="5"/>
       <c r="M182" s="63"/>
     </row>
-    <row r="183" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="65"/>
       <c r="B183" s="70" t="s">
         <v>38</v>
@@ -9380,7 +9380,7 @@
       </c>
       <c r="K183" s="5"/>
     </row>
-    <row r="184" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="65"/>
       <c r="B184" s="70" t="s">
         <v>52</v>
@@ -9398,7 +9398,7 @@
       </c>
       <c r="K184" s="5"/>
     </row>
-    <row r="185" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="43"/>
       <c r="B185" s="56"/>
       <c r="C185" s="53"/>
@@ -9412,7 +9412,7 @@
       <c r="K185" s="5"/>
       <c r="M185" s="63"/>
     </row>
-    <row r="186" spans="1:20" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="26">
         <v>31</v>
       </c>
@@ -9448,7 +9448,7 @@
       <c r="R186" s="31"/>
       <c r="S186" s="31"/>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A187" s="43"/>
       <c r="B187" s="45"/>
       <c r="C187" s="46"/>
@@ -9461,7 +9461,7 @@
       <c r="J187" s="44"/>
       <c r="K187" s="16"/>
     </row>
-    <row r="188" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A188" s="26">
         <v>32</v>
       </c>
@@ -9498,7 +9498,7 @@
       <c r="S188" s="18"/>
       <c r="T188" s="18"/>
     </row>
-    <row r="189" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A189" s="26"/>
       <c r="B189" s="30"/>
       <c r="C189" s="27"/>
@@ -9519,7 +9519,7 @@
       <c r="S189" s="18"/>
       <c r="T189" s="18"/>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A190" s="43"/>
       <c r="B190" s="50" t="s">
         <v>15</v>
@@ -9537,15 +9537,15 @@
       </c>
       <c r="K190" s="16"/>
     </row>
-    <row r="192" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B192" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C192" s="91">
+      <c r="C192" s="93">
         <f>J190</f>
         <v>1119127.4076919584</v>
       </c>
-      <c r="D192" s="92"/>
+      <c r="D192" s="94"/>
       <c r="E192" s="14">
         <v>100</v>
       </c>
@@ -9556,72 +9556,78 @@
       <c r="J192" s="21"/>
       <c r="K192" s="22"/>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B193" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C193" s="98">
+      <c r="C193" s="100">
         <v>1000000</v>
       </c>
-      <c r="D193" s="99"/>
+      <c r="D193" s="101"/>
       <c r="E193" s="14"/>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B194" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C194" s="98">
+      <c r="C194" s="100">
         <f>C193-C196-C197</f>
         <v>950000</v>
       </c>
-      <c r="D194" s="99"/>
+      <c r="D194" s="101"/>
       <c r="E194" s="14">
         <f>C194/C192*100</f>
         <v>84.887564496274862</v>
       </c>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B195" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C195" s="90">
+      <c r="C195" s="92">
         <f>C192-C194</f>
         <v>169127.40769195836</v>
       </c>
-      <c r="D195" s="90"/>
+      <c r="D195" s="92"/>
       <c r="E195" s="14">
         <f>100-E194</f>
         <v>15.112435503725138</v>
       </c>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B196" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C196" s="91">
+      <c r="C196" s="93">
         <f>C193*0.03</f>
         <v>30000</v>
       </c>
-      <c r="D196" s="92"/>
+      <c r="D196" s="94"/>
       <c r="E196" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B197" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C197" s="91">
+      <c r="C197" s="93">
         <f>C193*0.02</f>
         <v>20000</v>
       </c>
-      <c r="D197" s="92"/>
+      <c r="D197" s="94"/>
       <c r="E197" s="14">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C196:D196"/>
     <mergeCell ref="C197:D197"/>
     <mergeCell ref="A7:F7"/>
@@ -9630,12 +9636,6 @@
     <mergeCell ref="C193:D193"/>
     <mergeCell ref="C194:D194"/>
     <mergeCell ref="C195:D195"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9653,105 +9653,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I216" sqref="I216"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="I205" sqref="I205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.5546875" customWidth="1"/>
-    <col min="7" max="7" width="8.5546875" style="7" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.33203125" customWidth="1"/>
-    <col min="14" max="14" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="7" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.109375" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="94"/>
-    </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="95" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="96"/>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-    </row>
-    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="88" t="s">
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-      <c r="K3" s="88"/>
-    </row>
-    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="88" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="83"/>
+      <c r="I3" s="83"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="83"/>
+    </row>
+    <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="88"/>
-      <c r="F4" s="88"/>
-      <c r="G4" s="88"/>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-    </row>
-    <row r="5" spans="1:19" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A5" s="96" t="s">
+      <c r="B4" s="83"/>
+      <c r="C4" s="83"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="83"/>
+    </row>
+    <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-    </row>
-    <row r="6" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="98"/>
+      <c r="I5" s="98"/>
+      <c r="J5" s="98"/>
+      <c r="K5" s="98"/>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
         <v>115</v>
       </c>
@@ -9761,31 +9761,31 @@
       <c r="E6" s="42"/>
       <c r="F6" s="42"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="93" t="s">
+      <c r="H6" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="I6" s="93"/>
-      <c r="J6" s="93"/>
-      <c r="K6" s="93"/>
-    </row>
-    <row r="7" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="97" t="s">
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="95"/>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="97"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="93" t="s">
+      <c r="H7" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="93"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
-    </row>
-    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I7" s="95"/>
+      <c r="J7" s="95"/>
+      <c r="K7" s="95"/>
+    </row>
+    <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="43">
         <v>1</v>
       </c>
@@ -9837,7 +9837,7 @@
       <c r="J9" s="40"/>
       <c r="K9" s="16"/>
     </row>
-    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="43"/>
       <c r="B10" s="45" t="s">
         <v>99</v>
@@ -9864,7 +9864,7 @@
       <c r="J10" s="44"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" s="45" t="s">
         <v>38</v>
@@ -9889,7 +9889,7 @@
       </c>
       <c r="K11" s="16"/>
     </row>
-    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="45" t="s">
         <v>52</v>
@@ -9907,7 +9907,7 @@
       </c>
       <c r="K12" s="16"/>
     </row>
-    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="26"/>
       <c r="B13" s="30"/>
       <c r="C13" s="27"/>
@@ -9927,7 +9927,7 @@
       <c r="R13" s="31"/>
       <c r="S13" s="31"/>
     </row>
-    <row r="14" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="43">
         <v>2</v>
       </c>
@@ -9944,7 +9944,7 @@
       <c r="J14" s="40"/>
       <c r="K14" s="16"/>
     </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="43"/>
       <c r="B15" s="45" t="s">
         <v>100</v>
@@ -9969,7 +9969,7 @@
       <c r="J15" s="44"/>
       <c r="K15" s="16"/>
     </row>
-    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
       <c r="B16" s="45"/>
       <c r="C16" s="46">
@@ -9992,7 +9992,7 @@
       <c r="J16" s="44"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="43"/>
       <c r="B17" s="45" t="s">
         <v>103</v>
@@ -10019,7 +10019,7 @@
       <c r="J17" s="44"/>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18" s="45" t="s">
         <v>44</v>
@@ -10045,7 +10045,7 @@
       <c r="J18" s="44"/>
       <c r="K18" s="16"/>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19" s="45" t="s">
         <v>43</v>
@@ -10071,7 +10071,7 @@
       <c r="J19" s="44"/>
       <c r="K19" s="16"/>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20" s="45" t="s">
         <v>65</v>
@@ -10096,7 +10096,7 @@
       <c r="J20" s="44"/>
       <c r="K20" s="16"/>
     </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
       <c r="B21" s="45" t="s">
         <v>90</v>
@@ -10122,7 +10122,7 @@
       <c r="J21" s="44"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
       <c r="B22" s="45" t="s">
         <v>91</v>
@@ -10148,7 +10148,7 @@
       <c r="J22" s="44"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
       <c r="B23" s="45" t="s">
         <v>92</v>
@@ -10174,7 +10174,7 @@
       <c r="J23" s="44"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43"/>
       <c r="B24" s="45" t="s">
         <v>109</v>
@@ -10199,7 +10199,7 @@
       <c r="J24" s="44"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
       <c r="B25" s="45" t="s">
         <v>110</v>
@@ -10223,7 +10223,7 @@
       <c r="J25" s="44"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
       <c r="B26" s="45" t="s">
         <v>38</v>
@@ -10249,7 +10249,7 @@
       </c>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
       <c r="B27" s="45" t="s">
         <v>52</v>
@@ -10267,7 +10267,7 @@
       </c>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
       <c r="B28" s="45"/>
       <c r="C28" s="46"/>
@@ -10280,7 +10280,7 @@
       <c r="J28" s="44"/>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="43">
         <v>3</v>
       </c>
@@ -10297,7 +10297,7 @@
       <c r="J29" s="44"/>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="43"/>
       <c r="B30" s="45" t="s">
         <v>116</v>
@@ -10324,7 +10324,7 @@
       <c r="J30" s="44"/>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="43"/>
       <c r="B31" s="48"/>
       <c r="C31" s="46">
@@ -10349,7 +10349,7 @@
       <c r="J31" s="44"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="43"/>
       <c r="B32" s="45" t="s">
         <v>120</v>
@@ -10375,7 +10375,7 @@
       <c r="J32" s="44"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="43"/>
       <c r="B33" s="45" t="s">
         <v>121</v>
@@ -10403,7 +10403,7 @@
       <c r="J33" s="44"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="43"/>
       <c r="B34" s="45" t="s">
         <v>65</v>
@@ -10431,7 +10431,7 @@
       <c r="J34" s="44"/>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="43"/>
       <c r="B35" s="45"/>
       <c r="C35" s="46">
@@ -10456,7 +10456,7 @@
       <c r="J35" s="44"/>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="43"/>
       <c r="B36" s="45" t="s">
         <v>38</v>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="43"/>
       <c r="B37" s="45" t="s">
         <v>52</v>
@@ -10499,7 +10499,7 @@
       </c>
       <c r="K37" s="16"/>
     </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="26"/>
       <c r="B38" s="30"/>
       <c r="C38" s="27"/>
@@ -10519,7 +10519,7 @@
       <c r="R38" s="31"/>
       <c r="S38" s="31"/>
     </row>
-    <row r="39" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="26">
         <v>4</v>
       </c>
@@ -10543,7 +10543,7 @@
       <c r="R39" s="31"/>
       <c r="S39" s="31"/>
     </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="43"/>
       <c r="B40" s="45" t="s">
         <v>79</v>
@@ -10566,7 +10566,7 @@
       <c r="J40" s="44"/>
       <c r="K40" s="16"/>
     </row>
-    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="43"/>
       <c r="B41" s="45" t="s">
         <v>38</v>
@@ -10592,7 +10592,7 @@
       </c>
       <c r="K41" s="16"/>
     </row>
-    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="43"/>
       <c r="B42" s="45" t="s">
         <v>52</v>
@@ -10610,7 +10610,7 @@
       </c>
       <c r="K42" s="16"/>
     </row>
-    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
       <c r="B43" s="45"/>
       <c r="C43" s="46"/>
@@ -10623,7 +10623,7 @@
       <c r="J43" s="40"/>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="26">
         <v>5</v>
       </c>
@@ -10647,7 +10647,7 @@
       <c r="R44" s="31"/>
       <c r="S44" s="31"/>
     </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="43"/>
       <c r="B45" s="45" t="s">
         <v>79</v>
@@ -10670,7 +10670,7 @@
       <c r="J45" s="44"/>
       <c r="K45" s="16"/>
     </row>
-    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
       <c r="B46" s="45" t="s">
         <v>38</v>
@@ -10696,7 +10696,7 @@
       </c>
       <c r="K46" s="16"/>
     </row>
-    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="43"/>
       <c r="B47" s="45" t="s">
         <v>52</v>
@@ -10714,7 +10714,7 @@
       </c>
       <c r="K47" s="16"/>
     </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="26"/>
       <c r="B48" s="30"/>
       <c r="C48" s="27"/>
@@ -10734,7 +10734,7 @@
       <c r="R48" s="31"/>
       <c r="S48" s="31"/>
     </row>
-    <row r="49" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="26">
         <v>6</v>
       </c>
@@ -10758,7 +10758,7 @@
       <c r="R49" s="31"/>
       <c r="S49" s="31"/>
     </row>
-    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="43"/>
       <c r="B50" s="45" t="s">
         <v>79</v>
@@ -10781,7 +10781,7 @@
       <c r="J50" s="44"/>
       <c r="K50" s="16"/>
     </row>
-    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="43"/>
       <c r="B51" s="45" t="s">
         <v>38</v>
@@ -10807,7 +10807,7 @@
       </c>
       <c r="K51" s="16"/>
     </row>
-    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="43"/>
       <c r="B52" s="45" t="s">
         <v>52</v>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="K52" s="16"/>
     </row>
-    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="26"/>
       <c r="B53" s="30"/>
       <c r="C53" s="27"/>
@@ -10845,7 +10845,7 @@
       <c r="R53" s="31"/>
       <c r="S53" s="31"/>
     </row>
-    <row r="54" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="26">
         <v>7</v>
       </c>
@@ -10869,7 +10869,7 @@
       <c r="R54" s="31"/>
       <c r="S54" s="31"/>
     </row>
-    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="43"/>
       <c r="B55" s="45" t="s">
         <v>79</v>
@@ -10892,7 +10892,7 @@
       <c r="J55" s="44"/>
       <c r="K55" s="16"/>
     </row>
-    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="43"/>
       <c r="B56" s="45" t="s">
         <v>38</v>
@@ -10918,7 +10918,7 @@
       </c>
       <c r="K56" s="16"/>
     </row>
-    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="43"/>
       <c r="B57" s="45" t="s">
         <v>52</v>
@@ -10936,7 +10936,7 @@
       </c>
       <c r="K57" s="16"/>
     </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="26"/>
       <c r="B58" s="30"/>
       <c r="C58" s="27"/>
@@ -10956,7 +10956,7 @@
       <c r="R58" s="31"/>
       <c r="S58" s="31"/>
     </row>
-    <row r="59" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="64">
         <v>8</v>
       </c>
@@ -10980,7 +10980,7 @@
       <c r="R59" s="31"/>
       <c r="S59" s="31"/>
     </row>
-    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="43"/>
       <c r="B60" s="45" t="s">
         <v>79</v>
@@ -11003,7 +11003,7 @@
       <c r="J60" s="44"/>
       <c r="K60" s="16"/>
     </row>
-    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="43"/>
       <c r="B61" s="45" t="s">
         <v>38</v>
@@ -11029,7 +11029,7 @@
       </c>
       <c r="K61" s="16"/>
     </row>
-    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43"/>
       <c r="B62" s="45" t="s">
         <v>52</v>
@@ -11047,7 +11047,7 @@
       </c>
       <c r="K62" s="16"/>
     </row>
-    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="26"/>
       <c r="B63" s="30"/>
       <c r="C63" s="27"/>
@@ -11067,7 +11067,7 @@
       <c r="R63" s="31"/>
       <c r="S63" s="31"/>
     </row>
-    <row r="64" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="64">
         <v>9</v>
       </c>
@@ -11091,7 +11091,7 @@
       <c r="R64" s="31"/>
       <c r="S64" s="31"/>
     </row>
-    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="43"/>
       <c r="B65" s="45" t="s">
         <v>79</v>
@@ -11114,7 +11114,7 @@
       <c r="J65" s="44"/>
       <c r="K65" s="16"/>
     </row>
-    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="43"/>
       <c r="B66" s="45" t="s">
         <v>38</v>
@@ -11140,7 +11140,7 @@
       </c>
       <c r="K66" s="16"/>
     </row>
-    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43"/>
       <c r="B67" s="45" t="s">
         <v>52</v>
@@ -11158,7 +11158,7 @@
       </c>
       <c r="K67" s="16"/>
     </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="26"/>
       <c r="B68" s="30"/>
       <c r="C68" s="27"/>
@@ -11178,7 +11178,7 @@
       <c r="R68" s="31"/>
       <c r="S68" s="31"/>
     </row>
-    <row r="69" spans="1:19" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:19" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="64">
         <v>10</v>
       </c>
@@ -11202,7 +11202,7 @@
       <c r="R69" s="31"/>
       <c r="S69" s="31"/>
     </row>
-    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="43"/>
       <c r="B70" s="45" t="s">
         <v>79</v>
@@ -11225,7 +11225,7 @@
       <c r="J70" s="44"/>
       <c r="K70" s="16"/>
     </row>
-    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="43"/>
       <c r="B71" s="45" t="s">
         <v>38</v>
@@ -11251,7 +11251,7 @@
       </c>
       <c r="K71" s="16"/>
     </row>
-    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="43"/>
       <c r="B72" s="45" t="s">
         <v>52</v>
@@ -11269,7 +11269,7 @@
       </c>
       <c r="K72" s="16"/>
     </row>
-    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="26"/>
       <c r="B73" s="30"/>
       <c r="C73" s="27"/>
@@ -11289,7 +11289,7 @@
       <c r="R73" s="31"/>
       <c r="S73" s="31"/>
     </row>
-    <row r="74" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="64">
         <v>11</v>
       </c>
@@ -11313,7 +11313,7 @@
       <c r="R74" s="31"/>
       <c r="S74" s="31"/>
     </row>
-    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="43"/>
       <c r="B75" s="45" t="s">
         <v>79</v>
@@ -11336,7 +11336,7 @@
       <c r="J75" s="44"/>
       <c r="K75" s="16"/>
     </row>
-    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="43"/>
       <c r="B76" s="45" t="s">
         <v>38</v>
@@ -11362,7 +11362,7 @@
       </c>
       <c r="K76" s="16"/>
     </row>
-    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="43"/>
       <c r="B77" s="45" t="s">
         <v>52</v>
@@ -11380,7 +11380,7 @@
       </c>
       <c r="K77" s="16"/>
     </row>
-    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="26"/>
       <c r="B78" s="30"/>
       <c r="C78" s="27"/>
@@ -11400,7 +11400,7 @@
       <c r="R78" s="31"/>
       <c r="S78" s="31"/>
     </row>
-    <row r="79" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="64">
         <v>12</v>
       </c>
@@ -11424,7 +11424,7 @@
       <c r="R79" s="31"/>
       <c r="S79" s="31"/>
     </row>
-    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="43"/>
       <c r="B80" s="45" t="s">
         <v>79</v>
@@ -11447,7 +11447,7 @@
       <c r="J80" s="44"/>
       <c r="K80" s="16"/>
     </row>
-    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="43"/>
       <c r="B81" s="45" t="s">
         <v>38</v>
@@ -11473,7 +11473,7 @@
       </c>
       <c r="K81" s="16"/>
     </row>
-    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="43"/>
       <c r="B82" s="45" t="s">
         <v>52</v>
@@ -11491,7 +11491,7 @@
       </c>
       <c r="K82" s="16"/>
     </row>
-    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="26"/>
       <c r="B83" s="30"/>
       <c r="C83" s="27"/>
@@ -11511,7 +11511,7 @@
       <c r="R83" s="31"/>
       <c r="S83" s="31"/>
     </row>
-    <row r="84" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="64">
         <v>13</v>
       </c>
@@ -11535,7 +11535,7 @@
       <c r="R84" s="31"/>
       <c r="S84" s="31"/>
     </row>
-    <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="43"/>
       <c r="B85" s="45" t="s">
         <v>79</v>
@@ -11558,7 +11558,7 @@
       <c r="J85" s="44"/>
       <c r="K85" s="16"/>
     </row>
-    <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="43"/>
       <c r="B86" s="45" t="s">
         <v>38</v>
@@ -11584,7 +11584,7 @@
       </c>
       <c r="K86" s="16"/>
     </row>
-    <row r="87" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="43"/>
       <c r="B87" s="45" t="s">
         <v>52</v>
@@ -11602,7 +11602,7 @@
       </c>
       <c r="K87" s="16"/>
     </row>
-    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="26"/>
       <c r="B88" s="30"/>
       <c r="C88" s="27"/>
@@ -11622,7 +11622,7 @@
       <c r="R88" s="31"/>
       <c r="S88" s="31"/>
     </row>
-    <row r="89" spans="1:19" ht="30" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="26">
         <v>14</v>
       </c>
@@ -11646,7 +11646,7 @@
       <c r="R89" s="31"/>
       <c r="S89" s="31"/>
     </row>
-    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="43"/>
       <c r="B90" s="45" t="s">
         <v>54</v>
@@ -11670,7 +11670,7 @@
       <c r="J90" s="44"/>
       <c r="K90" s="16"/>
     </row>
-    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="43"/>
       <c r="B91" s="45" t="s">
         <v>38</v>
@@ -11695,7 +11695,7 @@
       </c>
       <c r="K91" s="16"/>
     </row>
-    <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="43"/>
       <c r="B92" s="45" t="s">
         <v>52</v>
@@ -11713,7 +11713,7 @@
       </c>
       <c r="K92" s="16"/>
     </row>
-    <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="43"/>
       <c r="B93" s="45"/>
       <c r="C93" s="46"/>
@@ -11726,7 +11726,7 @@
       <c r="J93" s="40"/>
       <c r="K93" s="16"/>
     </row>
-    <row r="94" spans="1:19" ht="30" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="43">
         <v>15</v>
       </c>
@@ -11743,7 +11743,7 @@
       <c r="J94" s="40"/>
       <c r="K94" s="16"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="43"/>
       <c r="B95" s="45" t="s">
         <v>117</v>
@@ -11770,7 +11770,7 @@
       <c r="J95" s="40"/>
       <c r="K95" s="16"/>
     </row>
-    <row r="96" spans="1:19" ht="15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="43"/>
       <c r="B96" s="48"/>
       <c r="C96" s="46">
@@ -11795,7 +11795,7 @@
       <c r="J96" s="40"/>
       <c r="K96" s="16"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="43"/>
       <c r="B97" s="45" t="s">
         <v>44</v>
@@ -11820,7 +11820,7 @@
       <c r="J97" s="40"/>
       <c r="K97" s="16"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="43"/>
       <c r="B98" s="45" t="s">
         <v>43</v>
@@ -11846,7 +11846,7 @@
       <c r="J98" s="40"/>
       <c r="K98" s="16"/>
     </row>
-    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="43"/>
       <c r="B99" s="45" t="s">
         <v>54</v>
@@ -11871,7 +11871,7 @@
       <c r="J99" s="44"/>
       <c r="K99" s="16"/>
     </row>
-    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="43"/>
       <c r="B100" s="45" t="s">
         <v>55</v>
@@ -11896,7 +11896,7 @@
       <c r="J100" s="44"/>
       <c r="K100" s="16"/>
     </row>
-    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="43"/>
       <c r="B101" s="45" t="s">
         <v>38</v>
@@ -11921,7 +11921,7 @@
       </c>
       <c r="K101" s="16"/>
     </row>
-    <row r="102" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="43"/>
       <c r="B102" s="45" t="s">
         <v>52</v>
@@ -11939,7 +11939,7 @@
       </c>
       <c r="K102" s="16"/>
     </row>
-    <row r="103" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="43"/>
       <c r="B103" s="45"/>
       <c r="C103" s="46"/>
@@ -11952,7 +11952,7 @@
       <c r="J103" s="44"/>
       <c r="K103" s="16"/>
     </row>
-    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="43">
         <v>16</v>
       </c>
@@ -11969,7 +11969,7 @@
       <c r="J104" s="40"/>
       <c r="K104" s="16"/>
     </row>
-    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="43"/>
       <c r="B105" s="45" t="s">
         <v>54</v>
@@ -11994,7 +11994,7 @@
       <c r="J105" s="44"/>
       <c r="K105" s="16"/>
     </row>
-    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="43"/>
       <c r="B106" s="45" t="s">
         <v>38</v>
@@ -12019,7 +12019,7 @@
       </c>
       <c r="K106" s="16"/>
     </row>
-    <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="43"/>
       <c r="B107" s="45" t="s">
         <v>52</v>
@@ -12037,7 +12037,7 @@
       </c>
       <c r="K107" s="16"/>
     </row>
-    <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="43"/>
       <c r="B108" s="45"/>
       <c r="C108" s="46"/>
@@ -12050,7 +12050,7 @@
       <c r="J108" s="40"/>
       <c r="K108" s="16"/>
     </row>
-    <row r="109" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="58">
         <v>17</v>
       </c>
@@ -12067,7 +12067,7 @@
       <c r="J109" s="40"/>
       <c r="K109" s="16"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="58"/>
       <c r="B110" s="45" t="str">
         <f>B95</f>
@@ -12095,7 +12095,7 @@
       <c r="J110" s="40"/>
       <c r="K110" s="16"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="58"/>
       <c r="B111" s="45"/>
       <c r="C111" s="46">
@@ -12120,7 +12120,7 @@
       <c r="J111" s="40"/>
       <c r="K111" s="16"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="58"/>
       <c r="B112" s="45" t="str">
         <f>B97</f>
@@ -12148,7 +12148,7 @@
       <c r="J112" s="40"/>
       <c r="K112" s="16"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="58"/>
       <c r="B113" s="45" t="str">
         <f>B98</f>
@@ -12176,7 +12176,7 @@
       <c r="J113" s="40"/>
       <c r="K113" s="16"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="43"/>
       <c r="B114" s="45" t="str">
         <f>B100</f>
@@ -12203,7 +12203,7 @@
       <c r="J114" s="9"/>
       <c r="K114" s="16"/>
     </row>
-    <row r="115" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="43"/>
       <c r="B115" s="45" t="s">
         <v>38</v>
@@ -12229,7 +12229,7 @@
       </c>
       <c r="K115" s="16"/>
     </row>
-    <row r="116" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="43"/>
       <c r="B116" s="45" t="s">
         <v>52</v>
@@ -12247,7 +12247,7 @@
       </c>
       <c r="K116" s="16"/>
     </row>
-    <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="43"/>
       <c r="B117" s="45"/>
       <c r="C117" s="46"/>
@@ -12260,7 +12260,7 @@
       <c r="J117" s="44"/>
       <c r="K117" s="16"/>
     </row>
-    <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="43">
         <v>18</v>
       </c>
@@ -12277,7 +12277,7 @@
       <c r="J118" s="44"/>
       <c r="K118" s="16"/>
     </row>
-    <row r="119" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="43"/>
       <c r="B119" s="45" t="s">
         <v>119</v>
@@ -12297,7 +12297,7 @@
       <c r="J119" s="44"/>
       <c r="K119" s="16"/>
     </row>
-    <row r="120" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="43"/>
       <c r="B120" s="45" t="s">
         <v>38</v>
@@ -12322,7 +12322,7 @@
       </c>
       <c r="K120" s="16"/>
     </row>
-    <row r="121" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="43"/>
       <c r="B121" s="45" t="s">
         <v>52</v>
@@ -12340,7 +12340,7 @@
       </c>
       <c r="K121" s="16"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="43"/>
       <c r="B122" s="45"/>
       <c r="C122" s="46"/>
@@ -12353,7 +12353,7 @@
       <c r="J122" s="40"/>
       <c r="K122" s="16"/>
     </row>
-    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="58">
         <v>19</v>
       </c>
@@ -12370,7 +12370,7 @@
       <c r="J123" s="40"/>
       <c r="K123" s="16"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="43"/>
       <c r="B124" s="45" t="s">
         <v>60</v>
@@ -12396,7 +12396,7 @@
       <c r="J124" s="9"/>
       <c r="K124" s="16"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="43"/>
       <c r="B125" s="45" t="s">
         <v>61</v>
@@ -12420,7 +12420,7 @@
       <c r="J125" s="9"/>
       <c r="K125" s="16"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="43"/>
       <c r="B126" s="45"/>
       <c r="C126" s="46">
@@ -12442,7 +12442,7 @@
       <c r="J126" s="9"/>
       <c r="K126" s="16"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="43"/>
       <c r="B127" s="45"/>
       <c r="C127" s="46">
@@ -12465,7 +12465,7 @@
       <c r="J127" s="9"/>
       <c r="K127" s="16"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="43"/>
       <c r="B128" s="45"/>
       <c r="C128" s="46">
@@ -12487,7 +12487,7 @@
       <c r="J128" s="9"/>
       <c r="K128" s="16"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="43"/>
       <c r="B129" s="45" t="s">
         <v>76</v>
@@ -12513,7 +12513,7 @@
       <c r="J129" s="9"/>
       <c r="K129" s="16"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="43"/>
       <c r="B130" s="45" t="s">
         <v>111</v>
@@ -12539,7 +12539,7 @@
       <c r="J130" s="9"/>
       <c r="K130" s="16"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="43"/>
       <c r="B131" s="45"/>
       <c r="C131" s="46">
@@ -12563,7 +12563,7 @@
       <c r="J131" s="9"/>
       <c r="K131" s="16"/>
     </row>
-    <row r="132" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="43"/>
       <c r="B132" s="45" t="s">
         <v>38</v>
@@ -12588,7 +12588,7 @@
       </c>
       <c r="K132" s="16"/>
     </row>
-    <row r="133" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="43"/>
       <c r="B133" s="45" t="s">
         <v>52</v>
@@ -12606,7 +12606,7 @@
       </c>
       <c r="K133" s="16"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="43"/>
       <c r="B134" s="45"/>
       <c r="C134" s="46"/>
@@ -12619,7 +12619,7 @@
       <c r="J134" s="40"/>
       <c r="K134" s="16"/>
     </row>
-    <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="43">
         <v>20</v>
       </c>
@@ -12636,7 +12636,7 @@
       <c r="J135" s="40"/>
       <c r="K135" s="16"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="43"/>
       <c r="B136" s="45" t="s">
         <v>63</v>
@@ -12659,7 +12659,7 @@
       <c r="J136" s="9"/>
       <c r="K136" s="16"/>
     </row>
-    <row r="137" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="43"/>
       <c r="B137" s="45" t="s">
         <v>38</v>
@@ -12684,7 +12684,7 @@
       </c>
       <c r="K137" s="16"/>
     </row>
-    <row r="138" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="43"/>
       <c r="B138" s="45" t="s">
         <v>52</v>
@@ -12702,7 +12702,7 @@
       </c>
       <c r="K138" s="16"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="43"/>
       <c r="B139" s="45"/>
       <c r="C139" s="46"/>
@@ -12715,7 +12715,7 @@
       <c r="J139" s="40"/>
       <c r="K139" s="16"/>
     </row>
-    <row r="140" spans="1:11" ht="30" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A140" s="43">
         <v>21</v>
       </c>
@@ -12732,7 +12732,7 @@
       <c r="J140" s="40"/>
       <c r="K140" s="16"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="43"/>
       <c r="B141" s="45" t="s">
         <v>63</v>
@@ -12755,7 +12755,7 @@
       <c r="J141" s="9"/>
       <c r="K141" s="16"/>
     </row>
-    <row r="142" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="43"/>
       <c r="B142" s="45" t="s">
         <v>38</v>
@@ -12780,7 +12780,7 @@
       </c>
       <c r="K142" s="16"/>
     </row>
-    <row r="143" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="43"/>
       <c r="B143" s="45" t="s">
         <v>52</v>
@@ -12798,7 +12798,7 @@
       </c>
       <c r="K143" s="16"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="43"/>
       <c r="B144" s="45"/>
       <c r="C144" s="46"/>
@@ -12811,7 +12811,7 @@
       <c r="J144" s="40"/>
       <c r="K144" s="16"/>
     </row>
-    <row r="145" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="43">
         <v>22</v>
       </c>
@@ -12828,7 +12828,7 @@
       <c r="J145" s="40"/>
       <c r="K145" s="5"/>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A146" s="43"/>
       <c r="B146" s="56" t="s">
         <v>67</v>
@@ -12856,7 +12856,7 @@
       <c r="J146" s="40"/>
       <c r="K146" s="5"/>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="43"/>
       <c r="B147" s="56"/>
       <c r="C147" s="53">
@@ -12881,7 +12881,7 @@
       <c r="J147" s="40"/>
       <c r="K147" s="5"/>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="43"/>
       <c r="B148" s="56" t="s">
         <v>68</v>
@@ -12908,7 +12908,7 @@
       <c r="J148" s="40"/>
       <c r="K148" s="5"/>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="43"/>
       <c r="B149" s="56"/>
       <c r="C149" s="53">
@@ -12934,7 +12934,7 @@
       <c r="J149" s="40"/>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="43"/>
       <c r="B150" s="56" t="s">
         <v>38</v>
@@ -12960,7 +12960,7 @@
       </c>
       <c r="K150" s="5"/>
     </row>
-    <row r="151" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="43"/>
       <c r="B151" s="56" t="s">
         <v>52</v>
@@ -12978,7 +12978,7 @@
       </c>
       <c r="K151" s="5"/>
     </row>
-    <row r="152" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="43"/>
       <c r="B152" s="56"/>
       <c r="C152" s="53"/>
@@ -12991,7 +12991,7 @@
       <c r="J152" s="61"/>
       <c r="K152" s="5"/>
     </row>
-    <row r="153" spans="1:13" ht="30.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A153" s="43">
         <v>23</v>
       </c>
@@ -13009,7 +13009,7 @@
       <c r="K153" s="5"/>
       <c r="M153" s="63"/>
     </row>
-    <row r="154" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="43"/>
       <c r="B154" s="56" t="s">
         <v>70</v>
@@ -13035,7 +13035,7 @@
       <c r="J154" s="40"/>
       <c r="K154" s="5"/>
     </row>
-    <row r="155" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="43"/>
       <c r="B155" s="56" t="s">
         <v>38</v>
@@ -13061,7 +13061,7 @@
       </c>
       <c r="K155" s="5"/>
     </row>
-    <row r="156" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="43"/>
       <c r="B156" s="56" t="s">
         <v>52</v>
@@ -13079,7 +13079,7 @@
       </c>
       <c r="K156" s="5"/>
     </row>
-    <row r="157" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="43"/>
       <c r="B157" s="52"/>
       <c r="C157" s="53"/>
@@ -13093,7 +13093,7 @@
       <c r="K157" s="5"/>
       <c r="M157" s="63"/>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="43">
         <v>24</v>
       </c>
@@ -13110,7 +13110,7 @@
       <c r="J158" s="40"/>
       <c r="K158" s="5"/>
     </row>
-    <row r="159" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="43"/>
       <c r="B159" s="56" t="s">
         <v>70</v>
@@ -13136,7 +13136,7 @@
       <c r="J159" s="40"/>
       <c r="K159" s="5"/>
     </row>
-    <row r="160" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="43"/>
       <c r="B160" s="56" t="s">
         <v>38</v>
@@ -13162,7 +13162,7 @@
       </c>
       <c r="K160" s="5"/>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A161" s="43"/>
       <c r="B161" s="62"/>
       <c r="C161" s="53"/>
@@ -13175,7 +13175,7 @@
       <c r="J161" s="40"/>
       <c r="K161" s="5"/>
     </row>
-    <row r="162" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="43">
         <v>25</v>
       </c>
@@ -13192,7 +13192,7 @@
       <c r="J162" s="40"/>
       <c r="K162" s="5"/>
     </row>
-    <row r="163" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="43"/>
       <c r="B163" s="56" t="s">
         <v>72</v>
@@ -13218,7 +13218,7 @@
       <c r="J163" s="40"/>
       <c r="K163" s="5"/>
     </row>
-    <row r="164" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="43"/>
       <c r="B164" s="56" t="s">
         <v>38</v>
@@ -13244,7 +13244,7 @@
       </c>
       <c r="K164" s="5"/>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A165" s="43"/>
       <c r="B165" s="62"/>
       <c r="C165" s="53"/>
@@ -13257,7 +13257,7 @@
       <c r="J165" s="40"/>
       <c r="K165" s="5"/>
     </row>
-    <row r="166" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="43">
         <v>26</v>
       </c>
@@ -13274,7 +13274,7 @@
       <c r="J166" s="40"/>
       <c r="K166" s="5"/>
     </row>
-    <row r="167" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="43"/>
       <c r="B167" s="56" t="s">
         <v>74</v>
@@ -13300,7 +13300,7 @@
       <c r="J167" s="40"/>
       <c r="K167" s="5"/>
     </row>
-    <row r="168" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="43"/>
       <c r="B168" s="70" t="s">
         <v>96</v>
@@ -13325,7 +13325,7 @@
       <c r="J168" s="40"/>
       <c r="K168" s="5"/>
     </row>
-    <row r="169" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="43"/>
       <c r="B169" s="56" t="s">
         <v>38</v>
@@ -13351,7 +13351,7 @@
       </c>
       <c r="K169" s="5"/>
     </row>
-    <row r="170" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="43"/>
       <c r="B170" s="56" t="s">
         <v>52</v>
@@ -13369,7 +13369,7 @@
       </c>
       <c r="K170" s="5"/>
     </row>
-    <row r="171" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="43"/>
       <c r="B171" s="56"/>
       <c r="C171" s="53"/>
@@ -13383,7 +13383,7 @@
       <c r="K171" s="5"/>
       <c r="M171" s="63"/>
     </row>
-    <row r="172" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="65">
         <v>27</v>
       </c>
@@ -13401,7 +13401,7 @@
       <c r="K172" s="5"/>
       <c r="M172" s="63"/>
     </row>
-    <row r="173" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="65"/>
       <c r="B173" s="70" t="s">
         <v>94</v>
@@ -13427,7 +13427,7 @@
       <c r="J173" s="69"/>
       <c r="K173" s="5"/>
     </row>
-    <row r="174" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="65"/>
       <c r="B174" s="70" t="s">
         <v>95</v>
@@ -13453,7 +13453,7 @@
       <c r="J174" s="69"/>
       <c r="K174" s="5"/>
     </row>
-    <row r="175" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="65"/>
       <c r="B175" s="70" t="s">
         <v>38</v>
@@ -13479,7 +13479,7 @@
       </c>
       <c r="K175" s="5"/>
     </row>
-    <row r="176" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="65"/>
       <c r="B176" s="70" t="s">
         <v>52</v>
@@ -13497,7 +13497,7 @@
       </c>
       <c r="K176" s="5"/>
     </row>
-    <row r="177" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A177" s="65"/>
       <c r="B177" s="74"/>
       <c r="C177" s="67"/>
@@ -13511,7 +13511,7 @@
       <c r="K177" s="5"/>
       <c r="M177" s="63"/>
     </row>
-    <row r="178" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="65">
         <v>28</v>
       </c>
@@ -13529,7 +13529,7 @@
       <c r="K178" s="5"/>
       <c r="M178" s="63"/>
     </row>
-    <row r="179" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="65"/>
       <c r="B179" s="70" t="str">
         <f t="shared" ref="B179:E180" si="15">B173</f>
@@ -13557,7 +13557,7 @@
       <c r="J179" s="69"/>
       <c r="K179" s="5"/>
     </row>
-    <row r="180" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="65"/>
       <c r="B180" s="70" t="str">
         <f t="shared" si="15"/>
@@ -13585,7 +13585,7 @@
       <c r="J180" s="69"/>
       <c r="K180" s="5"/>
     </row>
-    <row r="181" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="65"/>
       <c r="B181" s="70" t="s">
         <v>38</v>
@@ -13611,7 +13611,7 @@
       </c>
       <c r="K181" s="5"/>
     </row>
-    <row r="182" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="65"/>
       <c r="B182" s="70" t="s">
         <v>52</v>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="K182" s="5"/>
     </row>
-    <row r="183" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="43"/>
       <c r="B183" s="52"/>
       <c r="C183" s="53"/>
@@ -13643,7 +13643,7 @@
       <c r="K183" s="5"/>
       <c r="M183" s="63"/>
     </row>
-    <row r="184" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="43">
         <v>29</v>
       </c>
@@ -13661,7 +13661,7 @@
       <c r="K184" s="5"/>
       <c r="M184" s="63"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A185" s="43"/>
       <c r="B185" s="76" t="s">
         <v>105</v>
@@ -13685,7 +13685,7 @@
       <c r="K185" s="5"/>
       <c r="M185" s="63"/>
     </row>
-    <row r="186" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="65"/>
       <c r="B186" s="70" t="s">
         <v>38</v>
@@ -13711,7 +13711,7 @@
       </c>
       <c r="K186" s="5"/>
     </row>
-    <row r="187" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="65"/>
       <c r="B187" s="70" t="s">
         <v>52</v>
@@ -13729,7 +13729,7 @@
       </c>
       <c r="K187" s="5"/>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A188" s="43"/>
       <c r="B188" s="51"/>
       <c r="C188" s="53"/>
@@ -13743,7 +13743,7 @@
       <c r="K188" s="5"/>
       <c r="M188" s="63"/>
     </row>
-    <row r="189" spans="1:13" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="43">
         <v>30</v>
       </c>
@@ -13761,7 +13761,7 @@
       <c r="K189" s="5"/>
       <c r="M189" s="63"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A190" s="43"/>
       <c r="B190" s="76" t="s">
         <v>107</v>
@@ -13785,7 +13785,7 @@
       <c r="K190" s="5"/>
       <c r="M190" s="63"/>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="43"/>
       <c r="B191" s="76"/>
       <c r="C191" s="53">
@@ -13807,7 +13807,7 @@
       <c r="K191" s="5"/>
       <c r="M191" s="63"/>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="43"/>
       <c r="B192" s="76" t="s">
         <v>108</v>
@@ -13831,7 +13831,7 @@
       <c r="K192" s="5"/>
       <c r="M192" s="63"/>
     </row>
-    <row r="193" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="65"/>
       <c r="B193" s="70" t="s">
         <v>38</v>
@@ -13857,7 +13857,7 @@
       </c>
       <c r="K193" s="5"/>
     </row>
-    <row r="194" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="65"/>
       <c r="B194" s="70" t="s">
         <v>52</v>
@@ -13875,7 +13875,7 @@
       </c>
       <c r="K194" s="5"/>
     </row>
-    <row r="195" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="43"/>
       <c r="B195" s="56"/>
       <c r="C195" s="53"/>
@@ -13889,7 +13889,7 @@
       <c r="K195" s="5"/>
       <c r="M195" s="63"/>
     </row>
-    <row r="196" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="43">
         <v>31</v>
       </c>
@@ -13907,7 +13907,7 @@
       <c r="K196" s="5"/>
       <c r="M196" s="63"/>
     </row>
-    <row r="197" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="43"/>
       <c r="B197" s="76" t="s">
         <v>113</v>
@@ -13930,7 +13930,7 @@
       <c r="K197" s="5"/>
       <c r="M197" s="63"/>
     </row>
-    <row r="198" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="65"/>
       <c r="B198" s="70" t="s">
         <v>38</v>
@@ -13956,7 +13956,7 @@
       </c>
       <c r="K198" s="5"/>
     </row>
-    <row r="199" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="65"/>
       <c r="B199" s="70" t="s">
         <v>52</v>
@@ -13974,7 +13974,7 @@
       </c>
       <c r="K199" s="5"/>
     </row>
-    <row r="200" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="43"/>
       <c r="B200" s="45"/>
       <c r="C200" s="46"/>
@@ -13987,14 +13987,14 @@
       <c r="J200" s="40"/>
       <c r="K200" s="16"/>
     </row>
-    <row r="201" spans="1:19" ht="58.2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:19" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A201" s="43">
         <v>32</v>
       </c>
-      <c r="B201" s="101" t="s">
+      <c r="B201" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="C201" s="100"/>
+      <c r="C201" s="77"/>
       <c r="D201" s="14"/>
       <c r="E201" s="14"/>
       <c r="F201" s="14"/>
@@ -14004,7 +14004,7 @@
       <c r="J201" s="44"/>
       <c r="K201" s="16"/>
     </row>
-    <row r="202" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="43"/>
       <c r="B202" s="45" t="str">
         <f>B95</f>
@@ -14031,7 +14031,7 @@
       <c r="J202" s="40"/>
       <c r="K202" s="16"/>
     </row>
-    <row r="203" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="43"/>
       <c r="B203" s="45"/>
       <c r="C203" s="46">
@@ -14055,7 +14055,7 @@
       <c r="J203" s="40"/>
       <c r="K203" s="16"/>
     </row>
-    <row r="204" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="43"/>
       <c r="B204" s="45" t="str">
         <f>B98</f>
@@ -14082,7 +14082,7 @@
       <c r="J204" s="40"/>
       <c r="K204" s="16"/>
     </row>
-    <row r="205" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="65"/>
       <c r="B205" s="70" t="s">
         <v>38</v>
@@ -14107,7 +14107,7 @@
       </c>
       <c r="K205" s="5"/>
     </row>
-    <row r="206" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="65"/>
       <c r="B206" s="70" t="s">
         <v>52</v>
@@ -14125,7 +14125,7 @@
       </c>
       <c r="K206" s="5"/>
     </row>
-    <row r="207" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="65"/>
       <c r="B207" s="70"/>
       <c r="C207" s="67"/>
@@ -14138,7 +14138,7 @@
       <c r="J207" s="73"/>
       <c r="K207" s="5"/>
     </row>
-    <row r="208" spans="1:19" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="26">
         <v>33</v>
       </c>
@@ -14174,7 +14174,7 @@
       <c r="R208" s="31"/>
       <c r="S208" s="31"/>
     </row>
-    <row r="209" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="43"/>
       <c r="B209" s="45"/>
       <c r="C209" s="46"/>
@@ -14187,7 +14187,7 @@
       <c r="J209" s="40"/>
       <c r="K209" s="16"/>
     </row>
-    <row r="210" spans="1:20" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A210" s="26">
         <v>34</v>
       </c>
@@ -14224,7 +14224,7 @@
       <c r="S210" s="18"/>
       <c r="T210" s="18"/>
     </row>
-    <row r="211" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="43"/>
       <c r="B211" s="45"/>
       <c r="C211" s="46"/>
@@ -14237,7 +14237,7 @@
       <c r="J211" s="40"/>
       <c r="K211" s="16"/>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A212" s="43"/>
       <c r="B212" s="50" t="s">
         <v>15</v>
@@ -14255,15 +14255,15 @@
       </c>
       <c r="K212" s="16"/>
     </row>
-    <row r="214" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B214" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C214" s="91">
+      <c r="C214" s="93">
         <f>J212</f>
         <v>1007333.3794049266</v>
       </c>
-      <c r="D214" s="92"/>
+      <c r="D214" s="94"/>
       <c r="E214" s="14">
         <v>100</v>
       </c>
@@ -14274,72 +14274,78 @@
       <c r="J214" s="21"/>
       <c r="K214" s="22"/>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B215" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C215" s="98">
+      <c r="C215" s="100">
         <v>900000</v>
       </c>
-      <c r="D215" s="99"/>
+      <c r="D215" s="101"/>
       <c r="E215" s="14"/>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B216" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C216" s="98">
+      <c r="C216" s="100">
         <f>C215-C218-C219</f>
         <v>855000</v>
       </c>
-      <c r="D216" s="99"/>
+      <c r="D216" s="101"/>
       <c r="E216" s="14">
         <f>C216/C214*100</f>
         <v>84.877560644826815</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B217" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="C217" s="90">
+      <c r="C217" s="92">
         <f>C214-C216</f>
         <v>152333.37940492656</v>
       </c>
-      <c r="D217" s="90"/>
+      <c r="D217" s="92"/>
       <c r="E217" s="14">
         <f>100-E216</f>
         <v>15.122439355173185</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B218" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C218" s="91">
+      <c r="C218" s="93">
         <f>C215*0.03</f>
         <v>27000</v>
       </c>
-      <c r="D218" s="92"/>
+      <c r="D218" s="94"/>
       <c r="E218" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B219" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C219" s="91">
+      <c r="C219" s="93">
         <f>C215*0.02</f>
         <v>18000</v>
       </c>
-      <c r="D219" s="92"/>
+      <c r="D219" s="94"/>
       <c r="E219" s="14">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C218:D218"/>
     <mergeCell ref="C219:D219"/>
     <mergeCell ref="A7:F7"/>
@@ -14348,12 +14354,6 @@
     <mergeCell ref="C215:D215"/>
     <mergeCell ref="C216:D216"/>
     <mergeCell ref="C217:D217"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="H6:K6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ofc/estimates/lakilla mandir/lakilla mandir.xlsx
+++ b/ofc/estimates/lakilla mandir/lakilla mandir.xlsx
@@ -20,6 +20,7 @@
   <externalReferences>
     <externalReference r:id="rId5"/>
     <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="description_124" localSheetId="2">#REF!</definedName>
@@ -28,11 +29,12 @@
     <definedName name="description_124">#REF!</definedName>
     <definedName name="description_261">[1]Abstract!$B$33</definedName>
     <definedName name="description_262">[2]Abstract!$B$34</definedName>
+    <definedName name="description_3">[3]Abstract!$B$169</definedName>
     <definedName name="description_6">[2]Abstract!$B$172</definedName>
     <definedName name="description_759">[2]Abstract!$B$278</definedName>
     <definedName name="description_783">[2]Abstract!$B$301</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'dachi both sides'!$A$1:$K$197</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'dachi one side only'!$A$1:$K$219</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'dachi one side only'!$A$1:$K$240</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">estimate!$A$1:$K$171</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'dachi both sides'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'dachi one side only'!$1:$8</definedName>
@@ -57,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="131">
   <si>
     <t>Government of Nepal</t>
   </si>
@@ -447,6 +449,27 @@
   <si>
     <t>Provisional sum for fittings works &amp; other unforseen works/items</t>
   </si>
+  <si>
+    <t>kmnfd] /f]lnË ;6/ agfO{ h8fg ug]{ , k]G6LË / Hofnf ;d]t</t>
+  </si>
+  <si>
+    <t>-at GF</t>
+  </si>
+  <si>
+    <t>Random Rubble Masonry, Providing and laying of Stone Masonry Work in Cement Mortar 1:6 in Foundation complete as per Drawing and Technical Specifications.</t>
+  </si>
+  <si>
+    <t>Providing and laying of Plain/Reinforced Cement Concrete in Foundation complete as per Drawing and Technical Specifications, PCC Grade M 15</t>
+  </si>
+  <si>
+    <t>Providing and laying of hand pack locally available Stone soling with 150 to 200 mm thick stones and packing with smaller stone on prepared surface as per Drawing and Technical Specifications.</t>
+  </si>
+  <si>
+    <t>-for masonary</t>
+  </si>
+  <si>
+    <t>Date: 2081/12/14</t>
+  </si>
 </sst>
 </file>
 
@@ -697,7 +720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -887,24 +910,6 @@
     <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -924,6 +929,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -954,6 +977,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1058,8 +1085,8 @@
       <sheetName val="PPMO_BOQ"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1">
         <row r="16">
           <cell r="B16" t="str">
             <v>Clearing and Grubbing Road Land ., Clearing and grubbing road land including uprooting rank vegetation, grass, bushes, shrubs, saplings and trees girth up to 300 mm, removal of stumps of trees cut earlier and disposal of unserviceable materials and stacking of serviceable Material to be used or auctioned, up to a lead of 30 meters including removal and disposal of top organic soil not exceeding 150 mm in thickness., By Mechanical Means, In area of light jungle (less than 15 number per 100 sqm )</v>
@@ -1083,6 +1110,65 @@
         <row r="301">
           <cell r="B301" t="str">
             <v>Random Rubble Masonry, Providing and laying of Stone Masonry Work in Cement Mortar 1:6 in Foundation complete as per Drawing and Technical Specifications.</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Datasheet"/>
+      <sheetName val="Abstract"/>
+      <sheetName val="Quantity_Sheet"/>
+      <sheetName val="District_Rate"/>
+      <sheetName val="Equipment_Rate"/>
+      <sheetName val="Summary_of_Rates"/>
+      <sheetName val="rate (roadway)"/>
+      <sheetName val="manhole"/>
+      <sheetName val="bistar"/>
+      <sheetName val="Rate_Analysis"/>
+      <sheetName val="DWC pipe Rate-analysis"/>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet2"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Loading_Unloading"/>
+      <sheetName val="Collection"/>
+      <sheetName val="Transportation"/>
+      <sheetName val="References"/>
+      <sheetName val="BOQ"/>
+      <sheetName val="PPMO_BOQ"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="169">
+          <cell r="B169" t="str">
+            <v>Providing and laying of Plain/Reinforced Cement Concrete in Foundation complete as per Drawing and Technical Specifications, PCC Grade M 15</v>
           </cell>
         </row>
       </sheetData>
@@ -1396,90 +1482,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="82" t="s">
+      <c r="A2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
     </row>
     <row r="5" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="91"/>
     </row>
     <row r="6" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>17</v>
       </c>
       <c r="B6" s="10"/>
-      <c r="C6" s="79" t="e">
+      <c r="C6" s="86" t="e">
         <f>F18</f>
         <v>#REF!</v>
       </c>
-      <c r="D6" s="80"/>
+      <c r="D6" s="87"/>
       <c r="E6" s="11"/>
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
@@ -1487,11 +1573,11 @@
         <v>18</v>
       </c>
       <c r="I6" s="10"/>
-      <c r="J6" s="79" t="e">
+      <c r="J6" s="86" t="e">
         <f>I18</f>
         <v>#REF!</v>
       </c>
-      <c r="K6" s="80"/>
+      <c r="K6" s="87"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
@@ -1502,75 +1588,75 @@
       <c r="D7" s="12"/>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
-      <c r="I7" s="88" t="s">
+      <c r="I7" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="J7" s="88"/>
-      <c r="K7" s="88"/>
+      <c r="J7" s="82"/>
+      <c r="K7" s="82"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="87" t="e">
+      <c r="A8" s="81" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B8" s="87"/>
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="I8" s="89" t="s">
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="I8" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="J8" s="89"/>
-      <c r="K8" s="89"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="83"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="90" t="e">
+      <c r="A9" s="84" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="I9" s="89" t="s">
+      <c r="B9" s="84"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="I9" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="83"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="91" t="s">
+      <c r="D11" s="85" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="91"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91" t="s">
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
-      <c r="J11" s="85" t="s">
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="K11" s="86" t="s">
+      <c r="K11" s="80" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="85"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="13" t="s">
         <v>24</v>
       </c>
@@ -1589,8 +1675,8 @@
       <c r="I12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="85"/>
-      <c r="K12" s="86"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="80"/>
     </row>
     <row r="13" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="e">
@@ -1755,6 +1841,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
     <mergeCell ref="J11:J12"/>
     <mergeCell ref="K11:K12"/>
     <mergeCell ref="A8:F8"/>
@@ -1767,13 +1860,6 @@
     <mergeCell ref="C11:C12"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="G11:I11"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1845,34 +1931,34 @@
       <c r="K2" s="97"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="98" t="s">
@@ -5486,34 +5572,34 @@
       <c r="K2" s="97"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="98" t="s">
@@ -9622,12 +9708,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:K5"/>
     <mergeCell ref="C196:D196"/>
     <mergeCell ref="C197:D197"/>
     <mergeCell ref="A7:F7"/>
@@ -9636,6 +9716,12 @@
     <mergeCell ref="C193:D193"/>
     <mergeCell ref="C194:D194"/>
     <mergeCell ref="C195:D195"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A5:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9651,10 +9737,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T219"/>
+  <dimension ref="A1:T240"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="I205" sqref="I205"/>
+    <sheetView tabSelected="1" topLeftCell="A229" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="H236" sqref="H236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9707,34 +9793,36 @@
       <c r="K2" s="97"/>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="83"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="N3" s="102"/>
     </row>
     <row r="4" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="83"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="83"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="N4" s="102"/>
     </row>
     <row r="5" spans="1:19" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="98" t="s">
@@ -9750,6 +9838,8 @@
       <c r="I5" s="98"/>
       <c r="J5" s="98"/>
       <c r="K5" s="98"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="102"/>
     </row>
     <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="42" t="s">
@@ -9767,6 +9857,8 @@
       <c r="I6" s="95"/>
       <c r="J6" s="95"/>
       <c r="K6" s="95"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="102"/>
     </row>
     <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="99" t="s">
@@ -9779,11 +9871,12 @@
       <c r="F7" s="99"/>
       <c r="G7" s="3"/>
       <c r="H7" s="95" t="s">
-        <v>49</v>
+        <v>130</v>
       </c>
       <c r="I7" s="95"/>
       <c r="J7" s="95"/>
       <c r="K7" s="95"/>
+      <c r="N7" s="102"/>
     </row>
     <row r="8" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -9819,6 +9912,7 @@
       <c r="K8" s="25" t="s">
         <v>14</v>
       </c>
+      <c r="N8" s="103"/>
     </row>
     <row r="9" spans="1:19" ht="150" x14ac:dyDescent="0.25">
       <c r="A9" s="43">
@@ -9856,7 +9950,7 @@
         <v>1.4200000000000002</v>
       </c>
       <c r="G10" s="14">
-        <f t="shared" ref="G10" si="0">PRODUCT(C10:F10)</f>
+        <f t="shared" ref="G10:G11" si="0">PRODUCT(C10:F10)</f>
         <v>1.9241000000000001</v>
       </c>
       <c r="H10" s="47"/>
@@ -9867,111 +9961,116 @@
     <row r="11" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="43"/>
       <c r="B11" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="44">
-        <f>SUM(G10:G10)</f>
-        <v>1.9241000000000001</v>
-      </c>
-      <c r="H11" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="44">
-        <v>64.63</v>
-      </c>
-      <c r="J11" s="44">
-        <f>G11*I11</f>
-        <v>124.35458300000001</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="C11" s="46">
+        <v>1</v>
+      </c>
+      <c r="D11" s="14">
+        <f>D215</f>
+        <v>5</v>
+      </c>
+      <c r="E11" s="14">
+        <f t="shared" ref="E11:F11" si="1">E215</f>
+        <v>1.0550000000000002</v>
+      </c>
+      <c r="F11" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="0"/>
+        <v>4.7475000000000005</v>
+      </c>
+      <c r="H11" s="47"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="44"/>
       <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="43"/>
       <c r="B12" s="45" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
+      <c r="G12" s="44">
+        <f>SUM(G10:G11)</f>
+        <v>6.6716000000000006</v>
+      </c>
+      <c r="H12" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="44">
+        <v>64.63</v>
+      </c>
       <c r="J12" s="44">
-        <f>0.13*G11*(19284/360)</f>
-        <v>13.398791033333337</v>
+        <f>G12*I12</f>
+        <v>431.18550800000003</v>
       </c>
       <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="29"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="31"/>
-    </row>
-    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
+      <c r="A13" s="43"/>
+      <c r="B13" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44">
+        <f>0.13*G12*(19284/360)</f>
+        <v>46.458798533333344</v>
+      </c>
+      <c r="K13" s="16"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="26"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="29"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="31"/>
+      <c r="S14" s="31"/>
+    </row>
+    <row r="15" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="43">
         <v>2</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B15" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="16"/>
-    </row>
-    <row r="15" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="46">
-        <v>2</v>
-      </c>
-      <c r="D15" s="14">
-        <f>2.7+0.23</f>
-        <v>2.93</v>
-      </c>
+      <c r="C15" s="49"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="14"/>
-      <c r="F15" s="14">
-        <v>2.41</v>
-      </c>
-      <c r="G15" s="14">
-        <f t="shared" ref="G15:G25" si="1">PRODUCT(C15:F15)</f>
-        <v>14.122600000000002</v>
-      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="47"/>
       <c r="H15" s="47"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="40"/>
       <c r="K15" s="16"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="43"/>
-      <c r="B16" s="45"/>
+      <c r="B16" s="45" t="s">
+        <v>100</v>
+      </c>
       <c r="C16" s="46">
         <v>2</v>
       </c>
@@ -9984,7 +10083,7 @@
         <v>2.41</v>
       </c>
       <c r="G16" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="G16:G26" si="2">PRODUCT(C16:F16)</f>
         <v>14.122600000000002</v>
       </c>
       <c r="H16" s="47"/>
@@ -9992,53 +10091,50 @@
       <c r="J16" s="44"/>
       <c r="K16" s="16"/>
     </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="43"/>
-      <c r="B17" s="45" t="s">
-        <v>103</v>
-      </c>
+      <c r="B17" s="45"/>
       <c r="C17" s="46">
-        <f>-C35</f>
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="D17" s="14">
-        <f>D35</f>
-        <v>0.53337397135019804</v>
+        <f>2.7+0.23</f>
+        <v>2.93</v>
       </c>
       <c r="E17" s="14"/>
       <c r="F17" s="14">
-        <f>F35</f>
-        <v>0.75</v>
+        <v>2.41</v>
       </c>
       <c r="G17" s="14">
-        <f t="shared" si="1"/>
-        <v>-0.800060957025297</v>
+        <f t="shared" si="2"/>
+        <v>14.122600000000002</v>
       </c>
       <c r="H17" s="47"/>
       <c r="I17" s="44"/>
       <c r="J17" s="44"/>
       <c r="K17" s="16"/>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="43"/>
       <c r="B18" s="45" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="C18" s="46">
-        <f>2*-3</f>
-        <v>-6</v>
+        <f>-C36</f>
+        <v>-2</v>
       </c>
       <c r="D18" s="14">
-        <f>0.9</f>
-        <v>0.9</v>
+        <f>D36</f>
+        <v>0.53337397135019804</v>
       </c>
       <c r="E18" s="14"/>
       <c r="F18" s="14">
-        <v>0.9</v>
+        <f>F36</f>
+        <v>0.75</v>
       </c>
       <c r="G18" s="14">
-        <f t="shared" si="1"/>
-        <v>-4.8600000000000003</v>
+        <f t="shared" si="2"/>
+        <v>-0.800060957025297</v>
       </c>
       <c r="H18" s="47"/>
       <c r="I18" s="44"/>
@@ -10048,23 +10144,23 @@
     <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="43"/>
       <c r="B19" s="45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C19" s="46">
-        <f>2*-1</f>
-        <v>-2</v>
+        <f>2*-3</f>
+        <v>-6</v>
       </c>
       <c r="D19" s="14">
-        <v>1.2</v>
+        <f>0.9</f>
+        <v>0.9</v>
       </c>
       <c r="E19" s="14"/>
       <c r="F19" s="14">
-        <f>7/3.281</f>
-        <v>2.1334958854007922</v>
+        <v>0.9</v>
       </c>
       <c r="G19" s="14">
-        <f t="shared" si="1"/>
-        <v>-5.1203901249619008</v>
+        <f t="shared" si="2"/>
+        <v>-4.8600000000000003</v>
       </c>
       <c r="H19" s="47"/>
       <c r="I19" s="44"/>
@@ -10074,22 +10170,23 @@
     <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="43"/>
       <c r="B20" s="45" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C20" s="46">
-        <v>1</v>
+        <f>2*-1</f>
+        <v>-2</v>
       </c>
       <c r="D20" s="14">
-        <v>2.08</v>
+        <v>1.2</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="14">
-        <f>0.75-0.15*4</f>
-        <v>0.15000000000000002</v>
+        <f>7/3.281</f>
+        <v>2.1334958854007922</v>
       </c>
       <c r="G20" s="14">
-        <f t="shared" si="1"/>
-        <v>0.31200000000000006</v>
+        <f t="shared" si="2"/>
+        <v>-5.1203901249619008</v>
       </c>
       <c r="H20" s="47"/>
       <c r="I20" s="44"/>
@@ -10099,23 +10196,22 @@
     <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="43"/>
       <c r="B21" s="45" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C21" s="46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D21" s="14">
-        <f>D40</f>
-        <v>14.070000000000002</v>
+        <v>2.08</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="14">
-        <f>(11*6)/12/3.281</f>
-        <v>1.6763181956720512</v>
+        <f>0.75-0.15*4</f>
+        <v>0.15000000000000002</v>
       </c>
       <c r="G21" s="14">
-        <f t="shared" si="1"/>
-        <v>-23.585797013105765</v>
+        <f t="shared" si="2"/>
+        <v>0.31200000000000006</v>
       </c>
       <c r="H21" s="47"/>
       <c r="I21" s="44"/>
@@ -10125,23 +10221,23 @@
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="43"/>
       <c r="B22" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" s="46">
         <v>-1</v>
       </c>
       <c r="D22" s="14">
-        <f>D19</f>
-        <v>1.2</v>
+        <f>D41</f>
+        <v>14.070000000000002</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="14">
-        <f>(7+6+3*6)/12/3.281</f>
-        <v>0.78736157675505436</v>
+        <f>(11*6)/12/3.281</f>
+        <v>1.6763181956720512</v>
       </c>
       <c r="G22" s="14">
-        <f t="shared" si="1"/>
-        <v>-0.94483389210606517</v>
+        <f t="shared" si="2"/>
+        <v>-23.585797013105765</v>
       </c>
       <c r="H22" s="47"/>
       <c r="I22" s="44"/>
@@ -10151,23 +10247,23 @@
     <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="43"/>
       <c r="B23" s="45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="46">
         <v>-1</v>
       </c>
       <c r="D23" s="14">
-        <f>D18</f>
-        <v>0.9</v>
+        <f>D20</f>
+        <v>1.2</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="14">
-        <f>(3*6)/12/3.281</f>
-        <v>0.45717768972874123</v>
+        <f>(7+6+3*6)/12/3.281</f>
+        <v>0.78736157675505436</v>
       </c>
       <c r="G23" s="14">
-        <f t="shared" si="1"/>
-        <v>-0.41145992075586713</v>
+        <f t="shared" si="2"/>
+        <v>-0.94483389210606517</v>
       </c>
       <c r="H23" s="47"/>
       <c r="I23" s="44"/>
@@ -10177,22 +10273,23 @@
     <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="43"/>
       <c r="B24" s="45" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="C24" s="46">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="D24" s="14">
-        <f>3.5/3.281</f>
-        <v>1.0667479427003961</v>
+        <f>D19</f>
+        <v>0.9</v>
       </c>
       <c r="E24" s="14"/>
       <c r="F24" s="14">
-        <v>0.6</v>
+        <f>(3*6)/12/3.281</f>
+        <v>0.45717768972874123</v>
       </c>
       <c r="G24" s="14">
-        <f t="shared" si="1"/>
-        <v>2.5601950624809504</v>
+        <f t="shared" si="2"/>
+        <v>-0.41145992075586713</v>
       </c>
       <c r="H24" s="47"/>
       <c r="I24" s="44"/>
@@ -10202,21 +10299,22 @@
     <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="43"/>
       <c r="B25" s="45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C25" s="46">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="D25" s="14">
-        <v>0.6</v>
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
       </c>
       <c r="E25" s="14"/>
       <c r="F25" s="14">
         <v>0.6</v>
       </c>
       <c r="G25" s="14">
-        <f t="shared" si="1"/>
-        <v>-1.44</v>
+        <f t="shared" si="2"/>
+        <v>2.5601950624809504</v>
       </c>
       <c r="H25" s="47"/>
       <c r="I25" s="44"/>
@@ -10226,50 +10324,58 @@
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="43"/>
       <c r="B26" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="14"/>
+        <v>110</v>
+      </c>
+      <c r="C26" s="46">
+        <v>-4</v>
+      </c>
+      <c r="D26" s="14">
+        <v>0.6</v>
+      </c>
       <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="44">
-        <f>SUM(G15:G25)</f>
-        <v>-6.0451468454739405</v>
-      </c>
-      <c r="H26" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="I26" s="44">
-        <f>6161.31/1.15</f>
-        <v>5357.6608695652185</v>
-      </c>
-      <c r="J26" s="44">
-        <f>G26*I26</f>
-        <v>-32387.846704771349</v>
-      </c>
+      <c r="F26" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="G26" s="14">
+        <f t="shared" si="2"/>
+        <v>-1.44</v>
+      </c>
+      <c r="H26" s="47"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
       <c r="K26" s="16"/>
     </row>
     <row r="27" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="43"/>
       <c r="B27" s="45" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
+      <c r="G27" s="44">
+        <f>SUM(G16:G26)</f>
+        <v>-6.0451468454739405</v>
+      </c>
+      <c r="H27" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I27" s="44">
+        <f>6161.31/1.15</f>
+        <v>5357.6608695652185</v>
+      </c>
       <c r="J27" s="44">
-        <f>0.13*G26*(340055.78/100)</f>
-        <v>-2672.3932634778348</v>
+        <f>G27*I27</f>
+        <v>-32387.846704771349</v>
       </c>
       <c r="K27" s="16"/>
     </row>
     <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="43"/>
-      <c r="B28" s="45"/>
+      <c r="B28" s="45" t="s">
+        <v>52</v>
+      </c>
       <c r="C28" s="46"/>
       <c r="D28" s="14"/>
       <c r="E28" s="14"/>
@@ -10277,16 +10383,15 @@
       <c r="G28" s="44"/>
       <c r="H28" s="44"/>
       <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
+      <c r="J28" s="44">
+        <f>0.13*G27*(340055.78/100)</f>
+        <v>-2672.3932634778348</v>
+      </c>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="43">
-        <v>3</v>
-      </c>
-      <c r="B29" s="48" t="s">
-        <v>102</v>
-      </c>
+    <row r="29" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="43"/>
+      <c r="B29" s="45"/>
       <c r="C29" s="46"/>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -10297,28 +10402,18 @@
       <c r="J29" s="44"/>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="43"/>
-      <c r="B30" s="45" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="46">
-        <v>2</v>
-      </c>
-      <c r="D30" s="14">
-        <f>8.17/3.281</f>
-        <v>2.4900944833892105</v>
-      </c>
-      <c r="E30" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="F30" s="14">
-        <v>2.41</v>
-      </c>
-      <c r="G30" s="14">
-        <f t="shared" ref="G30:G33" si="2">PRODUCT(C30:F30)</f>
-        <v>1.2002255409935996</v>
-      </c>
+    <row r="30" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="43">
+        <v>3</v>
+      </c>
+      <c r="B30" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="46"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="44"/>
       <c r="H30" s="44"/>
       <c r="I30" s="44"/>
       <c r="J30" s="44"/>
@@ -10326,7 +10421,9 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="43"/>
-      <c r="B31" s="48"/>
+      <c r="B31" s="45" t="s">
+        <v>116</v>
+      </c>
       <c r="C31" s="46">
         <v>2</v>
       </c>
@@ -10341,7 +10438,7 @@
         <v>2.41</v>
       </c>
       <c r="G31" s="14">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G31:G34" si="3">PRODUCT(C31:F31)</f>
         <v>1.2002255409935996</v>
       </c>
       <c r="H31" s="44"/>
@@ -10351,24 +10448,23 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="43"/>
-      <c r="B32" s="45" t="s">
-        <v>120</v>
-      </c>
+      <c r="B32" s="48"/>
       <c r="C32" s="46">
-        <v>-3</v>
+        <v>2</v>
       </c>
       <c r="D32" s="14">
-        <v>0.6</v>
+        <f>8.17/3.281</f>
+        <v>2.4900944833892105</v>
       </c>
       <c r="E32" s="14">
         <v>0.1</v>
       </c>
       <c r="F32" s="14">
-        <v>0.9</v>
+        <v>2.41</v>
       </c>
       <c r="G32" s="14">
-        <f t="shared" si="2"/>
-        <v>-0.16200000000000001</v>
+        <f t="shared" si="3"/>
+        <v>1.2002255409935996</v>
       </c>
       <c r="H32" s="44"/>
       <c r="I32" s="44"/>
@@ -10378,78 +10474,79 @@
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="43"/>
       <c r="B33" s="45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" s="46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D33" s="14">
-        <f>3.5/3.281</f>
-        <v>1.0667479427003961</v>
+        <v>0.6</v>
       </c>
       <c r="E33" s="14">
         <v>0.1</v>
       </c>
       <c r="F33" s="14">
-        <f>7/3.281</f>
-        <v>2.1334958854007922</v>
+        <v>0.9</v>
       </c>
       <c r="G33" s="14">
-        <f t="shared" si="2"/>
-        <v>-0.22759023465110553</v>
+        <f t="shared" si="3"/>
+        <v>-0.16200000000000001</v>
       </c>
       <c r="H33" s="44"/>
       <c r="I33" s="44"/>
       <c r="J33" s="44"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="43"/>
       <c r="B34" s="45" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="C34" s="46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D34" s="14">
-        <f>D20</f>
-        <v>2.08</v>
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
       </c>
       <c r="E34" s="14">
         <v>0.1</v>
       </c>
       <c r="F34" s="14">
-        <f>F20</f>
-        <v>0.15000000000000002</v>
+        <f>7/3.281</f>
+        <v>2.1334958854007922</v>
       </c>
       <c r="G34" s="14">
-        <f>PRODUCT(C34:F34)</f>
-        <v>3.1200000000000009E-2</v>
-      </c>
-      <c r="H34" s="47"/>
+        <f t="shared" si="3"/>
+        <v>-0.22759023465110553</v>
+      </c>
+      <c r="H34" s="44"/>
       <c r="I34" s="44"/>
       <c r="J34" s="44"/>
       <c r="K34" s="16"/>
     </row>
     <row r="35" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="43"/>
-      <c r="B35" s="45"/>
+      <c r="B35" s="45" t="s">
+        <v>65</v>
+      </c>
       <c r="C35" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" s="14">
-        <f>(1.75/3.281)</f>
-        <v>0.53337397135019804</v>
+        <f>D21</f>
+        <v>2.08</v>
       </c>
       <c r="E35" s="14">
         <v>0.1</v>
       </c>
       <c r="F35" s="14">
-        <v>0.75</v>
+        <f>F21</f>
+        <v>0.15000000000000002</v>
       </c>
       <c r="G35" s="14">
         <f>PRODUCT(C35:F35)</f>
-        <v>8.0006095702529714E-2</v>
+        <v>3.1200000000000009E-2</v>
       </c>
       <c r="H35" s="47"/>
       <c r="I35" s="44"/>
@@ -10458,74 +10555,75 @@
     </row>
     <row r="36" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="43"/>
-      <c r="B36" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="46"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="44">
-        <f>SUM(G30:G35)</f>
-        <v>2.1220669430386239</v>
-      </c>
-      <c r="H36" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="I36" s="44">
-        <v>14362.76</v>
-      </c>
-      <c r="J36" s="44">
-        <f>G36*I36</f>
-        <v>30478.738206797425</v>
-      </c>
+      <c r="B36" s="45"/>
+      <c r="C36" s="46">
+        <v>2</v>
+      </c>
+      <c r="D36" s="14">
+        <f>(1.75/3.281)</f>
+        <v>0.53337397135019804</v>
+      </c>
+      <c r="E36" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="F36" s="14">
+        <v>0.75</v>
+      </c>
+      <c r="G36" s="14">
+        <f>PRODUCT(C36:F36)</f>
+        <v>8.0006095702529714E-2</v>
+      </c>
+      <c r="H36" s="47"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="44"/>
       <c r="K36" s="16"/>
     </row>
     <row r="37" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="43"/>
       <c r="B37" s="45" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C37" s="46"/>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
+      <c r="G37" s="44">
+        <f>SUM(G31:G36)</f>
+        <v>2.1220669430386239</v>
+      </c>
+      <c r="H37" s="44" t="s">
+        <v>51</v>
+      </c>
+      <c r="I37" s="44">
+        <v>14362.76</v>
+      </c>
       <c r="J37" s="44">
-        <f>0.13*G36*10311.74</f>
+        <f>G37*I37</f>
+        <v>30478.738206797425</v>
+      </c>
+      <c r="K37" s="16"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="43"/>
+      <c r="B38" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="46"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="44">
+        <f>0.13*G37*10311.74</f>
         <v>2844.6863352971827</v>
       </c>
-      <c r="K37" s="16"/>
-    </row>
-    <row r="38" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="26"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="29"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="44"/>
-      <c r="K38" s="29"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="31"/>
-      <c r="S38" s="31"/>
-    </row>
-    <row r="39" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="26">
-        <v>4</v>
-      </c>
-      <c r="B39" s="41" t="s">
-        <v>78</v>
-      </c>
+      <c r="K38" s="16"/>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="26"/>
+      <c r="B39" s="30"/>
       <c r="C39" s="27"/>
       <c r="D39" s="28"/>
       <c r="E39" s="29"/>
@@ -10543,204 +10641,204 @@
       <c r="R39" s="31"/>
       <c r="S39" s="31"/>
     </row>
-    <row r="40" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="43"/>
-      <c r="B40" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="46">
-        <v>1</v>
-      </c>
-      <c r="D40" s="14">
-        <f>(2.7+0.1+0.1)*4+(2.7-0.23)</f>
-        <v>14.070000000000002</v>
-      </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14">
-        <f>PRODUCT(C40:F40)</f>
-        <v>14.070000000000002</v>
-      </c>
-      <c r="H40" s="47"/>
-      <c r="I40" s="44"/>
+    <row r="40" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="26">
+        <v>4</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="27"/>
+      <c r="D40" s="28"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="29"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="39"/>
       <c r="J40" s="44"/>
-      <c r="K40" s="16"/>
+      <c r="K40" s="29"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
     </row>
     <row r="41" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="43"/>
       <c r="B41" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="C41" s="46">
+        <v>1</v>
+      </c>
+      <c r="D41" s="14">
+        <f>(2.7+0.1+0.1)*4+(2.7-0.23)</f>
+        <v>14.070000000000002</v>
+      </c>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
-      <c r="G41" s="44">
-        <f>SUM(G40)</f>
+      <c r="G41" s="14">
+        <f>PRODUCT(C41:F41)</f>
         <v>14.070000000000002</v>
       </c>
-      <c r="H41" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="I41" s="44">
-        <f>465.63/1.15</f>
-        <v>404.89565217391305</v>
-      </c>
-      <c r="J41" s="44">
-        <f>G41*I41</f>
-        <v>5696.8818260869575</v>
-      </c>
+      <c r="H41" s="47"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="44"/>
       <c r="K41" s="16"/>
     </row>
     <row r="42" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="43"/>
       <c r="B42" s="45" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C42" s="46"/>
       <c r="D42" s="14"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
+      <c r="G42" s="44">
+        <f>SUM(G41)</f>
+        <v>14.070000000000002</v>
+      </c>
+      <c r="H42" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I42" s="44">
+        <f>465.63/1.15</f>
+        <v>404.89565217391305</v>
+      </c>
       <c r="J42" s="44">
-        <f>0.13*G41*(2780.61/10)</f>
-        <v>508.60137510000015</v>
+        <f>G42*I42</f>
+        <v>5696.8818260869575</v>
       </c>
       <c r="K42" s="16"/>
     </row>
     <row r="43" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="43"/>
-      <c r="B43" s="45"/>
+      <c r="B43" s="45" t="s">
+        <v>52</v>
+      </c>
       <c r="C43" s="46"/>
       <c r="D43" s="14"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="47"/>
-      <c r="I43" s="47"/>
-      <c r="J43" s="40"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44">
+        <f>0.13*G42*(2780.61/10)</f>
+        <v>508.60137510000015</v>
+      </c>
       <c r="K43" s="16"/>
     </row>
-    <row r="44" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="26">
+    <row r="44" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="43"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="47"/>
+      <c r="H44" s="47"/>
+      <c r="I44" s="47"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="16"/>
+    </row>
+    <row r="45" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="26">
         <v>5</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B45" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C44" s="27"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="29"/>
-      <c r="F44" s="29"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="44"/>
-      <c r="K44" s="29"/>
-      <c r="M44" s="31"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="31"/>
-      <c r="S44" s="31"/>
-    </row>
-    <row r="45" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="43"/>
-      <c r="B45" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C45" s="46">
-        <v>1</v>
-      </c>
-      <c r="D45" s="14">
-        <f>(2.7+0.1+0.1)*4+(2.7-0.23)</f>
-        <v>14.070000000000002</v>
-      </c>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14">
-        <f>PRODUCT(C45:F45)</f>
-        <v>14.070000000000002</v>
-      </c>
-      <c r="H45" s="47"/>
-      <c r="I45" s="44"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="39"/>
       <c r="J45" s="44"/>
-      <c r="K45" s="16"/>
+      <c r="K45" s="29"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="31"/>
+      <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="43"/>
       <c r="B46" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" s="46"/>
-      <c r="D46" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="C46" s="46">
+        <v>1</v>
+      </c>
+      <c r="D46" s="14">
+        <f>(2.7+0.1+0.1)*4+(2.7-0.23)</f>
+        <v>14.070000000000002</v>
+      </c>
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
-      <c r="G46" s="44">
-        <f>SUM(G45)</f>
+      <c r="G46" s="14">
+        <f>PRODUCT(C46:F46)</f>
         <v>14.070000000000002</v>
       </c>
-      <c r="H46" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="I46" s="44">
-        <f>396.86/1.15</f>
-        <v>345.09565217391309</v>
-      </c>
-      <c r="J46" s="44">
-        <f>G46*I46</f>
-        <v>4855.495826086958</v>
-      </c>
+      <c r="H46" s="47"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="44"/>
       <c r="K46" s="16"/>
     </row>
     <row r="47" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="43"/>
       <c r="B47" s="45" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C47" s="46"/>
       <c r="D47" s="14"/>
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
+      <c r="G47" s="44">
+        <f>SUM(G46)</f>
+        <v>14.070000000000002</v>
+      </c>
+      <c r="H47" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I47" s="44">
+        <f>396.86/1.15</f>
+        <v>345.09565217391309</v>
+      </c>
       <c r="J47" s="44">
-        <f>0.13*G46*(2182.61/10)</f>
+        <f>G47*I47</f>
+        <v>4855.495826086958</v>
+      </c>
+      <c r="K47" s="16"/>
+    </row>
+    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="43"/>
+      <c r="B48" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" s="46"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="44">
+        <f>0.13*G47*(2182.61/10)</f>
         <v>399.2211951000001</v>
       </c>
-      <c r="K47" s="16"/>
-    </row>
-    <row r="48" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="26"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="27"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="29"/>
-      <c r="F48" s="29"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="38"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="29"/>
-      <c r="M48" s="31"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="31"/>
-      <c r="S48" s="31"/>
-    </row>
-    <row r="49" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="26">
-        <v>6</v>
-      </c>
-      <c r="B49" s="41" t="s">
-        <v>82</v>
-      </c>
+      <c r="K48" s="16"/>
+    </row>
+    <row r="49" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="26"/>
+      <c r="B49" s="30"/>
       <c r="C49" s="27"/>
       <c r="D49" s="28"/>
       <c r="E49" s="29"/>
@@ -10758,100 +10856,100 @@
       <c r="R49" s="31"/>
       <c r="S49" s="31"/>
     </row>
-    <row r="50" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="43"/>
-      <c r="B50" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C50" s="46">
-        <v>1</v>
-      </c>
-      <c r="D50" s="14">
-        <f>(2.7+0.1+0.1)*4</f>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14">
-        <f>PRODUCT(C50:F50)</f>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="H50" s="47"/>
-      <c r="I50" s="44"/>
+    <row r="50" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="26">
+        <v>6</v>
+      </c>
+      <c r="B50" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="27"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="29"/>
+      <c r="F50" s="29"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="39"/>
       <c r="J50" s="44"/>
-      <c r="K50" s="16"/>
+      <c r="K50" s="29"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="31"/>
+      <c r="S50" s="31"/>
     </row>
     <row r="51" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="43"/>
       <c r="B51" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="46"/>
-      <c r="D51" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="C51" s="46">
+        <v>1</v>
+      </c>
+      <c r="D51" s="14">
+        <f>(2.7+0.1+0.1)*4</f>
+        <v>11.600000000000001</v>
+      </c>
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
-      <c r="G51" s="44">
-        <f>SUM(G50)</f>
+      <c r="G51" s="14">
+        <f>PRODUCT(C51:F51)</f>
         <v>11.600000000000001</v>
       </c>
-      <c r="H51" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="I51" s="44">
-        <f>447.23/1.15</f>
-        <v>388.89565217391311</v>
-      </c>
-      <c r="J51" s="44">
-        <f>G51*I51</f>
-        <v>4511.1895652173926</v>
-      </c>
+      <c r="H51" s="47"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="44"/>
       <c r="K51" s="16"/>
     </row>
     <row r="52" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="43"/>
       <c r="B52" s="45" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C52" s="46"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14"/>
-      <c r="G52" s="44"/>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
+      <c r="G52" s="44">
+        <f>SUM(G51)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H52" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I52" s="44">
+        <f>447.23/1.15</f>
+        <v>388.89565217391311</v>
+      </c>
       <c r="J52" s="44">
-        <f>0.13*G51*(2620.61/10)</f>
+        <f>G52*I52</f>
+        <v>4511.1895652173926</v>
+      </c>
+      <c r="K52" s="16"/>
+    </row>
+    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="43"/>
+      <c r="B53" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" s="46"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="44">
+        <f>0.13*G52*(2620.61/10)</f>
         <v>395.18798800000013</v>
       </c>
-      <c r="K52" s="16"/>
-    </row>
-    <row r="53" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="26"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="27"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="38"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="44"/>
-      <c r="K53" s="29"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="31"/>
-      <c r="S53" s="31"/>
-    </row>
-    <row r="54" spans="1:19" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="26">
-        <v>7</v>
-      </c>
-      <c r="B54" s="41" t="s">
-        <v>84</v>
-      </c>
+      <c r="K53" s="16"/>
+    </row>
+    <row r="54" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="26"/>
+      <c r="B54" s="30"/>
       <c r="C54" s="27"/>
       <c r="D54" s="28"/>
       <c r="E54" s="29"/>
@@ -10869,100 +10967,100 @@
       <c r="R54" s="31"/>
       <c r="S54" s="31"/>
     </row>
-    <row r="55" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
-      <c r="B55" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C55" s="46">
-        <v>2</v>
-      </c>
-      <c r="D55" s="14">
-        <f>(2.7+0.1+0.1)*4</f>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14">
-        <f>PRODUCT(C55:F55)</f>
-        <v>23.200000000000003</v>
-      </c>
-      <c r="H55" s="47"/>
-      <c r="I55" s="44"/>
+    <row r="55" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="26">
+        <v>7</v>
+      </c>
+      <c r="B55" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="27"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="39"/>
       <c r="J55" s="44"/>
-      <c r="K55" s="16"/>
+      <c r="K55" s="29"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="31"/>
     </row>
     <row r="56" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="43"/>
       <c r="B56" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" s="46"/>
-      <c r="D56" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="C56" s="46">
+        <v>2</v>
+      </c>
+      <c r="D56" s="14">
+        <f>(2.7+0.1+0.1)*4</f>
+        <v>11.600000000000001</v>
+      </c>
       <c r="E56" s="14"/>
       <c r="F56" s="14"/>
-      <c r="G56" s="44">
-        <f>SUM(G55)</f>
+      <c r="G56" s="14">
+        <f>PRODUCT(C56:F56)</f>
         <v>23.200000000000003</v>
       </c>
-      <c r="H56" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="I56" s="44">
-        <f>406.75/1.15</f>
-        <v>353.69565217391306</v>
-      </c>
-      <c r="J56" s="44">
-        <f>G56*I56</f>
-        <v>8205.7391304347839</v>
-      </c>
+      <c r="H56" s="47"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="44"/>
       <c r="K56" s="16"/>
     </row>
     <row r="57" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="43"/>
       <c r="B57" s="45" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C57" s="46"/>
       <c r="D57" s="14"/>
       <c r="E57" s="14"/>
       <c r="F57" s="14"/>
-      <c r="G57" s="44"/>
-      <c r="H57" s="44"/>
-      <c r="I57" s="44"/>
+      <c r="G57" s="44">
+        <f>SUM(G56)</f>
+        <v>23.200000000000003</v>
+      </c>
+      <c r="H57" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I57" s="44">
+        <f>406.75/1.15</f>
+        <v>353.69565217391306</v>
+      </c>
       <c r="J57" s="44">
-        <f>0.13*G56*(2268.61/10)</f>
+        <f>G57*I57</f>
+        <v>8205.7391304347839</v>
+      </c>
+      <c r="K57" s="16"/>
+    </row>
+    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="43"/>
+      <c r="B58" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C58" s="46"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="44">
+        <f>0.13*G57*(2268.61/10)</f>
         <v>684.21277600000019</v>
       </c>
-      <c r="K57" s="16"/>
-    </row>
-    <row r="58" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="26"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="27"/>
-      <c r="D58" s="28"/>
-      <c r="E58" s="29"/>
-      <c r="F58" s="29"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="38"/>
-      <c r="I58" s="39"/>
-      <c r="J58" s="44"/>
-      <c r="K58" s="29"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="31"/>
-      <c r="S58" s="31"/>
-    </row>
-    <row r="59" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="64">
-        <v>8</v>
-      </c>
-      <c r="B59" s="41" t="s">
-        <v>83</v>
-      </c>
+      <c r="K58" s="16"/>
+    </row>
+    <row r="59" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="26"/>
+      <c r="B59" s="30"/>
       <c r="C59" s="27"/>
       <c r="D59" s="28"/>
       <c r="E59" s="29"/>
@@ -10980,100 +11078,100 @@
       <c r="R59" s="31"/>
       <c r="S59" s="31"/>
     </row>
-    <row r="60" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="43"/>
-      <c r="B60" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="46">
-        <v>1</v>
-      </c>
-      <c r="D60" s="14">
-        <f>(2.7+0.1+0.1)*4</f>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14">
-        <f>PRODUCT(C60:F60)</f>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="H60" s="47"/>
-      <c r="I60" s="44"/>
+    <row r="60" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="64">
+        <v>8</v>
+      </c>
+      <c r="B60" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="27"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="39"/>
       <c r="J60" s="44"/>
-      <c r="K60" s="16"/>
+      <c r="K60" s="29"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="31"/>
+      <c r="S60" s="31"/>
     </row>
     <row r="61" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="43"/>
       <c r="B61" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" s="46"/>
-      <c r="D61" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="C61" s="46">
+        <v>1</v>
+      </c>
+      <c r="D61" s="14">
+        <f>(2.7+0.1+0.1)*4</f>
+        <v>11.600000000000001</v>
+      </c>
       <c r="E61" s="14"/>
       <c r="F61" s="14"/>
-      <c r="G61" s="44">
-        <f>SUM(G60)</f>
+      <c r="G61" s="14">
+        <f>PRODUCT(C61:F61)</f>
         <v>11.600000000000001</v>
       </c>
-      <c r="H61" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="I61" s="44">
-        <f>469.79/1.15</f>
-        <v>408.5130434782609</v>
-      </c>
-      <c r="J61" s="44">
-        <f>G61*I61</f>
-        <v>4738.7513043478266</v>
-      </c>
+      <c r="H61" s="47"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="44"/>
       <c r="K61" s="16"/>
     </row>
     <row r="62" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="43"/>
       <c r="B62" s="45" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C62" s="46"/>
       <c r="D62" s="14"/>
       <c r="E62" s="14"/>
       <c r="F62" s="14"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
+      <c r="G62" s="44">
+        <f>SUM(G61)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H62" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I62" s="44">
+        <f>469.79/1.15</f>
+        <v>408.5130434782609</v>
+      </c>
       <c r="J62" s="44">
-        <f>0.13*G61*(2140.61/10)</f>
+        <f>G62*I62</f>
+        <v>4738.7513043478266</v>
+      </c>
+      <c r="K62" s="16"/>
+    </row>
+    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="43"/>
+      <c r="B63" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C63" s="46"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44">
+        <f>0.13*G62*(2140.61/10)</f>
         <v>322.80398800000006</v>
       </c>
-      <c r="K62" s="16"/>
-    </row>
-    <row r="63" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="26"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="28"/>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="38"/>
-      <c r="I63" s="39"/>
-      <c r="J63" s="44"/>
-      <c r="K63" s="29"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="31"/>
-      <c r="S63" s="31"/>
-    </row>
-    <row r="64" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="64">
-        <v>9</v>
-      </c>
-      <c r="B64" s="41" t="s">
-        <v>85</v>
-      </c>
+      <c r="K63" s="16"/>
+    </row>
+    <row r="64" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="26"/>
+      <c r="B64" s="30"/>
       <c r="C64" s="27"/>
       <c r="D64" s="28"/>
       <c r="E64" s="29"/>
@@ -11091,100 +11189,100 @@
       <c r="R64" s="31"/>
       <c r="S64" s="31"/>
     </row>
-    <row r="65" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="43"/>
-      <c r="B65" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" s="46">
-        <v>1</v>
-      </c>
-      <c r="D65" s="14">
-        <f>(2.7+0.1+0.1)*4</f>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14">
-        <f>PRODUCT(C65:F65)</f>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="H65" s="47"/>
-      <c r="I65" s="44"/>
+    <row r="65" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="64">
+        <v>9</v>
+      </c>
+      <c r="B65" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C65" s="27"/>
+      <c r="D65" s="28"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="39"/>
       <c r="J65" s="44"/>
-      <c r="K65" s="16"/>
+      <c r="K65" s="29"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="31"/>
+      <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="43"/>
       <c r="B66" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" s="46"/>
-      <c r="D66" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="C66" s="46">
+        <v>1</v>
+      </c>
+      <c r="D66" s="14">
+        <f>(2.7+0.1+0.1)*4</f>
+        <v>11.600000000000001</v>
+      </c>
       <c r="E66" s="14"/>
       <c r="F66" s="14"/>
-      <c r="G66" s="44">
-        <f>SUM(G65)</f>
+      <c r="G66" s="14">
+        <f>PRODUCT(C66:F66)</f>
         <v>11.600000000000001</v>
       </c>
-      <c r="H66" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="I66" s="44">
-        <f>476.67/1.15</f>
-        <v>414.49565217391307</v>
-      </c>
-      <c r="J66" s="44">
-        <f>G66*I66</f>
-        <v>4808.1495652173926</v>
-      </c>
+      <c r="H66" s="47"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="44"/>
       <c r="K66" s="16"/>
     </row>
     <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="43"/>
       <c r="B67" s="45" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C67" s="46"/>
       <c r="D67" s="14"/>
       <c r="E67" s="14"/>
       <c r="F67" s="14"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
-      <c r="I67" s="44"/>
+      <c r="G67" s="44">
+        <f>SUM(G66)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H67" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I67" s="44">
+        <f>476.67/1.15</f>
+        <v>414.49565217391307</v>
+      </c>
       <c r="J67" s="44">
-        <f>0.13*G66*(2876.61/10)</f>
+        <f>G67*I67</f>
+        <v>4808.1495652173926</v>
+      </c>
+      <c r="K67" s="16"/>
+    </row>
+    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="43"/>
+      <c r="B68" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C68" s="46"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="44"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="44">
+        <f>0.13*G67*(2876.61/10)</f>
         <v>433.79278800000009</v>
       </c>
-      <c r="K67" s="16"/>
-    </row>
-    <row r="68" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="26"/>
-      <c r="B68" s="30"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="28"/>
-      <c r="E68" s="29"/>
-      <c r="F68" s="29"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="39"/>
-      <c r="J68" s="44"/>
-      <c r="K68" s="29"/>
-      <c r="M68" s="31"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="31"/>
-      <c r="S68" s="31"/>
-    </row>
-    <row r="69" spans="1:19" ht="60" x14ac:dyDescent="0.25">
-      <c r="A69" s="64">
-        <v>10</v>
-      </c>
-      <c r="B69" s="41" t="s">
-        <v>86</v>
-      </c>
+      <c r="K68" s="16"/>
+    </row>
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="26"/>
+      <c r="B69" s="30"/>
       <c r="C69" s="27"/>
       <c r="D69" s="28"/>
       <c r="E69" s="29"/>
@@ -11202,100 +11300,100 @@
       <c r="R69" s="31"/>
       <c r="S69" s="31"/>
     </row>
-    <row r="70" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="43"/>
-      <c r="B70" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="46">
-        <v>1</v>
-      </c>
-      <c r="D70" s="14">
-        <f>(2.7+0.1+0.1)*4</f>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14">
-        <f>PRODUCT(C70:F70)</f>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="H70" s="47"/>
-      <c r="I70" s="44"/>
+    <row r="70" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+      <c r="A70" s="64">
+        <v>10</v>
+      </c>
+      <c r="B70" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C70" s="27"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
+      <c r="G70" s="39"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="39"/>
       <c r="J70" s="44"/>
-      <c r="K70" s="16"/>
+      <c r="K70" s="29"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="31"/>
+      <c r="S70" s="31"/>
     </row>
     <row r="71" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="43"/>
       <c r="B71" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C71" s="46"/>
-      <c r="D71" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="C71" s="46">
+        <v>1</v>
+      </c>
+      <c r="D71" s="14">
+        <f>(2.7+0.1+0.1)*4</f>
+        <v>11.600000000000001</v>
+      </c>
       <c r="E71" s="14"/>
       <c r="F71" s="14"/>
-      <c r="G71" s="44">
-        <f>SUM(G70)</f>
+      <c r="G71" s="14">
+        <f>PRODUCT(C71:F71)</f>
         <v>11.600000000000001</v>
       </c>
-      <c r="H71" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="I71" s="44">
-        <f>593.85/1.15</f>
-        <v>516.39130434782612</v>
-      </c>
-      <c r="J71" s="44">
-        <f>G71*I71</f>
-        <v>5990.1391304347835</v>
-      </c>
+      <c r="H71" s="47"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="44"/>
       <c r="K71" s="16"/>
     </row>
     <row r="72" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="43"/>
       <c r="B72" s="45" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C72" s="46"/>
       <c r="D72" s="14"/>
       <c r="E72" s="14"/>
       <c r="F72" s="14"/>
-      <c r="G72" s="44"/>
-      <c r="H72" s="44"/>
-      <c r="I72" s="44"/>
+      <c r="G72" s="44">
+        <f>SUM(G71)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H72" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I72" s="44">
+        <f>593.85/1.15</f>
+        <v>516.39130434782612</v>
+      </c>
       <c r="J72" s="44">
-        <f>0.13*G71*(3895.61/10)</f>
+        <f>G72*I72</f>
+        <v>5990.1391304347835</v>
+      </c>
+      <c r="K72" s="16"/>
+    </row>
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="43"/>
+      <c r="B73" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C73" s="46"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="44"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="44">
+        <f>0.13*G72*(3895.61/10)</f>
         <v>587.45798800000011</v>
       </c>
-      <c r="K72" s="16"/>
-    </row>
-    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="26"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="27"/>
-      <c r="D73" s="28"/>
-      <c r="E73" s="29"/>
-      <c r="F73" s="29"/>
-      <c r="G73" s="39"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="39"/>
-      <c r="J73" s="44"/>
-      <c r="K73" s="29"/>
-      <c r="M73" s="31"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="31"/>
-      <c r="S73" s="31"/>
-    </row>
-    <row r="74" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A74" s="64">
-        <v>11</v>
-      </c>
-      <c r="B74" s="41" t="s">
-        <v>87</v>
-      </c>
+      <c r="K73" s="16"/>
+    </row>
+    <row r="74" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="26"/>
+      <c r="B74" s="30"/>
       <c r="C74" s="27"/>
       <c r="D74" s="28"/>
       <c r="E74" s="29"/>
@@ -11313,100 +11411,100 @@
       <c r="R74" s="31"/>
       <c r="S74" s="31"/>
     </row>
-    <row r="75" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="43"/>
-      <c r="B75" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C75" s="46">
-        <v>1</v>
-      </c>
-      <c r="D75" s="14">
-        <f>(2.7+0.1+0.1)*4</f>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14">
-        <f>PRODUCT(C75:F75)</f>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="H75" s="47"/>
-      <c r="I75" s="44"/>
+    <row r="75" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A75" s="64">
+        <v>11</v>
+      </c>
+      <c r="B75" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C75" s="27"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="39"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="39"/>
       <c r="J75" s="44"/>
-      <c r="K75" s="16"/>
+      <c r="K75" s="29"/>
+      <c r="M75" s="31"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="31"/>
+      <c r="S75" s="31"/>
     </row>
     <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="43"/>
       <c r="B76" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C76" s="46"/>
-      <c r="D76" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="C76" s="46">
+        <v>1</v>
+      </c>
+      <c r="D76" s="14">
+        <f>(2.7+0.1+0.1)*4</f>
+        <v>11.600000000000001</v>
+      </c>
       <c r="E76" s="14"/>
       <c r="F76" s="14"/>
-      <c r="G76" s="44">
-        <f>SUM(G75)</f>
+      <c r="G76" s="14">
+        <f>PRODUCT(C76:F76)</f>
         <v>11.600000000000001</v>
       </c>
-      <c r="H76" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="I76" s="44">
-        <f>487.71/1.15</f>
-        <v>424.09565217391304</v>
-      </c>
-      <c r="J76" s="44">
-        <f>G76*I76</f>
-        <v>4919.5095652173923</v>
-      </c>
+      <c r="H76" s="47"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="44"/>
       <c r="K76" s="16"/>
     </row>
     <row r="77" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="43"/>
       <c r="B77" s="45" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C77" s="46"/>
       <c r="D77" s="14"/>
       <c r="E77" s="14"/>
       <c r="F77" s="14"/>
-      <c r="G77" s="44"/>
-      <c r="H77" s="44"/>
-      <c r="I77" s="44"/>
+      <c r="G77" s="44">
+        <f>SUM(G76)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H77" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I77" s="44">
+        <f>487.71/1.15</f>
+        <v>424.09565217391304</v>
+      </c>
       <c r="J77" s="44">
-        <f>0.13*G76*(2972.61/10)</f>
+        <f>G77*I77</f>
+        <v>4919.5095652173923</v>
+      </c>
+      <c r="K77" s="16"/>
+    </row>
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="43"/>
+      <c r="B78" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C78" s="46"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="44"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="44">
+        <f>0.13*G77*(2972.61/10)</f>
         <v>448.26958800000011</v>
       </c>
-      <c r="K77" s="16"/>
-    </row>
-    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="26"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="27"/>
-      <c r="D78" s="28"/>
-      <c r="E78" s="29"/>
-      <c r="F78" s="29"/>
-      <c r="G78" s="39"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="39"/>
-      <c r="J78" s="44"/>
-      <c r="K78" s="29"/>
-      <c r="M78" s="31"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="1"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1"/>
-      <c r="R78" s="31"/>
-      <c r="S78" s="31"/>
-    </row>
-    <row r="79" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A79" s="64">
-        <v>12</v>
-      </c>
-      <c r="B79" s="41" t="s">
-        <v>88</v>
-      </c>
+      <c r="K78" s="16"/>
+    </row>
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="26"/>
+      <c r="B79" s="30"/>
       <c r="C79" s="27"/>
       <c r="D79" s="28"/>
       <c r="E79" s="29"/>
@@ -11424,100 +11522,100 @@
       <c r="R79" s="31"/>
       <c r="S79" s="31"/>
     </row>
-    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="43"/>
-      <c r="B80" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C80" s="46">
-        <v>1</v>
-      </c>
-      <c r="D80" s="14">
-        <f>(2.7+0.1+0.1)*4</f>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14">
-        <f>PRODUCT(C80:F80)</f>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="H80" s="47"/>
-      <c r="I80" s="44"/>
+    <row r="80" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="64">
+        <v>12</v>
+      </c>
+      <c r="B80" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C80" s="27"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="39"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="39"/>
       <c r="J80" s="44"/>
-      <c r="K80" s="16"/>
+      <c r="K80" s="29"/>
+      <c r="M80" s="31"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="31"/>
+      <c r="S80" s="31"/>
     </row>
     <row r="81" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="43"/>
       <c r="B81" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C81" s="46"/>
-      <c r="D81" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="C81" s="46">
+        <v>1</v>
+      </c>
+      <c r="D81" s="14">
+        <f>(2.7+0.1+0.1)*4</f>
+        <v>11.600000000000001</v>
+      </c>
       <c r="E81" s="14"/>
       <c r="F81" s="14"/>
-      <c r="G81" s="44">
-        <f>SUM(G80)</f>
+      <c r="G81" s="14">
+        <f>PRODUCT(C81:F81)</f>
         <v>11.600000000000001</v>
       </c>
-      <c r="H81" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="I81" s="44">
-        <f>776.13/1.15</f>
-        <v>674.89565217391305</v>
-      </c>
-      <c r="J81" s="44">
-        <f>G81*I81</f>
-        <v>7828.789565217392</v>
-      </c>
+      <c r="H81" s="47"/>
+      <c r="I81" s="44"/>
+      <c r="J81" s="44"/>
       <c r="K81" s="16"/>
     </row>
     <row r="82" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="43"/>
       <c r="B82" s="45" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C82" s="46"/>
       <c r="D82" s="14"/>
       <c r="E82" s="14"/>
       <c r="F82" s="14"/>
-      <c r="G82" s="44"/>
-      <c r="H82" s="44"/>
-      <c r="I82" s="44"/>
+      <c r="G82" s="44">
+        <f>SUM(G81)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H82" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I82" s="44">
+        <f>776.13/1.15</f>
+        <v>674.89565217391305</v>
+      </c>
       <c r="J82" s="44">
-        <f>0.13*G81*(5480.61/10)</f>
+        <f>G82*I82</f>
+        <v>7828.789565217392</v>
+      </c>
+      <c r="K82" s="16"/>
+    </row>
+    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="43"/>
+      <c r="B83" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C83" s="46"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="44"/>
+      <c r="H83" s="44"/>
+      <c r="I83" s="44"/>
+      <c r="J83" s="44">
+        <f>0.13*G82*(5480.61/10)</f>
         <v>826.47598800000003</v>
       </c>
-      <c r="K82" s="16"/>
-    </row>
-    <row r="83" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="26"/>
-      <c r="B83" s="30"/>
-      <c r="C83" s="27"/>
-      <c r="D83" s="28"/>
-      <c r="E83" s="29"/>
-      <c r="F83" s="29"/>
-      <c r="G83" s="39"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="39"/>
-      <c r="J83" s="44"/>
-      <c r="K83" s="29"/>
-      <c r="M83" s="31"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="1"/>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1"/>
-      <c r="R83" s="31"/>
-      <c r="S83" s="31"/>
-    </row>
-    <row r="84" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="64">
-        <v>13</v>
-      </c>
-      <c r="B84" s="41" t="s">
-        <v>89</v>
-      </c>
+      <c r="K83" s="16"/>
+    </row>
+    <row r="84" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="26"/>
+      <c r="B84" s="30"/>
       <c r="C84" s="27"/>
       <c r="D84" s="28"/>
       <c r="E84" s="29"/>
@@ -11535,100 +11633,100 @@
       <c r="R84" s="31"/>
       <c r="S84" s="31"/>
     </row>
-    <row r="85" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="43"/>
-      <c r="B85" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="C85" s="46">
-        <v>1</v>
-      </c>
-      <c r="D85" s="14">
-        <f>(2.7+0.1+0.1)*4</f>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14">
-        <f>PRODUCT(C85:F85)</f>
-        <v>11.600000000000001</v>
-      </c>
-      <c r="H85" s="47"/>
-      <c r="I85" s="44"/>
+    <row r="85" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="64">
+        <v>13</v>
+      </c>
+      <c r="B85" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C85" s="27"/>
+      <c r="D85" s="28"/>
+      <c r="E85" s="29"/>
+      <c r="F85" s="29"/>
+      <c r="G85" s="39"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="39"/>
       <c r="J85" s="44"/>
-      <c r="K85" s="16"/>
+      <c r="K85" s="29"/>
+      <c r="M85" s="31"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="31"/>
+      <c r="S85" s="31"/>
     </row>
     <row r="86" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="43"/>
       <c r="B86" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C86" s="46"/>
-      <c r="D86" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="C86" s="46">
+        <v>1</v>
+      </c>
+      <c r="D86" s="14">
+        <f>(2.7+0.1+0.1)*4</f>
+        <v>11.600000000000001</v>
+      </c>
       <c r="E86" s="14"/>
       <c r="F86" s="14"/>
-      <c r="G86" s="44">
-        <f>SUM(G85)</f>
+      <c r="G86" s="14">
+        <f>PRODUCT(C86:F86)</f>
         <v>11.600000000000001</v>
       </c>
-      <c r="H86" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="I86" s="44">
-        <f>465.63/1.15</f>
-        <v>404.89565217391305</v>
-      </c>
-      <c r="J86" s="44">
-        <f>G86*I86</f>
-        <v>4696.789565217392</v>
-      </c>
+      <c r="H86" s="47"/>
+      <c r="I86" s="44"/>
+      <c r="J86" s="44"/>
       <c r="K86" s="16"/>
     </row>
     <row r="87" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="43"/>
       <c r="B87" s="45" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C87" s="46"/>
       <c r="D87" s="14"/>
       <c r="E87" s="14"/>
       <c r="F87" s="14"/>
-      <c r="G87" s="44"/>
-      <c r="H87" s="44"/>
-      <c r="I87" s="44"/>
+      <c r="G87" s="44">
+        <f>SUM(G86)</f>
+        <v>11.600000000000001</v>
+      </c>
+      <c r="H87" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="I87" s="44">
+        <f>465.63/1.15</f>
+        <v>404.89565217391305</v>
+      </c>
       <c r="J87" s="44">
-        <f>0.13*G86*(2780.61/10)</f>
+        <f>G87*I87</f>
+        <v>4696.789565217392</v>
+      </c>
+      <c r="K87" s="16"/>
+    </row>
+    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="43"/>
+      <c r="B88" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" s="46"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="44"/>
+      <c r="H88" s="44"/>
+      <c r="I88" s="44"/>
+      <c r="J88" s="44">
+        <f>0.13*G87*(2780.61/10)</f>
         <v>419.31598800000012</v>
       </c>
-      <c r="K87" s="16"/>
-    </row>
-    <row r="88" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="26"/>
-      <c r="B88" s="30"/>
-      <c r="C88" s="27"/>
-      <c r="D88" s="28"/>
-      <c r="E88" s="29"/>
-      <c r="F88" s="29"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="39"/>
-      <c r="J88" s="44"/>
-      <c r="K88" s="29"/>
-      <c r="M88" s="31"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1"/>
-      <c r="R88" s="31"/>
-      <c r="S88" s="31"/>
-    </row>
-    <row r="89" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="26">
-        <v>14</v>
-      </c>
-      <c r="B89" s="48" t="s">
-        <v>57</v>
-      </c>
+      <c r="K88" s="16"/>
+    </row>
+    <row r="89" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="26"/>
+      <c r="B89" s="30"/>
       <c r="C89" s="27"/>
       <c r="D89" s="28"/>
       <c r="E89" s="29"/>
@@ -11646,93 +11744,100 @@
       <c r="R89" s="31"/>
       <c r="S89" s="31"/>
     </row>
-    <row r="90" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="43"/>
-      <c r="B90" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C90" s="46">
-        <v>1</v>
-      </c>
-      <c r="D90" s="14">
-        <v>2.71</v>
-      </c>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14">
-        <v>2.72</v>
-      </c>
-      <c r="G90" s="14">
-        <f t="shared" ref="G90" si="3">PRODUCT(C90:F90)</f>
-        <v>7.3712000000000009</v>
-      </c>
-      <c r="H90" s="47"/>
-      <c r="I90" s="44"/>
+    <row r="90" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A90" s="26">
+        <v>14</v>
+      </c>
+      <c r="B90" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90" s="27"/>
+      <c r="D90" s="28"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="39"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="39"/>
       <c r="J90" s="44"/>
-      <c r="K90" s="16"/>
+      <c r="K90" s="29"/>
+      <c r="M90" s="31"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="31"/>
+      <c r="S90" s="31"/>
     </row>
     <row r="91" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="43"/>
       <c r="B91" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C91" s="46"/>
-      <c r="D91" s="14"/>
+        <v>54</v>
+      </c>
+      <c r="C91" s="46">
+        <v>1</v>
+      </c>
+      <c r="D91" s="14">
+        <v>2.71</v>
+      </c>
       <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="44">
-        <f>SUM(G90:G90)</f>
+      <c r="F91" s="14">
+        <v>2.72</v>
+      </c>
+      <c r="G91" s="14">
+        <f t="shared" ref="G91" si="4">PRODUCT(C91:F91)</f>
         <v>7.3712000000000009</v>
       </c>
-      <c r="H91" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="I91" s="44">
-        <v>438.01</v>
-      </c>
-      <c r="J91" s="44">
-        <f>G90*I91</f>
-        <v>3228.6593120000002</v>
-      </c>
+      <c r="H91" s="47"/>
+      <c r="I91" s="44"/>
+      <c r="J91" s="44"/>
       <c r="K91" s="16"/>
     </row>
     <row r="92" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="43"/>
       <c r="B92" s="45" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C92" s="46"/>
       <c r="D92" s="14"/>
       <c r="E92" s="14"/>
       <c r="F92" s="14"/>
-      <c r="G92" s="44"/>
-      <c r="H92" s="44"/>
-      <c r="I92" s="44"/>
+      <c r="G92" s="44">
+        <f>SUM(G91:G91)</f>
+        <v>7.3712000000000009</v>
+      </c>
+      <c r="H92" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I92" s="44">
+        <v>438.01</v>
+      </c>
       <c r="J92" s="44">
-        <f>0.13*G91*(2725.4/10)</f>
-        <v>261.16309024000003</v>
+        <f>G91*I92</f>
+        <v>3228.6593120000002</v>
       </c>
       <c r="K92" s="16"/>
     </row>
     <row r="93" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="43"/>
-      <c r="B93" s="45"/>
+      <c r="B93" s="45" t="s">
+        <v>52</v>
+      </c>
       <c r="C93" s="46"/>
       <c r="D93" s="14"/>
       <c r="E93" s="14"/>
       <c r="F93" s="14"/>
-      <c r="G93" s="47"/>
-      <c r="H93" s="47"/>
-      <c r="I93" s="47"/>
-      <c r="J93" s="40"/>
+      <c r="G93" s="44"/>
+      <c r="H93" s="44"/>
+      <c r="I93" s="44"/>
+      <c r="J93" s="44">
+        <f>0.13*G92*(2725.4/10)</f>
+        <v>261.16309024000003</v>
+      </c>
       <c r="K93" s="16"/>
     </row>
-    <row r="94" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="43">
-        <v>15</v>
-      </c>
-      <c r="B94" s="48" t="s">
-        <v>40</v>
-      </c>
+    <row r="94" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="43"/>
+      <c r="B94" s="45"/>
       <c r="C94" s="46"/>
       <c r="D94" s="14"/>
       <c r="E94" s="14"/>
@@ -11743,28 +11848,18 @@
       <c r="J94" s="40"/>
       <c r="K94" s="16"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A95" s="43"/>
-      <c r="B95" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C95" s="46">
-        <f>C30</f>
-        <v>2</v>
-      </c>
-      <c r="D95" s="14">
-        <f>D30</f>
-        <v>2.4900944833892105</v>
-      </c>
+    <row r="95" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="43">
+        <v>15</v>
+      </c>
+      <c r="B95" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C95" s="46"/>
+      <c r="D95" s="14"/>
       <c r="E95" s="14"/>
-      <c r="F95" s="14">
-        <f>F30-1.2</f>
-        <v>1.2100000000000002</v>
-      </c>
-      <c r="G95" s="14">
-        <f t="shared" ref="G95:G100" si="4">PRODUCT(C95:F95)</f>
-        <v>6.0260286498018907</v>
-      </c>
+      <c r="F95" s="14"/>
+      <c r="G95" s="47"/>
       <c r="H95" s="47"/>
       <c r="I95" s="47"/>
       <c r="J95" s="40"/>
@@ -11772,7 +11867,9 @@
     </row>
     <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="43"/>
-      <c r="B96" s="48"/>
+      <c r="B96" s="45" t="s">
+        <v>117</v>
+      </c>
       <c r="C96" s="46">
         <f>C31</f>
         <v>2</v>
@@ -11787,7 +11884,7 @@
         <v>1.2100000000000002</v>
       </c>
       <c r="G96" s="14">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="G96:G101" si="5">PRODUCT(C96:F96)</f>
         <v>6.0260286498018907</v>
       </c>
       <c r="H96" s="47"/>
@@ -11797,23 +11894,23 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="43"/>
-      <c r="B97" s="45" t="s">
-        <v>44</v>
-      </c>
+      <c r="B97" s="48"/>
       <c r="C97" s="46">
-        <v>-3</v>
+        <f>C32</f>
+        <v>2</v>
       </c>
       <c r="D97" s="14">
-        <f>0.6</f>
-        <v>0.6</v>
+        <f>D32</f>
+        <v>2.4900944833892105</v>
       </c>
       <c r="E97" s="14"/>
       <c r="F97" s="14">
-        <v>0.9</v>
+        <f>F32-1.2</f>
+        <v>1.2100000000000002</v>
       </c>
       <c r="G97" s="14">
-        <f t="shared" si="4"/>
-        <v>-1.6199999999999999</v>
+        <f t="shared" si="5"/>
+        <v>6.0260286498018907</v>
       </c>
       <c r="H97" s="47"/>
       <c r="I97" s="47"/>
@@ -11823,73 +11920,73 @@
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="43"/>
       <c r="B98" s="45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C98" s="46">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D98" s="14">
-        <f>3.5/3.281</f>
-        <v>1.0667479427003961</v>
+        <f>0.6</f>
+        <v>0.6</v>
       </c>
       <c r="E98" s="14"/>
       <c r="F98" s="14">
-        <f>(7/3.281)-1.2</f>
-        <v>0.9334958854007922</v>
+        <v>0.9</v>
       </c>
       <c r="G98" s="14">
-        <f t="shared" si="4"/>
-        <v>-0.99580481527057974</v>
+        <f t="shared" si="5"/>
+        <v>-1.6199999999999999</v>
       </c>
       <c r="H98" s="47"/>
       <c r="I98" s="47"/>
       <c r="J98" s="40"/>
       <c r="K98" s="16"/>
     </row>
-    <row r="99" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="43"/>
       <c r="B99" s="45" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="C99" s="46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D99" s="14">
-        <f>2.71+2.72+2.64+0.3+0.3</f>
-        <v>8.6700000000000017</v>
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
       </c>
       <c r="E99" s="14"/>
       <c r="F99" s="14">
-        <v>2.72</v>
+        <f>(7/3.281)-1.2</f>
+        <v>0.9334958854007922</v>
       </c>
       <c r="G99" s="14">
-        <f t="shared" si="4"/>
-        <v>23.582400000000007</v>
+        <f t="shared" si="5"/>
+        <v>-0.99580481527057974</v>
       </c>
       <c r="H99" s="47"/>
-      <c r="I99" s="44"/>
-      <c r="J99" s="44"/>
+      <c r="I99" s="47"/>
+      <c r="J99" s="40"/>
       <c r="K99" s="16"/>
     </row>
     <row r="100" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="43"/>
       <c r="B100" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C100" s="46">
         <v>1</v>
       </c>
       <c r="D100" s="14">
-        <f>0.32+0.15+2.06+0.12+0.13+2.1+0.12+0.1+2.06+0.14+0.3</f>
-        <v>7.6</v>
+        <f>2.71+2.72+2.64+0.3+0.3</f>
+        <v>8.6700000000000017</v>
       </c>
       <c r="E100" s="14"/>
       <c r="F100" s="14">
         <v>2.72</v>
       </c>
       <c r="G100" s="14">
-        <f t="shared" si="4"/>
-        <v>20.672000000000001</v>
+        <f t="shared" si="5"/>
+        <v>23.582400000000007</v>
       </c>
       <c r="H100" s="47"/>
       <c r="I100" s="44"/>
@@ -11899,49 +11996,58 @@
     <row r="101" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="43"/>
       <c r="B101" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C101" s="46"/>
-      <c r="D101" s="14"/>
+        <v>55</v>
+      </c>
+      <c r="C101" s="46">
+        <v>1</v>
+      </c>
+      <c r="D101" s="14">
+        <f>0.32+0.15+2.06+0.12+0.13+2.1+0.12+0.1+2.06+0.14+0.3</f>
+        <v>7.6</v>
+      </c>
       <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="44">
-        <f>SUM(G95:G100)</f>
-        <v>53.690652484333214</v>
-      </c>
-      <c r="H101" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="I101" s="44">
-        <v>405.86</v>
-      </c>
-      <c r="J101" s="44">
-        <f>G99*I101</f>
-        <v>9571.1528640000033</v>
-      </c>
+      <c r="F101" s="14">
+        <v>2.72</v>
+      </c>
+      <c r="G101" s="14">
+        <f t="shared" si="5"/>
+        <v>20.672000000000001</v>
+      </c>
+      <c r="H101" s="47"/>
+      <c r="I101" s="44"/>
+      <c r="J101" s="44"/>
       <c r="K101" s="16"/>
     </row>
-    <row r="102" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="43"/>
       <c r="B102" s="45" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C102" s="46"/>
       <c r="D102" s="14"/>
       <c r="E102" s="14"/>
       <c r="F102" s="14"/>
-      <c r="G102" s="44"/>
-      <c r="H102" s="44"/>
-      <c r="I102" s="44"/>
+      <c r="G102" s="44">
+        <f>SUM(G96:G101)</f>
+        <v>53.690652484333214</v>
+      </c>
+      <c r="H102" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I102" s="44">
+        <v>405.86</v>
+      </c>
       <c r="J102" s="44">
-        <f>0.13*G101*(11166.2/100)</f>
-        <v>779.37673290173007</v>
+        <f>G100*I102</f>
+        <v>9571.1528640000033</v>
       </c>
       <c r="K102" s="16"/>
     </row>
     <row r="103" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="43"/>
-      <c r="B103" s="45"/>
+      <c r="B103" s="45" t="s">
+        <v>52</v>
+      </c>
       <c r="C103" s="46"/>
       <c r="D103" s="14"/>
       <c r="E103" s="14"/>
@@ -11949,114 +12055,113 @@
       <c r="G103" s="44"/>
       <c r="H103" s="44"/>
       <c r="I103" s="44"/>
-      <c r="J103" s="44"/>
+      <c r="J103" s="44">
+        <f>0.13*G102*(11166.2/100)</f>
+        <v>779.37673290173007</v>
+      </c>
       <c r="K103" s="16"/>
     </row>
-    <row r="104" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A104" s="43">
-        <v>16</v>
-      </c>
-      <c r="B104" s="48" t="s">
-        <v>58</v>
-      </c>
+    <row r="104" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="43"/>
+      <c r="B104" s="45"/>
       <c r="C104" s="46"/>
       <c r="D104" s="14"/>
       <c r="E104" s="14"/>
       <c r="F104" s="14"/>
-      <c r="G104" s="47"/>
-      <c r="H104" s="47"/>
-      <c r="I104" s="47"/>
-      <c r="J104" s="40"/>
+      <c r="G104" s="44"/>
+      <c r="H104" s="44"/>
+      <c r="I104" s="44"/>
+      <c r="J104" s="44"/>
       <c r="K104" s="16"/>
     </row>
-    <row r="105" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="43"/>
-      <c r="B105" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C105" s="46">
-        <v>1</v>
-      </c>
-      <c r="D105" s="14">
-        <f>D99</f>
-        <v>8.6700000000000017</v>
-      </c>
+    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="43">
+        <v>16</v>
+      </c>
+      <c r="B105" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C105" s="46"/>
+      <c r="D105" s="14"/>
       <c r="E105" s="14"/>
-      <c r="F105" s="14">
-        <v>2.72</v>
-      </c>
-      <c r="G105" s="14">
-        <f t="shared" ref="G105" si="5">PRODUCT(C105:F105)</f>
-        <v>23.582400000000007</v>
-      </c>
+      <c r="F105" s="14"/>
+      <c r="G105" s="47"/>
       <c r="H105" s="47"/>
-      <c r="I105" s="44"/>
-      <c r="J105" s="44"/>
+      <c r="I105" s="47"/>
+      <c r="J105" s="40"/>
       <c r="K105" s="16"/>
     </row>
     <row r="106" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="43"/>
       <c r="B106" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C106" s="46"/>
-      <c r="D106" s="14"/>
+        <v>54</v>
+      </c>
+      <c r="C106" s="46">
+        <v>1</v>
+      </c>
+      <c r="D106" s="14">
+        <f>D100</f>
+        <v>8.6700000000000017</v>
+      </c>
       <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="44">
-        <f>SUM(G105:G105)</f>
+      <c r="F106" s="14">
+        <v>2.72</v>
+      </c>
+      <c r="G106" s="14">
+        <f t="shared" ref="G106" si="6">PRODUCT(C106:F106)</f>
         <v>23.582400000000007</v>
       </c>
-      <c r="H106" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="I106" s="44">
-        <v>279.02999999999997</v>
-      </c>
-      <c r="J106" s="44">
-        <f>G105*I106</f>
-        <v>6580.1970720000008</v>
-      </c>
+      <c r="H106" s="47"/>
+      <c r="I106" s="44"/>
+      <c r="J106" s="44"/>
       <c r="K106" s="16"/>
     </row>
     <row r="107" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="43"/>
       <c r="B107" s="45" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C107" s="46"/>
       <c r="D107" s="14"/>
       <c r="E107" s="14"/>
       <c r="F107" s="14"/>
-      <c r="G107" s="44"/>
-      <c r="H107" s="44"/>
-      <c r="I107" s="44"/>
+      <c r="G107" s="44">
+        <f>SUM(G106:G106)</f>
+        <v>23.582400000000007</v>
+      </c>
+      <c r="H107" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I107" s="44">
+        <v>279.02999999999997</v>
+      </c>
       <c r="J107" s="44">
-        <f>0.13*G106*(345.36/10)</f>
-        <v>105.87742963200003</v>
+        <f>G106*I107</f>
+        <v>6580.1970720000008</v>
       </c>
       <c r="K107" s="16"/>
     </row>
     <row r="108" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="43"/>
-      <c r="B108" s="45"/>
+      <c r="B108" s="45" t="s">
+        <v>52</v>
+      </c>
       <c r="C108" s="46"/>
       <c r="D108" s="14"/>
       <c r="E108" s="14"/>
       <c r="F108" s="14"/>
-      <c r="G108" s="47"/>
-      <c r="H108" s="47"/>
-      <c r="I108" s="47"/>
-      <c r="J108" s="40"/>
+      <c r="G108" s="44"/>
+      <c r="H108" s="44"/>
+      <c r="I108" s="44"/>
+      <c r="J108" s="44">
+        <f>0.13*G107*(345.36/10)</f>
+        <v>105.87742963200003</v>
+      </c>
       <c r="K108" s="16"/>
     </row>
-    <row r="109" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A109" s="58">
-        <v>17</v>
-      </c>
-      <c r="B109" s="48" t="s">
-        <v>45</v>
-      </c>
+    <row r="109" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="43"/>
+      <c r="B109" s="45"/>
       <c r="C109" s="46"/>
       <c r="D109" s="14"/>
       <c r="E109" s="14"/>
@@ -12067,29 +12172,18 @@
       <c r="J109" s="40"/>
       <c r="K109" s="16"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A110" s="58"/>
-      <c r="B110" s="45" t="str">
-        <f>B95</f>
-        <v>-inside worship area</v>
-      </c>
-      <c r="C110" s="46">
-        <f>C95</f>
-        <v>2</v>
-      </c>
-      <c r="D110" s="14">
-        <f>D95</f>
-        <v>2.4900944833892105</v>
-      </c>
+    <row r="110" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="58">
+        <v>17</v>
+      </c>
+      <c r="B110" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="C110" s="46"/>
+      <c r="D110" s="14"/>
       <c r="E110" s="14"/>
-      <c r="F110" s="14">
-        <f>F95</f>
-        <v>1.2100000000000002</v>
-      </c>
-      <c r="G110" s="14">
-        <f t="shared" ref="G110:G114" si="6">PRODUCT(C110:F110)</f>
-        <v>6.0260286498018907</v>
-      </c>
+      <c r="F110" s="14"/>
+      <c r="G110" s="47"/>
       <c r="H110" s="47"/>
       <c r="I110" s="47"/>
       <c r="J110" s="40"/>
@@ -12097,22 +12191,25 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="58"/>
-      <c r="B111" s="45"/>
+      <c r="B111" s="45" t="str">
+        <f>B96</f>
+        <v>-inside worship area</v>
+      </c>
       <c r="C111" s="46">
-        <f t="shared" ref="C111:D111" si="7">C96</f>
+        <f>C96</f>
         <v>2</v>
       </c>
       <c r="D111" s="14">
-        <f t="shared" si="7"/>
+        <f>D96</f>
         <v>2.4900944833892105</v>
       </c>
       <c r="E111" s="14"/>
       <c r="F111" s="14">
-        <f t="shared" ref="F111:F113" si="8">F96</f>
+        <f>F96</f>
         <v>1.2100000000000002</v>
       </c>
       <c r="G111" s="14">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="G111:G115" si="7">PRODUCT(C111:F111)</f>
         <v>6.0260286498018907</v>
       </c>
       <c r="H111" s="47"/>
@@ -12122,26 +12219,23 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="58"/>
-      <c r="B112" s="45" t="str">
-        <f>B97</f>
-        <v>-Deduction for window</v>
-      </c>
+      <c r="B112" s="45"/>
       <c r="C112" s="46">
-        <f t="shared" ref="C112:D112" si="9">C97</f>
-        <v>-3</v>
+        <f t="shared" ref="C112:D112" si="8">C97</f>
+        <v>2</v>
       </c>
       <c r="D112" s="14">
-        <f t="shared" si="9"/>
-        <v>0.6</v>
+        <f t="shared" si="8"/>
+        <v>2.4900944833892105</v>
       </c>
       <c r="E112" s="14"/>
       <c r="F112" s="14">
-        <f t="shared" si="8"/>
-        <v>0.9</v>
+        <f t="shared" ref="F112:F114" si="9">F97</f>
+        <v>1.2100000000000002</v>
       </c>
       <c r="G112" s="14">
-        <f t="shared" si="6"/>
-        <v>-1.6199999999999999</v>
+        <f t="shared" si="7"/>
+        <v>6.0260286498018907</v>
       </c>
       <c r="H112" s="47"/>
       <c r="I112" s="47"/>
@@ -12152,24 +12246,24 @@
       <c r="A113" s="58"/>
       <c r="B113" s="45" t="str">
         <f>B98</f>
-        <v>-Deduction for door</v>
+        <v>-Deduction for window</v>
       </c>
       <c r="C113" s="46">
         <f t="shared" ref="C113:D113" si="10">C98</f>
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="D113" s="14">
         <f t="shared" si="10"/>
-        <v>1.0667479427003961</v>
+        <v>0.6</v>
       </c>
       <c r="E113" s="14"/>
       <c r="F113" s="14">
-        <f t="shared" si="8"/>
-        <v>0.9334958854007922</v>
+        <f t="shared" si="9"/>
+        <v>0.9</v>
       </c>
       <c r="G113" s="14">
-        <f t="shared" si="6"/>
-        <v>-0.99580481527057974</v>
+        <f t="shared" si="7"/>
+        <v>-1.6199999999999999</v>
       </c>
       <c r="H113" s="47"/>
       <c r="I113" s="47"/>
@@ -12177,79 +12271,91 @@
       <c r="K113" s="16"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A114" s="43"/>
+      <c r="A114" s="58"/>
       <c r="B114" s="45" t="str">
-        <f>B100</f>
-        <v>-Inner wall face</v>
+        <f>B99</f>
+        <v>-Deduction for door</v>
       </c>
       <c r="C114" s="46">
-        <v>1</v>
+        <f t="shared" ref="C114:D114" si="11">C99</f>
+        <v>-1</v>
       </c>
       <c r="D114" s="14">
-        <f>D100</f>
-        <v>7.6</v>
+        <f t="shared" si="11"/>
+        <v>1.0667479427003961</v>
       </c>
       <c r="E114" s="14"/>
       <c r="F114" s="14">
-        <f>F100</f>
+        <f t="shared" si="9"/>
+        <v>0.9334958854007922</v>
+      </c>
+      <c r="G114" s="14">
+        <f t="shared" si="7"/>
+        <v>-0.99580481527057974</v>
+      </c>
+      <c r="H114" s="47"/>
+      <c r="I114" s="47"/>
+      <c r="J114" s="40"/>
+      <c r="K114" s="16"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="43"/>
+      <c r="B115" s="45" t="str">
+        <f>B101</f>
+        <v>-Inner wall face</v>
+      </c>
+      <c r="C115" s="46">
+        <v>1</v>
+      </c>
+      <c r="D115" s="14">
+        <f>D101</f>
+        <v>7.6</v>
+      </c>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14">
+        <f>F101</f>
         <v>2.72</v>
       </c>
-      <c r="G114" s="14">
-        <f t="shared" si="6"/>
+      <c r="G115" s="14">
+        <f t="shared" si="7"/>
         <v>20.672000000000001</v>
       </c>
-      <c r="H114" s="44"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="9"/>
-      <c r="K114" s="16"/>
-    </row>
-    <row r="115" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="43"/>
-      <c r="B115" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C115" s="46"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="44">
-        <f>SUM(G110:G114)</f>
-        <v>30.108252484333203</v>
-      </c>
-      <c r="H115" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="I115" s="44">
-        <f>184.41</f>
-        <v>184.41</v>
-      </c>
-      <c r="J115" s="44">
-        <f>G115*I115</f>
-        <v>5552.2628406358863</v>
-      </c>
+      <c r="H115" s="44"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="9"/>
       <c r="K115" s="16"/>
     </row>
     <row r="116" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="43"/>
       <c r="B116" s="45" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C116" s="46"/>
       <c r="D116" s="14"/>
       <c r="E116" s="14"/>
       <c r="F116" s="14"/>
-      <c r="G116" s="44"/>
-      <c r="H116" s="44"/>
-      <c r="I116" s="44"/>
+      <c r="G116" s="44">
+        <f>SUM(G111:G115)</f>
+        <v>30.108252484333203</v>
+      </c>
+      <c r="H116" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I116" s="44">
+        <f>184.41</f>
+        <v>184.41</v>
+      </c>
       <c r="J116" s="44">
-        <f>0.13*G115*(6000/100)</f>
-        <v>234.84436937779898</v>
+        <f>G116*I116</f>
+        <v>5552.2628406358863</v>
       </c>
       <c r="K116" s="16"/>
     </row>
     <row r="117" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="43"/>
-      <c r="B117" s="45"/>
+      <c r="B117" s="45" t="s">
+        <v>52</v>
+      </c>
       <c r="C117" s="46"/>
       <c r="D117" s="14"/>
       <c r="E117" s="14"/>
@@ -12257,16 +12363,15 @@
       <c r="G117" s="44"/>
       <c r="H117" s="44"/>
       <c r="I117" s="44"/>
-      <c r="J117" s="44"/>
+      <c r="J117" s="44">
+        <f>0.13*G116*(6000/100)</f>
+        <v>234.84436937779898</v>
+      </c>
       <c r="K117" s="16"/>
     </row>
-    <row r="118" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A118" s="43">
-        <v>18</v>
-      </c>
-      <c r="B118" s="48" t="s">
-        <v>118</v>
-      </c>
+    <row r="118" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="43"/>
+      <c r="B118" s="45"/>
       <c r="C118" s="46"/>
       <c r="D118" s="14"/>
       <c r="E118" s="14"/>
@@ -12277,21 +12382,18 @@
       <c r="J118" s="44"/>
       <c r="K118" s="16"/>
     </row>
-    <row r="119" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="43"/>
-      <c r="B119" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C119" s="46">
-        <v>1</v>
-      </c>
+    <row r="119" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A119" s="43">
+        <v>18</v>
+      </c>
+      <c r="B119" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="C119" s="46"/>
       <c r="D119" s="14"/>
       <c r="E119" s="14"/>
       <c r="F119" s="14"/>
-      <c r="G119" s="47">
-        <f>G115</f>
-        <v>30.108252484333203</v>
-      </c>
+      <c r="G119" s="44"/>
       <c r="H119" s="44"/>
       <c r="I119" s="44"/>
       <c r="J119" s="44"/>
@@ -12300,66 +12402,69 @@
     <row r="120" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="43"/>
       <c r="B120" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C120" s="46"/>
+        <v>119</v>
+      </c>
+      <c r="C120" s="46">
+        <v>1</v>
+      </c>
       <c r="D120" s="14"/>
       <c r="E120" s="14"/>
       <c r="F120" s="14"/>
-      <c r="G120" s="44">
-        <f>SUM(G119)</f>
+      <c r="G120" s="47">
+        <f>G116</f>
         <v>30.108252484333203</v>
       </c>
-      <c r="H120" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="I120" s="44">
-        <v>154.91999999999999</v>
-      </c>
-      <c r="J120" s="44">
-        <f>G120*I120</f>
-        <v>4664.3704748728996</v>
-      </c>
+      <c r="H120" s="44"/>
+      <c r="I120" s="44"/>
+      <c r="J120" s="44"/>
       <c r="K120" s="16"/>
     </row>
     <row r="121" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="43"/>
       <c r="B121" s="45" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C121" s="46"/>
       <c r="D121" s="14"/>
       <c r="E121" s="14"/>
       <c r="F121" s="14"/>
-      <c r="G121" s="44"/>
-      <c r="H121" s="44"/>
-      <c r="I121" s="44"/>
+      <c r="G121" s="44">
+        <f>SUM(G120)</f>
+        <v>30.108252484333203</v>
+      </c>
+      <c r="H121" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I121" s="44">
+        <v>154.91999999999999</v>
+      </c>
       <c r="J121" s="44">
-        <f>0.13*G120*(1550/100)</f>
-        <v>60.668128755931406</v>
+        <f>G121*I121</f>
+        <v>4664.3704748728996</v>
       </c>
       <c r="K121" s="16"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="43"/>
-      <c r="B122" s="45"/>
+      <c r="B122" s="45" t="s">
+        <v>52</v>
+      </c>
       <c r="C122" s="46"/>
       <c r="D122" s="14"/>
       <c r="E122" s="14"/>
       <c r="F122" s="14"/>
-      <c r="G122" s="47"/>
-      <c r="H122" s="47"/>
-      <c r="I122" s="47"/>
-      <c r="J122" s="40"/>
+      <c r="G122" s="44"/>
+      <c r="H122" s="44"/>
+      <c r="I122" s="44"/>
+      <c r="J122" s="44">
+        <f>0.13*G121*(1550/100)</f>
+        <v>60.668128755931406</v>
+      </c>
       <c r="K122" s="16"/>
     </row>
-    <row r="123" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="58">
-        <v>19</v>
-      </c>
-      <c r="B123" s="48" t="s">
-        <v>59</v>
-      </c>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="43"/>
+      <c r="B123" s="45"/>
       <c r="C123" s="46"/>
       <c r="D123" s="14"/>
       <c r="E123" s="14"/>
@@ -12370,50 +12475,43 @@
       <c r="J123" s="40"/>
       <c r="K123" s="16"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="43"/>
-      <c r="B124" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C124" s="46">
-        <v>1</v>
-      </c>
-      <c r="D124" s="14">
-        <f>2.32</f>
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="E124" s="14">
-        <f>2.06+0.12+0.3</f>
-        <v>2.48</v>
-      </c>
+    <row r="124" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A124" s="58">
+        <v>19</v>
+      </c>
+      <c r="B124" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C124" s="46"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
       <c r="F124" s="14"/>
-      <c r="G124" s="14">
-        <f t="shared" ref="G124:G131" si="11">PRODUCT(C124:F124)</f>
-        <v>5.7535999999999996</v>
-      </c>
-      <c r="H124" s="44"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="9"/>
+      <c r="G124" s="47"/>
+      <c r="H124" s="47"/>
+      <c r="I124" s="47"/>
+      <c r="J124" s="40"/>
       <c r="K124" s="16"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="43"/>
       <c r="B125" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C125" s="46">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="D125" s="14">
-        <v>0.12</v>
+        <f>2.32</f>
+        <v>2.3199999999999998</v>
       </c>
       <c r="E125" s="14">
-        <v>0.13</v>
+        <f>2.06+0.12+0.3</f>
+        <v>2.48</v>
       </c>
       <c r="F125" s="14"/>
       <c r="G125" s="14">
-        <f t="shared" si="11"/>
-        <v>-1.5599999999999999E-2</v>
+        <f t="shared" ref="G125:G132" si="12">PRODUCT(C125:F125)</f>
+        <v>5.7535999999999996</v>
       </c>
       <c r="H125" s="44"/>
       <c r="I125" s="9"/>
@@ -12422,7 +12520,9 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="43"/>
-      <c r="B126" s="45"/>
+      <c r="B126" s="45" t="s">
+        <v>61</v>
+      </c>
       <c r="C126" s="46">
         <v>-1</v>
       </c>
@@ -12430,12 +12530,12 @@
         <v>0.12</v>
       </c>
       <c r="E126" s="14">
-        <v>0.1</v>
+        <v>0.13</v>
       </c>
       <c r="F126" s="14"/>
       <c r="G126" s="14">
-        <f t="shared" si="11"/>
-        <v>-1.2E-2</v>
+        <f t="shared" si="12"/>
+        <v>-1.5599999999999999E-2</v>
       </c>
       <c r="H126" s="44"/>
       <c r="I126" s="9"/>
@@ -12449,16 +12549,15 @@
         <v>-1</v>
       </c>
       <c r="D127" s="14">
-        <f>0.15</f>
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="E127" s="14">
-        <v>0.32</v>
+        <v>0.1</v>
       </c>
       <c r="F127" s="14"/>
       <c r="G127" s="14">
-        <f t="shared" si="11"/>
-        <v>-4.8000000000000001E-2</v>
+        <f t="shared" si="12"/>
+        <v>-1.2E-2</v>
       </c>
       <c r="H127" s="44"/>
       <c r="I127" s="9"/>
@@ -12472,15 +12571,16 @@
         <v>-1</v>
       </c>
       <c r="D128" s="14">
-        <v>0.14000000000000001</v>
+        <f>0.15</f>
+        <v>0.15</v>
       </c>
       <c r="E128" s="14">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="F128" s="14"/>
       <c r="G128" s="14">
-        <f t="shared" si="11"/>
-        <v>-4.2000000000000003E-2</v>
+        <f t="shared" si="12"/>
+        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="H128" s="44"/>
       <c r="I128" s="9"/>
@@ -12489,24 +12589,20 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="43"/>
-      <c r="B129" s="45" t="s">
-        <v>76</v>
-      </c>
+      <c r="B129" s="45"/>
       <c r="C129" s="46">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="D129" s="14">
-        <f>7.25/3.281</f>
-        <v>2.2096921670222494</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="E129" s="14">
-        <f>5.25/3.281</f>
-        <v>1.6001219140505942</v>
+        <v>0.3</v>
       </c>
       <c r="F129" s="14"/>
       <c r="G129" s="14">
-        <f t="shared" si="11"/>
-        <v>3.5357768597582471</v>
+        <f t="shared" si="12"/>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="H129" s="44"/>
       <c r="I129" s="9"/>
@@ -12516,23 +12612,23 @@
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="43"/>
       <c r="B130" s="45" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="C130" s="46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D130" s="14">
-        <f>14.75/3.281</f>
-        <v>4.495580615665955</v>
+        <f>7.25/3.281</f>
+        <v>2.2096921670222494</v>
       </c>
       <c r="E130" s="14">
-        <f>2.583/3.281</f>
-        <v>0.78725998171289246</v>
+        <f>5.25/3.281</f>
+        <v>1.6001219140505942</v>
       </c>
       <c r="F130" s="14"/>
       <c r="G130" s="14">
-        <f t="shared" si="11"/>
-        <v>7.0783814265560272</v>
+        <f t="shared" si="12"/>
+        <v>3.5357768597582471</v>
       </c>
       <c r="H130" s="44"/>
       <c r="I130" s="9"/>
@@ -12541,13 +12637,15 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="43"/>
-      <c r="B131" s="45"/>
+      <c r="B131" s="45" t="s">
+        <v>111</v>
+      </c>
       <c r="C131" s="46">
         <v>2</v>
       </c>
       <c r="D131" s="14">
-        <f>9.583/3.281</f>
-        <v>2.9207558671136846</v>
+        <f>14.75/3.281</f>
+        <v>4.495580615665955</v>
       </c>
       <c r="E131" s="14">
         <f>2.583/3.281</f>
@@ -12555,77 +12653,84 @@
       </c>
       <c r="F131" s="14"/>
       <c r="G131" s="14">
-        <f t="shared" si="11"/>
-        <v>4.5987884210634853</v>
+        <f t="shared" si="12"/>
+        <v>7.0783814265560272</v>
       </c>
       <c r="H131" s="44"/>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
       <c r="K131" s="16"/>
     </row>
-    <row r="132" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="43"/>
-      <c r="B132" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C132" s="46"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
+      <c r="B132" s="45"/>
+      <c r="C132" s="46">
+        <v>2</v>
+      </c>
+      <c r="D132" s="14">
+        <f>9.583/3.281</f>
+        <v>2.9207558671136846</v>
+      </c>
+      <c r="E132" s="14">
+        <f>2.583/3.281</f>
+        <v>0.78725998171289246</v>
+      </c>
       <c r="F132" s="14"/>
-      <c r="G132" s="44">
-        <f>SUM(G124:G131)</f>
-        <v>20.84894670737776</v>
-      </c>
-      <c r="H132" s="44" t="s">
-        <v>41</v>
-      </c>
-      <c r="I132" s="44">
-        <v>6803.67</v>
-      </c>
-      <c r="J132" s="44">
-        <f>G132*I132</f>
-        <v>141849.35324458484</v>
-      </c>
+      <c r="G132" s="14">
+        <f t="shared" si="12"/>
+        <v>4.5987884210634853</v>
+      </c>
+      <c r="H132" s="44"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="9"/>
       <c r="K132" s="16"/>
     </row>
     <row r="133" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="43"/>
       <c r="B133" s="45" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C133" s="46"/>
       <c r="D133" s="14"/>
       <c r="E133" s="14"/>
       <c r="F133" s="14"/>
-      <c r="G133" s="44"/>
-      <c r="H133" s="44"/>
-      <c r="I133" s="44"/>
+      <c r="G133" s="44">
+        <f>SUM(G125:G132)</f>
+        <v>20.84894670737776</v>
+      </c>
+      <c r="H133" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I133" s="44">
+        <v>6803.67</v>
+      </c>
       <c r="J133" s="44">
-        <f>0.13*G132*(45806.78/10)</f>
-        <v>12415.300495735508</v>
+        <f>G133*I133</f>
+        <v>141849.35324458484</v>
       </c>
       <c r="K133" s="16"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="43"/>
-      <c r="B134" s="45"/>
+      <c r="B134" s="45" t="s">
+        <v>52</v>
+      </c>
       <c r="C134" s="46"/>
       <c r="D134" s="14"/>
       <c r="E134" s="14"/>
       <c r="F134" s="14"/>
-      <c r="G134" s="47"/>
-      <c r="H134" s="47"/>
-      <c r="I134" s="47"/>
-      <c r="J134" s="40"/>
+      <c r="G134" s="44"/>
+      <c r="H134" s="44"/>
+      <c r="I134" s="44"/>
+      <c r="J134" s="44">
+        <f>0.13*G133*(45806.78/10)</f>
+        <v>12415.300495735508</v>
+      </c>
       <c r="K134" s="16"/>
     </row>
-    <row r="135" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="43">
-        <v>20</v>
-      </c>
-      <c r="B135" s="48" t="s">
-        <v>62</v>
-      </c>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="43"/>
+      <c r="B135" s="45"/>
       <c r="C135" s="46"/>
       <c r="D135" s="14"/>
       <c r="E135" s="14"/>
@@ -12636,92 +12741,92 @@
       <c r="J135" s="40"/>
       <c r="K135" s="16"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="43"/>
-      <c r="B136" s="45" t="s">
+    <row r="136" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A136" s="43">
+        <v>20</v>
+      </c>
+      <c r="B136" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C136" s="46"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="47"/>
+      <c r="H136" s="47"/>
+      <c r="I136" s="47"/>
+      <c r="J136" s="40"/>
+      <c r="K136" s="16"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="43"/>
+      <c r="B137" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C136" s="46">
+      <c r="C137" s="46">
         <v>2</v>
       </c>
-      <c r="D136" s="14">
+      <c r="D137" s="14">
         <f>4.46-0.1-0.1+4.5-0.1-0.1</f>
         <v>8.5600000000000023</v>
       </c>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c r="G136" s="14">
-        <f t="shared" ref="G136" si="12">PRODUCT(C136:F136)</f>
-        <v>17.120000000000005</v>
-      </c>
-      <c r="H136" s="44"/>
-      <c r="I136" s="9"/>
-      <c r="J136" s="9"/>
-      <c r="K136" s="16"/>
-    </row>
-    <row r="137" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="43"/>
-      <c r="B137" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C137" s="46"/>
-      <c r="D137" s="14"/>
       <c r="E137" s="14"/>
       <c r="F137" s="14"/>
-      <c r="G137" s="44">
-        <f>SUM(G136)</f>
+      <c r="G137" s="14">
+        <f t="shared" ref="G137" si="13">PRODUCT(C137:F137)</f>
         <v>17.120000000000005</v>
       </c>
-      <c r="H137" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="I137" s="44">
-        <v>4132.8</v>
-      </c>
-      <c r="J137" s="44">
-        <f>G137*I137</f>
-        <v>70753.536000000022</v>
-      </c>
+      <c r="H137" s="44"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="9"/>
       <c r="K137" s="16"/>
     </row>
     <row r="138" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="43"/>
       <c r="B138" s="45" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C138" s="46"/>
       <c r="D138" s="14"/>
       <c r="E138" s="14"/>
       <c r="F138" s="14"/>
-      <c r="G138" s="44"/>
-      <c r="H138" s="44"/>
-      <c r="I138" s="44"/>
+      <c r="G138" s="44">
+        <f>SUM(G137)</f>
+        <v>17.120000000000005</v>
+      </c>
+      <c r="H138" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I138" s="44">
+        <v>4132.8</v>
+      </c>
       <c r="J138" s="44">
-        <f>0.13*J137</f>
-        <v>9197.9596800000036</v>
+        <f>G138*I138</f>
+        <v>70753.536000000022</v>
       </c>
       <c r="K138" s="16"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="43"/>
-      <c r="B139" s="45"/>
+      <c r="B139" s="45" t="s">
+        <v>52</v>
+      </c>
       <c r="C139" s="46"/>
       <c r="D139" s="14"/>
       <c r="E139" s="14"/>
       <c r="F139" s="14"/>
-      <c r="G139" s="47"/>
-      <c r="H139" s="47"/>
-      <c r="I139" s="47"/>
-      <c r="J139" s="40"/>
+      <c r="G139" s="44"/>
+      <c r="H139" s="44"/>
+      <c r="I139" s="44"/>
+      <c r="J139" s="44">
+        <f>0.13*J138</f>
+        <v>9197.9596800000036</v>
+      </c>
       <c r="K139" s="16"/>
     </row>
-    <row r="140" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="43">
-        <v>21</v>
-      </c>
-      <c r="B140" s="48" t="s">
-        <v>64</v>
-      </c>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="43"/>
+      <c r="B140" s="45"/>
       <c r="C140" s="46"/>
       <c r="D140" s="14"/>
       <c r="E140" s="14"/>
@@ -12732,125 +12837,114 @@
       <c r="J140" s="40"/>
       <c r="K140" s="16"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A141" s="43"/>
-      <c r="B141" s="45" t="s">
+    <row r="141" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="43">
+        <v>21</v>
+      </c>
+      <c r="B141" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C141" s="46"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="47"/>
+      <c r="H141" s="47"/>
+      <c r="I141" s="47"/>
+      <c r="J141" s="40"/>
+      <c r="K141" s="16"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142" s="43"/>
+      <c r="B142" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C141" s="46">
+      <c r="C142" s="46">
         <v>2</v>
       </c>
-      <c r="D141" s="14">
+      <c r="D142" s="14">
         <f>4.46+4.5+4.5+4.5</f>
         <v>17.96</v>
       </c>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14">
-        <f t="shared" ref="G141" si="13">PRODUCT(C141:F141)</f>
-        <v>35.92</v>
-      </c>
-      <c r="H141" s="44"/>
-      <c r="I141" s="9"/>
-      <c r="J141" s="9"/>
-      <c r="K141" s="16"/>
-    </row>
-    <row r="142" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="43"/>
-      <c r="B142" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C142" s="46"/>
-      <c r="D142" s="14"/>
       <c r="E142" s="14"/>
       <c r="F142" s="14"/>
-      <c r="G142" s="44">
-        <f>SUM(G141)</f>
+      <c r="G142" s="14">
+        <f t="shared" ref="G142" si="14">PRODUCT(C142:F142)</f>
         <v>35.92</v>
       </c>
-      <c r="H142" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="I142" s="44">
-        <v>137.44999999999999</v>
-      </c>
-      <c r="J142" s="44">
-        <f>G142*I142</f>
-        <v>4937.2039999999997</v>
-      </c>
+      <c r="H142" s="44"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="9"/>
       <c r="K142" s="16"/>
     </row>
     <row r="143" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="43"/>
       <c r="B143" s="45" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C143" s="46"/>
       <c r="D143" s="14"/>
       <c r="E143" s="14"/>
       <c r="F143" s="14"/>
-      <c r="G143" s="44"/>
-      <c r="H143" s="44"/>
-      <c r="I143" s="44"/>
+      <c r="G143" s="44">
+        <f>SUM(G142)</f>
+        <v>35.92</v>
+      </c>
+      <c r="H143" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="I143" s="44">
+        <v>137.44999999999999</v>
+      </c>
       <c r="J143" s="44">
-        <f>0.13*G142*97.64</f>
-        <v>455.93974400000002</v>
+        <f>G143*I143</f>
+        <v>4937.2039999999997</v>
       </c>
       <c r="K143" s="16"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="43"/>
-      <c r="B144" s="45"/>
+      <c r="B144" s="45" t="s">
+        <v>52</v>
+      </c>
       <c r="C144" s="46"/>
       <c r="D144" s="14"/>
       <c r="E144" s="14"/>
       <c r="F144" s="14"/>
-      <c r="G144" s="47"/>
-      <c r="H144" s="47"/>
-      <c r="I144" s="47"/>
-      <c r="J144" s="40"/>
+      <c r="G144" s="44"/>
+      <c r="H144" s="44"/>
+      <c r="I144" s="44"/>
+      <c r="J144" s="44">
+        <f>0.13*G143*97.64</f>
+        <v>455.93974400000002</v>
+      </c>
       <c r="K144" s="16"/>
     </row>
-    <row r="145" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A145" s="43">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A145" s="43"/>
+      <c r="B145" s="45"/>
+      <c r="C145" s="46"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
+      <c r="G145" s="47"/>
+      <c r="H145" s="47"/>
+      <c r="I145" s="47"/>
+      <c r="J145" s="40"/>
+      <c r="K145" s="16"/>
+    </row>
+    <row r="146" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A146" s="43">
         <v>22</v>
       </c>
-      <c r="B145" s="59" t="s">
+      <c r="B146" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="C145" s="53"/>
-      <c r="D145" s="54"/>
-      <c r="E145" s="54"/>
-      <c r="F145" s="54"/>
-      <c r="G145" s="57"/>
-      <c r="H145" s="57"/>
-      <c r="I145" s="57"/>
-      <c r="J145" s="40"/>
-      <c r="K145" s="5"/>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" s="43"/>
-      <c r="B146" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="C146" s="53">
-        <v>3</v>
-      </c>
-      <c r="D146" s="54">
-        <f>2.833/3.281</f>
-        <v>0.86345626333434933</v>
-      </c>
-      <c r="E146" s="54">
-        <f>0.1</f>
-        <v>0.1</v>
-      </c>
-      <c r="F146" s="54">
-        <v>0.125</v>
-      </c>
-      <c r="G146" s="54">
-        <f t="shared" ref="G146:G149" si="14">PRODUCT(C146:F146)</f>
-        <v>3.2379609875038101E-2</v>
-      </c>
+      <c r="C146" s="53"/>
+      <c r="D146" s="54"/>
+      <c r="E146" s="54"/>
+      <c r="F146" s="54"/>
+      <c r="G146" s="57"/>
       <c r="H146" s="57"/>
       <c r="I146" s="57"/>
       <c r="J146" s="40"/>
@@ -12858,23 +12952,26 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A147" s="43"/>
-      <c r="B147" s="56"/>
+      <c r="B147" s="56" t="s">
+        <v>67</v>
+      </c>
       <c r="C147" s="53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D147" s="54">
-        <f>7/3.281</f>
-        <v>2.1334958854007922</v>
+        <f>2.833/3.281</f>
+        <v>0.86345626333434933</v>
       </c>
       <c r="E147" s="54">
+        <f>0.1</f>
         <v>0.1</v>
       </c>
       <c r="F147" s="54">
         <v>0.125</v>
       </c>
       <c r="G147" s="54">
-        <f t="shared" si="14"/>
-        <v>5.333739713501981E-2</v>
+        <f t="shared" ref="G147:G150" si="15">PRODUCT(C147:F147)</f>
+        <v>3.2379609875038101E-2</v>
       </c>
       <c r="H147" s="57"/>
       <c r="I147" s="57"/>
@@ -12883,25 +12980,23 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A148" s="43"/>
-      <c r="B148" s="56" t="s">
-        <v>68</v>
-      </c>
+      <c r="B148" s="56"/>
       <c r="C148" s="53">
-        <f>3*2</f>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D148" s="54">
-        <v>0.9</v>
+        <f>7/3.281</f>
+        <v>2.1334958854007922</v>
       </c>
       <c r="E148" s="54">
-        <v>7.4999999999999997E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F148" s="54">
         <v>0.125</v>
       </c>
       <c r="G148" s="54">
-        <f t="shared" si="14"/>
-        <v>5.0625000000000003E-2</v>
+        <f t="shared" si="15"/>
+        <v>5.333739713501981E-2</v>
       </c>
       <c r="H148" s="57"/>
       <c r="I148" s="57"/>
@@ -12910,14 +13005,15 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A149" s="43"/>
-      <c r="B149" s="56"/>
+      <c r="B149" s="56" t="s">
+        <v>68</v>
+      </c>
       <c r="C149" s="53">
         <f>3*2</f>
         <v>6</v>
       </c>
       <c r="D149" s="54">
-        <f>0.6-0.15</f>
-        <v>0.44999999999999996</v>
+        <v>0.9</v>
       </c>
       <c r="E149" s="54">
         <v>7.4999999999999997E-2</v>
@@ -12926,61 +13022,71 @@
         <v>0.125</v>
       </c>
       <c r="G149" s="54">
-        <f t="shared" si="14"/>
-        <v>2.5312499999999998E-2</v>
+        <f t="shared" si="15"/>
+        <v>5.0625000000000003E-2</v>
       </c>
       <c r="H149" s="57"/>
       <c r="I149" s="57"/>
       <c r="J149" s="40"/>
       <c r="K149" s="5"/>
     </row>
-    <row r="150" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150" s="43"/>
-      <c r="B150" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C150" s="53"/>
-      <c r="D150" s="54"/>
-      <c r="E150" s="54"/>
-      <c r="F150" s="54"/>
-      <c r="G150" s="55">
-        <f>SUM(G146:G149)</f>
-        <v>0.1616545070100579</v>
-      </c>
-      <c r="H150" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="I150" s="60">
-        <f>353723.98/1.15</f>
-        <v>307586.06956521742</v>
-      </c>
-      <c r="J150" s="61">
-        <f>G150*I150</f>
-        <v>49722.674438726594</v>
-      </c>
+      <c r="B150" s="56"/>
+      <c r="C150" s="53">
+        <f>3*2</f>
+        <v>6</v>
+      </c>
+      <c r="D150" s="54">
+        <f>0.6-0.15</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="E150" s="54">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="F150" s="54">
+        <v>0.125</v>
+      </c>
+      <c r="G150" s="54">
+        <f t="shared" si="15"/>
+        <v>2.5312499999999998E-2</v>
+      </c>
+      <c r="H150" s="57"/>
+      <c r="I150" s="57"/>
+      <c r="J150" s="40"/>
       <c r="K150" s="5"/>
     </row>
     <row r="151" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="43"/>
       <c r="B151" s="56" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C151" s="53"/>
       <c r="D151" s="54"/>
       <c r="E151" s="54"/>
       <c r="F151" s="54"/>
-      <c r="G151" s="55"/>
-      <c r="H151" s="55"/>
-      <c r="I151" s="60"/>
+      <c r="G151" s="55">
+        <f>SUM(G147:G150)</f>
+        <v>0.1616545070100579</v>
+      </c>
+      <c r="H151" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="I151" s="60">
+        <f>353723.98/1.15</f>
+        <v>307586.06956521742</v>
+      </c>
       <c r="J151" s="61">
-        <f>0.13*G150*262808.07</f>
-        <v>5522.9341692349226</v>
+        <f>G151*I151</f>
+        <v>49722.674438726594</v>
       </c>
       <c r="K151" s="5"/>
     </row>
     <row r="152" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="43"/>
-      <c r="B152" s="56"/>
+      <c r="B152" s="56" t="s">
+        <v>52</v>
+      </c>
       <c r="C152" s="53"/>
       <c r="D152" s="54"/>
       <c r="E152" s="54"/>
@@ -12988,118 +13094,116 @@
       <c r="G152" s="55"/>
       <c r="H152" s="55"/>
       <c r="I152" s="60"/>
-      <c r="J152" s="61"/>
+      <c r="J152" s="61">
+        <f>0.13*G151*262808.07</f>
+        <v>5522.9341692349226</v>
+      </c>
       <c r="K152" s="5"/>
     </row>
-    <row r="153" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="A153" s="43">
-        <v>23</v>
-      </c>
-      <c r="B153" s="52" t="s">
-        <v>75</v>
-      </c>
+    <row r="153" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="43"/>
+      <c r="B153" s="56"/>
       <c r="C153" s="53"/>
       <c r="D153" s="54"/>
       <c r="E153" s="54"/>
       <c r="F153" s="54"/>
-      <c r="G153" s="57"/>
-      <c r="H153" s="57"/>
-      <c r="I153" s="57"/>
-      <c r="J153" s="40"/>
+      <c r="G153" s="55"/>
+      <c r="H153" s="55"/>
+      <c r="I153" s="60"/>
+      <c r="J153" s="61"/>
       <c r="K153" s="5"/>
-      <c r="M153" s="63"/>
-    </row>
-    <row r="154" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="43"/>
-      <c r="B154" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="C154" s="53">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="154" spans="1:13" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A154" s="43">
+        <v>23</v>
+      </c>
+      <c r="B154" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="C154" s="53"/>
       <c r="D154" s="54"/>
-      <c r="E154" s="54">
-        <f>3/3.281</f>
-        <v>0.91435537945748246</v>
-      </c>
-      <c r="F154" s="54">
-        <f>5.667/3.281</f>
-        <v>1.7272173117951843</v>
-      </c>
-      <c r="G154" s="54">
-        <f>PRODUCT(C154:F154)</f>
-        <v>1.5792904405320185</v>
-      </c>
+      <c r="E154" s="54"/>
+      <c r="F154" s="54"/>
+      <c r="G154" s="57"/>
       <c r="H154" s="57"/>
       <c r="I154" s="57"/>
       <c r="J154" s="40"/>
       <c r="K154" s="5"/>
+      <c r="M154" s="63"/>
     </row>
     <row r="155" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="43"/>
       <c r="B155" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C155" s="53"/>
+        <v>70</v>
+      </c>
+      <c r="C155" s="53">
+        <v>1</v>
+      </c>
       <c r="D155" s="54"/>
-      <c r="E155" s="54"/>
-      <c r="F155" s="54"/>
-      <c r="G155" s="55">
-        <f>SUM(G154:G154)</f>
+      <c r="E155" s="54">
+        <f>3/3.281</f>
+        <v>0.91435537945748246</v>
+      </c>
+      <c r="F155" s="54">
+        <f>5.667/3.281</f>
+        <v>1.7272173117951843</v>
+      </c>
+      <c r="G155" s="54">
+        <f>PRODUCT(C155:F155)</f>
         <v>1.5792904405320185</v>
       </c>
-      <c r="H155" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="I155" s="60">
-        <f>15859.11</f>
-        <v>15859.11</v>
-      </c>
-      <c r="J155" s="61">
-        <f>G155*I155</f>
-        <v>25046.140818345742</v>
-      </c>
+      <c r="H155" s="57"/>
+      <c r="I155" s="57"/>
+      <c r="J155" s="40"/>
       <c r="K155" s="5"/>
     </row>
     <row r="156" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="43"/>
       <c r="B156" s="56" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C156" s="53"/>
       <c r="D156" s="54"/>
       <c r="E156" s="54"/>
       <c r="F156" s="54"/>
-      <c r="G156" s="55"/>
-      <c r="H156" s="55"/>
-      <c r="I156" s="60"/>
+      <c r="G156" s="55">
+        <f>SUM(G155:G155)</f>
+        <v>1.5792904405320185</v>
+      </c>
+      <c r="H156" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I156" s="60">
+        <f>15859.11</f>
+        <v>15859.11</v>
+      </c>
       <c r="J156" s="61">
-        <f>0.13*G155*(20356.18/2.114)</f>
-        <v>1976.9544287452122</v>
+        <f>G156*I156</f>
+        <v>25046.140818345742</v>
       </c>
       <c r="K156" s="5"/>
     </row>
-    <row r="157" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="43"/>
-      <c r="B157" s="52"/>
+      <c r="B157" s="56" t="s">
+        <v>52</v>
+      </c>
       <c r="C157" s="53"/>
       <c r="D157" s="54"/>
       <c r="E157" s="54"/>
       <c r="F157" s="54"/>
-      <c r="G157" s="57"/>
-      <c r="H157" s="57"/>
-      <c r="I157" s="57"/>
-      <c r="J157" s="40"/>
+      <c r="G157" s="55"/>
+      <c r="H157" s="55"/>
+      <c r="I157" s="60"/>
+      <c r="J157" s="61">
+        <f>0.13*G156*(20356.18/2.114)</f>
+        <v>1976.9544287452122</v>
+      </c>
       <c r="K157" s="5"/>
-      <c r="M157" s="63"/>
-    </row>
-    <row r="158" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="43">
-        <v>24</v>
-      </c>
-      <c r="B158" s="62" t="s">
-        <v>69</v>
-      </c>
+    </row>
+    <row r="158" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A158" s="43"/>
+      <c r="B158" s="52"/>
       <c r="C158" s="53"/>
       <c r="D158" s="54"/>
       <c r="E158" s="54"/>
@@ -13109,28 +13213,20 @@
       <c r="I158" s="57"/>
       <c r="J158" s="40"/>
       <c r="K158" s="5"/>
-    </row>
-    <row r="159" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="43"/>
-      <c r="B159" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="C159" s="53">
-        <v>1</v>
-      </c>
+      <c r="M158" s="63"/>
+    </row>
+    <row r="159" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A159" s="43">
+        <v>24</v>
+      </c>
+      <c r="B159" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="C159" s="53"/>
       <c r="D159" s="54"/>
-      <c r="E159" s="54">
-        <f>3.5/3.281</f>
-        <v>1.0667479427003961</v>
-      </c>
-      <c r="F159" s="54">
-        <f>7/3.281</f>
-        <v>2.1334958854007922</v>
-      </c>
-      <c r="G159" s="54">
-        <f>PRODUCT(C159:F159)</f>
-        <v>2.2759023465110548</v>
-      </c>
+      <c r="E159" s="54"/>
+      <c r="F159" s="54"/>
+      <c r="G159" s="57"/>
       <c r="H159" s="57"/>
       <c r="I159" s="57"/>
       <c r="J159" s="40"/>
@@ -13139,49 +13235,58 @@
     <row r="160" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="43"/>
       <c r="B160" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C160" s="53">
+        <v>1</v>
+      </c>
+      <c r="D160" s="54"/>
+      <c r="E160" s="54">
+        <f>3.5/3.281</f>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="F160" s="54">
+        <f>7/3.281</f>
+        <v>2.1334958854007922</v>
+      </c>
+      <c r="G160" s="54">
+        <f>PRODUCT(C160:F160)</f>
+        <v>2.2759023465110548</v>
+      </c>
+      <c r="H160" s="57"/>
+      <c r="I160" s="57"/>
+      <c r="J160" s="40"/>
+      <c r="K160" s="5"/>
+    </row>
+    <row r="161" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="43"/>
+      <c r="B161" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C160" s="53"/>
-      <c r="D160" s="54"/>
-      <c r="E160" s="54"/>
-      <c r="F160" s="54"/>
-      <c r="G160" s="55">
-        <f>SUM(G159:G159)</f>
-        <v>2.2759023465110548</v>
-      </c>
-      <c r="H160" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="I160" s="60">
-        <f>46573/1.15</f>
-        <v>40498.260869565223</v>
-      </c>
-      <c r="J160" s="61">
-        <f>G160*I160</f>
-        <v>92170.086942660317</v>
-      </c>
-      <c r="K160" s="5"/>
-    </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161" s="43"/>
-      <c r="B161" s="62"/>
       <c r="C161" s="53"/>
       <c r="D161" s="54"/>
       <c r="E161" s="54"/>
       <c r="F161" s="54"/>
-      <c r="G161" s="57"/>
-      <c r="H161" s="57"/>
-      <c r="I161" s="57"/>
-      <c r="J161" s="40"/>
+      <c r="G161" s="55">
+        <f>SUM(G160:G160)</f>
+        <v>2.2759023465110548</v>
+      </c>
+      <c r="H161" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I161" s="60">
+        <f>46573/1.15</f>
+        <v>40498.260869565223</v>
+      </c>
+      <c r="J161" s="61">
+        <f>G161*I161</f>
+        <v>92170.086942660317</v>
+      </c>
       <c r="K161" s="5"/>
     </row>
-    <row r="162" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="43">
-        <v>25</v>
-      </c>
-      <c r="B162" s="62" t="s">
-        <v>71</v>
-      </c>
+    <row r="162" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A162" s="43"/>
+      <c r="B162" s="62"/>
       <c r="C162" s="53"/>
       <c r="D162" s="54"/>
       <c r="E162" s="54"/>
@@ -13192,27 +13297,18 @@
       <c r="J162" s="40"/>
       <c r="K162" s="5"/>
     </row>
-    <row r="163" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="43"/>
-      <c r="B163" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="C163" s="53">
-        <f>3</f>
-        <v>3</v>
-      </c>
+    <row r="163" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163" s="43">
+        <v>25</v>
+      </c>
+      <c r="B163" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C163" s="53"/>
       <c r="D163" s="54"/>
-      <c r="E163" s="54">
-        <f>(3+1.333)/3.281</f>
-        <v>1.3206339530630906</v>
-      </c>
-      <c r="F163" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="G163" s="54">
-        <f>PRODUCT(C163:F163)</f>
-        <v>0.39619018591892718</v>
-      </c>
+      <c r="E163" s="54"/>
+      <c r="F163" s="54"/>
+      <c r="G163" s="57"/>
       <c r="H163" s="57"/>
       <c r="I163" s="57"/>
       <c r="J163" s="40"/>
@@ -13221,49 +13317,58 @@
     <row r="164" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="43"/>
       <c r="B164" s="56" t="s">
+        <v>72</v>
+      </c>
+      <c r="C164" s="53">
+        <f>3</f>
+        <v>3</v>
+      </c>
+      <c r="D164" s="54"/>
+      <c r="E164" s="54">
+        <f>(3+1.333)/3.281</f>
+        <v>1.3206339530630906</v>
+      </c>
+      <c r="F164" s="54">
+        <v>0.1</v>
+      </c>
+      <c r="G164" s="54">
+        <f>PRODUCT(C164:F164)</f>
+        <v>0.39619018591892718</v>
+      </c>
+      <c r="H164" s="57"/>
+      <c r="I164" s="57"/>
+      <c r="J164" s="40"/>
+      <c r="K164" s="5"/>
+    </row>
+    <row r="165" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="43"/>
+      <c r="B165" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C164" s="53"/>
-      <c r="D164" s="54"/>
-      <c r="E164" s="54"/>
-      <c r="F164" s="54"/>
-      <c r="G164" s="55">
-        <f>SUM(G163:G163)</f>
-        <v>0.39619018591892718</v>
-      </c>
-      <c r="H164" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="I164" s="60">
-        <f>50828.44/1.15</f>
-        <v>44198.643478260878</v>
-      </c>
-      <c r="J164" s="61">
-        <f>G164*I164</f>
-        <v>17511.068777016557</v>
-      </c>
-      <c r="K164" s="5"/>
-    </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165" s="43"/>
-      <c r="B165" s="62"/>
       <c r="C165" s="53"/>
       <c r="D165" s="54"/>
       <c r="E165" s="54"/>
       <c r="F165" s="54"/>
-      <c r="G165" s="57"/>
-      <c r="H165" s="57"/>
-      <c r="I165" s="57"/>
-      <c r="J165" s="40"/>
+      <c r="G165" s="55">
+        <f>SUM(G164:G164)</f>
+        <v>0.39619018591892718</v>
+      </c>
+      <c r="H165" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I165" s="60">
+        <f>50828.44/1.15</f>
+        <v>44198.643478260878</v>
+      </c>
+      <c r="J165" s="61">
+        <f>G165*I165</f>
+        <v>17511.068777016557</v>
+      </c>
       <c r="K165" s="5"/>
     </row>
-    <row r="166" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A166" s="43">
-        <v>26</v>
-      </c>
-      <c r="B166" s="62" t="s">
-        <v>73</v>
-      </c>
+    <row r="166" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A166" s="43"/>
+      <c r="B166" s="62"/>
       <c r="C166" s="53"/>
       <c r="D166" s="54"/>
       <c r="E166" s="54"/>
@@ -13274,27 +13379,18 @@
       <c r="J166" s="40"/>
       <c r="K166" s="5"/>
     </row>
-    <row r="167" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="43"/>
-      <c r="B167" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C167" s="53">
-        <v>1</v>
-      </c>
-      <c r="D167" s="54">
-        <f>2.333/3.281</f>
-        <v>0.7110637000914356</v>
-      </c>
+    <row r="167" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A167" s="43">
+        <v>26</v>
+      </c>
+      <c r="B167" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="C167" s="53"/>
+      <c r="D167" s="54"/>
       <c r="E167" s="54"/>
-      <c r="F167" s="54">
-        <f>1.333/3.281</f>
-        <v>0.40627857360560804</v>
-      </c>
-      <c r="G167" s="54">
-        <f>PRODUCT(C167:F167)</f>
-        <v>0.28888994581587429</v>
-      </c>
+      <c r="F167" s="54"/>
+      <c r="G167" s="57"/>
       <c r="H167" s="57"/>
       <c r="I167" s="57"/>
       <c r="J167" s="40"/>
@@ -13302,23 +13398,24 @@
     </row>
     <row r="168" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="43"/>
-      <c r="B168" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="C168" s="67">
-        <v>4</v>
-      </c>
-      <c r="D168" s="68">
-        <f>0.6</f>
-        <v>0.6</v>
-      </c>
-      <c r="E168" s="68"/>
-      <c r="F168" s="68">
-        <v>0.6</v>
-      </c>
-      <c r="G168" s="68">
+      <c r="B168" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="C168" s="53">
+        <v>1</v>
+      </c>
+      <c r="D168" s="54">
+        <f>2.333/3.281</f>
+        <v>0.7110637000914356</v>
+      </c>
+      <c r="E168" s="54"/>
+      <c r="F168" s="54">
+        <f>1.333/3.281</f>
+        <v>0.40627857360560804</v>
+      </c>
+      <c r="G168" s="54">
         <f>PRODUCT(C168:F168)</f>
-        <v>1.44</v>
+        <v>0.28888994581587429</v>
       </c>
       <c r="H168" s="57"/>
       <c r="I168" s="57"/>
@@ -13327,126 +13424,125 @@
     </row>
     <row r="169" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="43"/>
-      <c r="B169" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C169" s="53"/>
-      <c r="D169" s="54"/>
-      <c r="E169" s="54"/>
-      <c r="F169" s="54"/>
-      <c r="G169" s="55">
-        <f>SUM(G167:G168)</f>
-        <v>1.7288899458158742</v>
-      </c>
-      <c r="H169" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="I169" s="60">
-        <f>69579.92/1.15</f>
-        <v>60504.278260869571</v>
-      </c>
-      <c r="J169" s="61">
-        <f>G169*I169</f>
-        <v>104605.23836406336</v>
-      </c>
+      <c r="B169" s="70" t="s">
+        <v>96</v>
+      </c>
+      <c r="C169" s="67">
+        <v>4</v>
+      </c>
+      <c r="D169" s="68">
+        <f>0.6</f>
+        <v>0.6</v>
+      </c>
+      <c r="E169" s="68"/>
+      <c r="F169" s="68">
+        <v>0.6</v>
+      </c>
+      <c r="G169" s="68">
+        <f>PRODUCT(C169:F169)</f>
+        <v>1.44</v>
+      </c>
+      <c r="H169" s="57"/>
+      <c r="I169" s="57"/>
+      <c r="J169" s="40"/>
       <c r="K169" s="5"/>
     </row>
     <row r="170" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="43"/>
       <c r="B170" s="56" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C170" s="53"/>
       <c r="D170" s="54"/>
       <c r="E170" s="54"/>
       <c r="F170" s="54"/>
-      <c r="G170" s="55"/>
-      <c r="H170" s="55"/>
-      <c r="I170" s="60"/>
+      <c r="G170" s="55">
+        <f>SUM(G168:G169)</f>
+        <v>1.7288899458158742</v>
+      </c>
+      <c r="H170" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="I170" s="60">
+        <f>69579.92/1.15</f>
+        <v>60504.278260869571</v>
+      </c>
       <c r="J170" s="61">
-        <f>0.13*G169*(9888.94/0.92)</f>
-        <v>2415.864741631452</v>
+        <f>G170*I170</f>
+        <v>104605.23836406336</v>
       </c>
       <c r="K170" s="5"/>
     </row>
     <row r="171" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="43"/>
-      <c r="B171" s="56"/>
+      <c r="B171" s="56" t="s">
+        <v>52</v>
+      </c>
       <c r="C171" s="53"/>
       <c r="D171" s="54"/>
       <c r="E171" s="54"/>
       <c r="F171" s="54"/>
-      <c r="G171" s="57"/>
-      <c r="H171" s="57"/>
-      <c r="I171" s="57"/>
-      <c r="J171" s="40"/>
+      <c r="G171" s="55"/>
+      <c r="H171" s="55"/>
+      <c r="I171" s="60"/>
+      <c r="J171" s="61">
+        <f>0.13*G170*(9888.94/0.92)</f>
+        <v>2415.864741631452</v>
+      </c>
       <c r="K171" s="5"/>
-      <c r="M171" s="63"/>
-    </row>
-    <row r="172" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="65">
-        <v>27</v>
-      </c>
-      <c r="B172" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="C172" s="67"/>
-      <c r="D172" s="68"/>
-      <c r="E172" s="68"/>
-      <c r="F172" s="68"/>
-      <c r="G172" s="68"/>
-      <c r="H172" s="68"/>
-      <c r="I172" s="68"/>
-      <c r="J172" s="69"/>
+    </row>
+    <row r="172" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="43"/>
+      <c r="B172" s="56"/>
+      <c r="C172" s="53"/>
+      <c r="D172" s="54"/>
+      <c r="E172" s="54"/>
+      <c r="F172" s="54"/>
+      <c r="G172" s="57"/>
+      <c r="H172" s="57"/>
+      <c r="I172" s="57"/>
+      <c r="J172" s="40"/>
       <c r="K172" s="5"/>
       <c r="M172" s="63"/>
     </row>
-    <row r="173" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="65"/>
-      <c r="B173" s="70" t="s">
-        <v>94</v>
-      </c>
-      <c r="C173" s="67">
-        <v>4</v>
-      </c>
-      <c r="D173" s="68">
-        <f>(14.75+5.17)/2/3.281</f>
-        <v>3.0356598597988418</v>
-      </c>
-      <c r="E173" s="68">
-        <f>5.5/3.281</f>
-        <v>1.6763181956720512</v>
-      </c>
+    <row r="173" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" s="65">
+        <v>27</v>
+      </c>
+      <c r="B173" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="C173" s="67"/>
+      <c r="D173" s="68"/>
+      <c r="E173" s="68"/>
       <c r="F173" s="68"/>
-      <c r="G173" s="68">
-        <f>PRODUCT(C173:F173)</f>
-        <v>20.354927435408264</v>
-      </c>
+      <c r="G173" s="68"/>
       <c r="H173" s="68"/>
       <c r="I173" s="68"/>
       <c r="J173" s="69"/>
       <c r="K173" s="5"/>
+      <c r="M173" s="63"/>
     </row>
     <row r="174" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="65"/>
       <c r="B174" s="70" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C174" s="67">
         <v>4</v>
       </c>
       <c r="D174" s="68">
-        <f>(10.75+1.5)/2/3.281</f>
-        <v>1.8668088997256933</v>
+        <f>(14.75+5.17)/2/3.281</f>
+        <v>3.0356598597988418</v>
       </c>
       <c r="E174" s="68">
-        <f>4.5/3.281</f>
-        <v>1.3715330691862238</v>
+        <f>5.5/3.281</f>
+        <v>1.6763181956720512</v>
       </c>
       <c r="F174" s="68"/>
       <c r="G174" s="68">
         <f>PRODUCT(C174:F174)</f>
-        <v>10.241560559299749</v>
+        <v>20.354927435408264</v>
       </c>
       <c r="H174" s="68"/>
       <c r="I174" s="68"/>
@@ -13456,68 +13552,76 @@
     <row r="175" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="65"/>
       <c r="B175" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="C175" s="67"/>
-      <c r="D175" s="68"/>
-      <c r="E175" s="68"/>
+        <v>95</v>
+      </c>
+      <c r="C175" s="67">
+        <v>4</v>
+      </c>
+      <c r="D175" s="68">
+        <f>(10.75+1.5)/2/3.281</f>
+        <v>1.8668088997256933</v>
+      </c>
+      <c r="E175" s="68">
+        <f>4.5/3.281</f>
+        <v>1.3715330691862238</v>
+      </c>
       <c r="F175" s="68"/>
-      <c r="G175" s="71">
-        <f>SUM(G173:G174)</f>
-        <v>30.596487994708014</v>
-      </c>
-      <c r="H175" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="I175" s="72">
-        <f>1132.13/1.15</f>
-        <v>984.46086956521754</v>
-      </c>
-      <c r="J175" s="73">
-        <f>G175*I175</f>
-        <v>30121.04517691199</v>
-      </c>
+      <c r="G175" s="68">
+        <f>PRODUCT(C175:F175)</f>
+        <v>10.241560559299749</v>
+      </c>
+      <c r="H175" s="68"/>
+      <c r="I175" s="68"/>
+      <c r="J175" s="69"/>
       <c r="K175" s="5"/>
     </row>
     <row r="176" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="65"/>
       <c r="B176" s="70" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C176" s="67"/>
       <c r="D176" s="68"/>
       <c r="E176" s="68"/>
       <c r="F176" s="68"/>
-      <c r="G176" s="71"/>
-      <c r="H176" s="71"/>
-      <c r="I176" s="72"/>
+      <c r="G176" s="71">
+        <f>SUM(G174:G175)</f>
+        <v>30.596487994708014</v>
+      </c>
+      <c r="H176" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="I176" s="72">
+        <f>1132.13/1.15</f>
+        <v>984.46086956521754</v>
+      </c>
       <c r="J176" s="73">
-        <f>0.13*G175*(2795.1/10)</f>
-        <v>1111.7631667221087</v>
+        <f>G176*I176</f>
+        <v>30121.04517691199</v>
       </c>
       <c r="K176" s="5"/>
     </row>
-    <row r="177" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="65"/>
-      <c r="B177" s="74"/>
+      <c r="B177" s="70" t="s">
+        <v>52</v>
+      </c>
       <c r="C177" s="67"/>
       <c r="D177" s="68"/>
       <c r="E177" s="68"/>
       <c r="F177" s="68"/>
-      <c r="G177" s="68"/>
-      <c r="H177" s="68"/>
-      <c r="I177" s="68"/>
-      <c r="J177" s="69"/>
+      <c r="G177" s="71"/>
+      <c r="H177" s="71"/>
+      <c r="I177" s="72"/>
+      <c r="J177" s="73">
+        <f>0.13*G176*(2795.1/10)</f>
+        <v>1111.7631667221087</v>
+      </c>
       <c r="K177" s="5"/>
-      <c r="M177" s="63"/>
-    </row>
-    <row r="178" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="65">
-        <v>28</v>
-      </c>
-      <c r="B178" s="75" t="s">
-        <v>97</v>
-      </c>
+    </row>
+    <row r="178" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="65"/>
+      <c r="B178" s="74"/>
       <c r="C178" s="67"/>
       <c r="D178" s="68"/>
       <c r="E178" s="68"/>
@@ -13529,56 +13633,46 @@
       <c r="K178" s="5"/>
       <c r="M178" s="63"/>
     </row>
-    <row r="179" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="65"/>
-      <c r="B179" s="70" t="str">
-        <f t="shared" ref="B179:E180" si="15">B173</f>
-        <v>-First floor inclined roof</v>
-      </c>
-      <c r="C179" s="67">
-        <f t="shared" si="15"/>
-        <v>4</v>
-      </c>
-      <c r="D179" s="68">
-        <f t="shared" si="15"/>
-        <v>3.0356598597988418</v>
-      </c>
-      <c r="E179" s="68">
-        <f t="shared" si="15"/>
-        <v>1.6763181956720512</v>
-      </c>
+    <row r="179" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="65">
+        <v>28</v>
+      </c>
+      <c r="B179" s="75" t="s">
+        <v>97</v>
+      </c>
+      <c r="C179" s="67"/>
+      <c r="D179" s="68"/>
+      <c r="E179" s="68"/>
       <c r="F179" s="68"/>
-      <c r="G179" s="68">
-        <f>PRODUCT(C179:F179)</f>
-        <v>20.354927435408264</v>
-      </c>
+      <c r="G179" s="68"/>
       <c r="H179" s="68"/>
       <c r="I179" s="68"/>
       <c r="J179" s="69"/>
       <c r="K179" s="5"/>
+      <c r="M179" s="63"/>
     </row>
     <row r="180" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="65"/>
       <c r="B180" s="70" t="str">
-        <f t="shared" si="15"/>
-        <v>-Second floor inclined roof</v>
+        <f t="shared" ref="B180:E181" si="16">B174</f>
+        <v>-First floor inclined roof</v>
       </c>
       <c r="C180" s="67">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
       <c r="D180" s="68">
-        <f t="shared" si="15"/>
-        <v>1.8668088997256933</v>
+        <f t="shared" si="16"/>
+        <v>3.0356598597988418</v>
       </c>
       <c r="E180" s="68">
-        <f t="shared" si="15"/>
-        <v>1.3715330691862238</v>
+        <f t="shared" si="16"/>
+        <v>1.6763181956720512</v>
       </c>
       <c r="F180" s="68"/>
       <c r="G180" s="68">
         <f>PRODUCT(C180:F180)</f>
-        <v>10.241560559299749</v>
+        <v>20.354927435408264</v>
       </c>
       <c r="H180" s="68"/>
       <c r="I180" s="68"/>
@@ -13587,69 +13681,79 @@
     </row>
     <row r="181" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="65"/>
-      <c r="B181" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="C181" s="67"/>
-      <c r="D181" s="68"/>
-      <c r="E181" s="68"/>
+      <c r="B181" s="70" t="str">
+        <f t="shared" si="16"/>
+        <v>-Second floor inclined roof</v>
+      </c>
+      <c r="C181" s="67">
+        <f t="shared" si="16"/>
+        <v>4</v>
+      </c>
+      <c r="D181" s="68">
+        <f t="shared" si="16"/>
+        <v>1.8668088997256933</v>
+      </c>
+      <c r="E181" s="68">
+        <f t="shared" si="16"/>
+        <v>1.3715330691862238</v>
+      </c>
       <c r="F181" s="68"/>
-      <c r="G181" s="71">
-        <f>SUM(G179:G180)</f>
-        <v>30.596487994708014</v>
-      </c>
-      <c r="H181" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="I181" s="72">
-        <f>4842.49/1.15</f>
-        <v>4210.8608695652174</v>
-      </c>
-      <c r="J181" s="73">
-        <f>G181*I181</f>
-        <v>128837.55404303792</v>
-      </c>
+      <c r="G181" s="68">
+        <f>PRODUCT(C181:F181)</f>
+        <v>10.241560559299749</v>
+      </c>
+      <c r="H181" s="68"/>
+      <c r="I181" s="68"/>
+      <c r="J181" s="69"/>
       <c r="K181" s="5"/>
     </row>
     <row r="182" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="65"/>
       <c r="B182" s="70" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C182" s="67"/>
       <c r="D182" s="68"/>
       <c r="E182" s="68"/>
       <c r="F182" s="68"/>
-      <c r="G182" s="71"/>
-      <c r="H182" s="71"/>
-      <c r="I182" s="72"/>
+      <c r="G182" s="71">
+        <f>SUM(G180:G181)</f>
+        <v>30.596487994708014</v>
+      </c>
+      <c r="H182" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="I182" s="72">
+        <f>4842.49/1.15</f>
+        <v>4210.8608695652174</v>
+      </c>
       <c r="J182" s="73">
-        <f>0.13*G181*(315405.75/100)</f>
+        <f>G182*I182</f>
+        <v>128837.55404303792</v>
+      </c>
+      <c r="K182" s="5"/>
+    </row>
+    <row r="183" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="65"/>
+      <c r="B183" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C183" s="67"/>
+      <c r="D183" s="68"/>
+      <c r="E183" s="68"/>
+      <c r="F183" s="68"/>
+      <c r="G183" s="71"/>
+      <c r="H183" s="71"/>
+      <c r="I183" s="72"/>
+      <c r="J183" s="73">
+        <f>0.13*G182*(315405.75/100)</f>
         <v>12545.400716337939</v>
       </c>
-      <c r="K182" s="5"/>
-    </row>
-    <row r="183" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="43"/>
-      <c r="B183" s="52"/>
-      <c r="C183" s="53"/>
-      <c r="D183" s="54"/>
-      <c r="E183" s="54"/>
-      <c r="F183" s="54"/>
-      <c r="G183" s="57"/>
-      <c r="H183" s="57"/>
-      <c r="I183" s="57"/>
-      <c r="J183" s="40"/>
       <c r="K183" s="5"/>
-      <c r="M183" s="63"/>
-    </row>
-    <row r="184" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A184" s="43">
-        <v>29</v>
-      </c>
-      <c r="B184" s="51" t="s">
-        <v>104</v>
-      </c>
+    </row>
+    <row r="184" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A184" s="43"/>
+      <c r="B184" s="52"/>
       <c r="C184" s="53"/>
       <c r="D184" s="54"/>
       <c r="E184" s="54"/>
@@ -13661,95 +13765,95 @@
       <c r="K184" s="5"/>
       <c r="M184" s="63"/>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A185" s="43"/>
-      <c r="B185" s="76" t="s">
-        <v>105</v>
-      </c>
-      <c r="C185" s="53">
-        <f>2*4</f>
-        <v>8</v>
-      </c>
-      <c r="D185" s="54">
-        <v>1</v>
-      </c>
+    <row r="185" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="43">
+        <v>29</v>
+      </c>
+      <c r="B185" s="51" t="s">
+        <v>104</v>
+      </c>
+      <c r="C185" s="53"/>
+      <c r="D185" s="54"/>
       <c r="E185" s="54"/>
       <c r="F185" s="54"/>
-      <c r="G185" s="68">
-        <f>PRODUCT(C185:F185)</f>
-        <v>8</v>
-      </c>
+      <c r="G185" s="57"/>
       <c r="H185" s="57"/>
       <c r="I185" s="57"/>
       <c r="J185" s="40"/>
       <c r="K185" s="5"/>
       <c r="M185" s="63"/>
     </row>
-    <row r="186" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="65"/>
-      <c r="B186" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="C186" s="67"/>
-      <c r="D186" s="68"/>
-      <c r="E186" s="68"/>
-      <c r="F186" s="68"/>
-      <c r="G186" s="71">
-        <f>SUM(G185)</f>
+    <row r="186" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A186" s="43"/>
+      <c r="B186" s="76" t="s">
+        <v>105</v>
+      </c>
+      <c r="C186" s="53">
+        <f>2*4</f>
         <v>8</v>
       </c>
-      <c r="H186" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="I186" s="72">
-        <f>294.4/1.15</f>
-        <v>256</v>
-      </c>
-      <c r="J186" s="73">
-        <f>G186*I186</f>
-        <v>2048</v>
-      </c>
+      <c r="D186" s="54">
+        <v>1</v>
+      </c>
+      <c r="E186" s="54"/>
+      <c r="F186" s="54"/>
+      <c r="G186" s="68">
+        <f>PRODUCT(C186:F186)</f>
+        <v>8</v>
+      </c>
+      <c r="H186" s="57"/>
+      <c r="I186" s="57"/>
+      <c r="J186" s="40"/>
       <c r="K186" s="5"/>
+      <c r="M186" s="63"/>
     </row>
     <row r="187" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="65"/>
       <c r="B187" s="70" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C187" s="67"/>
       <c r="D187" s="68"/>
       <c r="E187" s="68"/>
       <c r="F187" s="68"/>
-      <c r="G187" s="71"/>
-      <c r="H187" s="71"/>
-      <c r="I187" s="72"/>
+      <c r="G187" s="71">
+        <f>SUM(G186)</f>
+        <v>8</v>
+      </c>
+      <c r="H187" s="71" t="s">
+        <v>29</v>
+      </c>
+      <c r="I187" s="72">
+        <f>294.4/1.15</f>
+        <v>256</v>
+      </c>
       <c r="J187" s="73">
-        <f>0.13*J186</f>
+        <f>G187*I187</f>
+        <v>2048</v>
+      </c>
+      <c r="K187" s="5"/>
+    </row>
+    <row r="188" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="65"/>
+      <c r="B188" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C188" s="67"/>
+      <c r="D188" s="68"/>
+      <c r="E188" s="68"/>
+      <c r="F188" s="68"/>
+      <c r="G188" s="71"/>
+      <c r="H188" s="71"/>
+      <c r="I188" s="72"/>
+      <c r="J188" s="73">
+        <f>0.13*J187</f>
         <v>266.24</v>
       </c>
-      <c r="K187" s="5"/>
-    </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A188" s="43"/>
-      <c r="B188" s="51"/>
-      <c r="C188" s="53"/>
-      <c r="D188" s="54"/>
-      <c r="E188" s="54"/>
-      <c r="F188" s="54"/>
-      <c r="G188" s="57"/>
-      <c r="H188" s="57"/>
-      <c r="I188" s="57"/>
-      <c r="J188" s="40"/>
       <c r="K188" s="5"/>
-      <c r="M188" s="63"/>
-    </row>
-    <row r="189" spans="1:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="A189" s="43">
-        <v>30</v>
-      </c>
-      <c r="B189" s="51" t="s">
-        <v>106</v>
-      </c>
+    </row>
+    <row r="189" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A189" s="43"/>
+      <c r="B189" s="51"/>
       <c r="C189" s="53"/>
       <c r="D189" s="54"/>
       <c r="E189" s="54"/>
@@ -13761,24 +13865,18 @@
       <c r="K189" s="5"/>
       <c r="M189" s="63"/>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A190" s="43"/>
-      <c r="B190" s="76" t="s">
-        <v>107</v>
-      </c>
-      <c r="C190" s="53">
-        <v>4</v>
-      </c>
-      <c r="D190" s="54">
-        <f>(5.17)/3.281</f>
-        <v>1.5757391039317281</v>
-      </c>
+    <row r="190" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A190" s="43">
+        <v>30</v>
+      </c>
+      <c r="B190" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C190" s="53"/>
+      <c r="D190" s="54"/>
       <c r="E190" s="54"/>
       <c r="F190" s="54"/>
-      <c r="G190" s="68">
-        <f>PRODUCT(C190:F190)</f>
-        <v>6.3029564157269125</v>
-      </c>
+      <c r="G190" s="57"/>
       <c r="H190" s="57"/>
       <c r="I190" s="57"/>
       <c r="J190" s="40"/>
@@ -13787,19 +13885,21 @@
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A191" s="43"/>
-      <c r="B191" s="76"/>
+      <c r="B191" s="76" t="s">
+        <v>107</v>
+      </c>
       <c r="C191" s="53">
         <v>4</v>
       </c>
       <c r="D191" s="54">
-        <f>(5.5)/3.281</f>
-        <v>1.6763181956720512</v>
+        <f>(5.17)/3.281</f>
+        <v>1.5757391039317281</v>
       </c>
       <c r="E191" s="54"/>
       <c r="F191" s="54"/>
       <c r="G191" s="68">
         <f>PRODUCT(C191:F191)</f>
-        <v>6.7052727826882048</v>
+        <v>6.3029564157269125</v>
       </c>
       <c r="H191" s="57"/>
       <c r="I191" s="57"/>
@@ -13809,21 +13909,19 @@
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A192" s="43"/>
-      <c r="B192" s="76" t="s">
-        <v>108</v>
-      </c>
+      <c r="B192" s="76"/>
       <c r="C192" s="53">
         <v>4</v>
       </c>
       <c r="D192" s="54">
-        <f>4.5/3.281</f>
-        <v>1.3715330691862238</v>
+        <f>(5.5)/3.281</f>
+        <v>1.6763181956720512</v>
       </c>
       <c r="E192" s="54"/>
       <c r="F192" s="54"/>
       <c r="G192" s="68">
         <f>PRODUCT(C192:F192)</f>
-        <v>5.486132276744895</v>
+        <v>6.7052727826882048</v>
       </c>
       <c r="H192" s="57"/>
       <c r="I192" s="57"/>
@@ -13831,71 +13929,77 @@
       <c r="K192" s="5"/>
       <c r="M192" s="63"/>
     </row>
-    <row r="193" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="65"/>
-      <c r="B193" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="C193" s="67"/>
-      <c r="D193" s="68"/>
-      <c r="E193" s="68"/>
-      <c r="F193" s="68"/>
-      <c r="G193" s="71">
-        <f>SUM(G190:G192)</f>
-        <v>18.494361475160012</v>
-      </c>
-      <c r="H193" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="I193" s="72">
-        <f>2356.71/1.15</f>
-        <v>2049.3130434782611</v>
-      </c>
-      <c r="J193" s="73">
-        <f>G193*I193</f>
-        <v>37900.73620184727</v>
-      </c>
+    <row r="193" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A193" s="43"/>
+      <c r="B193" s="76" t="s">
+        <v>108</v>
+      </c>
+      <c r="C193" s="53">
+        <v>4</v>
+      </c>
+      <c r="D193" s="54">
+        <f>4.5/3.281</f>
+        <v>1.3715330691862238</v>
+      </c>
+      <c r="E193" s="54"/>
+      <c r="F193" s="54"/>
+      <c r="G193" s="68">
+        <f>PRODUCT(C193:F193)</f>
+        <v>5.486132276744895</v>
+      </c>
+      <c r="H193" s="57"/>
+      <c r="I193" s="57"/>
+      <c r="J193" s="40"/>
       <c r="K193" s="5"/>
-    </row>
-    <row r="194" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M193" s="63"/>
+    </row>
+    <row r="194" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="65"/>
       <c r="B194" s="70" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C194" s="67"/>
       <c r="D194" s="68"/>
       <c r="E194" s="68"/>
       <c r="F194" s="68"/>
-      <c r="G194" s="71"/>
-      <c r="H194" s="71"/>
-      <c r="I194" s="72"/>
+      <c r="G194" s="71">
+        <f>SUM(G191:G193)</f>
+        <v>18.494361475160012</v>
+      </c>
+      <c r="H194" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="I194" s="72">
+        <f>2356.71/1.15</f>
+        <v>2049.3130434782611</v>
+      </c>
       <c r="J194" s="73">
-        <f>0.13*G193*(184206/100)</f>
+        <f>G194*I194</f>
+        <v>37900.73620184727</v>
+      </c>
+      <c r="K194" s="5"/>
+    </row>
+    <row r="195" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="65"/>
+      <c r="B195" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C195" s="67"/>
+      <c r="D195" s="68"/>
+      <c r="E195" s="68"/>
+      <c r="F195" s="68"/>
+      <c r="G195" s="71"/>
+      <c r="H195" s="71"/>
+      <c r="I195" s="72"/>
+      <c r="J195" s="73">
+        <f>0.13*G194*(184206/100)</f>
         <v>4428.8040548613226</v>
       </c>
-      <c r="K194" s="5"/>
-    </row>
-    <row r="195" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="43"/>
-      <c r="B195" s="56"/>
-      <c r="C195" s="53"/>
-      <c r="D195" s="54"/>
-      <c r="E195" s="54"/>
-      <c r="F195" s="54"/>
-      <c r="G195" s="57"/>
-      <c r="H195" s="57"/>
-      <c r="I195" s="57"/>
-      <c r="J195" s="40"/>
       <c r="K195" s="5"/>
-      <c r="M195" s="63"/>
-    </row>
-    <row r="196" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A196" s="43">
-        <v>31</v>
-      </c>
-      <c r="B196" s="51" t="s">
-        <v>112</v>
-      </c>
+    </row>
+    <row r="196" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="43"/>
+      <c r="B196" s="56"/>
       <c r="C196" s="53"/>
       <c r="D196" s="54"/>
       <c r="E196" s="54"/>
@@ -13907,227 +14011,229 @@
       <c r="K196" s="5"/>
       <c r="M196" s="63"/>
     </row>
-    <row r="197" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A197" s="43"/>
-      <c r="B197" s="76" t="s">
-        <v>113</v>
-      </c>
-      <c r="C197" s="53">
-        <v>1</v>
-      </c>
-      <c r="D197" s="54">
-        <v>1.2</v>
-      </c>
+    <row r="197" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A197" s="43">
+        <v>31</v>
+      </c>
+      <c r="B197" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="C197" s="53"/>
+      <c r="D197" s="54"/>
       <c r="E197" s="54"/>
       <c r="F197" s="54"/>
-      <c r="G197" s="68">
-        <f>PRODUCT(C197:F197)</f>
-        <v>1.2</v>
-      </c>
+      <c r="G197" s="57"/>
       <c r="H197" s="57"/>
       <c r="I197" s="57"/>
       <c r="J197" s="40"/>
       <c r="K197" s="5"/>
       <c r="M197" s="63"/>
     </row>
-    <row r="198" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="65"/>
-      <c r="B198" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="C198" s="67"/>
-      <c r="D198" s="68"/>
-      <c r="E198" s="68"/>
-      <c r="F198" s="68"/>
-      <c r="G198" s="71">
-        <f>SUM(G197:G197)</f>
+    <row r="198" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="43"/>
+      <c r="B198" s="76" t="s">
+        <v>113</v>
+      </c>
+      <c r="C198" s="53">
+        <v>1</v>
+      </c>
+      <c r="D198" s="54">
         <v>1.2</v>
       </c>
-      <c r="H198" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="I198" s="72">
-        <f>4289.73/1.15</f>
-        <v>3730.2</v>
-      </c>
-      <c r="J198" s="73">
-        <f>G198*I198</f>
-        <v>4476.24</v>
-      </c>
+      <c r="E198" s="54"/>
+      <c r="F198" s="54"/>
+      <c r="G198" s="68">
+        <f>PRODUCT(C198:F198)</f>
+        <v>1.2</v>
+      </c>
+      <c r="H198" s="57"/>
+      <c r="I198" s="57"/>
+      <c r="J198" s="40"/>
       <c r="K198" s="5"/>
-    </row>
-    <row r="199" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M198" s="63"/>
+    </row>
+    <row r="199" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="65"/>
       <c r="B199" s="70" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C199" s="67"/>
       <c r="D199" s="68"/>
       <c r="E199" s="68"/>
       <c r="F199" s="68"/>
-      <c r="G199" s="71"/>
-      <c r="H199" s="71"/>
-      <c r="I199" s="72"/>
+      <c r="G199" s="71">
+        <f>SUM(G198:G198)</f>
+        <v>1.2</v>
+      </c>
+      <c r="H199" s="71" t="s">
+        <v>114</v>
+      </c>
+      <c r="I199" s="72">
+        <f>4289.73/1.15</f>
+        <v>3730.2</v>
+      </c>
       <c r="J199" s="73">
-        <f>0.13*G198*(7326/5)</f>
+        <f>G199*I199</f>
+        <v>4476.24</v>
+      </c>
+      <c r="K199" s="5"/>
+    </row>
+    <row r="200" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="65"/>
+      <c r="B200" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C200" s="67"/>
+      <c r="D200" s="68"/>
+      <c r="E200" s="68"/>
+      <c r="F200" s="68"/>
+      <c r="G200" s="71"/>
+      <c r="H200" s="71"/>
+      <c r="I200" s="72"/>
+      <c r="J200" s="73">
+        <f>0.13*G199*(7326/5)</f>
         <v>228.5712</v>
       </c>
-      <c r="K199" s="5"/>
-    </row>
-    <row r="200" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="43"/>
-      <c r="B200" s="45"/>
-      <c r="C200" s="46"/>
-      <c r="D200" s="14"/>
-      <c r="E200" s="14"/>
-      <c r="F200" s="14"/>
-      <c r="G200" s="47"/>
-      <c r="H200" s="47"/>
-      <c r="I200" s="47"/>
-      <c r="J200" s="40"/>
-      <c r="K200" s="16"/>
-    </row>
-    <row r="201" spans="1:19" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="43">
-        <v>32</v>
-      </c>
-      <c r="B201" s="78" t="s">
-        <v>122</v>
-      </c>
-      <c r="C201" s="77"/>
+      <c r="K200" s="5"/>
+    </row>
+    <row r="201" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="43"/>
+      <c r="B201" s="45"/>
+      <c r="C201" s="46"/>
       <c r="D201" s="14"/>
       <c r="E201" s="14"/>
       <c r="F201" s="14"/>
-      <c r="G201" s="44"/>
-      <c r="H201" s="44"/>
-      <c r="I201" s="44"/>
-      <c r="J201" s="44"/>
+      <c r="G201" s="47"/>
+      <c r="H201" s="47"/>
+      <c r="I201" s="47"/>
+      <c r="J201" s="40"/>
       <c r="K201" s="16"/>
     </row>
-    <row r="202" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="43"/>
-      <c r="B202" s="45" t="str">
-        <f>B95</f>
+    <row r="202" spans="1:13" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A202" s="43">
+        <v>32</v>
+      </c>
+      <c r="B202" s="78" t="s">
+        <v>122</v>
+      </c>
+      <c r="C202" s="77"/>
+      <c r="D202" s="14"/>
+      <c r="E202" s="14"/>
+      <c r="F202" s="14"/>
+      <c r="G202" s="44"/>
+      <c r="H202" s="44"/>
+      <c r="I202" s="44"/>
+      <c r="J202" s="44"/>
+      <c r="K202" s="16"/>
+    </row>
+    <row r="203" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="43"/>
+      <c r="B203" s="45" t="str">
+        <f>B96</f>
         <v>-inside worship area</v>
       </c>
-      <c r="C202" s="46">
-        <f>C110</f>
-        <v>2</v>
-      </c>
-      <c r="D202" s="14">
-        <f t="shared" ref="D202:D203" si="16">D110</f>
-        <v>2.4900944833892105</v>
-      </c>
-      <c r="E202" s="14"/>
-      <c r="F202" s="14">
-        <v>1.2</v>
-      </c>
-      <c r="G202" s="68">
-        <f>PRODUCT(C202:F202)</f>
-        <v>5.9762267601341046</v>
-      </c>
-      <c r="H202" s="47"/>
-      <c r="I202" s="47"/>
-      <c r="J202" s="40"/>
-      <c r="K202" s="16"/>
-    </row>
-    <row r="203" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="43"/>
-      <c r="B203" s="45"/>
       <c r="C203" s="46">
         <f>C111</f>
         <v>2</v>
       </c>
       <c r="D203" s="14">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="D203:D204" si="17">D111</f>
         <v>2.4900944833892105</v>
       </c>
       <c r="E203" s="14"/>
       <c r="F203" s="14">
-        <v>2.2000000000000002</v>
+        <v>1.2</v>
       </c>
       <c r="G203" s="68">
-        <f t="shared" ref="G203:G204" si="17">PRODUCT(C203:F203)</f>
-        <v>10.956415726912526</v>
+        <f>PRODUCT(C203:F203)</f>
+        <v>5.9762267601341046</v>
       </c>
       <c r="H203" s="47"/>
       <c r="I203" s="47"/>
       <c r="J203" s="40"/>
       <c r="K203" s="16"/>
     </row>
-    <row r="204" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="43"/>
-      <c r="B204" s="45" t="str">
-        <f>B98</f>
-        <v>-Deduction for door</v>
-      </c>
+      <c r="B204" s="45"/>
       <c r="C204" s="46">
-        <f>C98</f>
-        <v>-1</v>
+        <f>C112</f>
+        <v>2</v>
       </c>
       <c r="D204" s="14">
-        <f>D98</f>
-        <v>1.0667479427003961</v>
+        <f t="shared" si="17"/>
+        <v>2.4900944833892105</v>
       </c>
       <c r="E204" s="14"/>
       <c r="F204" s="14">
-        <v>1.2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G204" s="68">
-        <f t="shared" si="17"/>
-        <v>-1.2800975312404752</v>
+        <f t="shared" ref="G204:G205" si="18">PRODUCT(C204:F204)</f>
+        <v>10.956415726912526</v>
       </c>
       <c r="H204" s="47"/>
       <c r="I204" s="47"/>
       <c r="J204" s="40"/>
       <c r="K204" s="16"/>
     </row>
-    <row r="205" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="65"/>
-      <c r="B205" s="70" t="s">
-        <v>38</v>
-      </c>
-      <c r="C205" s="67"/>
-      <c r="D205" s="68"/>
-      <c r="E205" s="68"/>
-      <c r="F205" s="68"/>
-      <c r="G205" s="71">
-        <f>SUM(G202:G204)</f>
-        <v>15.652544955806157</v>
-      </c>
-      <c r="H205" s="71" t="s">
-        <v>41</v>
-      </c>
-      <c r="I205" s="72">
-        <v>2807.39</v>
-      </c>
-      <c r="J205" s="73">
-        <f>G205*I205</f>
-        <v>43942.798183480641</v>
-      </c>
-      <c r="K205" s="5"/>
-    </row>
-    <row r="206" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="43"/>
+      <c r="B205" s="45" t="str">
+        <f>B99</f>
+        <v>-Deduction for door</v>
+      </c>
+      <c r="C205" s="46">
+        <f>C99</f>
+        <v>-1</v>
+      </c>
+      <c r="D205" s="14">
+        <f>D99</f>
+        <v>1.0667479427003961</v>
+      </c>
+      <c r="E205" s="14"/>
+      <c r="F205" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="G205" s="68">
+        <f t="shared" si="18"/>
+        <v>-1.2800975312404752</v>
+      </c>
+      <c r="H205" s="47"/>
+      <c r="I205" s="47"/>
+      <c r="J205" s="40"/>
+      <c r="K205" s="16"/>
+    </row>
+    <row r="206" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="65"/>
       <c r="B206" s="70" t="s">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="C206" s="67"/>
       <c r="D206" s="68"/>
       <c r="E206" s="68"/>
       <c r="F206" s="68"/>
-      <c r="G206" s="71"/>
-      <c r="H206" s="71"/>
-      <c r="I206" s="72"/>
+      <c r="G206" s="71">
+        <f>SUM(G203:G205)</f>
+        <v>15.652544955806157</v>
+      </c>
+      <c r="H206" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="I206" s="72">
+        <v>2807.39</v>
+      </c>
       <c r="J206" s="73">
-        <f>0.13*G205*(8008.95/10)</f>
-        <v>1629.6858490094485</v>
+        <f>G206*I206</f>
+        <v>43942.798183480641</v>
       </c>
       <c r="K206" s="5"/>
     </row>
-    <row r="207" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="65"/>
-      <c r="B207" s="70"/>
+      <c r="B207" s="70" t="s">
+        <v>52</v>
+      </c>
       <c r="C207" s="67"/>
       <c r="D207" s="68"/>
       <c r="E207" s="68"/>
@@ -14135,225 +14241,641 @@
       <c r="G207" s="71"/>
       <c r="H207" s="71"/>
       <c r="I207" s="72"/>
-      <c r="J207" s="73"/>
+      <c r="J207" s="73">
+        <f>0.13*G206*(8008.95/10)</f>
+        <v>1629.6858490094485</v>
+      </c>
       <c r="K207" s="5"/>
     </row>
-    <row r="208" spans="1:19" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="26">
+    <row r="208" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="65"/>
+      <c r="B208" s="70"/>
+      <c r="C208" s="67"/>
+      <c r="D208" s="68"/>
+      <c r="E208" s="68"/>
+      <c r="F208" s="68"/>
+      <c r="G208" s="71"/>
+      <c r="H208" s="71"/>
+      <c r="I208" s="72"/>
+      <c r="J208" s="73"/>
+      <c r="K208" s="5"/>
+    </row>
+    <row r="209" spans="1:11" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A209" s="65">
         <v>33</v>
       </c>
-      <c r="B208" s="51" t="s">
+      <c r="B209" s="52" t="s">
+        <v>124</v>
+      </c>
+      <c r="C209" s="67"/>
+      <c r="D209" s="68"/>
+      <c r="E209" s="68"/>
+      <c r="F209" s="68"/>
+      <c r="G209" s="71"/>
+      <c r="H209" s="71"/>
+      <c r="I209" s="72"/>
+      <c r="J209" s="73"/>
+      <c r="K209" s="5"/>
+    </row>
+    <row r="210" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="65"/>
+      <c r="B210" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="C210" s="67">
+        <v>1</v>
+      </c>
+      <c r="D210" s="68">
+        <v>2.1</v>
+      </c>
+      <c r="E210" s="68"/>
+      <c r="F210" s="68">
+        <v>2.5</v>
+      </c>
+      <c r="G210" s="68">
+        <f t="shared" ref="G210" si="19">PRODUCT(C210:F210)</f>
+        <v>5.25</v>
+      </c>
+      <c r="H210" s="71"/>
+      <c r="I210" s="72"/>
+      <c r="J210" s="73"/>
+      <c r="K210" s="5"/>
+    </row>
+    <row r="211" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="65"/>
+      <c r="B211" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C211" s="67"/>
+      <c r="D211" s="68"/>
+      <c r="E211" s="68"/>
+      <c r="F211" s="68"/>
+      <c r="G211" s="71">
+        <f>SUM(G208:G210)</f>
+        <v>5.25</v>
+      </c>
+      <c r="H211" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="I211" s="72">
+        <v>4465.3999999999996</v>
+      </c>
+      <c r="J211" s="73">
+        <f>G211*I211</f>
+        <v>23443.35</v>
+      </c>
+      <c r="K211" s="5"/>
+    </row>
+    <row r="212" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="65"/>
+      <c r="B212" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C212" s="67"/>
+      <c r="D212" s="68"/>
+      <c r="E212" s="68"/>
+      <c r="F212" s="68"/>
+      <c r="G212" s="71"/>
+      <c r="H212" s="71"/>
+      <c r="I212" s="72"/>
+      <c r="J212" s="73">
+        <f>0.13*J211</f>
+        <v>3047.6354999999999</v>
+      </c>
+      <c r="K212" s="5"/>
+    </row>
+    <row r="213" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="65"/>
+      <c r="B213" s="70"/>
+      <c r="C213" s="67"/>
+      <c r="D213" s="68"/>
+      <c r="E213" s="68"/>
+      <c r="F213" s="68"/>
+      <c r="G213" s="71"/>
+      <c r="H213" s="71"/>
+      <c r="I213" s="72"/>
+      <c r="J213" s="73"/>
+      <c r="K213" s="5"/>
+    </row>
+    <row r="214" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A214" s="65">
+        <v>34</v>
+      </c>
+      <c r="B214" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="C214" s="67"/>
+      <c r="D214" s="68"/>
+      <c r="E214" s="68"/>
+      <c r="F214" s="68"/>
+      <c r="G214" s="71"/>
+      <c r="H214" s="71"/>
+      <c r="I214" s="72"/>
+      <c r="J214" s="73"/>
+      <c r="K214" s="5"/>
+    </row>
+    <row r="215" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="65"/>
+      <c r="B215" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="C215" s="67">
+        <v>1</v>
+      </c>
+      <c r="D215" s="68">
+        <v>5</v>
+      </c>
+      <c r="E215" s="68">
+        <f>(F215/2+0.45)/2</f>
+        <v>1.0550000000000002</v>
+      </c>
+      <c r="F215" s="68">
+        <f>2.72+0.6</f>
+        <v>3.3200000000000003</v>
+      </c>
+      <c r="G215" s="68">
+        <f t="shared" ref="G215" si="20">PRODUCT(C215:F215)</f>
+        <v>17.513000000000002</v>
+      </c>
+      <c r="H215" s="71"/>
+      <c r="I215" s="72"/>
+      <c r="J215" s="73"/>
+      <c r="K215" s="5"/>
+    </row>
+    <row r="216" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="65"/>
+      <c r="B216" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C216" s="67"/>
+      <c r="D216" s="68"/>
+      <c r="E216" s="68"/>
+      <c r="F216" s="68"/>
+      <c r="G216" s="71">
+        <f>SUM(G213:G215)</f>
+        <v>17.513000000000002</v>
+      </c>
+      <c r="H216" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="I216" s="72">
+        <v>9709.43</v>
+      </c>
+      <c r="J216" s="73">
+        <f>G216*I216</f>
+        <v>170041.24759000001</v>
+      </c>
+      <c r="K216" s="5"/>
+    </row>
+    <row r="217" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="65"/>
+      <c r="B217" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C217" s="67"/>
+      <c r="D217" s="68"/>
+      <c r="E217" s="68"/>
+      <c r="F217" s="68"/>
+      <c r="G217" s="71"/>
+      <c r="H217" s="71"/>
+      <c r="I217" s="72"/>
+      <c r="J217" s="73">
+        <f>0.13*G216*(27092.1/5)</f>
+        <v>12336.062629800002</v>
+      </c>
+      <c r="K217" s="5"/>
+    </row>
+    <row r="218" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A218" s="65"/>
+      <c r="B218" s="70"/>
+      <c r="C218" s="67"/>
+      <c r="D218" s="68"/>
+      <c r="E218" s="68"/>
+      <c r="F218" s="68"/>
+      <c r="G218" s="71"/>
+      <c r="H218" s="71"/>
+      <c r="I218" s="72"/>
+      <c r="J218" s="73"/>
+      <c r="K218" s="5"/>
+    </row>
+    <row r="219" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A219" s="65">
+        <v>35</v>
+      </c>
+      <c r="B219" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="C219" s="67"/>
+      <c r="D219" s="68"/>
+      <c r="E219" s="68"/>
+      <c r="F219" s="68"/>
+      <c r="G219" s="71"/>
+      <c r="H219" s="71"/>
+      <c r="I219" s="72"/>
+      <c r="J219" s="73"/>
+      <c r="K219" s="5"/>
+    </row>
+    <row r="220" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="65"/>
+      <c r="B220" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="C220" s="67">
+        <v>1</v>
+      </c>
+      <c r="D220" s="68">
+        <f>D215</f>
+        <v>5</v>
+      </c>
+      <c r="E220" s="68">
+        <f>F215/2</f>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="F220" s="68">
+        <v>0.05</v>
+      </c>
+      <c r="G220" s="68">
+        <f t="shared" ref="G220" si="21">PRODUCT(C220:F220)</f>
+        <v>0.41500000000000004</v>
+      </c>
+      <c r="H220" s="71"/>
+      <c r="I220" s="72"/>
+      <c r="J220" s="73"/>
+      <c r="K220" s="5"/>
+    </row>
+    <row r="221" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A221" s="65"/>
+      <c r="B221" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C221" s="67"/>
+      <c r="D221" s="68"/>
+      <c r="E221" s="68"/>
+      <c r="F221" s="68"/>
+      <c r="G221" s="71">
+        <f>SUM(G218:G220)</f>
+        <v>0.41500000000000004</v>
+      </c>
+      <c r="H221" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="I221" s="72">
+        <v>10634.5</v>
+      </c>
+      <c r="J221" s="73">
+        <f>G221*I221</f>
+        <v>4413.3175000000001</v>
+      </c>
+      <c r="K221" s="5"/>
+    </row>
+    <row r="222" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="65"/>
+      <c r="B222" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C222" s="67"/>
+      <c r="D222" s="68"/>
+      <c r="E222" s="68"/>
+      <c r="F222" s="68"/>
+      <c r="G222" s="71"/>
+      <c r="H222" s="71"/>
+      <c r="I222" s="72"/>
+      <c r="J222" s="73">
+        <f>0.13*G221*(114907.3+6135.3)/15</f>
+        <v>435.34988466666675</v>
+      </c>
+      <c r="K222" s="5"/>
+    </row>
+    <row r="223" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="65"/>
+      <c r="B223" s="70"/>
+      <c r="C223" s="67"/>
+      <c r="D223" s="68"/>
+      <c r="E223" s="68"/>
+      <c r="F223" s="68"/>
+      <c r="G223" s="71"/>
+      <c r="H223" s="71"/>
+      <c r="I223" s="72"/>
+      <c r="J223" s="73"/>
+      <c r="K223" s="5"/>
+    </row>
+    <row r="224" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A224" s="65">
+        <v>36</v>
+      </c>
+      <c r="B224" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="C224" s="67"/>
+      <c r="D224" s="68"/>
+      <c r="E224" s="68"/>
+      <c r="F224" s="68"/>
+      <c r="G224" s="71"/>
+      <c r="H224" s="71"/>
+      <c r="I224" s="72"/>
+      <c r="J224" s="73"/>
+      <c r="K224" s="5"/>
+    </row>
+    <row r="225" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="65"/>
+      <c r="B225" s="70" t="s">
+        <v>125</v>
+      </c>
+      <c r="C225" s="67">
+        <v>1</v>
+      </c>
+      <c r="D225" s="68">
+        <f>D215</f>
+        <v>5</v>
+      </c>
+      <c r="E225" s="68">
+        <f>E220</f>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="F225" s="68">
+        <v>0.15</v>
+      </c>
+      <c r="G225" s="68">
+        <f t="shared" ref="G225" si="22">PRODUCT(C225:F225)</f>
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="H225" s="71"/>
+      <c r="I225" s="72"/>
+      <c r="J225" s="73"/>
+      <c r="K225" s="5"/>
+    </row>
+    <row r="226" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="65"/>
+      <c r="B226" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C226" s="67"/>
+      <c r="D226" s="68"/>
+      <c r="E226" s="68"/>
+      <c r="F226" s="68"/>
+      <c r="G226" s="71">
+        <f>SUM(G223:G225)</f>
+        <v>1.2450000000000001</v>
+      </c>
+      <c r="H226" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="I226" s="72">
+        <v>4434.5200000000004</v>
+      </c>
+      <c r="J226" s="73">
+        <f>G226*I226</f>
+        <v>5520.9774000000007</v>
+      </c>
+      <c r="K226" s="5"/>
+    </row>
+    <row r="227" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="65"/>
+      <c r="B227" s="70" t="s">
+        <v>52</v>
+      </c>
+      <c r="C227" s="67"/>
+      <c r="D227" s="68"/>
+      <c r="E227" s="68"/>
+      <c r="F227" s="68"/>
+      <c r="G227" s="71"/>
+      <c r="H227" s="71"/>
+      <c r="I227" s="72"/>
+      <c r="J227" s="73">
+        <f>0.13*G226*(14817.6/5)</f>
+        <v>479.64571200000006</v>
+      </c>
+      <c r="K227" s="5"/>
+    </row>
+    <row r="228" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="65"/>
+      <c r="B228" s="70"/>
+      <c r="C228" s="67"/>
+      <c r="D228" s="68"/>
+      <c r="E228" s="68"/>
+      <c r="F228" s="68"/>
+      <c r="G228" s="71"/>
+      <c r="H228" s="71"/>
+      <c r="I228" s="72"/>
+      <c r="J228" s="73"/>
+      <c r="K228" s="5"/>
+    </row>
+    <row r="229" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229" s="26">
+        <v>37</v>
+      </c>
+      <c r="B229" s="51" t="s">
         <v>123</v>
       </c>
-      <c r="C208" s="27">
+      <c r="C229" s="27">
         <v>1</v>
       </c>
-      <c r="D208" s="28"/>
-      <c r="E208" s="28"/>
-      <c r="F208" s="29"/>
-      <c r="G208" s="14">
-        <f>PRODUCT(C208:F208)</f>
+      <c r="D229" s="28"/>
+      <c r="E229" s="28"/>
+      <c r="F229" s="29"/>
+      <c r="G229" s="14">
+        <f>PRODUCT(C229:F229)</f>
         <v>1</v>
       </c>
-      <c r="H208" s="38" t="s">
+      <c r="H229" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="I208" s="39">
-        <v>110000</v>
-      </c>
-      <c r="J208" s="40">
-        <f>G208*I208</f>
-        <v>110000</v>
-      </c>
-      <c r="K208" s="29"/>
-      <c r="M208" s="31"/>
-      <c r="N208" s="1"/>
-      <c r="O208" s="1"/>
-      <c r="P208" s="1"/>
-      <c r="Q208" s="1"/>
-      <c r="R208" s="31"/>
-      <c r="S208" s="31"/>
-    </row>
-    <row r="209" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="43"/>
-      <c r="B209" s="45"/>
-      <c r="C209" s="46"/>
-      <c r="D209" s="14"/>
-      <c r="E209" s="14"/>
-      <c r="F209" s="14"/>
-      <c r="G209" s="47"/>
-      <c r="H209" s="47"/>
-      <c r="I209" s="47"/>
-      <c r="J209" s="40"/>
-      <c r="K209" s="16"/>
-    </row>
-    <row r="210" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A210" s="26">
+      <c r="I229" s="39">
+        <v>50000</v>
+      </c>
+      <c r="J229" s="40">
+        <f>G229*I229</f>
+        <v>50000</v>
+      </c>
+      <c r="K229" s="29"/>
+      <c r="M229" s="31"/>
+      <c r="N229" s="1"/>
+      <c r="O229" s="1"/>
+      <c r="P229" s="1"/>
+      <c r="Q229" s="1"/>
+      <c r="R229" s="31"/>
+      <c r="S229" s="31"/>
+    </row>
+    <row r="230" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A230" s="43"/>
+      <c r="B230" s="45"/>
+      <c r="C230" s="46"/>
+      <c r="D230" s="14"/>
+      <c r="E230" s="14"/>
+      <c r="F230" s="14"/>
+      <c r="G230" s="47"/>
+      <c r="H230" s="47"/>
+      <c r="I230" s="47"/>
+      <c r="J230" s="40"/>
+      <c r="K230" s="16"/>
+    </row>
+    <row r="231" spans="1:20" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A231" s="26">
+        <v>38</v>
+      </c>
+      <c r="B231" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C231" s="27">
+        <v>1</v>
+      </c>
+      <c r="D231" s="28"/>
+      <c r="E231" s="29"/>
+      <c r="F231" s="29"/>
+      <c r="G231" s="44">
+        <f t="shared" ref="G231" si="23">PRODUCT(C231:F231)</f>
+        <v>1</v>
+      </c>
+      <c r="H231" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I231" s="39">
+        <v>500</v>
+      </c>
+      <c r="J231" s="44">
+        <f>G231*I231</f>
+        <v>500</v>
+      </c>
+      <c r="K231" s="29"/>
+      <c r="M231" s="31"/>
+      <c r="N231" s="18"/>
+      <c r="O231" s="18"/>
+      <c r="P231" s="18"/>
+      <c r="Q231" s="18"/>
+      <c r="R231" s="18"/>
+      <c r="S231" s="18"/>
+      <c r="T231" s="18"/>
+    </row>
+    <row r="232" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="43"/>
+      <c r="B232" s="45"/>
+      <c r="C232" s="46"/>
+      <c r="D232" s="14"/>
+      <c r="E232" s="14"/>
+      <c r="F232" s="14"/>
+      <c r="G232" s="47"/>
+      <c r="H232" s="47"/>
+      <c r="I232" s="47"/>
+      <c r="J232" s="40"/>
+      <c r="K232" s="16"/>
+    </row>
+    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A233" s="43"/>
+      <c r="B233" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C233" s="46"/>
+      <c r="D233" s="14"/>
+      <c r="E233" s="14"/>
+      <c r="F233" s="14"/>
+      <c r="G233" s="44"/>
+      <c r="H233" s="44"/>
+      <c r="I233" s="44"/>
+      <c r="J233" s="44">
+        <f>SUM(J10:J231)</f>
+        <v>1167390.8565538933</v>
+      </c>
+      <c r="K233" s="16"/>
+    </row>
+    <row r="235" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B235" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C235" s="93">
+        <f>J233</f>
+        <v>1167390.8565538933</v>
+      </c>
+      <c r="D235" s="94"/>
+      <c r="E235" s="14">
+        <v>100</v>
+      </c>
+      <c r="F235" s="18"/>
+      <c r="G235" s="19"/>
+      <c r="H235" s="18"/>
+      <c r="I235" s="20"/>
+      <c r="J235" s="21"/>
+      <c r="K235" s="22"/>
+    </row>
+    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B236" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C236" s="100">
+        <v>1000000</v>
+      </c>
+      <c r="D236" s="101"/>
+      <c r="E236" s="14"/>
+    </row>
+    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B237" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C237" s="100">
+        <f>C236-C239-C240</f>
+        <v>950000</v>
+      </c>
+      <c r="D237" s="101"/>
+      <c r="E237" s="14">
+        <f>C237/C235*100</f>
+        <v>81.37805728617532</v>
+      </c>
+    </row>
+    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B238" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C238" s="92">
+        <f>C235-C237</f>
+        <v>217390.8565538933</v>
+      </c>
+      <c r="D238" s="92"/>
+      <c r="E238" s="14">
+        <f>100-E237</f>
+        <v>18.62194271382468</v>
+      </c>
+    </row>
+    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B239" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C239" s="93">
+        <f>C236*0.03</f>
+        <v>30000</v>
+      </c>
+      <c r="D239" s="94"/>
+      <c r="E239" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B240" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B210" s="41" t="s">
-        <v>28</v>
-      </c>
-      <c r="C210" s="27">
-        <v>1</v>
-      </c>
-      <c r="D210" s="28"/>
-      <c r="E210" s="29"/>
-      <c r="F210" s="29"/>
-      <c r="G210" s="44">
-        <f t="shared" ref="G210" si="18">PRODUCT(C210:F210)</f>
-        <v>1</v>
-      </c>
-      <c r="H210" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="I210" s="39">
-        <v>500</v>
-      </c>
-      <c r="J210" s="44">
-        <f>G210*I210</f>
-        <v>500</v>
-      </c>
-      <c r="K210" s="29"/>
-      <c r="M210" s="31"/>
-      <c r="N210" s="18"/>
-      <c r="O210" s="18"/>
-      <c r="P210" s="18"/>
-      <c r="Q210" s="18"/>
-      <c r="R210" s="18"/>
-      <c r="S210" s="18"/>
-      <c r="T210" s="18"/>
-    </row>
-    <row r="211" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="43"/>
-      <c r="B211" s="45"/>
-      <c r="C211" s="46"/>
-      <c r="D211" s="14"/>
-      <c r="E211" s="14"/>
-      <c r="F211" s="14"/>
-      <c r="G211" s="47"/>
-      <c r="H211" s="47"/>
-      <c r="I211" s="47"/>
-      <c r="J211" s="40"/>
-      <c r="K211" s="16"/>
-    </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A212" s="43"/>
-      <c r="B212" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="C212" s="46"/>
-      <c r="D212" s="14"/>
-      <c r="E212" s="14"/>
-      <c r="F212" s="14"/>
-      <c r="G212" s="44"/>
-      <c r="H212" s="44"/>
-      <c r="I212" s="44"/>
-      <c r="J212" s="44">
-        <f>SUM(J10:J210)</f>
-        <v>1007333.3794049266</v>
-      </c>
-      <c r="K212" s="16"/>
-    </row>
-    <row r="214" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C214" s="93">
-        <f>J212</f>
-        <v>1007333.3794049266</v>
-      </c>
-      <c r="D214" s="94"/>
-      <c r="E214" s="14">
-        <v>100</v>
-      </c>
-      <c r="F214" s="18"/>
-      <c r="G214" s="19"/>
-      <c r="H214" s="18"/>
-      <c r="I214" s="20"/>
-      <c r="J214" s="21"/>
-      <c r="K214" s="22"/>
-    </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B215" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C215" s="100">
-        <v>900000</v>
-      </c>
-      <c r="D215" s="101"/>
-      <c r="E215" s="14"/>
-    </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B216" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C216" s="100">
-        <f>C215-C218-C219</f>
-        <v>855000</v>
-      </c>
-      <c r="D216" s="101"/>
-      <c r="E216" s="14">
-        <f>C216/C214*100</f>
-        <v>84.877560644826815</v>
-      </c>
-    </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B217" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C217" s="92">
-        <f>C214-C216</f>
-        <v>152333.37940492656</v>
-      </c>
-      <c r="D217" s="92"/>
-      <c r="E217" s="14">
-        <f>100-E216</f>
-        <v>15.122439355173185</v>
-      </c>
-    </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B218" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C218" s="93">
-        <f>C215*0.03</f>
-        <v>27000</v>
-      </c>
-      <c r="D218" s="94"/>
-      <c r="E218" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B219" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C219" s="93">
-        <f>C215*0.02</f>
-        <v>18000</v>
-      </c>
-      <c r="D219" s="94"/>
-      <c r="E219" s="14">
+      <c r="C240" s="93">
+        <f>C236*0.02</f>
+        <v>20000</v>
+      </c>
+      <c r="D240" s="94"/>
+      <c r="E240" s="14">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C239:D239"/>
+    <mergeCell ref="C240:D240"/>
+    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C235:D235"/>
+    <mergeCell ref="C236:D236"/>
+    <mergeCell ref="C237:D237"/>
+    <mergeCell ref="C238:D238"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:K2"/>
     <mergeCell ref="A3:K3"/>
     <mergeCell ref="A4:K4"/>
     <mergeCell ref="A5:K5"/>
-    <mergeCell ref="C218:D218"/>
-    <mergeCell ref="C219:D219"/>
-    <mergeCell ref="A7:F7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C214:D214"/>
-    <mergeCell ref="C215:D215"/>
-    <mergeCell ref="C216:D216"/>
-    <mergeCell ref="C217:D217"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
